--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22900F3-2435-47BA-8573-9719CE08EBAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAD2722-7232-4664-B69C-F8BFE78D1700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>timestamp</t>
   </si>
@@ -68,14 +68,17 @@
     <t>Time column is currently supported for ENG (FIN/UK), SWE (FIN) and FIN until end of 2020</t>
   </si>
   <si>
-    <t>[{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20 September 2020, 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19 September 2020, 10.50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="},{"timestamp":"18 September 2020, 10.37","keyCount":82,"matchesCount":0,"appName":"Koronavilkku","hash":"LxnzOI42gpmBHhNssMRQgJbJyyVz6j95FgbhcEhslFE="},{"timestamp":"17 September 2020, 10.36","keyCount":137,"matchesCount":0,"appName":"Koronavilkku","hash":"nPOu6VJOVmdCS0JgyedgK1KtW4rxnqzJUGhlNwGuOV4="},{"timestamp":"16 September 2020, 10.32","keyCount":125,"matchesCount":0,"appName":"Koronavilkku","hash":"L5x\/yuwZx1S3i2n0\/9FRe4HclDlgucBDfy5Or56ZchQ="},{"timestamp":"15 September 2020, 10.28","keyCount":136,"matchesCount":0,"appName":"Koronavilkku","hash":"op7f5yD\/eSrwkpUHdNNBhVmT48knZIc26Jzt8vGL3JA="},{"timestamp":"14 September 2020, 10.26","keyCount":67,"matchesCount":0,"appName":"Koronavilkku","hash":"vIEKsogtvkNLwDVfjkgES\/2vVVF0c16tzUm34F9Dse4="},{"timestamp":"13 September 2020, 10.22","keyCount":87,"matchesCount":0,"appName":"Koronavilkku","hash":"361cWfGKKo4KQRNrZy3CtjvAmySVn72Z3X1Sx903ClE="}]</t>
+    <t>[{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20 September 2020, 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19 September 2020, 10.50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="},{"timestamp":"18 September 2020, 10.37","keyCount":82,"matchesCount":0,"appName":"Koronavilkku","hash":"LxnzOI42gpmBHhNssMRQgJbJyyVz6j95FgbhcEhslFE="},{"timestamp":"17 September 2020, 10.36","keyCount":137,"matchesCount":0,"appName":"Koronavilkku","hash":"nPOu6VJOVmdCS0JgyedgK1KtW4rxnqzJUGhlNwGuOV4="},{"timestamp":"16 September 2020, 10.32","keyCount":125,"matchesCount":0,"appName":"Koronavilkku","hash":"L5x\/yuwZx1S3i2n0\/9FRe4HclDlgucBDfy5Or56ZchQ="},{"timestamp":"15 September 2020, 10.28","keyCount":136,"matchesCount":0,"appName":"Koronavilkku","hash":"op7f5yD\/eSrwkpUHdNNBhVmT48knZIc26Jzt8vGL3JA="}]</t>
+  </si>
+  <si>
+    <t>https://twitter.com/msrjksk/status/1310587581105659905</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +93,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="System-ui"/>
     </font>
   </fonts>
   <fills count="4">
@@ -121,11 +136,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -134,10 +150,13 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -333,46 +352,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>1 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>30 September</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>29 September</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>28 September</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>27 September</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>26 September</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>25 September</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>24 September</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>23 September</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>22 September</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>21 September</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>20 September</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>19 September</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>18 September</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17 September</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -384,46 +403,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -728,13 +747,10 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-2DEB-4C7E-94AD-1527001EEEF8}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -947,88 +963,88 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44077</c:v>
@@ -1064,88 +1080,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6</c:v>
@@ -2481,15 +2497,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>348342</xdr:colOff>
+      <xdr:colOff>364670</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>81644</xdr:rowOff>
+      <xdr:rowOff>92531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>65314</xdr:colOff>
+      <xdr:colOff>81642</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>87087</xdr:rowOff>
+      <xdr:rowOff>97974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2816,34 +2832,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E4FBF2-530B-45FC-AB24-E83337470135}">
   <dimension ref="A2:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
     <col min="2" max="2" width="24.53515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.3828125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -2860,18 +2874,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>30 September</v>
+        <v>1 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -2883,37 +2897,37 @@
       </c>
       <c r="H9">
         <f t="shared" ref="H9:H22" si="3">FIND("2020",Json,G9)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I22" si="4">FIND("keyCount",Json,H9)</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J22" si="5">FIND(",""",Json,I9)</f>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K22" si="6">FIND("matchesCount",Json,J9)</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L22" si="7">FIND(",""",Json,K9)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>29 September</v>
+        <v>30 September</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -2921,41 +2935,41 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>28 September</v>
+        <v>29 September</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -2963,41 +2977,41 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>27 September</v>
+        <v>28 September</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3005,41 +3019,41 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26 September</v>
+        <v>27 September</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3047,125 +3061,125 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>678</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25 September</v>
+        <v>26 September</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>829</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24 September</v>
+        <v>25 September</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>980</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23 September</v>
+        <v>24 September</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3173,41 +3187,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22 September</v>
+        <v>23 September</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3215,41 +3229,41 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21 September</v>
+        <v>22 September</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3257,41 +3271,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20 September</v>
+        <v>21 September</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3299,41 +3313,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19 September</v>
+        <v>20 September</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3341,41 +3355,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18 September</v>
+        <v>19 September</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3383,41 +3397,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1821</v>
+        <v>1816</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1846</v>
+        <v>1841</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1860</v>
+        <v>1855</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17 September</v>
+        <v>18 September</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3425,30 +3439,30 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -3460,7 +3474,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12">
       <c r="C24" s="5">
         <v>44093</v>
       </c>
@@ -3469,7 +3483,10 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12">
+      <c r="A25" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="C25" s="5">
         <v>44092</v>
       </c>
@@ -3478,7 +3495,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12">
       <c r="C26" s="5">
         <v>44091</v>
       </c>
@@ -3487,7 +3504,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12">
       <c r="C27" s="5">
         <v>44090</v>
       </c>
@@ -3496,7 +3513,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12">
       <c r="C28" s="5">
         <v>44089</v>
       </c>
@@ -3505,7 +3522,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12">
       <c r="C29" s="5">
         <v>44088</v>
       </c>
@@ -3514,7 +3531,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12">
       <c r="C30" s="5">
         <v>44087</v>
       </c>
@@ -3523,7 +3540,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12">
       <c r="C31" s="5">
         <v>44086</v>
       </c>
@@ -3532,7 +3549,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12">
       <c r="C32" s="5">
         <v>44085</v>
       </c>
@@ -3541,7 +3558,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7">
       <c r="C33" s="5">
         <v>44084</v>
       </c>
@@ -3550,7 +3567,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7">
       <c r="C34" s="5">
         <v>44083</v>
       </c>
@@ -3559,7 +3576,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7">
       <c r="C35" s="5">
         <v>44082</v>
       </c>
@@ -3568,9 +3585,9 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7">
       <c r="A36" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C36" s="5">
         <v>44081</v>
@@ -3580,7 +3597,7 @@
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7">
       <c r="C37" s="5">
         <v>44080</v>
       </c>
@@ -3589,7 +3606,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7">
       <c r="C38" s="5">
         <v>44079</v>
       </c>
@@ -3598,7 +3615,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7">
       <c r="C39" s="5">
         <v>44078</v>
       </c>
@@ -3607,7 +3624,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7">
       <c r="C40" s="5">
         <v>44077</v>
       </c>
@@ -3616,18 +3633,24 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7">
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7">
+      <c r="F43" s="8" t="str">
+        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;C45&amp;" edelliset 7 päivää "&amp;F45&amp;", "&amp;F52&amp;", "&amp;F59&amp;" https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksest "</f>
+        <v xml:space="preserve">Uusien #koronavilkku päiväavaimien lukumäärä 203 edelliset 7 päivää 1558, 1342, 668 https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksest </v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="B44" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44105.64917986111</v>
+        <v>44106.397636805559</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -3636,401 +3659,421 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7">
       <c r="B45" s="3">
         <f t="shared" ref="B45:B66" ca="1" si="10">_xlfn.MAXIFS(time,time,"&lt;"&amp;B44)</f>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C45">
         <f t="shared" ref="C45:C80" ca="1" si="11">VLOOKUP(B45,data,2,FALSE)</f>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D45">
         <f t="shared" ref="D45:D57" ca="1" si="12">VLOOKUP(B45,data,3,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F45">
+        <f ca="1">SUM(C45:C51)</f>
+        <v>1558</v>
+      </c>
+      <c r="G45" s="9">
+        <f ca="1">F45/F52-1</f>
+        <v>0.16095380029806261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="B46" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="11"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7">
       <c r="B47" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="11"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7">
       <c r="B48" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="11"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7">
       <c r="B49" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="11"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7">
       <c r="B50" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="11"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="11"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="11"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F52">
+        <f ca="1">SUM(C52:C58)</f>
+        <v>1342</v>
+      </c>
+      <c r="G52" s="9">
+        <f ca="1">F52/F59-1</f>
+        <v>1.0089820359281436</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="11"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7">
       <c r="B54" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="11"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:7">
       <c r="B55" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="11"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7">
       <c r="B56" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="11"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7">
       <c r="B57" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="11"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7">
       <c r="B58" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="11"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D58">
         <f t="shared" ref="D58" ca="1" si="13">VLOOKUP(B58,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7">
       <c r="B59" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="11"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D59">
         <f t="shared" ref="D59:D65" ca="1" si="14">VLOOKUP(B59,data,3,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F59">
+        <f ca="1">SUM(C59:C65)</f>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
       <c r="B60" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="11"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7">
       <c r="B61" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:7">
       <c r="B62" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="11"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7">
       <c r="B63" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7">
       <c r="B64" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4">
       <c r="B65" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="11"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4">
       <c r="B66" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="11"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D66">
         <f t="shared" ref="D66:D80" ca="1" si="15">VLOOKUP(B66,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4">
       <c r="B67" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B66),1.8202)</f>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4">
       <c r="B68" s="3">
         <f t="shared" ref="B68:B80" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B67),44077)</f>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4">
       <c r="B70" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4">
       <c r="A71" s="7"/>
       <c r="B71" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4">
       <c r="A72" s="3"/>
       <c r="B72" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4">
       <c r="B73" s="3">
         <f t="shared" ca="1" si="16"/>
         <v>44077</v>
@@ -4044,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4">
       <c r="B74" s="3">
         <f t="shared" ca="1" si="16"/>
         <v>44077</v>
@@ -4058,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4">
       <c r="B75" s="3">
         <f t="shared" ca="1" si="16"/>
         <v>44077</v>
@@ -4072,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="16"/>
         <v>44077</v>
@@ -4086,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="16"/>
         <v>44077</v>
@@ -4100,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="16"/>
         <v>44077</v>
@@ -4114,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="16"/>
         <v>44077</v>
@@ -4128,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="16"/>
         <v>44077</v>
@@ -4147,10 +4190,11 @@
     <sortCondition descending="1" ref="C23:C35"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A36" r:id="rId1" location="Koronavilkkua" display="https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin - Koronavilkkua" xr:uid="{F06E6CD0-5429-431D-B74B-547C41718C4B}"/>
+    <hyperlink ref="A25" r:id="rId1" location="Koronavilkkua" display="https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin - Koronavilkkua" xr:uid="{F06E6CD0-5429-431D-B74B-547C41718C4B}"/>
+    <hyperlink ref="A36" r:id="rId2" xr:uid="{517C9E3A-E5DB-4E26-91C6-74B95F09EC29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAD2722-7232-4664-B69C-F8BFE78D1700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44243C7-BE49-4B2C-BD37-2F34EE2CE487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>timestamp</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>https://twitter.com/msrjksk/status/1310587581105659905</t>
+  </si>
+  <si>
+    <t>Parsing A4 based on timestamp, text 2020, keyCount, matchesCount</t>
   </si>
 </sst>
 </file>
@@ -751,6 +754,9 @@
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-1A9E-46C4-B0F2-40E24F3EA903}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2461,15 +2467,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>92527</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
+      <xdr:colOff>250370</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>92527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>141512</xdr:rowOff>
+      <xdr:colOff>348342</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>146955</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2845,6 +2851,10 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="2">
+        <f>SUM(E9:E22)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
@@ -2855,6 +2865,11 @@
     <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="G7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3643,14 +3658,14 @@
     </row>
     <row r="43" spans="1:7">
       <c r="F43" s="8" t="str">
-        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;C45&amp;" edelliset 7 päivää "&amp;F45&amp;", "&amp;F52&amp;", "&amp;F59&amp;" https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksest "</f>
-        <v xml:space="preserve">Uusien #koronavilkku päiväavaimien lukumäärä 203 edelliset 7 päivää 1558, 1342, 668 https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksest </v>
+        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;C45&amp;" edelliset 7 päivää "&amp;F45&amp;", "&amp;F52&amp;", "&amp;F59&amp;" https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta"</f>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 203 edelliset 7 päivää 1558, 1342, 668 https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="B44" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44106.397636805559</v>
+        <v>44106.423130902775</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44243C7-BE49-4B2C-BD37-2F34EE2CE487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B9FEC53-A089-408F-86FA-11B47AD754B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="time">Android!$C$9:$C$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,13 +69,13 @@
     <t>Time column is currently supported for ENG (FIN/UK), SWE (FIN) and FIN until end of 2020</t>
   </si>
   <si>
-    <t>[{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20 September 2020, 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19 September 2020, 10.50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="},{"timestamp":"18 September 2020, 10.37","keyCount":82,"matchesCount":0,"appName":"Koronavilkku","hash":"LxnzOI42gpmBHhNssMRQgJbJyyVz6j95FgbhcEhslFE="},{"timestamp":"17 September 2020, 10.36","keyCount":137,"matchesCount":0,"appName":"Koronavilkku","hash":"nPOu6VJOVmdCS0JgyedgK1KtW4rxnqzJUGhlNwGuOV4="},{"timestamp":"16 September 2020, 10.32","keyCount":125,"matchesCount":0,"appName":"Koronavilkku","hash":"L5x\/yuwZx1S3i2n0\/9FRe4HclDlgucBDfy5Or56ZchQ="},{"timestamp":"15 September 2020, 10.28","keyCount":136,"matchesCount":0,"appName":"Koronavilkku","hash":"op7f5yD\/eSrwkpUHdNNBhVmT48knZIc26Jzt8vGL3JA="}]</t>
-  </si>
-  <si>
     <t>https://twitter.com/msrjksk/status/1310587581105659905</t>
   </si>
   <si>
     <t>Parsing A4 based on timestamp, text 2020, keyCount, matchesCount</t>
+  </si>
+  <si>
+    <t>[{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20 September 2020, 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19 September 2020, 10.50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="},{"timestamp":"18 September 2020, 10.37","keyCount":82,"matchesCount":0,"appName":"Koronavilkku","hash":"LxnzOI42gpmBHhNssMRQgJbJyyVz6j95FgbhcEhslFE="},{"timestamp":"17 September 2020, 10.36","keyCount":137,"matchesCount":0,"appName":"Koronavilkku","hash":"nPOu6VJOVmdCS0JgyedgK1KtW4rxnqzJUGhlNwGuOV4="}]</t>
   </si>
 </sst>
 </file>
@@ -355,46 +356,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>3 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 October</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>30 September</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>29 September</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>28 September</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>27 September</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>26 September</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>25 September</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>24 September</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>23 September</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>22 September</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>21 September</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>20 September</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19 September</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18 September</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -406,46 +407,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,30 +644,15 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Uusien päiväavainten lukumäärä #koronavilkku</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>Android!$F$42</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Uusia #koronavilkku päiväavaimia 463.</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
       <c:layout>
         <c:manualLayout>
@@ -750,13 +736,10 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-1A9E-46C4-B0F2-40E24F3EA903}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -969,94 +952,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44077</c:v>
@@ -1086,94 +1069,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6</c:v>
@@ -2836,9 +2819,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E4FBF2-530B-45FC-AB24-E83337470135}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
@@ -2853,12 +2839,12 @@
       </c>
       <c r="E2" s="2">
         <f>SUM(E9:E22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -2869,7 +2855,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2892,19 +2878,19 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>1 October</v>
+        <v>3 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44105</v>
+        <v>44107</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>203</v>
+        <v>463</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f>FIND("timestamp",Json,L8)</f>
@@ -2934,15 +2920,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>30 September</v>
+        <v>2 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44104</v>
+        <v>44106</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>169</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -2954,37 +2940,37 @@
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>29 September</v>
+        <v>1 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44103</v>
+        <v>44105</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -2992,41 +2978,41 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>28 September</v>
+        <v>30 September</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44102</v>
+        <v>44104</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>318</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3034,41 +3020,41 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>27 September</v>
+        <v>29 September</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44101</v>
+        <v>44103</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3076,41 +3062,41 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26 September</v>
+        <v>28 September</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44100</v>
+        <v>44102</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3118,83 +3104,83 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25 September</v>
+        <v>27 September</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44099</v>
+        <v>44101</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24 September</v>
+        <v>26 September</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44098</v>
+        <v>44100</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3202,83 +3188,83 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23 September</v>
+        <v>25 September</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44097</v>
+        <v>44099</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1279</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22 September</v>
+        <v>24 September</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44096</v>
+        <v>44098</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3286,41 +3272,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1430</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21 September</v>
+        <v>23 September</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44095</v>
+        <v>44097</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3328,41 +3314,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1581</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20 September</v>
+        <v>22 September</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44094</v>
+        <v>44096</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>311</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3370,41 +3356,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1703</v>
+        <v>1696</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1718</v>
+        <v>1711</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1733</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19 September</v>
+        <v>21 September</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3412,41 +3398,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1816</v>
+        <v>1809</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1841</v>
+        <v>1834</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1855</v>
+        <v>1847</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1868</v>
+        <v>1860</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1870</v>
+        <v>1862</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1885</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18 September</v>
+        <v>20 September</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44092</v>
+        <v>44094</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3454,27 +3440,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1969</v>
+        <v>1960</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1994</v>
+        <v>1985</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2037</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3602,7 +3588,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="5">
         <v>44081</v>
@@ -3655,17 +3641,21 @@
       <c r="A42" t="s">
         <v>4</v>
       </c>
+      <c r="F42" t="str">
+        <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C45&amp;"."</f>
+        <v>Uusia #koronavilkku päiväavaimia 463.</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="F43" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;C45&amp;" edelliset 7 päivää "&amp;F45&amp;", "&amp;F52&amp;", "&amp;F59&amp;" https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 203 edelliset 7 päivää 1558, 1342, 668 https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 463 edelliset 7 päivää 1731, 1529, 824 https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="B44" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44106.423130902775</v>
+        <v>44108.800671180557</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -3677,33 +3667,33 @@
     <row r="45" spans="1:7">
       <c r="B45" s="3">
         <f t="shared" ref="B45:B66" ca="1" si="10">_xlfn.MAXIFS(time,time,"&lt;"&amp;B44)</f>
-        <v>44105</v>
+        <v>44107</v>
       </c>
       <c r="C45">
         <f t="shared" ref="C45:C80" ca="1" si="11">VLOOKUP(B45,data,2,FALSE)</f>
-        <v>203</v>
+        <v>463</v>
       </c>
       <c r="D45">
         <f t="shared" ref="D45:D57" ca="1" si="12">VLOOKUP(B45,data,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <f ca="1">SUM(C45:C51)</f>
-        <v>1558</v>
+        <v>1731</v>
       </c>
       <c r="G45" s="9">
         <f ca="1">F45/F52-1</f>
-        <v>0.16095380029806261</v>
+        <v>0.13211249182472207</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44104</v>
+        <v>44106</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="11"/>
-        <v>318</v>
+        <v>169</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="12"/>
@@ -3713,11 +3703,11 @@
     <row r="47" spans="1:7">
       <c r="B47" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44103</v>
+        <v>44105</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="11"/>
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="12"/>
@@ -3727,11 +3717,11 @@
     <row r="48" spans="1:7">
       <c r="B48" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44102</v>
+        <v>44104</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="11"/>
-        <v>199</v>
+        <v>318</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="12"/>
@@ -3741,11 +3731,11 @@
     <row r="49" spans="2:7">
       <c r="B49" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44101</v>
+        <v>44103</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="11"/>
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="12"/>
@@ -3755,11 +3745,11 @@
     <row r="50" spans="2:7">
       <c r="B50" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44100</v>
+        <v>44102</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="11"/>
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="12"/>
@@ -3769,25 +3759,25 @@
     <row r="51" spans="2:7">
       <c r="B51" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44099</v>
+        <v>44101</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="11"/>
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44098</v>
+        <v>44100</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="11"/>
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="12"/>
@@ -3795,35 +3785,35 @@
       </c>
       <c r="F52">
         <f ca="1">SUM(C52:C58)</f>
-        <v>1342</v>
+        <v>1529</v>
       </c>
       <c r="G52" s="9">
         <f ca="1">F52/F59-1</f>
-        <v>1.0089820359281436</v>
+        <v>0.85558252427184467</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44097</v>
+        <v>44099</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="11"/>
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44096</v>
+        <v>44098</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="11"/>
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="12"/>
@@ -3833,11 +3823,11 @@
     <row r="55" spans="2:7">
       <c r="B55" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44095</v>
+        <v>44097</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="11"/>
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="12"/>
@@ -3847,11 +3837,11 @@
     <row r="56" spans="2:7">
       <c r="B56" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44094</v>
+        <v>44096</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="11"/>
-        <v>202</v>
+        <v>311</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="12"/>
@@ -3861,11 +3851,11 @@
     <row r="57" spans="2:7">
       <c r="B57" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="11"/>
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="12"/>
@@ -3875,250 +3865,250 @@
     <row r="58" spans="2:7">
       <c r="B58" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44092</v>
+        <v>44094</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="11"/>
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="D58">
-        <f t="shared" ref="D58" ca="1" si="13">VLOOKUP(B58,data,3,FALSE)</f>
+        <f ca="1">VLOOKUP(B58,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44091</v>
+        <v>44093</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="11"/>
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:D65" ca="1" si="14">VLOOKUP(B59,data,3,FALSE)</f>
+        <f t="shared" ref="D59:D65" ca="1" si="13">VLOOKUP(B59,data,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F59">
         <f ca="1">SUM(C59:C65)</f>
-        <v>668</v>
+        <v>824</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44090</v>
+        <v>44092</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="11"/>
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="D60">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44089</v>
+        <v>44091</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="11"/>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D61">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="D62">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44087</v>
+        <v>44089</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="11"/>
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="D63">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D64">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="B65" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44085</v>
+        <v>44087</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D65">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="B66" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44084</v>
+        <v>44086</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="11"/>
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D80" ca="1" si="15">VLOOKUP(B66,data,3,FALSE)</f>
+        <f t="shared" ref="D66:D80" ca="1" si="14">VLOOKUP(B66,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="B67" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B66),1.8202)</f>
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="11"/>
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="D67">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="B68" s="3">
-        <f t="shared" ref="B68:B80" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B67),44077)</f>
-        <v>44082</v>
+        <f t="shared" ref="B68:B80" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B67),44077)</f>
+        <v>44084</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D68">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="B69" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>44081</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>44083</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D69">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="B70" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>44080</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>44082</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D70">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="7"/>
       <c r="B71" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>44079</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>44081</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D71">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="3"/>
       <c r="B72" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>44078</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>44080</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D72">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="B73" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>44077</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>44079</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D73">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="B74" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>44077</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>44078</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D74">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="B75" s="3">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
       <c r="C75">
@@ -4126,13 +4116,13 @@
         <v>6</v>
       </c>
       <c r="D75">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="B76" s="3">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
       <c r="C76">
@@ -4140,13 +4130,13 @@
         <v>6</v>
       </c>
       <c r="D76">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="B77" s="3">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
       <c r="C77">
@@ -4154,13 +4144,13 @@
         <v>6</v>
       </c>
       <c r="D77">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="B78" s="3">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
       <c r="C78">
@@ -4168,13 +4158,13 @@
         <v>6</v>
       </c>
       <c r="D78">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="B79" s="3">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
       <c r="C79">
@@ -4182,13 +4172,13 @@
         <v>6</v>
       </c>
       <c r="D79">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="B80" s="3">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
       <c r="C80">
@@ -4196,7 +4186,7 @@
         <v>6</v>
       </c>
       <c r="D80">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B9FEC53-A089-408F-86FA-11B47AD754B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FB62F1-9351-460E-9B54-E06FE96440B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Android" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="data">Android!$C$9:$E$40</definedName>
+    <definedName name="data">Android!$C$9:$E$47</definedName>
     <definedName name="Json">Android!$A$4</definedName>
-    <definedName name="time">Android!$C$9:$C$40</definedName>
+    <definedName name="time">Android!$C$9:$C$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,7 +74,7 @@
     <t>Parsing A4 based on timestamp, text 2020, keyCount, matchesCount</t>
   </si>
   <si>
-    <t>[{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20 September 2020, 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19 September 2020, 10.50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="},{"timestamp":"18 September 2020, 10.37","keyCount":82,"matchesCount":0,"appName":"Koronavilkku","hash":"LxnzOI42gpmBHhNssMRQgJbJyyVz6j95FgbhcEhslFE="},{"timestamp":"17 September 2020, 10.36","keyCount":137,"matchesCount":0,"appName":"Koronavilkku","hash":"nPOu6VJOVmdCS0JgyedgK1KtW4rxnqzJUGhlNwGuOV4="}]</t>
+    <t>[{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20 September 2020, 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19 September 2020, 10.50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="}]</t>
   </si>
 </sst>
 </file>
@@ -260,9 +259,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12517103732297988"/>
-          <c:y val="0.19854367543665488"/>
+          <c:y val="0.118891697879668"/>
           <c:w val="0.84256843114483493"/>
-          <c:h val="0.76197521207885777"/>
+          <c:h val="0.84162709125571722"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -356,46 +355,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>4 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>30 September</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>29 September</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>28 September</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>27 September</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>26 September</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>25 September</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>24 September</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>23 September</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>22 September</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>21 September</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20 September</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -407,46 +406,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,11 +644,11 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>Android!$F$42</c:f>
+          <c:f>Android!$F$49</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Uusia #koronavilkku päiväavaimia 463.</c:v>
+              <c:v>Uusia #koronavilkku päiväavaimia 294.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -736,14 +735,14 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.3154804339117405E-2"/>
@@ -758,13 +757,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-6A63-4EE2-978B-C9CA1BC14A10}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-9.8660385161277279E-3"/>
@@ -786,13 +782,10 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6A63-4EE2-978B-C9CA1BC14A10}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.1510453796727717E-2"/>
@@ -807,13 +800,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-6A63-4EE2-978B-C9CA1BC14A10}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="24"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
@@ -828,13 +818,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-DBE4-4ABA-BFCD-3E46E83529D4}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="31"/>
+              <c:idx val="33"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.8087855966286533E-2"/>
@@ -849,13 +836,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-6A63-4EE2-978B-C9CA1BC14A10}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="35"/>
+              <c:idx val="37"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.5702108014182953E-2"/>
@@ -870,9 +854,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-DBE4-4ABA-BFCD-3E46E83529D4}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -947,102 +928,102 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Android!$B$45:$B$80</c:f>
+              <c:f>Android!$B$52:$B$89</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44077</c:v>
@@ -1057,6 +1038,12 @@
                   <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>44077</c:v>
                 </c:pt>
               </c:numCache>
@@ -1064,102 +1051,102 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Android!$C$45:$C$80</c:f>
+              <c:f>Android!$C$52:$C$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6</c:v>
@@ -1174,6 +1161,12 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -2457,7 +2450,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>348342</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>146955</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2485,16 +2478,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>364670</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>92531</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>288470</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>103417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>81642</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>97974</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>108860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2820,10 +2813,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E4FBF2-530B-45FC-AB24-E83337470135}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:L80"/>
+  <dimension ref="A2:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2878,19 +2871,19 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>3 October</v>
+        <v>4 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f>FIND("timestamp",Json,L8)</f>
@@ -2920,19 +2913,19 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2 October</v>
+        <v>3 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
@@ -2962,15 +2955,15 @@
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1 October</v>
+        <v>2 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -3004,15 +2997,15 @@
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>30 September</v>
+        <v>1 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3024,37 +3017,37 @@
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>29 September</v>
+        <v>30 September</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3062,41 +3055,41 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>28 September</v>
+        <v>29 September</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3104,41 +3097,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>27 September</v>
+        <v>28 September</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3146,41 +3139,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26 September</v>
+        <v>27 September</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3188,125 +3181,125 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25 September</v>
+        <v>26 September</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24 September</v>
+        <v>25 September</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23 September</v>
+        <v>24 September</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3314,41 +3307,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22 September</v>
+        <v>23 September</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3356,41 +3349,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1726</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21 September</v>
+        <v>22 September</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3398,41 +3391,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1877</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20 September</v>
+        <v>21 September</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3440,27 +3433,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2029</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3468,735 +3461,826 @@
         <v>5</v>
       </c>
       <c r="C23" s="5">
-        <v>44094</v>
+        <v>44101</v>
       </c>
       <c r="D23" s="2">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:12">
       <c r="C24" s="5">
-        <v>44093</v>
+        <v>44100</v>
       </c>
       <c r="D24" s="2">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C25" s="5">
-        <v>44092</v>
+        <v>44099</v>
       </c>
       <c r="D25" s="2">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:12">
       <c r="C26" s="5">
-        <v>44091</v>
+        <v>44098</v>
       </c>
       <c r="D26" s="2">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:12">
       <c r="C27" s="5">
-        <v>44090</v>
+        <v>44097</v>
       </c>
       <c r="D27" s="2">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:12">
       <c r="C28" s="5">
-        <v>44089</v>
+        <v>44096</v>
       </c>
       <c r="D28" s="2">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:12">
       <c r="C29" s="5">
-        <v>44088</v>
+        <v>44095</v>
       </c>
       <c r="D29" s="2">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:12">
       <c r="C30" s="5">
-        <v>44087</v>
+        <v>44094</v>
       </c>
       <c r="D30" s="2">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:12">
       <c r="C31" s="5">
+        <v>44093</v>
+      </c>
+      <c r="D31" s="2">
+        <v>190</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5">
+        <v>44092</v>
+      </c>
+      <c r="D32" s="2">
+        <v>82</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="C33" s="5">
+        <v>44091</v>
+      </c>
+      <c r="D33" s="2">
+        <v>137</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="C34" s="5">
+        <v>44090</v>
+      </c>
+      <c r="D34" s="2">
+        <v>125</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="C35" s="5">
+        <v>44089</v>
+      </c>
+      <c r="D35" s="2">
+        <v>136</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="C36" s="5">
+        <v>44088</v>
+      </c>
+      <c r="D36" s="2">
+        <v>67</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="C37" s="5">
+        <v>44087</v>
+      </c>
+      <c r="D37" s="2">
+        <v>87</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="C38" s="5">
         <v>44086</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D38" s="2">
         <v>46</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="C32" s="5">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="C39" s="5">
         <v>44085</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D39" s="2">
         <v>70</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="C33" s="5">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="C40" s="5">
         <v>44084</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D40" s="2">
         <v>75</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="C34" s="5">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="C41" s="5">
         <v>44083</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D41" s="2">
         <v>101</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="C35" s="5">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="C42" s="5">
         <v>44082</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D42" s="2">
         <v>56</v>
       </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="6" t="s">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C43" s="5">
         <v>44081</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D43" s="2">
         <v>46</v>
       </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="C37" s="5">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="C44" s="5">
         <v>44080</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D44" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="C38" s="5">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="C45" s="5">
         <v>44079</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D45" s="2">
         <v>15</v>
       </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="C39" s="5">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="C46" s="5">
         <v>44078</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D46" s="2">
         <v>19</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="C40" s="5">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="C47" s="5">
         <v>44077</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D47" s="2">
         <v>6</v>
       </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="C41"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
         <v>4</v>
       </c>
-      <c r="F42" t="str">
-        <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C45&amp;"."</f>
-        <v>Uusia #koronavilkku päiväavaimia 463.</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="F43" s="8" t="str">
-        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;C45&amp;" edelliset 7 päivää "&amp;F45&amp;", "&amp;F52&amp;", "&amp;F59&amp;" https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 463 edelliset 7 päivää 1731, 1529, 824 https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="B44" s="3">
+      <c r="F49" t="str">
+        <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C52&amp;"."</f>
+        <v>Uusia #koronavilkku päiväavaimia 294.</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="F50" s="8" t="str">
+        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;C52&amp;" edelliset 7 päivää "&amp;F52&amp;", "&amp;F59&amp;", "&amp;F66&amp;" https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta"</f>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 294 edelliset 7 päivää 1884, 1468, 939 https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="B51" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44108.800671180557</v>
-      </c>
-      <c r="C44" t="s">
+        <v>44109.438316087966</v>
+      </c>
+      <c r="C51" t="s">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D51" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="B45" s="3">
-        <f t="shared" ref="B45:B66" ca="1" si="10">_xlfn.MAXIFS(time,time,"&lt;"&amp;B44)</f>
-        <v>44107</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ref="C45:C80" ca="1" si="11">VLOOKUP(B45,data,2,FALSE)</f>
-        <v>463</v>
-      </c>
-      <c r="D45">
-        <f t="shared" ref="D45:D57" ca="1" si="12">VLOOKUP(B45,data,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <f ca="1">SUM(C45:C51)</f>
-        <v>1731</v>
-      </c>
-      <c r="G45" s="9">
-        <f ca="1">F45/F52-1</f>
-        <v>0.13211249182472207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="B46" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>44106</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ca="1" si="11"/>
-        <v>169</v>
-      </c>
-      <c r="D46">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="B47" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>44105</v>
-      </c>
-      <c r="C47">
-        <f t="shared" ca="1" si="11"/>
-        <v>203</v>
-      </c>
-      <c r="D47">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="B48" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>44104</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ca="1" si="11"/>
-        <v>318</v>
-      </c>
-      <c r="D48">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>44103</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ca="1" si="11"/>
-        <v>238</v>
-      </c>
-      <c r="D49">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>44102</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ca="1" si="11"/>
-        <v>199</v>
-      </c>
-      <c r="D50">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>44101</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ca="1" si="11"/>
-        <v>141</v>
-      </c>
-      <c r="D51">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="1:7">
       <c r="B52" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>44100</v>
+        <f t="shared" ref="B52:B73" ca="1" si="10">_xlfn.MAXIFS(time,time,"&lt;"&amp;B51)</f>
+        <v>44108</v>
       </c>
       <c r="C52">
-        <f t="shared" ca="1" si="11"/>
-        <v>242</v>
+        <f t="shared" ref="C52:C89" ca="1" si="11">VLOOKUP(B52,data,2,FALSE)</f>
+        <v>294</v>
       </c>
       <c r="D52">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="D52:D64" ca="1" si="12">VLOOKUP(B52,data,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F52">
         <f ca="1">SUM(C52:C58)</f>
-        <v>1529</v>
+        <v>1884</v>
       </c>
       <c r="G52" s="9">
         <f ca="1">F52/F59-1</f>
-        <v>0.85558252427184467</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
+        <v>0.28337874659400542</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="B53" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44099</v>
+        <v>44107</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="11"/>
-        <v>217</v>
+        <v>463</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="1:7">
       <c r="B54" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44098</v>
+        <v>44106</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="11"/>
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="1:7">
       <c r="B55" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44097</v>
+        <v>44105</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="11"/>
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="1:7">
       <c r="B56" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44096</v>
+        <v>44104</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="11"/>
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="1:7">
       <c r="B57" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44095</v>
+        <v>44103</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="11"/>
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="1:7">
       <c r="B58" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="11"/>
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D58">
-        <f ca="1">VLOOKUP(B58,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="B59" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44093</v>
+        <v>44101</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="11"/>
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:D65" ca="1" si="13">VLOOKUP(B59,data,3,FALSE)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="F59">
         <f ca="1">SUM(C59:C65)</f>
-        <v>824</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7">
+        <v>1468</v>
+      </c>
+      <c r="G59" s="9">
+        <f ca="1">F59/F66-1</f>
+        <v>0.5633652822151225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="B60" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44092</v>
+        <v>44100</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="11"/>
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="D60">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="B61" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44091</v>
+        <v>44099</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="11"/>
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="D61">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="B62" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44090</v>
+        <v>44098</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="11"/>
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="D62">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="B63" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44089</v>
+        <v>44097</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="11"/>
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="D63">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="B64" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44088</v>
+        <v>44096</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>311</v>
       </c>
       <c r="D64">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="B65" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44087</v>
+        <v>44095</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="11"/>
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="D65">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <f ca="1">VLOOKUP(B65,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="B66" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44086</v>
+        <v>44094</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D80" ca="1" si="14">VLOOKUP(B66,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <f t="shared" ref="D66:D72" ca="1" si="13">VLOOKUP(B66,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f ca="1">SUM(C66:C72)</f>
+        <v>939</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="B67" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B66),1.8202)</f>
-        <v>44085</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44093</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="D67">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="B68" s="3">
-        <f t="shared" ref="B68:B80" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B67),44077)</f>
-        <v>44084</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44092</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="B69" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>44091</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="11"/>
+        <v>137</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="B70" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>44090</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="11"/>
+        <v>125</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="B71" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>44089</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="11"/>
+        <v>136</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="B72" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>44088</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="B73" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>44087</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ref="D73:D89" ca="1" si="14">VLOOKUP(B73,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="B74" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B73),1.8202)</f>
+        <v>44086</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="11"/>
+        <v>46</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="B75" s="3">
+        <f t="shared" ref="B75:B89" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B74),44077)</f>
+        <v>44085</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="B76" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44084</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="11"/>
         <v>75</v>
       </c>
-      <c r="D68">
+      <c r="D76">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="B69" s="3">
+    <row r="77" spans="1:6">
+      <c r="B77" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44083</v>
       </c>
-      <c r="C69">
+      <c r="C77">
         <f t="shared" ca="1" si="11"/>
         <v>101</v>
       </c>
-      <c r="D69">
+      <c r="D77">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="B70" s="3">
+    <row r="78" spans="1:6">
+      <c r="A78" s="7"/>
+      <c r="B78" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44082</v>
       </c>
-      <c r="C70">
+      <c r="C78">
         <f t="shared" ca="1" si="11"/>
         <v>56</v>
       </c>
-      <c r="D70">
+      <c r="D78">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="7"/>
-      <c r="B71" s="3">
+    <row r="79" spans="1:6">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44081</v>
       </c>
-      <c r="C71">
+      <c r="C79">
         <f t="shared" ca="1" si="11"/>
         <v>46</v>
       </c>
-      <c r="D71">
+      <c r="D79">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3">
+    <row r="80" spans="1:6">
+      <c r="B80" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44080</v>
       </c>
-      <c r="C72">
+      <c r="C80">
         <f t="shared" ca="1" si="11"/>
         <v>10</v>
       </c>
-      <c r="D72">
+      <c r="D80">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="B73" s="3">
+    <row r="81" spans="2:4">
+      <c r="B81" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44079</v>
       </c>
-      <c r="C73">
+      <c r="C81">
         <f t="shared" ca="1" si="11"/>
         <v>15</v>
       </c>
-      <c r="D73">
+      <c r="D81">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="B74" s="3">
+    <row r="82" spans="2:4">
+      <c r="B82" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44078</v>
       </c>
-      <c r="C74">
+      <c r="C82">
         <f t="shared" ca="1" si="11"/>
         <v>19</v>
       </c>
-      <c r="D74">
+      <c r="D82">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="B75" s="3">
+    <row r="83" spans="2:4">
+      <c r="B83" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
-      <c r="C75">
+      <c r="C83">
         <f t="shared" ca="1" si="11"/>
         <v>6</v>
       </c>
-      <c r="D75">
+      <c r="D83">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="B76" s="3">
+    <row r="84" spans="2:4">
+      <c r="B84" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
-      <c r="C76">
+      <c r="C84">
         <f t="shared" ca="1" si="11"/>
         <v>6</v>
       </c>
-      <c r="D76">
+      <c r="D84">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="B77" s="3">
+    <row r="85" spans="2:4">
+      <c r="B85" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
-      <c r="C77">
+      <c r="C85">
         <f t="shared" ca="1" si="11"/>
         <v>6</v>
       </c>
-      <c r="D77">
+      <c r="D85">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="B78" s="3">
+    <row r="86" spans="2:4">
+      <c r="B86" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
-      <c r="C78">
-        <f t="shared" ca="1" si="11"/>
+      <c r="C86">
+        <f t="shared" ref="C86" ca="1" si="16">VLOOKUP(B86,data,2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="D78">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="B79" s="3">
+      <c r="D86">
+        <f t="shared" ref="D86" ca="1" si="17">VLOOKUP(B86,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
-      <c r="C79">
-        <f t="shared" ca="1" si="11"/>
+      <c r="C87">
+        <f t="shared" ref="C87:C89" ca="1" si="18">VLOOKUP(B87,data,2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="D79">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="B80" s="3">
+      <c r="D87">
+        <f t="shared" ref="D87:D89" ca="1" si="19">VLOOKUP(B87,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
-      <c r="C80">
-        <f t="shared" ca="1" si="11"/>
+      <c r="C88">
+        <f t="shared" ca="1" si="18"/>
         <v>6</v>
       </c>
-      <c r="D80">
-        <f t="shared" ca="1" si="14"/>
+      <c r="D88">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44077</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C23:D35">
-    <sortCondition descending="1" ref="C23:C35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C30:D42">
+    <sortCondition descending="1" ref="C30:C42"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A25" r:id="rId1" location="Koronavilkkua" display="https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin - Koronavilkkua" xr:uid="{F06E6CD0-5429-431D-B74B-547C41718C4B}"/>
-    <hyperlink ref="A36" r:id="rId2" xr:uid="{517C9E3A-E5DB-4E26-91C6-74B95F09EC29}"/>
+    <hyperlink ref="A32" r:id="rId1" location="Koronavilkkua" display="https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin - Koronavilkkua" xr:uid="{F06E6CD0-5429-431D-B74B-547C41718C4B}"/>
+    <hyperlink ref="A43" r:id="rId2" xr:uid="{517C9E3A-E5DB-4E26-91C6-74B95F09EC29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FB62F1-9351-460E-9B54-E06FE96440B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0660526B-F3FB-4505-A2DC-DCB03A00E804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -2815,9 +2815,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
@@ -3711,7 +3709,7 @@
     <row r="51" spans="1:7">
       <c r="B51" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44109.438316087966</v>
+        <v>44109.454409259262</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0660526B-F3FB-4505-A2DC-DCB03A00E804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AF9E54-45C0-4511-A737-D59B33C063A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -74,7 +74,7 @@
     <t>Parsing A4 based on timestamp, text 2020, keyCount, matchesCount</t>
   </si>
   <si>
-    <t>[{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20 September 2020, 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19 September 2020, 10.50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="}]</t>
+    <t>[{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20 September 2020, 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19 September 2020, 10.50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="}]</t>
   </si>
 </sst>
 </file>
@@ -355,46 +355,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>5 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>30 September</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>29 September</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>28 September</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>27 September</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>26 September</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>25 September</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>24 September</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>23 September</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>22 September</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21 September</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -406,46 +406,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,7 +648,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Uusia #koronavilkku päiväavaimia 294.</c:v>
+              <c:v>Uusia #koronavilkku päiväavaimia 453.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -735,7 +735,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -757,6 +757,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-F9C1-4A63-BDB8-AFD70CD3546C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -782,6 +785,9 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-F9C1-4A63-BDB8-AFD70CD3546C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -800,6 +806,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F9C1-4A63-BDB8-AFD70CD3546C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -818,6 +827,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-F9C1-4A63-BDB8-AFD70CD3546C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -836,6 +848,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F9C1-4A63-BDB8-AFD70CD3546C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -854,6 +869,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-F9C1-4A63-BDB8-AFD70CD3546C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -933,100 +951,100 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44077</c:v>
@@ -1056,100 +1074,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>6</c:v>
@@ -2815,7 +2833,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
@@ -2869,15 +2889,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>4 October</v>
+        <v>5 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -2911,99 +2931,99 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3 October</v>
+        <v>4 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2 October</v>
+        <v>3 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1 October</v>
+        <v>2 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3011,41 +3031,41 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>30 September</v>
+        <v>1 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3053,41 +3073,41 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>29 September</v>
+        <v>30 September</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3095,41 +3115,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>28 September</v>
+        <v>29 September</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3137,41 +3157,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>27 September</v>
+        <v>28 September</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3179,41 +3199,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26 September</v>
+        <v>27 September</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3221,125 +3241,125 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25 September</v>
+        <v>26 September</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24 September</v>
+        <v>25 September</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23 September</v>
+        <v>24 September</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3347,41 +3367,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22 September</v>
+        <v>23 September</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3389,41 +3409,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21 September</v>
+        <v>22 September</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3431,27 +3451,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3697,19 +3717,19 @@
       </c>
       <c r="F49" t="str">
         <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C52&amp;"."</f>
-        <v>Uusia #koronavilkku päiväavaimia 294.</v>
+        <v>Uusia #koronavilkku päiväavaimia 453.</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="F50" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;C52&amp;" edelliset 7 päivää "&amp;F52&amp;", "&amp;F59&amp;", "&amp;F66&amp;" https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 294 edelliset 7 päivää 1884, 1468, 939 https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 453 edelliset 7 päivää 2138, 1510, 1029 https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="B51" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44109.454409259262</v>
+        <v>44110.498296412035</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -3721,11 +3741,11 @@
     <row r="52" spans="1:7">
       <c r="B52" s="3">
         <f t="shared" ref="B52:B73" ca="1" si="10">_xlfn.MAXIFS(time,time,"&lt;"&amp;B51)</f>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:C89" ca="1" si="11">VLOOKUP(B52,data,2,FALSE)</f>
-        <v>294</v>
+        <f t="shared" ref="C52:C85" ca="1" si="11">VLOOKUP(B52,data,2,FALSE)</f>
+        <v>453</v>
       </c>
       <c r="D52">
         <f t="shared" ref="D52:D64" ca="1" si="12">VLOOKUP(B52,data,3,FALSE)</f>
@@ -3733,49 +3753,49 @@
       </c>
       <c r="F52">
         <f ca="1">SUM(C52:C58)</f>
-        <v>1884</v>
+        <v>2138</v>
       </c>
       <c r="G52" s="9">
         <f ca="1">F52/F59-1</f>
-        <v>0.28337874659400542</v>
+        <v>0.41589403973509942</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="B53" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="11"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="B54" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="11"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="B55" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="11"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="12"/>
@@ -3785,11 +3805,11 @@
     <row r="56" spans="1:7">
       <c r="B56" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="11"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="12"/>
@@ -3799,11 +3819,11 @@
     <row r="57" spans="1:7">
       <c r="B57" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="11"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="12"/>
@@ -3813,11 +3833,11 @@
     <row r="58" spans="1:7">
       <c r="B58" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="11"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="12"/>
@@ -3827,11 +3847,11 @@
     <row r="59" spans="1:7">
       <c r="B59" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="11"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="12"/>
@@ -3839,21 +3859,21 @@
       </c>
       <c r="F59">
         <f ca="1">SUM(C59:C65)</f>
-        <v>1468</v>
+        <v>1510</v>
       </c>
       <c r="G59" s="9">
         <f ca="1">F59/F66-1</f>
-        <v>0.5633652822151225</v>
+        <v>0.46744412050534501</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="11"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="12"/>
@@ -3863,39 +3883,39 @@
     <row r="61" spans="1:7">
       <c r="B61" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="11"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="B62" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="11"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="B63" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="11"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="12"/>
@@ -3905,11 +3925,11 @@
     <row r="64" spans="1:7">
       <c r="B64" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="11"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="12"/>
@@ -3919,11 +3939,11 @@
     <row r="65" spans="1:6">
       <c r="B65" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="11"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D65">
         <f ca="1">VLOOKUP(B65,data,3,FALSE)</f>
@@ -3933,11 +3953,11 @@
     <row r="66" spans="1:6">
       <c r="B66" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="11"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D66">
         <f t="shared" ref="D66:D72" ca="1" si="13">VLOOKUP(B66,data,3,FALSE)</f>
@@ -3945,17 +3965,17 @@
       </c>
       <c r="F66">
         <f ca="1">SUM(C66:C72)</f>
-        <v>939</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="B67" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="11"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="13"/>
@@ -3965,11 +3985,11 @@
     <row r="68" spans="1:6">
       <c r="B68" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="11"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="13"/>
@@ -3979,11 +3999,11 @@
     <row r="69" spans="1:6">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="11"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="13"/>
@@ -3993,11 +4013,11 @@
     <row r="70" spans="1:6">
       <c r="B70" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="11"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="13"/>
@@ -4007,11 +4027,11 @@
     <row r="71" spans="1:6">
       <c r="B71" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="11"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="13"/>
@@ -4021,11 +4041,11 @@
     <row r="72" spans="1:6">
       <c r="B72" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="13"/>
@@ -4035,25 +4055,25 @@
     <row r="73" spans="1:6">
       <c r="B73" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="11"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73:D89" ca="1" si="14">VLOOKUP(B73,data,3,FALSE)</f>
+        <f t="shared" ref="D73:D85" ca="1" si="14">VLOOKUP(B73,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="B74" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B73),1.8202)</f>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="14"/>
@@ -4063,11 +4083,11 @@
     <row r="75" spans="1:6">
       <c r="B75" s="3">
         <f t="shared" ref="B75:B89" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B74),44077)</f>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="14"/>
@@ -4077,11 +4097,11 @@
     <row r="76" spans="1:6">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="11"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="14"/>
@@ -4091,11 +4111,11 @@
     <row r="77" spans="1:6">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="11"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="14"/>
@@ -4106,11 +4126,11 @@
       <c r="A78" s="7"/>
       <c r="B78" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="14"/>
@@ -4121,11 +4141,11 @@
       <c r="A79" s="3"/>
       <c r="B79" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="14"/>
@@ -4135,11 +4155,11 @@
     <row r="80" spans="1:6">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="14"/>
@@ -4149,11 +4169,11 @@
     <row r="81" spans="2:4">
       <c r="B81" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="14"/>
@@ -4163,11 +4183,11 @@
     <row r="82" spans="2:4">
       <c r="B82" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="14"/>
@@ -4177,11 +4197,11 @@
     <row r="83" spans="2:4">
       <c r="B83" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="14"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AF9E54-45C0-4511-A737-D59B33C063A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95850F32-9CEB-4874-AF70-62464998CD3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -648,7 +648,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Uusia #koronavilkku päiväavaimia 453.</c:v>
+              <c:v>05.10.2020 uusia #koronavilkku päiväavaimia 453.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -739,6 +739,9 @@
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5651-403D-8E7B-BBB174DC8AFB}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2833,8 +2836,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -3715,9 +3718,9 @@
       <c r="A49" t="s">
         <v>4</v>
       </c>
-      <c r="F49" t="str">
-        <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C52&amp;"."</f>
-        <v>Uusia #koronavilkku päiväavaimia 453.</v>
+      <c r="F49" s="8" t="str">
+        <f ca="1">TEXT(NOW(),"pp.kk.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C52&amp;"."</f>
+        <v>05.10.2020 uusia #koronavilkku päiväavaimia 453.</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3729,7 +3732,7 @@
     <row r="51" spans="1:7">
       <c r="B51" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44110.498296412035</v>
+        <v>44110.873480324073</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95850F32-9CEB-4874-AF70-62464998CD3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5FCAE2-1D56-4E1E-9884-E6A669F2021D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -74,7 +74,7 @@
     <t>Parsing A4 based on timestamp, text 2020, keyCount, matchesCount</t>
   </si>
   <si>
-    <t>[{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20 September 2020, 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19 September 2020, 10.50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="}]</t>
+    <t>[{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20 September 2020, 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="}]</t>
   </si>
 </sst>
 </file>
@@ -355,46 +355,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>6 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1 October</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>30 September</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>29 September</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>28 September</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>27 September</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>26 September</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>25 September</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>24 September</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>23 September</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22 September</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -406,46 +406,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,7 +648,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>05.10.2020 uusia #koronavilkku päiväavaimia 453.</c:v>
+              <c:v>06.10.2020 uusia #koronavilkku päiväavaimia 655.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -735,12 +735,12 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-5651-403D-8E7B-BBB174DC8AFB}"/>
+                  <c16:uniqueId val="{00000000-0D13-4CD8-BAD2-33BA2C056E09}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -954,103 +954,103 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44077</c:v>
@@ -1077,103 +1077,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>6</c:v>
@@ -2500,15 +2500,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>288470</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>103417</xdr:rowOff>
+      <xdr:colOff>446313</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>70760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>5442</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>108860</xdr:rowOff>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>76203</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2836,8 +2836,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2892,15 +2892,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>5 October</v>
+        <v>6 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -2916,33 +2916,33 @@
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I22" si="4">FIND("keyCount",Json,H9)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J22" si="5">FIND(",""",Json,I9)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K22" si="6">FIND("matchesCount",Json,J9)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L22" si="7">FIND(",""",Json,K9)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>4 October</v>
+        <v>5 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -2950,125 +2950,125 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3 October</v>
+        <v>4 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2 October</v>
+        <v>3 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1 October</v>
+        <v>2 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3076,41 +3076,41 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>30 September</v>
+        <v>1 October</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3118,41 +3118,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>29 September</v>
+        <v>30 September</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3160,41 +3160,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>28 September</v>
+        <v>29 September</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3202,41 +3202,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>27 September</v>
+        <v>28 September</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3244,41 +3244,41 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26 September</v>
+        <v>27 September</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3286,125 +3286,125 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25 September</v>
+        <v>26 September</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24 September</v>
+        <v>25 September</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23 September</v>
+        <v>24 September</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3412,41 +3412,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22 September</v>
+        <v>23 September</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3454,27 +3454,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2024</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3720,19 +3720,19 @@
       </c>
       <c r="F49" s="8" t="str">
         <f ca="1">TEXT(NOW(),"pp.kk.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C52&amp;"."</f>
-        <v>05.10.2020 uusia #koronavilkku päiväavaimia 453.</v>
+        <v>06.10.2020 uusia #koronavilkku päiväavaimia 655.</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="F50" s="8" t="str">
-        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;C52&amp;" edelliset 7 päivää "&amp;F52&amp;", "&amp;F59&amp;", "&amp;F66&amp;" https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 453 edelliset 7 päivää 2138, 1510, 1029 https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta</v>
+        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;C52&amp;" edelliset 7 päivää "&amp;F52&amp;" (muutos "&amp;G52&amp;"), "&amp;F59&amp;" ("&amp;G59&amp;"), "&amp;F66&amp;" ("&amp;G66&amp;"), "&amp;F73&amp;" https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta"</f>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 655 edelliset 7 päivää 2555 (muutos 78 %), 1437 (19 %), 1204 (107 %), 582 https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="B51" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44110.873480324073</v>
+        <v>44111.476185648149</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -3744,11 +3744,11 @@
     <row r="52" spans="1:7">
       <c r="B52" s="3">
         <f t="shared" ref="B52:B73" ca="1" si="10">_xlfn.MAXIFS(time,time,"&lt;"&amp;B51)</f>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C52">
         <f t="shared" ref="C52:C85" ca="1" si="11">VLOOKUP(B52,data,2,FALSE)</f>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D52">
         <f t="shared" ref="D52:D64" ca="1" si="12">VLOOKUP(B52,data,3,FALSE)</f>
@@ -3756,21 +3756,21 @@
       </c>
       <c r="F52">
         <f ca="1">SUM(C52:C58)</f>
-        <v>2138</v>
-      </c>
-      <c r="G52" s="9">
-        <f ca="1">F52/F59-1</f>
-        <v>0.41589403973509942</v>
+        <v>2555</v>
+      </c>
+      <c r="G52" s="9" t="str">
+        <f ca="1">TEXT(F52/F59-1,"0 %")</f>
+        <v>78 %</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="B53" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="11"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="12"/>
@@ -3780,39 +3780,39 @@
     <row r="54" spans="1:7">
       <c r="B54" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="11"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="B55" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="11"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="B56" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="11"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="12"/>
@@ -3822,11 +3822,11 @@
     <row r="57" spans="1:7">
       <c r="B57" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="11"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="12"/>
@@ -3836,11 +3836,11 @@
     <row r="58" spans="1:7">
       <c r="B58" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="11"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="12"/>
@@ -3850,11 +3850,11 @@
     <row r="59" spans="1:7">
       <c r="B59" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="11"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="12"/>
@@ -3862,21 +3862,21 @@
       </c>
       <c r="F59">
         <f ca="1">SUM(C59:C65)</f>
-        <v>1510</v>
-      </c>
-      <c r="G59" s="9">
-        <f ca="1">F59/F66-1</f>
-        <v>0.46744412050534501</v>
+        <v>1437</v>
+      </c>
+      <c r="G59" s="9" t="str">
+        <f ca="1">TEXT(F59/F66-1,"0 %")</f>
+        <v>19 %</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="11"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="12"/>
@@ -3886,11 +3886,11 @@
     <row r="61" spans="1:7">
       <c r="B61" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="11"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="12"/>
@@ -3900,67 +3900,67 @@
     <row r="62" spans="1:7">
       <c r="B62" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="11"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="B63" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="11"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="B64" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="11"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:7">
       <c r="B65" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="11"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D65">
         <f ca="1">VLOOKUP(B65,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7">
       <c r="B66" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="11"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D66">
         <f t="shared" ref="D66:D72" ca="1" si="13">VLOOKUP(B66,data,3,FALSE)</f>
@@ -3968,215 +3968,231 @@
       </c>
       <c r="F66">
         <f ca="1">SUM(C66:C72)</f>
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>1204</v>
+      </c>
+      <c r="G66" s="9" t="str">
+        <f ca="1">TEXT(F66/F73-1,"0 %")</f>
+        <v>107 %</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="B67" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="11"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:7">
       <c r="B68" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="11"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="11"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:7">
       <c r="B70" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="11"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:7">
       <c r="B71" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="11"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:7">
       <c r="B72" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="11"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:7">
       <c r="B73" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D73">
         <f t="shared" ref="D73:D85" ca="1" si="14">VLOOKUP(B73,data,3,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="F73">
+        <f ca="1">SUM(C73:C79)</f>
+        <v>582</v>
+      </c>
+      <c r="G73" s="9" t="str">
+        <f ca="1">TEXT(F73/F80-1,"0 %")</f>
+        <v>268 %</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="B74" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B73),1.8202)</f>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="11"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:7">
       <c r="B75" s="3">
         <f t="shared" ref="B75:B89" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B74),44077)</f>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="11"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:7">
       <c r="A78" s="7"/>
       <c r="B78" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="11"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:7">
       <c r="A79" s="3"/>
       <c r="B79" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
+      </c>
+      <c r="F80">
+        <f ca="1">SUM(C80:C86)</f>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="2:4">
       <c r="B81" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="14"/>
@@ -4186,11 +4202,11 @@
     <row r="82" spans="2:4">
       <c r="B82" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="14"/>
@@ -4200,11 +4216,11 @@
     <row r="83" spans="2:4">
       <c r="B83" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="14"/>
@@ -4214,11 +4230,11 @@
     <row r="84" spans="2:4">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="14"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5FCAE2-1D56-4E1E-9884-E6A669F2021D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADEA051-AF7A-487A-9962-8A13A84857D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -74,7 +74,7 @@
     <t>Parsing A4 based on timestamp, text 2020, keyCount, matchesCount</t>
   </si>
   <si>
-    <t>[{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20 September 2020, 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="}]</t>
+    <t>[{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="}]</t>
   </si>
 </sst>
 </file>
@@ -355,46 +355,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>7 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2 October</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1 October</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>30 September</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>29 September</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>28 September</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>27 September</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>26 September</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>25 September</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>24 September</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23 September</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -406,46 +406,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,7 +648,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>06.10.2020 uusia #koronavilkku päiväavaimia 655.</c:v>
+              <c:v>07.10.2020 uusia #koronavilkku päiväavaimia 578.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -735,13 +735,10 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-0D13-4CD8-BAD2-33BA2C056E09}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -860,8 +857,8 @@
               <c:idx val="37"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.5702108014182953E-2"/>
-                  <c:y val="-5.4821336939167201E-2"/>
+                  <c:x val="-1.7272318815601234E-2"/>
+                  <c:y val="3.7689669145677417E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -954,106 +951,106 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44077</c:v>
@@ -1077,106 +1074,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>6</c:v>
@@ -2836,8 +2833,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2892,15 +2889,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>6 October</v>
+        <v>7 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -2916,33 +2913,33 @@
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I22" si="4">FIND("keyCount",Json,H9)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J22" si="5">FIND(",""",Json,I9)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K22" si="6">FIND("matchesCount",Json,J9)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L22" si="7">FIND(",""",Json,K9)</f>
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>5 October</v>
+        <v>6 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -2958,33 +2955,33 @@
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>4 October</v>
+        <v>5 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -2992,125 +2989,125 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3 October</v>
+        <v>4 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2 October</v>
+        <v>3 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1 October</v>
+        <v>2 October</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3118,41 +3115,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>30 September</v>
+        <v>1 October</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3160,41 +3157,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>29 September</v>
+        <v>30 September</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3202,41 +3199,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>28 September</v>
+        <v>29 September</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3244,41 +3241,41 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>27 September</v>
+        <v>28 September</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3286,41 +3283,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26 September</v>
+        <v>27 September</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3328,125 +3325,125 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25 September</v>
+        <v>26 September</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1720</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24 September</v>
+        <v>25 September</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1871</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23 September</v>
+        <v>24 September</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3454,27 +3451,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3482,7 +3479,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="5">
-        <v>44101</v>
+        <v>44111</v>
       </c>
       <c r="D23" s="2">
         <v>141</v>
@@ -3720,19 +3717,19 @@
       </c>
       <c r="F49" s="8" t="str">
         <f ca="1">TEXT(NOW(),"pp.kk.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C52&amp;"."</f>
-        <v>06.10.2020 uusia #koronavilkku päiväavaimia 655.</v>
+        <v>07.10.2020 uusia #koronavilkku päiväavaimia 578.</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="F50" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;C52&amp;" edelliset 7 päivää "&amp;F52&amp;" (muutos "&amp;G52&amp;"), "&amp;F59&amp;" ("&amp;G59&amp;"), "&amp;F66&amp;" ("&amp;G66&amp;"), "&amp;F73&amp;" https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 655 edelliset 7 päivää 2555 (muutos 78 %), 1437 (19 %), 1204 (107 %), 582 https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 578 edelliset 7 päivää 2815 (muutos 80 %), 1566 (24 %), 1268 (109 %), 606 https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="B51" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44111.476185648149</v>
+        <v>44112.306313194444</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -3744,11 +3741,11 @@
     <row r="52" spans="1:7">
       <c r="B52" s="3">
         <f t="shared" ref="B52:B73" ca="1" si="10">_xlfn.MAXIFS(time,time,"&lt;"&amp;B51)</f>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="C52">
         <f t="shared" ref="C52:C85" ca="1" si="11">VLOOKUP(B52,data,2,FALSE)</f>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="D52">
         <f t="shared" ref="D52:D64" ca="1" si="12">VLOOKUP(B52,data,3,FALSE)</f>
@@ -3756,21 +3753,21 @@
       </c>
       <c r="F52">
         <f ca="1">SUM(C52:C58)</f>
-        <v>2555</v>
+        <v>2815</v>
       </c>
       <c r="G52" s="9" t="str">
         <f ca="1">TEXT(F52/F59-1,"0 %")</f>
-        <v>78 %</v>
+        <v>80 %</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="B53" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="11"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="12"/>
@@ -3780,11 +3777,11 @@
     <row r="54" spans="1:7">
       <c r="B54" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="11"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="12"/>
@@ -3794,39 +3791,39 @@
     <row r="55" spans="1:7">
       <c r="B55" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="11"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="B56" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="11"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="B57" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="11"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="12"/>
@@ -3836,11 +3833,11 @@
     <row r="58" spans="1:7">
       <c r="B58" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="11"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="12"/>
@@ -3850,11 +3847,11 @@
     <row r="59" spans="1:7">
       <c r="B59" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="11"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="12"/>
@@ -3862,21 +3859,21 @@
       </c>
       <c r="F59">
         <f ca="1">SUM(C59:C65)</f>
-        <v>1437</v>
+        <v>1566</v>
       </c>
       <c r="G59" s="9" t="str">
         <f ca="1">TEXT(F59/F66-1,"0 %")</f>
-        <v>19 %</v>
+        <v>24 %</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="11"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="12"/>
@@ -3886,11 +3883,11 @@
     <row r="61" spans="1:7">
       <c r="B61" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="11"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="12"/>
@@ -3900,11 +3897,11 @@
     <row r="62" spans="1:7">
       <c r="B62" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="11"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="12"/>
@@ -3914,39 +3911,39 @@
     <row r="63" spans="1:7">
       <c r="B63" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="11"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="B64" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="11"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="B65" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="11"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D65">
         <f ca="1">VLOOKUP(B65,data,3,FALSE)</f>
@@ -3956,11 +3953,11 @@
     <row r="66" spans="1:7">
       <c r="B66" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="11"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D66">
         <f t="shared" ref="D66:D72" ca="1" si="13">VLOOKUP(B66,data,3,FALSE)</f>
@@ -3968,21 +3965,21 @@
       </c>
       <c r="F66">
         <f ca="1">SUM(C66:C72)</f>
-        <v>1204</v>
+        <v>1268</v>
       </c>
       <c r="G66" s="9" t="str">
         <f ca="1">TEXT(F66/F73-1,"0 %")</f>
-        <v>107 %</v>
+        <v>109 %</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="B67" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="11"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="13"/>
@@ -3992,11 +3989,11 @@
     <row r="68" spans="1:7">
       <c r="B68" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="11"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="13"/>
@@ -4006,11 +4003,11 @@
     <row r="69" spans="1:7">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="11"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="13"/>
@@ -4020,11 +4017,11 @@
     <row r="70" spans="1:7">
       <c r="B70" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="11"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="13"/>
@@ -4034,11 +4031,11 @@
     <row r="71" spans="1:7">
       <c r="B71" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="11"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="13"/>
@@ -4048,11 +4045,11 @@
     <row r="72" spans="1:7">
       <c r="B72" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="11"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="13"/>
@@ -4062,11 +4059,11 @@
     <row r="73" spans="1:7">
       <c r="B73" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="11"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D73">
         <f t="shared" ref="D73:D85" ca="1" si="14">VLOOKUP(B73,data,3,FALSE)</f>
@@ -4074,21 +4071,21 @@
       </c>
       <c r="F73">
         <f ca="1">SUM(C73:C79)</f>
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="G73" s="9" t="str">
         <f ca="1">TEXT(F73/F80-1,"0 %")</f>
-        <v>268 %</v>
+        <v>140 %</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="B74" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B73),1.8202)</f>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="14"/>
@@ -4098,11 +4095,11 @@
     <row r="75" spans="1:7">
       <c r="B75" s="3">
         <f t="shared" ref="B75:B89" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B74),44077)</f>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="11"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="14"/>
@@ -4112,11 +4109,11 @@
     <row r="76" spans="1:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="14"/>
@@ -4126,11 +4123,11 @@
     <row r="77" spans="1:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="14"/>
@@ -4141,11 +4138,11 @@
       <c r="A78" s="7"/>
       <c r="B78" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="11"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="14"/>
@@ -4156,11 +4153,11 @@
       <c r="A79" s="3"/>
       <c r="B79" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="11"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="14"/>
@@ -4170,11 +4167,11 @@
     <row r="80" spans="1:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="14"/>
@@ -4182,17 +4179,17 @@
       </c>
       <c r="F80">
         <f ca="1">SUM(C80:C86)</f>
-        <v>158</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="2:4">
       <c r="B81" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="14"/>
@@ -4202,11 +4199,11 @@
     <row r="82" spans="2:4">
       <c r="B82" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="14"/>
@@ -4216,11 +4213,11 @@
     <row r="83" spans="2:4">
       <c r="B83" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="14"/>
@@ -4230,11 +4227,11 @@
     <row r="84" spans="2:4">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="14"/>
@@ -4244,11 +4241,11 @@
     <row r="85" spans="2:4">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="14"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADEA051-AF7A-487A-9962-8A13A84857D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECED60A1-E85A-4D4E-80EA-0E5A12C913BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -644,7 +644,7 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>Android!$F$49</c:f>
+          <c:f>Android!$F$50</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
@@ -2497,15 +2497,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>446313</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>70760</xdr:rowOff>
+      <xdr:colOff>375556</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>43545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>76203</xdr:rowOff>
+      <xdr:colOff>92528</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>48989</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2833,8 +2833,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -3709,27 +3709,25 @@
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5">
+      <c r="A48" s="8" t="str">
+        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;C52&amp;" edelliset 7 päivää "&amp;F52&amp;" (muutos "&amp;G52&amp;"), "&amp;F59&amp;" ("&amp;G59&amp;"), "&amp;F66&amp;" ("&amp;G66&amp;"), "&amp;F73&amp;" https://github.com/jussivirkkala/excel"</f>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 578 edelliset 7 päivää 2815 (muutos 80 %), 1566 (24 %), 1268 (109 %), 606 https://github.com/jussivirkkala/excel</v>
+      </c>
       <c r="C48"/>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="8" t="str">
+      <c r="F50" s="8" t="str">
         <f ca="1">TEXT(NOW(),"pp.kk.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C52&amp;"."</f>
         <v>07.10.2020 uusia #koronavilkku päiväavaimia 578.</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="F50" s="8" t="str">
-        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;C52&amp;" edelliset 7 päivää "&amp;F52&amp;" (muutos "&amp;G52&amp;"), "&amp;F59&amp;" ("&amp;G59&amp;"), "&amp;F66&amp;" ("&amp;G66&amp;"), "&amp;F73&amp;" https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 578 edelliset 7 päivää 2815 (muutos 80 %), 1566 (24 %), 1268 (109 %), 606 https://github.com/jussivirkkala/excel suhteuta tapauksiin https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="B51" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44112.306313194444</v>
+        <v>44112.385321875001</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECED60A1-E85A-4D4E-80EA-0E5A12C913BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CB670D-A899-4B73-A9F2-68B797FE22C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
+    <workbookView xWindow="951" yWindow="17" windowWidth="20992" windowHeight="12326" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Android" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>timestamp</t>
   </si>
@@ -74,7 +74,10 @@
     <t>Parsing A4 based on timestamp, text 2020, keyCount, matchesCount</t>
   </si>
   <si>
-    <t>[{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="}]</t>
+    <t>[{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="}]</t>
+  </si>
+  <si>
+    <t>Tweet template:</t>
   </si>
 </sst>
 </file>
@@ -355,46 +358,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>8 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>7 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3 October</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2 October</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1 October</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>30 September</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>29 September</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>28 September</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>27 September</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>26 September</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>25 September</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24 September</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -406,46 +409,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -644,11 +647,11 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>Android!$F$50</c:f>
+          <c:f>Android!$F$51</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>07.10.2020 uusia #koronavilkku päiväavaimia 578.</c:v>
+              <c:v>09.10.2020 uusia #koronavilkku päiväavaimia 640.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -700,7 +703,7 @@
           <c:x val="3.6945700132268625E-2"/>
           <c:y val="9.9672043222523363E-2"/>
           <c:w val="0.95771026668114068"/>
-          <c:h val="0.82084295359665205"/>
+          <c:h val="0.78288572644848875"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -735,7 +738,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -946,117 +949,117 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Android!$B$52:$B$89</c:f>
+              <c:f>Android!$B$53:$B$90</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>44077</c:v>
@@ -1069,117 +1072,117 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Android!$C$52:$C$89</c:f>
+              <c:f>Android!$C$53:$C$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>6</c:v>
@@ -1217,7 +1220,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="d/m/;@" sourceLinked="0"/>
+        <c:numFmt formatCode="d/m;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1235,7 +1238,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2497,15 +2500,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>375556</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:colOff>375555</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>43545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>92528</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>48989</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>157842</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2831,11 +2834,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E4FBF2-530B-45FC-AB24-E83337470135}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:L89"/>
+  <dimension ref="A2:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
@@ -2889,15 +2890,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>7 October</v>
+        <v>8 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -2931,15 +2932,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>6 October</v>
+        <v>7 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -2955,33 +2956,33 @@
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>5 October</v>
+        <v>6 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -2997,33 +2998,33 @@
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>4 October</v>
+        <v>5 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3031,125 +3032,125 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3 October</v>
+        <v>4 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2 October</v>
+        <v>3 October</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1 October</v>
+        <v>2 October</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3157,41 +3158,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>30 September</v>
+        <v>1 October</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3199,41 +3200,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>29 September</v>
+        <v>30 September</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3241,41 +3242,41 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1265</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>28 September</v>
+        <v>29 September</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3283,41 +3284,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>27 September</v>
+        <v>28 September</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3325,41 +3326,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26 September</v>
+        <v>27 September</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3367,111 +3368,111 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25 September</v>
+        <v>26 September</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24 September</v>
+        <v>25 September</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3479,10 +3480,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="5">
-        <v>44111</v>
+        <v>44113</v>
       </c>
       <c r="D23" s="2">
-        <v>141</v>
+        <v>640</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -3502,7 +3503,9 @@
       <c r="D25" s="2">
         <v>217</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
       <c r="C26" s="5">
@@ -3700,6 +3703,9 @@
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
       <c r="C47" s="5">
         <v>44077</v>
       </c>
@@ -3709,289 +3715,278 @@
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="8" t="str">
-        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;C52&amp;" edelliset 7 päivää "&amp;F52&amp;" (muutos "&amp;G52&amp;"), "&amp;F59&amp;" ("&amp;G59&amp;"), "&amp;F66&amp;" ("&amp;G66&amp;"), "&amp;F73&amp;" https://github.com/jussivirkkala/excel"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 578 edelliset 7 päivää 2815 (muutos 80 %), 1566 (24 %), 1268 (109 %), 606 https://github.com/jussivirkkala/excel</v>
-      </c>
       <c r="C48"/>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
+    <row r="49" spans="1:7">
+      <c r="A49" s="8" t="str">
+        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on "&amp;C53&amp;" edelliset 7 päivää "&amp;F53&amp;" (muutos "&amp;G53&amp;"), "&amp;F60&amp;" ("&amp;G60&amp;"), "&amp;F67&amp;" ("&amp;G67&amp;"), "&amp;F74&amp;" https://github.com/jussivirkkala/excel"</f>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 9.10 on 640 edelliset 7 päivää 3528 (muutos 134 %), 1510 (2 %), 1477 (117 %), 680 https://github.com/jussivirkkala/excel</v>
+      </c>
+      <c r="C49"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="8" t="str">
-        <f ca="1">TEXT(NOW(),"pp.kk.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C52&amp;"."</f>
-        <v>07.10.2020 uusia #koronavilkku päiväavaimia 578.</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="B51" s="3">
-        <f ca="1">NOW()+1</f>
-        <v>44112.385321875001</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>2</v>
+      <c r="F51" s="8" t="str">
+        <f ca="1">TEXT(NOW(),"pp.kk.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C53&amp;"."</f>
+        <v>09.10.2020 uusia #koronavilkku päiväavaimia 640.</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="B52" s="3">
-        <f t="shared" ref="B52:B73" ca="1" si="10">_xlfn.MAXIFS(time,time,"&lt;"&amp;B51)</f>
-        <v>44111</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:C85" ca="1" si="11">VLOOKUP(B52,data,2,FALSE)</f>
-        <v>578</v>
-      </c>
-      <c r="D52">
-        <f t="shared" ref="D52:D64" ca="1" si="12">VLOOKUP(B52,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <f ca="1">SUM(C52:C58)</f>
-        <v>2815</v>
-      </c>
-      <c r="G52" s="9" t="str">
-        <f ca="1">TEXT(F52/F59-1,"0 %")</f>
-        <v>80 %</v>
+        <f ca="1">NOW()+1</f>
+        <v>44114.401272569441</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="B53" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>44110</v>
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B52)</f>
+        <v>44113</v>
       </c>
       <c r="C53">
-        <f t="shared" ca="1" si="11"/>
-        <v>655</v>
+        <f t="shared" ref="C53:C86" ca="1" si="10">VLOOKUP(B53,data,2,FALSE)</f>
+        <v>640</v>
       </c>
       <c r="D53">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <f t="shared" ref="D53:D65" ca="1" si="11">VLOOKUP(B53,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f ca="1">SUM(C53:C59)</f>
+        <v>3528</v>
+      </c>
+      <c r="G53" s="9" t="str">
+        <f ca="1">TEXT(F53/F60-1,"0 %")</f>
+        <v>134 %</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="B54" s="3">
+        <f t="shared" ref="B54:B74" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B53)</f>
+        <v>44112</v>
+      </c>
+      <c r="C54">
         <f t="shared" ca="1" si="10"/>
-        <v>44109</v>
-      </c>
-      <c r="C54">
+        <v>445</v>
+      </c>
+      <c r="D54">
         <f t="shared" ca="1" si="11"/>
-        <v>453</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="B55" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44111</v>
+      </c>
+      <c r="C55">
         <f t="shared" ca="1" si="10"/>
-        <v>44108</v>
-      </c>
-      <c r="C55">
+        <v>578</v>
+      </c>
+      <c r="D55">
         <f t="shared" ca="1" si="11"/>
-        <v>294</v>
-      </c>
-      <c r="D55">
-        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="B56" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44110</v>
+      </c>
+      <c r="C56">
         <f t="shared" ca="1" si="10"/>
-        <v>44107</v>
-      </c>
-      <c r="C56">
+        <v>655</v>
+      </c>
+      <c r="D56">
         <f t="shared" ca="1" si="11"/>
-        <v>463</v>
-      </c>
-      <c r="D56">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="B57" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44109</v>
+      </c>
+      <c r="C57">
         <f t="shared" ca="1" si="10"/>
-        <v>44106</v>
-      </c>
-      <c r="C57">
+        <v>453</v>
+      </c>
+      <c r="D57">
         <f t="shared" ca="1" si="11"/>
-        <v>169</v>
-      </c>
-      <c r="D57">
-        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="B58" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44108</v>
+      </c>
+      <c r="C58">
         <f t="shared" ca="1" si="10"/>
-        <v>44105</v>
-      </c>
-      <c r="C58">
+        <v>294</v>
+      </c>
+      <c r="D58">
         <f t="shared" ca="1" si="11"/>
-        <v>203</v>
-      </c>
-      <c r="D58">
-        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44107</v>
+      </c>
+      <c r="C59">
         <f t="shared" ca="1" si="10"/>
-        <v>44104</v>
-      </c>
-      <c r="C59">
+        <v>463</v>
+      </c>
+      <c r="D59">
         <f t="shared" ca="1" si="11"/>
-        <v>318</v>
-      </c>
-      <c r="D59">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <f ca="1">SUM(C59:C65)</f>
-        <v>1566</v>
-      </c>
-      <c r="G59" s="9" t="str">
-        <f ca="1">TEXT(F59/F66-1,"0 %")</f>
-        <v>24 %</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44106</v>
+      </c>
+      <c r="C60">
         <f t="shared" ca="1" si="10"/>
-        <v>44103</v>
-      </c>
-      <c r="C60">
+        <v>169</v>
+      </c>
+      <c r="D60">
         <f t="shared" ca="1" si="11"/>
-        <v>238</v>
-      </c>
-      <c r="D60">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f ca="1">SUM(C60:C66)</f>
+        <v>1510</v>
+      </c>
+      <c r="G60" s="9" t="str">
+        <f ca="1">TEXT(F60/F67-1,"0 %")</f>
+        <v>2 %</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="B61" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44105</v>
+      </c>
+      <c r="C61">
         <f t="shared" ca="1" si="10"/>
-        <v>44102</v>
-      </c>
-      <c r="C61">
+        <v>203</v>
+      </c>
+      <c r="D61">
         <f t="shared" ca="1" si="11"/>
-        <v>199</v>
-      </c>
-      <c r="D61">
-        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="B62" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44104</v>
+      </c>
+      <c r="C62">
         <f t="shared" ca="1" si="10"/>
-        <v>44101</v>
-      </c>
-      <c r="C62">
+        <v>318</v>
+      </c>
+      <c r="D62">
         <f t="shared" ca="1" si="11"/>
-        <v>141</v>
-      </c>
-      <c r="D62">
-        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="B63" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44103</v>
+      </c>
+      <c r="C63">
         <f t="shared" ca="1" si="10"/>
-        <v>44100</v>
-      </c>
-      <c r="C63">
+        <v>238</v>
+      </c>
+      <c r="D63">
         <f t="shared" ca="1" si="11"/>
-        <v>242</v>
-      </c>
-      <c r="D63">
-        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="B64" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44102</v>
+      </c>
+      <c r="C64">
         <f t="shared" ca="1" si="10"/>
-        <v>44099</v>
-      </c>
-      <c r="C64">
+        <v>199</v>
+      </c>
+      <c r="D64">
         <f t="shared" ca="1" si="11"/>
-        <v>217</v>
-      </c>
-      <c r="D64">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="B65" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44101</v>
+      </c>
+      <c r="C65">
         <f t="shared" ca="1" si="10"/>
-        <v>44098</v>
-      </c>
-      <c r="C65">
+        <v>141</v>
+      </c>
+      <c r="D65">
         <f t="shared" ca="1" si="11"/>
-        <v>211</v>
-      </c>
-      <c r="D65">
-        <f ca="1">VLOOKUP(B65,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="B66" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44100</v>
+      </c>
+      <c r="C66">
         <f t="shared" ca="1" si="10"/>
-        <v>44097</v>
-      </c>
-      <c r="C66">
-        <f t="shared" ca="1" si="11"/>
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D72" ca="1" si="13">VLOOKUP(B66,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <f ca="1">SUM(C66:C72)</f>
-        <v>1268</v>
-      </c>
-      <c r="G66" s="9" t="str">
-        <f ca="1">TEXT(F66/F73-1,"0 %")</f>
-        <v>109 %</v>
+        <f ca="1">VLOOKUP(B66,data,3,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="B67" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44099</v>
+      </c>
+      <c r="C67">
         <f t="shared" ca="1" si="10"/>
-        <v>44096</v>
-      </c>
-      <c r="C67">
-        <f t="shared" ca="1" si="11"/>
-        <v>311</v>
+        <v>217</v>
       </c>
       <c r="D67">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ref="D67:D73" ca="1" si="13">VLOOKUP(B67,data,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <f ca="1">SUM(C67:C73)</f>
+        <v>1477</v>
+      </c>
+      <c r="G67" s="9" t="str">
+        <f ca="1">TEXT(F67/F74-1,"0 %")</f>
+        <v>117 %</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="B68" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44098</v>
+      </c>
+      <c r="C68">
         <f t="shared" ca="1" si="10"/>
-        <v>44095</v>
-      </c>
-      <c r="C68">
-        <f t="shared" ca="1" si="11"/>
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="13"/>
@@ -4000,12 +3995,12 @@
     </row>
     <row r="69" spans="1:7">
       <c r="B69" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44097</v>
+      </c>
+      <c r="C69">
         <f t="shared" ca="1" si="10"/>
-        <v>44094</v>
-      </c>
-      <c r="C69">
-        <f t="shared" ca="1" si="11"/>
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="13"/>
@@ -4014,12 +4009,12 @@
     </row>
     <row r="70" spans="1:7">
       <c r="B70" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44096</v>
+      </c>
+      <c r="C70">
         <f t="shared" ca="1" si="10"/>
-        <v>44093</v>
-      </c>
-      <c r="C70">
-        <f t="shared" ca="1" si="11"/>
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="13"/>
@@ -4028,12 +4023,12 @@
     </row>
     <row r="71" spans="1:7">
       <c r="B71" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44095</v>
+      </c>
+      <c r="C71">
         <f t="shared" ca="1" si="10"/>
-        <v>44092</v>
-      </c>
-      <c r="C71">
-        <f t="shared" ca="1" si="11"/>
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="13"/>
@@ -4042,12 +4037,12 @@
     </row>
     <row r="72" spans="1:7">
       <c r="B72" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44094</v>
+      </c>
+      <c r="C72">
         <f t="shared" ca="1" si="10"/>
-        <v>44091</v>
-      </c>
-      <c r="C72">
-        <f t="shared" ca="1" si="11"/>
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="13"/>
@@ -4056,48 +4051,48 @@
     </row>
     <row r="73" spans="1:7">
       <c r="B73" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44093</v>
+      </c>
+      <c r="C73">
         <f t="shared" ca="1" si="10"/>
-        <v>44090</v>
-      </c>
-      <c r="C73">
-        <f t="shared" ca="1" si="11"/>
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73:D85" ca="1" si="14">VLOOKUP(B73,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <f ca="1">SUM(C73:C79)</f>
-        <v>606</v>
-      </c>
-      <c r="G73" s="9" t="str">
-        <f ca="1">TEXT(F73/F80-1,"0 %")</f>
-        <v>140 %</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="B74" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B73),1.8202)</f>
-        <v>44089</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44092</v>
       </c>
       <c r="C74">
-        <f t="shared" ca="1" si="11"/>
-        <v>136</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>82</v>
       </c>
       <c r="D74">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <f t="shared" ref="D74:D86" ca="1" si="14">VLOOKUP(B74,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f ca="1">SUM(C74:C80)</f>
+        <v>680</v>
+      </c>
+      <c r="G74" s="9" t="str">
+        <f ca="1">TEXT(F74/F81-1,"0 %")</f>
+        <v>82 %</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="B75" s="3">
-        <f t="shared" ref="B75:B89" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B74),44077)</f>
-        <v>44088</v>
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B74),1.8202)</f>
+        <v>44091</v>
       </c>
       <c r="C75">
-        <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>137</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="14"/>
@@ -4106,12 +4101,12 @@
     </row>
     <row r="76" spans="1:7">
       <c r="B76" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44087</v>
+        <f t="shared" ref="B76:B90" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B75),44077)</f>
+        <v>44090</v>
       </c>
       <c r="C76">
-        <f t="shared" ca="1" si="11"/>
-        <v>87</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>125</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="14"/>
@@ -4121,11 +4116,11 @@
     <row r="77" spans="1:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44086</v>
+        <v>44089</v>
       </c>
       <c r="C77">
-        <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>136</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="14"/>
@@ -4133,14 +4128,13 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="7"/>
       <c r="B78" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44085</v>
+        <v>44088</v>
       </c>
       <c r="C78">
-        <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>67</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="14"/>
@@ -4148,14 +4142,14 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="3"/>
+      <c r="A79" s="7"/>
       <c r="B79" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44084</v>
+        <v>44087</v>
       </c>
       <c r="C79">
-        <f t="shared" ca="1" si="11"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>87</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="14"/>
@@ -4163,136 +4157,137 @@
       </c>
     </row>
     <row r="80" spans="1:7">
+      <c r="A80" s="3"/>
       <c r="B80" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44083</v>
+        <v>44086</v>
       </c>
       <c r="C80">
-        <f t="shared" ca="1" si="11"/>
-        <v>101</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>46</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="F80">
-        <f ca="1">SUM(C80:C86)</f>
-        <v>253</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4">
+    </row>
+    <row r="81" spans="2:6">
       <c r="B81" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44082</v>
+        <v>44085</v>
       </c>
       <c r="C81">
-        <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>70</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:4">
+      <c r="F81">
+        <f ca="1">SUM(C81:C87)</f>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
       <c r="B82" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44081</v>
+        <v>44084</v>
       </c>
       <c r="C82">
-        <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>75</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:6">
       <c r="B83" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44080</v>
+        <v>44083</v>
       </c>
       <c r="C83">
-        <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>101</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:6">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44079</v>
+        <v>44082</v>
       </c>
       <c r="C84">
-        <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>56</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:6">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44078</v>
+        <v>44081</v>
       </c>
       <c r="C85">
-        <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>46</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:6">
       <c r="B86" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
+        <v>44080</v>
       </c>
       <c r="C86">
-        <f t="shared" ref="C86" ca="1" si="16">VLOOKUP(B86,data,2,FALSE)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
       </c>
       <c r="D86">
-        <f t="shared" ref="D86" ca="1" si="17">VLOOKUP(B86,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
       <c r="B87" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
+        <v>44079</v>
       </c>
       <c r="C87">
-        <f t="shared" ref="C87:C89" ca="1" si="18">VLOOKUP(B87,data,2,FALSE)</f>
-        <v>6</v>
+        <f t="shared" ref="C87" ca="1" si="16">VLOOKUP(B87,data,2,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="D87">
-        <f t="shared" ref="D87:D89" ca="1" si="19">VLOOKUP(B87,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
+        <f t="shared" ref="D87" ca="1" si="17">VLOOKUP(B87,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
       <c r="B88" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C88">
-        <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <f t="shared" ref="C88:C90" ca="1" si="18">VLOOKUP(B88,data,2,FALSE)</f>
+        <v>19</v>
       </c>
       <c r="D88">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4">
+        <f t="shared" ref="D88:D90" ca="1" si="19">VLOOKUP(B88,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
       <c r="B89" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44077</v>
@@ -4302,6 +4297,20 @@
         <v>6</v>
       </c>
       <c r="D89">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44077</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="D90">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CB670D-A899-4B73-A9F2-68B797FE22C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2957DA1A-FCCA-41BE-B05F-BBD70893DAB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="951" yWindow="17" windowWidth="20992" windowHeight="12326" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -2836,7 +2836,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
@@ -3736,7 +3738,7 @@
     <row r="52" spans="1:7">
       <c r="B52" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44114.401272569441</v>
+        <v>44114.705941087966</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2957DA1A-FCCA-41BE-B05F-BBD70893DAB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEA0B97-BD2F-4F28-B0C0-83353882BAB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="951" yWindow="17" windowWidth="20992" windowHeight="12326" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Android" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="data">Android!$C$9:$E$47</definedName>
+    <definedName name="data">Android!$C$9:$E$54</definedName>
     <definedName name="Json">Android!$A$4</definedName>
-    <definedName name="time">Android!$C$9:$C$47</definedName>
+    <definedName name="time">Android!$C$9:$C$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,10 +74,10 @@
     <t>Parsing A4 based on timestamp, text 2020, keyCount, matchesCount</t>
   </si>
   <si>
-    <t>[{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="}]</t>
+    <t>Tweet template:</t>
   </si>
   <si>
-    <t>Tweet template:</t>
+    <t>[{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="}]</t>
   </si>
 </sst>
 </file>
@@ -358,46 +358,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>10 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9 October</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>7 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>6 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>5 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>4 October</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>3 October</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>2 October</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>1 October</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>30 September</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>29 September</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>28 September</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>27 September</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26 September</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25 September</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -409,46 +409,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -647,11 +647,11 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>Android!$F$51</c:f>
+          <c:f>Android!$F$58</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>09.10.2020 uusia #koronavilkku päiväavaimia 640.</c:v>
+              <c:v>Uusia #koronavilkku päiväavaimia 720.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -660,8 +660,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2637030722424048"/>
-          <c:y val="1.2031017221777669E-2"/>
+          <c:x val="5.8203256535314496E-2"/>
+          <c:y val="8.5046932918584867E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -701,9 +701,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="3.6945700132268625E-2"/>
-          <c:y val="9.9672043222523363E-2"/>
+          <c:y val="5.2053032410722969E-2"/>
           <c:w val="0.95771026668114068"/>
-          <c:h val="0.78288572644848875"/>
+          <c:h val="0.83050480977738517"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -738,10 +738,13 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A8E7-4D8F-B44F-2C92102BE825}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -949,120 +952,120 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Android!$B$53:$B$90</c:f>
+              <c:f>Android!$B$60:$B$97</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44077</c:v>
@@ -1072,120 +1075,120 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Android!$C$53:$C$90</c:f>
+              <c:f>Android!$C$60:$C$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>6</c:v>
@@ -1238,7 +1241,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2471,7 +2474,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>348342</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>146955</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2501,14 +2504,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>375555</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>43545</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>32659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>157842</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>146956</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2834,10 +2837,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E4FBF2-530B-45FC-AB24-E83337470135}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:L90"/>
+  <dimension ref="A2:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2858,7 +2861,7 @@
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -2892,15 +2895,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>8 October</v>
+        <v>10 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>445</v>
+        <v>720</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -2912,41 +2915,41 @@
       </c>
       <c r="H9">
         <f t="shared" ref="H9:H22" si="3">FIND("2020",Json,G9)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I22" si="4">FIND("keyCount",Json,H9)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J22" si="5">FIND(",""",Json,I9)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K22" si="6">FIND("matchesCount",Json,J9)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L22" si="7">FIND(",""",Json,K9)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>7 October</v>
+        <v>9 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44111</v>
+        <v>44113</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
@@ -2976,15 +2979,15 @@
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>6 October</v>
+        <v>8 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44110</v>
+        <v>44112</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>655</v>
+        <v>445</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -2992,41 +2995,41 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>5 October</v>
+        <v>7 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44109</v>
+        <v>44111</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>578</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3034,41 +3037,41 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>4 October</v>
+        <v>6 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44108</v>
+        <v>44110</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>655</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3076,83 +3079,83 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3 October</v>
+        <v>5 October</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44107</v>
+        <v>44109</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2 October</v>
+        <v>4 October</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44106</v>
+        <v>44108</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3160,83 +3163,83 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1 October</v>
+        <v>3 October</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44105</v>
+        <v>44107</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>463</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>30 September</v>
+        <v>2 October</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44104</v>
+        <v>44106</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>169</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3244,41 +3247,41 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>29 September</v>
+        <v>1 October</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44103</v>
+        <v>44105</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3286,41 +3289,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1414</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>28 September</v>
+        <v>30 September</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44102</v>
+        <v>44104</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>318</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3328,41 +3331,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1535</v>
+        <v>1528</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1550</v>
+        <v>1543</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1565</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>27 September</v>
+        <v>29 September</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44101</v>
+        <v>44103</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3370,41 +3373,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1673</v>
+        <v>1668</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1716</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26 September</v>
+        <v>28 September</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44100</v>
+        <v>44102</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3412,69 +3415,69 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1824</v>
+        <v>1819</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1837</v>
+        <v>1832</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1850</v>
+        <v>1845</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1852</v>
+        <v>1847</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1867</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25 September</v>
+        <v>27 September</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44099</v>
+        <v>44101</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3482,421 +3485,394 @@
         <v>5</v>
       </c>
       <c r="C23" s="5">
-        <v>44113</v>
+        <v>44108</v>
       </c>
       <c r="D23" s="2">
-        <v>640</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="C24" s="5">
-        <v>44100</v>
+        <v>44107</v>
       </c>
       <c r="D24" s="2">
-        <v>242</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="C25" s="5">
-        <v>44099</v>
+        <v>44106</v>
       </c>
       <c r="D25" s="2">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="C26" s="5">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="D26" s="2">
-        <v>211</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
       <c r="C27" s="5">
-        <v>44097</v>
+        <v>44104</v>
       </c>
       <c r="D27" s="2">
-        <v>189</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
       <c r="C28" s="5">
-        <v>44096</v>
+        <v>44103</v>
       </c>
       <c r="D28" s="2">
-        <v>311</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
       <c r="C29" s="5">
-        <v>44095</v>
+        <v>44102</v>
       </c>
       <c r="D29" s="2">
-        <v>157</v>
-      </c>
-      <c r="E29" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="C30" s="5">
-        <v>44094</v>
+        <v>44101</v>
       </c>
       <c r="D30" s="2">
-        <v>202</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
       <c r="C31" s="5">
-        <v>44093</v>
+        <v>44100</v>
       </c>
       <c r="D31" s="2">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C32" s="5">
-        <v>44092</v>
+        <v>44099</v>
       </c>
       <c r="D32" s="2">
-        <v>82</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="C33" s="5">
-        <v>44091</v>
+        <v>44098</v>
       </c>
       <c r="D33" s="2">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5">
       <c r="C34" s="5">
-        <v>44090</v>
+        <v>44097</v>
       </c>
       <c r="D34" s="2">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5">
       <c r="C35" s="5">
-        <v>44089</v>
+        <v>44096</v>
       </c>
       <c r="D35" s="2">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5">
       <c r="C36" s="5">
-        <v>44088</v>
+        <v>44095</v>
       </c>
       <c r="D36" s="2">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5">
       <c r="C37" s="5">
-        <v>44087</v>
+        <v>44094</v>
       </c>
       <c r="D37" s="2">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5">
       <c r="C38" s="5">
-        <v>44086</v>
+        <v>44093</v>
       </c>
       <c r="D38" s="2">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5">
+      <c r="A39" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="C39" s="5">
-        <v>44085</v>
+        <v>44092</v>
       </c>
       <c r="D39" s="2">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5">
       <c r="C40" s="5">
-        <v>44084</v>
+        <v>44091</v>
       </c>
       <c r="D40" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5">
       <c r="C41" s="5">
-        <v>44083</v>
+        <v>44090</v>
       </c>
       <c r="D41" s="2">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5">
       <c r="C42" s="5">
-        <v>44082</v>
+        <v>44089</v>
       </c>
       <c r="D42" s="2">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="C43" s="5">
-        <v>44081</v>
+        <v>44088</v>
       </c>
       <c r="D43" s="2">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5">
       <c r="C44" s="5">
-        <v>44080</v>
+        <v>44087</v>
       </c>
       <c r="D44" s="2">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5">
       <c r="C45" s="5">
-        <v>44079</v>
+        <v>44086</v>
       </c>
       <c r="D45" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5">
       <c r="C46" s="5">
+        <v>44085</v>
+      </c>
+      <c r="D46" s="2">
+        <v>70</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="C47" s="5">
+        <v>44084</v>
+      </c>
+      <c r="D47" s="2">
+        <v>75</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="C48" s="5">
+        <v>44083</v>
+      </c>
+      <c r="D48" s="2">
+        <v>101</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="C49" s="5">
+        <v>44082</v>
+      </c>
+      <c r="D49" s="2">
+        <v>56</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="5">
+        <v>44081</v>
+      </c>
+      <c r="D50" s="2">
+        <v>46</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="C51" s="5">
+        <v>44080</v>
+      </c>
+      <c r="D51" s="2">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="C52" s="5">
+        <v>44079</v>
+      </c>
+      <c r="D52" s="2">
+        <v>15</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="C53" s="5">
         <v>44078</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D53" s="2">
         <v>19</v>
       </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="5">
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="5">
         <v>44077</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D54" s="2">
         <v>6</v>
       </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="C48"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="8" t="str">
-        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on "&amp;C53&amp;" edelliset 7 päivää "&amp;F53&amp;" (muutos "&amp;G53&amp;"), "&amp;F60&amp;" ("&amp;G60&amp;"), "&amp;F67&amp;" ("&amp;G67&amp;"), "&amp;F74&amp;" https://github.com/jussivirkkala/excel"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 9.10 on 640 edelliset 7 päivää 3528 (muutos 134 %), 1510 (2 %), 1477 (117 %), 680 https://github.com/jussivirkkala/excel</v>
-      </c>
-      <c r="C49"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="8" t="str">
+        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on "&amp;C60&amp;" edelliset 7 päivää "&amp;F60&amp;" (muutos "&amp;G60&amp;"), "&amp;F67&amp;" ("&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;" https://github.com/jussivirkkala/excel"</f>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 10.10 on 720 edelliset 7 päivää 3785 (muutos 119 %), 1731 (13 %), 1529 (86 %), 824 https://github.com/jussivirkkala/excel</v>
+      </c>
+      <c r="C56"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="8" t="str">
-        <f ca="1">TEXT(NOW(),"pp.kk.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C53&amp;"."</f>
-        <v>09.10.2020 uusia #koronavilkku päiväavaimia 640.</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="B52" s="3">
-        <f ca="1">NOW()+1</f>
-        <v>44114.705941087966</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="B53" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B52)</f>
-        <v>44113</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ref="C53:C86" ca="1" si="10">VLOOKUP(B53,data,2,FALSE)</f>
-        <v>640</v>
-      </c>
-      <c r="D53">
-        <f t="shared" ref="D53:D65" ca="1" si="11">VLOOKUP(B53,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <f ca="1">SUM(C53:C59)</f>
-        <v>3528</v>
-      </c>
-      <c r="G53" s="9" t="str">
-        <f ca="1">TEXT(F53/F60-1,"0 %")</f>
-        <v>134 %</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="B54" s="3">
-        <f t="shared" ref="B54:B74" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B53)</f>
-        <v>44112</v>
-      </c>
-      <c r="C54">
-        <f t="shared" ca="1" si="10"/>
-        <v>445</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="B55" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
-      </c>
-      <c r="C55">
-        <f t="shared" ca="1" si="10"/>
-        <v>578</v>
-      </c>
-      <c r="D55">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="B56" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44110</v>
-      </c>
-      <c r="C56">
-        <f t="shared" ca="1" si="10"/>
-        <v>655</v>
-      </c>
-      <c r="D56">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="B57" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44109</v>
-      </c>
-      <c r="C57">
-        <f t="shared" ca="1" si="10"/>
-        <v>453</v>
-      </c>
-      <c r="D57">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="B58" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44108</v>
-      </c>
-      <c r="C58">
-        <f t="shared" ca="1" si="10"/>
-        <v>294</v>
-      </c>
-      <c r="D58">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+      <c r="F58" s="8" t="str">
+        <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C60&amp;"."</f>
+        <v>Uusia #koronavilkku päiväavaimia 720.</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44107</v>
-      </c>
-      <c r="C59">
+        <f ca="1">NOW()+1</f>
+        <v>44115.504139814817</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="B60" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B59)</f>
+        <v>44114</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60:C93" ca="1" si="10">VLOOKUP(B60,data,2,FALSE)</f>
+        <v>720</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ref="D60:D72" ca="1" si="11">VLOOKUP(B60,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f ca="1">SUM(C60:C66)</f>
+        <v>3785</v>
+      </c>
+      <c r="G60" s="9" t="str">
+        <f ca="1">TEXT(F60/F67-1,"0 %")</f>
+        <v>119 %</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="B61" s="3">
+        <f t="shared" ref="B61:B81" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B60)</f>
+        <v>44113</v>
+      </c>
+      <c r="C61">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
-      </c>
-      <c r="D59">
+        <v>640</v>
+      </c>
+      <c r="D61">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="B60" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44106</v>
-      </c>
-      <c r="C60">
-        <f t="shared" ca="1" si="10"/>
-        <v>169</v>
-      </c>
-      <c r="D60">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <f ca="1">SUM(C60:C66)</f>
-        <v>1510</v>
-      </c>
-      <c r="G60" s="9" t="str">
-        <f ca="1">TEXT(F60/F67-1,"0 %")</f>
-        <v>2 %</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="B61" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44105</v>
-      </c>
-      <c r="C61">
-        <f t="shared" ca="1" si="10"/>
-        <v>203</v>
-      </c>
-      <c r="D61">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="B62" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44104</v>
+        <v>44112</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>445</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="11"/>
@@ -3906,11 +3882,11 @@
     <row r="63" spans="1:7">
       <c r="B63" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44103</v>
+        <v>44111</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>578</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="11"/>
@@ -3920,410 +3896,516 @@
     <row r="64" spans="1:7">
       <c r="B64" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44102</v>
+        <v>44110</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>655</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="2:7">
       <c r="B65" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44101</v>
+        <v>44109</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>453</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="2:7">
       <c r="B66" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44100</v>
+        <v>44108</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="D66">
-        <f ca="1">VLOOKUP(B66,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
       <c r="B67" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44099</v>
+        <v>44107</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>463</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D73" ca="1" si="13">VLOOKUP(B67,data,3,FALSE)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="F67">
         <f ca="1">SUM(C67:C73)</f>
-        <v>1477</v>
+        <v>1731</v>
       </c>
       <c r="G67" s="9" t="str">
         <f ca="1">TEXT(F67/F74-1,"0 %")</f>
-        <v>117 %</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>13 %</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44098</v>
+        <v>44106</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="D68">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44097</v>
+        <v>44105</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D69">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
       <c r="B70" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44096</v>
+        <v>44104</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D70">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
       <c r="B71" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44095</v>
+        <v>44103</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="D71">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
       <c r="B72" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="10"/>
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D72">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
       <c r="B73" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44093</v>
+        <v>44101</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="10"/>
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="D73">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <f ca="1">VLOOKUP(B73,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
       <c r="B74" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44092</v>
+        <v>44100</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="D74">
-        <f t="shared" ref="D74:D86" ca="1" si="14">VLOOKUP(B74,data,3,FALSE)</f>
+        <f t="shared" ref="D74:D80" ca="1" si="13">VLOOKUP(B74,data,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>680</v>
+        <v>1529</v>
       </c>
       <c r="G74" s="9" t="str">
         <f ca="1">TEXT(F74/F81-1,"0 %")</f>
-        <v>82 %</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>86 %</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
       <c r="B75" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B74),1.8202)</f>
-        <v>44091</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44099</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="D75">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
       <c r="B76" s="3">
-        <f t="shared" ref="B76:B90" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B75),44077)</f>
-        <v>44090</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44098</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
+        <v>211</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44097</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="10"/>
+        <v>189</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44096</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="10"/>
+        <v>311</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44095</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="10"/>
+        <v>157</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44094</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="10"/>
+        <v>202</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="B81" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>44093</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ref="D81:D93" ca="1" si="14">VLOOKUP(B81,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f ca="1">SUM(C81:C87)</f>
+        <v>824</v>
+      </c>
+      <c r="G81" s="9" t="str">
+        <f ca="1">TEXT(F81/F88-1,"0 %")</f>
+        <v>104 %</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="B82" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B81),1.8202)</f>
+        <v>44092</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="B83" s="3">
+        <f t="shared" ref="B83:B97" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B82),44077)</f>
+        <v>44091</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="10"/>
+        <v>137</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="B84" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44090</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="10"/>
         <v>125</v>
       </c>
-      <c r="D76">
+      <c r="D84">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="B77" s="3">
+    <row r="85" spans="1:7">
+      <c r="B85" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44089</v>
       </c>
-      <c r="C77">
+      <c r="C85">
         <f t="shared" ca="1" si="10"/>
         <v>136</v>
       </c>
-      <c r="D77">
+      <c r="D85">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="B78" s="3">
+    <row r="86" spans="1:7">
+      <c r="A86" s="7"/>
+      <c r="B86" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44088</v>
       </c>
-      <c r="C78">
+      <c r="C86">
         <f t="shared" ca="1" si="10"/>
         <v>67</v>
       </c>
-      <c r="D78">
+      <c r="D86">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="7"/>
-      <c r="B79" s="3">
+    <row r="87" spans="1:7">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44087</v>
       </c>
-      <c r="C79">
+      <c r="C87">
         <f t="shared" ca="1" si="10"/>
         <v>87</v>
       </c>
-      <c r="D79">
+      <c r="D87">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3">
+    <row r="88" spans="1:7">
+      <c r="B88" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44086</v>
       </c>
-      <c r="C80">
+      <c r="C88">
         <f t="shared" ca="1" si="10"/>
         <v>46</v>
       </c>
-      <c r="D80">
+      <c r="D88">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="3">
+      <c r="F88">
+        <f ca="1">SUM(C88:C94)</f>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="B89" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44085</v>
       </c>
-      <c r="C81">
+      <c r="C89">
         <f t="shared" ca="1" si="10"/>
         <v>70</v>
       </c>
-      <c r="D81">
+      <c r="D89">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="F81">
-        <f ca="1">SUM(C81:C87)</f>
-        <v>373</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="3">
+    </row>
+    <row r="90" spans="1:7">
+      <c r="B90" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44084</v>
       </c>
-      <c r="C82">
+      <c r="C90">
         <f t="shared" ca="1" si="10"/>
         <v>75</v>
       </c>
-      <c r="D82">
+      <c r="D90">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="3">
+    <row r="91" spans="1:7">
+      <c r="B91" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44083</v>
       </c>
-      <c r="C83">
+      <c r="C91">
         <f t="shared" ca="1" si="10"/>
         <v>101</v>
       </c>
-      <c r="D83">
+      <c r="D91">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="3">
+    <row r="92" spans="1:7">
+      <c r="B92" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44082</v>
       </c>
-      <c r="C84">
+      <c r="C92">
         <f t="shared" ca="1" si="10"/>
         <v>56</v>
       </c>
-      <c r="D84">
+      <c r="D92">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="3">
+    <row r="93" spans="1:7">
+      <c r="B93" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44081</v>
       </c>
-      <c r="C85">
+      <c r="C93">
         <f t="shared" ca="1" si="10"/>
         <v>46</v>
       </c>
-      <c r="D85">
+      <c r="D93">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="3">
+    <row r="94" spans="1:7">
+      <c r="B94" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44080</v>
       </c>
-      <c r="C86">
-        <f t="shared" ca="1" si="10"/>
+      <c r="C94">
+        <f t="shared" ref="C94" ca="1" si="16">VLOOKUP(B94,data,2,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="D86">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="3">
+      <c r="D94">
+        <f t="shared" ref="D94" ca="1" si="17">VLOOKUP(B94,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="B95" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44079</v>
       </c>
-      <c r="C87">
-        <f t="shared" ref="C87" ca="1" si="16">VLOOKUP(B87,data,2,FALSE)</f>
+      <c r="C95">
+        <f t="shared" ref="C95:C97" ca="1" si="18">VLOOKUP(B95,data,2,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="D87">
-        <f t="shared" ref="D87" ca="1" si="17">VLOOKUP(B87,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="3">
+      <c r="D95">
+        <f t="shared" ref="D95:D97" ca="1" si="19">VLOOKUP(B95,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="B96" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44078</v>
       </c>
-      <c r="C88">
-        <f t="shared" ref="C88:C90" ca="1" si="18">VLOOKUP(B88,data,2,FALSE)</f>
+      <c r="C96">
+        <f t="shared" ca="1" si="18"/>
         <v>19</v>
       </c>
-      <c r="D88">
-        <f t="shared" ref="D88:D90" ca="1" si="19">VLOOKUP(B88,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="3">
+      <c r="D96">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
-      <c r="C89">
+      <c r="C97">
         <f t="shared" ca="1" si="18"/>
         <v>6</v>
       </c>
-      <c r="D89">
+      <c r="D97">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:6">
-      <c r="B90" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
-      </c>
-      <c r="C90">
-        <f t="shared" ca="1" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="D90">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C30:D42">
-    <sortCondition descending="1" ref="C30:C42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C37:D49">
+    <sortCondition descending="1" ref="C37:C49"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A32" r:id="rId1" location="Koronavilkkua" display="https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin - Koronavilkkua" xr:uid="{F06E6CD0-5429-431D-B74B-547C41718C4B}"/>
-    <hyperlink ref="A43" r:id="rId2" xr:uid="{517C9E3A-E5DB-4E26-91C6-74B95F09EC29}"/>
+    <hyperlink ref="A39" r:id="rId1" location="Koronavilkkua" display="https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin - Koronavilkkua" xr:uid="{F06E6CD0-5429-431D-B74B-547C41718C4B}"/>
+    <hyperlink ref="A50" r:id="rId2" xr:uid="{517C9E3A-E5DB-4E26-91C6-74B95F09EC29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEA0B97-BD2F-4F28-B0C0-83353882BAB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DAC8F1-F0C4-4236-BE2C-11F9BF8454A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="951" yWindow="17" windowWidth="20992" windowHeight="12326" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -77,7 +77,7 @@
     <t>Tweet template:</t>
   </si>
   <si>
-    <t>[{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="}]</t>
+    <t>[{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="}]</t>
   </si>
 </sst>
 </file>
@@ -358,46 +358,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>11 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6 October</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5 October</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4 October</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3 October</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2 October</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1 October</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>30 September</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>29 September</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>28 September</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27 September</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -409,46 +409,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -651,7 +651,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Uusia #koronavilkku päiväavaimia 720.</c:v>
+              <c:v>Uusia #koronavilkku päiväavaimia 666.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -738,17 +738,14 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-A8E7-4D8F-B44F-2C92102BE825}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.3154804339117405E-2"/>
@@ -763,13 +760,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-F9C1-4A63-BDB8-AFD70CD3546C}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-9.8660385161277279E-3"/>
@@ -792,27 +786,6 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-F9C1-4A63-BDB8-AFD70CD3546C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.1510453796727717E-2"/>
-                  <c:y val="5.1395003380469248E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-F9C1-4A63-BDB8-AFD70CD3546C}"/>
                 </c:ext>
               </c:extLst>
@@ -821,8 +794,8 @@
               <c:idx val="24"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-2.3984334910885651E-2"/>
+                  <c:x val="-1.1510453796727717E-2"/>
+                  <c:y val="5.1395003380469248E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -839,7 +812,25 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="33"/>
+              <c:idx val="29"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.3984334910885651E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.8087855966286533E-2"/>
@@ -854,13 +845,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-F9C1-4A63-BDB8-AFD70CD3546C}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="37"/>
+              <c:idx val="42"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.7272318815601234E-2"/>
@@ -875,9 +863,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-F9C1-4A63-BDB8-AFD70CD3546C}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -952,122 +937,137 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Android!$B$60:$B$97</c:f>
+              <c:f>Android!$B$60:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44078</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>44077</c:v>
                 </c:pt>
               </c:numCache>
@@ -1075,122 +1075,137 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Android!$C$60:$C$97</c:f>
+              <c:f>Android!$C$60:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -2837,10 +2852,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E4FBF2-530B-45FC-AB24-E83337470135}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:L97"/>
+  <dimension ref="A2:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2895,15 +2910,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>10 October</v>
+        <v>11 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -2937,19 +2952,19 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>9 October</v>
+        <v>10 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
@@ -2957,79 +2972,79 @@
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>8 October</v>
+        <v>9 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>7 October</v>
+        <v>8 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3063,15 +3078,15 @@
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>6 October</v>
+        <v>7 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3087,33 +3102,33 @@
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>5 October</v>
+        <v>6 October</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3129,33 +3144,33 @@
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>4 October</v>
+        <v>5 October</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3163,125 +3178,125 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3 October</v>
+        <v>4 October</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2 October</v>
+        <v>3 October</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1 October</v>
+        <v>2 October</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3289,41 +3304,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>30 September</v>
+        <v>1 October</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3331,41 +3346,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>29 September</v>
+        <v>30 September</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3373,41 +3388,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1711</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>28 September</v>
+        <v>29 September</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3415,41 +3430,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>27 September</v>
+        <v>28 September</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3457,27 +3472,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3804,7 +3819,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on "&amp;C60&amp;" edelliset 7 päivää "&amp;F60&amp;" (muutos "&amp;G60&amp;"), "&amp;F67&amp;" ("&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;" https://github.com/jussivirkkala/excel"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 10.10 on 720 edelliset 7 päivää 3785 (muutos 119 %), 1731 (13 %), 1529 (86 %), 824 https://github.com/jussivirkkala/excel</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 11.10 on 666 edelliset 7 päivää 4157 (muutos 121 %), 1884 (28 %), 1468 (56 %), 939 https://github.com/jussivirkkala/excel</v>
       </c>
       <c r="C56"/>
     </row>
@@ -3814,13 +3829,13 @@
       </c>
       <c r="F58" s="8" t="str">
         <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C60&amp;"."</f>
-        <v>Uusia #koronavilkku päiväavaimia 720.</v>
+        <v>Uusia #koronavilkku päiväavaimia 666.</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44115.504139814817</v>
+        <v>44116.357860532407</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -3832,11 +3847,11 @@
     <row r="60" spans="1:7">
       <c r="B60" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B59)</f>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="C60">
         <f t="shared" ref="C60:C93" ca="1" si="10">VLOOKUP(B60,data,2,FALSE)</f>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="D60">
         <f t="shared" ref="D60:D72" ca="1" si="11">VLOOKUP(B60,data,3,FALSE)</f>
@@ -3844,49 +3859,49 @@
       </c>
       <c r="F60">
         <f ca="1">SUM(C60:C66)</f>
-        <v>3785</v>
+        <v>4157</v>
       </c>
       <c r="G60" s="9" t="str">
         <f ca="1">TEXT(F60/F67-1,"0 %")</f>
-        <v>119 %</v>
+        <v>121 %</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="B61" s="3">
         <f t="shared" ref="B61:B81" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B60)</f>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="B62" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="B63" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="11"/>
@@ -3896,11 +3911,11 @@
     <row r="64" spans="1:7">
       <c r="B64" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="11"/>
@@ -3910,11 +3925,11 @@
     <row r="65" spans="2:7">
       <c r="B65" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="11"/>
@@ -3924,11 +3939,11 @@
     <row r="66" spans="2:7">
       <c r="B66" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="11"/>
@@ -3938,47 +3953,47 @@
     <row r="67" spans="2:7">
       <c r="B67" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <f ca="1">SUM(C67:C73)</f>
-        <v>1731</v>
+        <v>1884</v>
       </c>
       <c r="G67" s="9" t="str">
         <f ca="1">TEXT(F67/F74-1,"0 %")</f>
-        <v>13 %</v>
+        <v>28 %</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="11"/>
@@ -3988,11 +4003,11 @@
     <row r="70" spans="2:7">
       <c r="B70" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="11"/>
@@ -4002,11 +4017,11 @@
     <row r="71" spans="2:7">
       <c r="B71" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="11"/>
@@ -4016,11 +4031,11 @@
     <row r="72" spans="2:7">
       <c r="B72" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="11"/>
@@ -4030,11 +4045,11 @@
     <row r="73" spans="2:7">
       <c r="B73" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D73">
         <f ca="1">VLOOKUP(B73,data,3,FALSE)</f>
@@ -4044,11 +4059,11 @@
     <row r="74" spans="2:7">
       <c r="B74" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D74">
         <f t="shared" ref="D74:D80" ca="1" si="13">VLOOKUP(B74,data,3,FALSE)</f>
@@ -4056,49 +4071,49 @@
       </c>
       <c r="F74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>1529</v>
+        <v>1468</v>
       </c>
       <c r="G74" s="9" t="str">
         <f ca="1">TEXT(F74/F81-1,"0 %")</f>
-        <v>86 %</v>
+        <v>56 %</v>
       </c>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="13"/>
@@ -4108,11 +4123,11 @@
     <row r="78" spans="2:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="13"/>
@@ -4122,11 +4137,11 @@
     <row r="79" spans="2:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="13"/>
@@ -4136,11 +4151,11 @@
     <row r="80" spans="2:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="13"/>
@@ -4150,11 +4165,11 @@
     <row r="81" spans="1:7">
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D81">
         <f t="shared" ref="D81:D93" ca="1" si="14">VLOOKUP(B81,data,3,FALSE)</f>
@@ -4162,21 +4177,21 @@
       </c>
       <c r="F81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>824</v>
+        <v>939</v>
       </c>
       <c r="G81" s="9" t="str">
         <f ca="1">TEXT(F81/F88-1,"0 %")</f>
-        <v>104 %</v>
+        <v>95 %</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="B82" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B81),1.8202)</f>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="14"/>
@@ -4185,12 +4200,12 @@
     </row>
     <row r="83" spans="1:7">
       <c r="B83" s="3">
-        <f t="shared" ref="B83:B97" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B82),44077)</f>
-        <v>44091</v>
+        <f t="shared" ref="B83:B102" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B82),44077)</f>
+        <v>44092</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="14"/>
@@ -4200,11 +4215,11 @@
     <row r="84" spans="1:7">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="14"/>
@@ -4214,11 +4229,11 @@
     <row r="85" spans="1:7">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="14"/>
@@ -4229,11 +4244,11 @@
       <c r="A86" s="7"/>
       <c r="B86" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="14"/>
@@ -4244,11 +4259,11 @@
       <c r="A87" s="3"/>
       <c r="B87" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="14"/>
@@ -4258,11 +4273,11 @@
     <row r="88" spans="1:7">
       <c r="B88" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="14"/>
@@ -4270,17 +4285,17 @@
       </c>
       <c r="F88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>404</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
@@ -4290,11 +4305,11 @@
     <row r="90" spans="1:7">
       <c r="B90" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
@@ -4304,11 +4319,11 @@
     <row r="91" spans="1:7">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
@@ -4318,11 +4333,11 @@
     <row r="92" spans="1:7">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
@@ -4332,11 +4347,11 @@
     <row r="93" spans="1:7">
       <c r="B93" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
@@ -4346,11 +4361,11 @@
     <row r="94" spans="1:7">
       <c r="B94" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C94">
         <f t="shared" ref="C94" ca="1" si="16">VLOOKUP(B94,data,2,FALSE)</f>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D94">
         <f t="shared" ref="D94" ca="1" si="17">VLOOKUP(B94,data,3,FALSE)</f>
@@ -4360,25 +4375,25 @@
     <row r="95" spans="1:7">
       <c r="B95" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C95">
-        <f t="shared" ref="C95:C97" ca="1" si="18">VLOOKUP(B95,data,2,FALSE)</f>
-        <v>15</v>
+        <f t="shared" ref="C95:C102" ca="1" si="18">VLOOKUP(B95,data,2,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="D95">
-        <f t="shared" ref="D95:D97" ca="1" si="19">VLOOKUP(B95,data,3,FALSE)</f>
+        <f t="shared" ref="D95:D102" ca="1" si="19">VLOOKUP(B95,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="19"/>
@@ -4388,13 +4403,83 @@
     <row r="97" spans="2:4">
       <c r="B97" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44077</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="18"/>
         <v>6</v>
       </c>
-      <c r="D97">
+      <c r="D98">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44077</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44077</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B97),44077)</f>
+        <v>44077</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44077</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ca="1" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="D102">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DAC8F1-F0C4-4236-BE2C-11F9BF8454A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFA8CD9-22E1-40A3-90C2-13F2869B7DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="951" yWindow="17" windowWidth="20992" windowHeight="12326" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -851,8 +851,8 @@
               <c:idx val="42"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7272318815601234E-2"/>
-                  <c:y val="3.7689669145677417E-2"/>
+                  <c:x val="-6.867231543527935E-3"/>
+                  <c:y val="7.5784833734408474E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2855,7 +2855,7 @@
   <dimension ref="A2:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -3835,7 +3835,7 @@
     <row r="59" spans="1:7">
       <c r="B59" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44116.357860532407</v>
+        <v>44116.38726516204</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFA8CD9-22E1-40A3-90C2-13F2869B7DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4091242A-8E2E-4E88-B02D-0A4E8454F139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="951" yWindow="17" windowWidth="20992" windowHeight="12326" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -77,7 +77,7 @@
     <t>Tweet template:</t>
   </si>
   <si>
-    <t>[{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="}]</t>
+    <t>[{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="}]</t>
   </si>
 </sst>
 </file>
@@ -358,46 +358,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>12 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>11 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>9 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7 October</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6 October</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5 October</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4 October</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3 October</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2 October</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1 October</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>30 September</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>29 September</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28 September</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -409,46 +409,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -651,7 +651,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Uusia #koronavilkku päiväavaimia 666.</c:v>
+              <c:v>Uusia #koronavilkku päiväavaimia 691.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -738,7 +738,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -760,6 +760,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-95C7-492A-BC0E-1F5E118CF0A6}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -827,6 +830,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-95C7-492A-BC0E-1F5E118CF0A6}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -845,6 +851,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-95C7-492A-BC0E-1F5E118CF0A6}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -863,6 +872,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-95C7-492A-BC0E-1F5E118CF0A6}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -942,121 +954,121 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44077</c:v>
@@ -1065,7 +1077,7 @@
                   <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44077</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44077</c:v>
@@ -1080,121 +1092,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>6</c:v>
@@ -1203,7 +1215,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>6</c:v>
@@ -2518,15 +2530,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>375555</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>32659</xdr:rowOff>
+      <xdr:colOff>163284</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>5445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>146956</xdr:rowOff>
+      <xdr:colOff>250372</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2855,7 +2867,7 @@
   <dimension ref="A2:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2910,15 +2922,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>11 October</v>
+        <v>12 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -2952,15 +2964,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10 October</v>
+        <v>11 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -2994,19 +3006,19 @@
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>9 October</v>
+        <v>10 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
@@ -3014,79 +3026,79 @@
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>8 October</v>
+        <v>9 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>7 October</v>
+        <v>8 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3120,15 +3132,15 @@
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>6 October</v>
+        <v>7 October</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3144,33 +3156,33 @@
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>5 October</v>
+        <v>6 October</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3186,33 +3198,33 @@
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>4 October</v>
+        <v>5 October</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3220,125 +3232,125 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3 October</v>
+        <v>4 October</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2 October</v>
+        <v>3 October</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1 October</v>
+        <v>2 October</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3346,41 +3358,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>30 September</v>
+        <v>1 October</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3388,41 +3400,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1707</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>29 September</v>
+        <v>30 September</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3430,41 +3442,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1860</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>28 September</v>
+        <v>29 September</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3472,27 +3484,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3819,7 +3831,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on "&amp;C60&amp;" edelliset 7 päivää "&amp;F60&amp;" (muutos "&amp;G60&amp;"), "&amp;F67&amp;" ("&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;" https://github.com/jussivirkkala/excel"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 11.10 on 666 edelliset 7 päivää 4157 (muutos 121 %), 1884 (28 %), 1468 (56 %), 939 https://github.com/jussivirkkala/excel</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 12.10 on 691 edelliset 7 päivää 4395 (muutos 106 %), 2138 (42 %), 1510 (47 %), 1029 https://github.com/jussivirkkala/excel</v>
       </c>
       <c r="C56"/>
     </row>
@@ -3829,13 +3841,13 @@
       </c>
       <c r="F58" s="8" t="str">
         <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C60&amp;"."</f>
-        <v>Uusia #koronavilkku päiväavaimia 666.</v>
+        <v>Uusia #koronavilkku päiväavaimia 691.</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44116.38726516204</v>
+        <v>44117.366649189818</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -3847,11 +3859,11 @@
     <row r="60" spans="1:7">
       <c r="B60" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B59)</f>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="C60">
         <f t="shared" ref="C60:C93" ca="1" si="10">VLOOKUP(B60,data,2,FALSE)</f>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="D60">
         <f t="shared" ref="D60:D72" ca="1" si="11">VLOOKUP(B60,data,3,FALSE)</f>
@@ -3859,21 +3871,21 @@
       </c>
       <c r="F60">
         <f ca="1">SUM(C60:C66)</f>
-        <v>4157</v>
+        <v>4395</v>
       </c>
       <c r="G60" s="9" t="str">
         <f ca="1">TEXT(F60/F67-1,"0 %")</f>
-        <v>121 %</v>
+        <v>106 %</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="B61" s="3">
         <f t="shared" ref="B61:B81" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B60)</f>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="11"/>
@@ -3883,39 +3895,39 @@
     <row r="62" spans="1:7">
       <c r="B62" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="B63" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="B64" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="11"/>
@@ -3925,11 +3937,11 @@
     <row r="65" spans="2:7">
       <c r="B65" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="11"/>
@@ -3939,11 +3951,11 @@
     <row r="66" spans="2:7">
       <c r="B66" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="11"/>
@@ -3953,11 +3965,11 @@
     <row r="67" spans="2:7">
       <c r="B67" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="11"/>
@@ -3965,49 +3977,49 @@
       </c>
       <c r="F67">
         <f ca="1">SUM(C67:C73)</f>
-        <v>1884</v>
+        <v>2138</v>
       </c>
       <c r="G67" s="9" t="str">
         <f ca="1">TEXT(F67/F74-1,"0 %")</f>
-        <v>28 %</v>
+        <v>42 %</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="11"/>
@@ -4017,11 +4029,11 @@
     <row r="71" spans="2:7">
       <c r="B71" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="11"/>
@@ -4031,11 +4043,11 @@
     <row r="72" spans="2:7">
       <c r="B72" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="11"/>
@@ -4045,11 +4057,11 @@
     <row r="73" spans="2:7">
       <c r="B73" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D73">
         <f ca="1">VLOOKUP(B73,data,3,FALSE)</f>
@@ -4059,11 +4071,11 @@
     <row r="74" spans="2:7">
       <c r="B74" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D74">
         <f t="shared" ref="D74:D80" ca="1" si="13">VLOOKUP(B74,data,3,FALSE)</f>
@@ -4071,21 +4083,21 @@
       </c>
       <c r="F74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>1468</v>
+        <v>1510</v>
       </c>
       <c r="G74" s="9" t="str">
         <f ca="1">TEXT(F74/F81-1,"0 %")</f>
-        <v>56 %</v>
+        <v>47 %</v>
       </c>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="13"/>
@@ -4095,39 +4107,39 @@
     <row r="76" spans="2:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="13"/>
@@ -4137,11 +4149,11 @@
     <row r="79" spans="2:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="13"/>
@@ -4151,11 +4163,11 @@
     <row r="80" spans="2:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="13"/>
@@ -4165,11 +4177,11 @@
     <row r="81" spans="1:7">
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D81">
         <f t="shared" ref="D81:D93" ca="1" si="14">VLOOKUP(B81,data,3,FALSE)</f>
@@ -4177,21 +4189,21 @@
       </c>
       <c r="F81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>939</v>
+        <v>1029</v>
       </c>
       <c r="G81" s="9" t="str">
         <f ca="1">TEXT(F81/F88-1,"0 %")</f>
-        <v>95 %</v>
+        <v>105 %</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="B82" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B81),1.8202)</f>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="14"/>
@@ -4201,11 +4213,11 @@
     <row r="83" spans="1:7">
       <c r="B83" s="3">
         <f t="shared" ref="B83:B102" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B82),44077)</f>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="14"/>
@@ -4215,11 +4227,11 @@
     <row r="84" spans="1:7">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="14"/>
@@ -4229,11 +4241,11 @@
     <row r="85" spans="1:7">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="14"/>
@@ -4244,11 +4256,11 @@
       <c r="A86" s="7"/>
       <c r="B86" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="14"/>
@@ -4259,11 +4271,11 @@
       <c r="A87" s="3"/>
       <c r="B87" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="14"/>
@@ -4273,11 +4285,11 @@
     <row r="88" spans="1:7">
       <c r="B88" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="14"/>
@@ -4285,17 +4297,17 @@
       </c>
       <c r="F88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>481</v>
+        <v>502</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
@@ -4305,11 +4317,11 @@
     <row r="90" spans="1:7">
       <c r="B90" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
@@ -4319,11 +4331,11 @@
     <row r="91" spans="1:7">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
@@ -4333,11 +4345,11 @@
     <row r="92" spans="1:7">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
@@ -4347,11 +4359,11 @@
     <row r="93" spans="1:7">
       <c r="B93" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
@@ -4361,11 +4373,11 @@
     <row r="94" spans="1:7">
       <c r="B94" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C94">
         <f t="shared" ref="C94" ca="1" si="16">VLOOKUP(B94,data,2,FALSE)</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D94">
         <f t="shared" ref="D94" ca="1" si="17">VLOOKUP(B94,data,3,FALSE)</f>
@@ -4375,11 +4387,11 @@
     <row r="95" spans="1:7">
       <c r="B95" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C95">
         <f t="shared" ref="C95:C102" ca="1" si="18">VLOOKUP(B95,data,2,FALSE)</f>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D95">
         <f t="shared" ref="D95:D102" ca="1" si="19">VLOOKUP(B95,data,3,FALSE)</f>
@@ -4389,11 +4401,11 @@
     <row r="96" spans="1:7">
       <c r="B96" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="18"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="19"/>
@@ -4403,11 +4415,11 @@
     <row r="97" spans="2:4">
       <c r="B97" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="19"/>
@@ -4417,11 +4429,11 @@
     <row r="98" spans="2:4">
       <c r="B98" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="19"/>
@@ -4459,11 +4471,11 @@
     <row r="101" spans="2:4">
       <c r="B101" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B97),44077)</f>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="19"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4091242A-8E2E-4E88-B02D-0A4E8454F139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898453CC-4389-463A-9B1C-2A487CB30E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="951" yWindow="17" windowWidth="20992" windowHeight="12326" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>timestamp</t>
   </si>
@@ -62,9 +62,6 @@
     <t>https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin#Koronavilkkua</t>
   </si>
   <si>
-    <t>Export Android all-exposure-checks.json into A4</t>
-  </si>
-  <si>
     <t>Time column is currently supported for ENG (FIN/UK), SWE (FIN) and FIN until end of 2020</t>
   </si>
   <si>
@@ -78,6 +75,12 @@
   </si>
   <si>
     <t>[{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="}]</t>
+  </si>
+  <si>
+    <t>Matches</t>
+  </si>
+  <si>
+    <t>Paste Android all-exposure-checks.json into A4</t>
   </si>
 </sst>
 </file>
@@ -742,6 +745,9 @@
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-DED5-46AA-8717-42B4CF19EA4C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2530,15 +2536,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>163284</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>5445</xdr:rowOff>
+      <xdr:colOff>408213</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>250372</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>119742</xdr:rowOff>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2866,8 +2872,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2879,7 +2885,10 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
       </c>
       <c r="E2" s="2">
         <f>SUM(E9:E22)</f>
@@ -2888,18 +2897,18 @@
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3618,7 +3627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="3:5">
       <c r="C33" s="5">
         <v>44098</v>
       </c>
@@ -3627,7 +3636,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="3:5">
       <c r="C34" s="5">
         <v>44097</v>
       </c>
@@ -3636,7 +3645,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="3:5">
       <c r="C35" s="5">
         <v>44096</v>
       </c>
@@ -3645,7 +3654,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="3:5">
       <c r="C36" s="5">
         <v>44095</v>
       </c>
@@ -3654,7 +3663,7 @@
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="3:5">
       <c r="C37" s="5">
         <v>44094</v>
       </c>
@@ -3663,7 +3672,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="3:5">
       <c r="C38" s="5">
         <v>44093</v>
       </c>
@@ -3672,10 +3681,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="6" t="s">
-        <v>6</v>
-      </c>
+    <row r="39" spans="3:5">
       <c r="C39" s="5">
         <v>44092</v>
       </c>
@@ -3684,7 +3690,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="3:5">
       <c r="C40" s="5">
         <v>44091</v>
       </c>
@@ -3693,7 +3699,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="3:5">
       <c r="C41" s="5">
         <v>44090</v>
       </c>
@@ -3702,7 +3708,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="3:5">
       <c r="C42" s="5">
         <v>44089</v>
       </c>
@@ -3711,7 +3717,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="3:5">
       <c r="C43" s="5">
         <v>44088</v>
       </c>
@@ -3720,7 +3726,7 @@
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="3:5">
       <c r="C44" s="5">
         <v>44087</v>
       </c>
@@ -3729,7 +3735,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="3:5">
       <c r="C45" s="5">
         <v>44086</v>
       </c>
@@ -3738,7 +3744,7 @@
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="3:5">
       <c r="C46" s="5">
         <v>44085</v>
       </c>
@@ -3747,7 +3753,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="3:5">
       <c r="C47" s="5">
         <v>44084</v>
       </c>
@@ -3756,7 +3762,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="3:5">
       <c r="C48" s="5">
         <v>44083</v>
       </c>
@@ -3776,7 +3782,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50" s="5">
         <v>44081</v>
@@ -3785,6 +3791,9 @@
         <v>46</v>
       </c>
       <c r="E50" s="2"/>
+      <c r="G50" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="C51" s="5">
@@ -3814,9 +3823,6 @@
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" t="s">
-        <v>11</v>
-      </c>
       <c r="C54" s="5">
         <v>44077</v>
       </c>
@@ -3826,12 +3832,15 @@
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
       <c r="C55"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="8" t="str">
-        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on "&amp;C60&amp;" edelliset 7 päivää "&amp;F60&amp;" (muutos "&amp;G60&amp;"), "&amp;F67&amp;" ("&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;" https://github.com/jussivirkkala/excel"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 12.10 on 691 edelliset 7 päivää 4395 (muutos 106 %), 2138 (42 %), 1510 (47 %), 1029 https://github.com/jussivirkkala/excel</v>
+        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on "&amp;C60&amp;" edelliset 7 päivää "&amp;F60&amp;" (muutos "&amp;G60&amp;"), "&amp;F67&amp;" ("&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;" https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 12.10 on 691 edelliset 7 päivää 4395 (muutos 106 %), 2138 (42 %), 1510 (47 %), 1029 https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
       </c>
       <c r="C56"/>
     </row>
@@ -3847,7 +3856,7 @@
     <row r="59" spans="1:7">
       <c r="B59" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44117.366649189818</v>
+        <v>44117.382465509261</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -4299,6 +4308,10 @@
         <f ca="1">SUM(C88:C94)</f>
         <v>502</v>
       </c>
+      <c r="G88" s="9" t="str">
+        <f ca="1">TEXT(F88/F95-1,"0 %")</f>
+        <v>315 %</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="3">
@@ -4396,6 +4409,10 @@
       <c r="D95">
         <f t="shared" ref="D95:D102" ca="1" si="19">VLOOKUP(B95,data,3,FALSE)</f>
         <v>0</v>
+      </c>
+      <c r="F95">
+        <f ca="1">SUM(C95:C101)</f>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4501,7 +4518,7 @@
     <sortCondition descending="1" ref="C37:C49"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A39" r:id="rId1" location="Koronavilkkua" display="https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin - Koronavilkkua" xr:uid="{F06E6CD0-5429-431D-B74B-547C41718C4B}"/>
+    <hyperlink ref="G50" r:id="rId1" location="Koronavilkkua" display="https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin - Koronavilkkua" xr:uid="{F06E6CD0-5429-431D-B74B-547C41718C4B}"/>
     <hyperlink ref="A50" r:id="rId2" xr:uid="{517C9E3A-E5DB-4E26-91C6-74B95F09EC29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898453CC-4389-463A-9B1C-2A487CB30E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701B8F1A-DBC7-4F6F-BC86-F403D8A97F9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="951" yWindow="17" windowWidth="20992" windowHeight="12326" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -74,13 +74,13 @@
     <t>Tweet template:</t>
   </si>
   <si>
-    <t>[{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="}]</t>
-  </si>
-  <si>
     <t>Matches</t>
   </si>
   <si>
     <t>Paste Android all-exposure-checks.json into A4</t>
+  </si>
+  <si>
+    <t>[{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="}]</t>
   </si>
 </sst>
 </file>
@@ -361,46 +361,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>13 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>11 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>9 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8 October</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7 October</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>6 October</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>5 October</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4 October</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3 October</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2 October</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1 October</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>30 September</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29 September</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -412,46 +412,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -654,7 +654,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Uusia #koronavilkku päiväavaimia 691.</c:v>
+              <c:v>Uusia #koronavilkku päiväavaimia 649.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -960,133 +960,133 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,133 +1098,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2873,7 +2873,7 @@
   <dimension ref="A2:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2885,19 +2885,27 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2">
         <f>SUM(E9:E22)</f>
         <v>2</v>
       </c>
+      <c r="G2">
+        <f>SUM(D9:D54)</f>
+        <v>11766</v>
+      </c>
+      <c r="H2">
+        <f>G2/14</f>
+        <v>840.42857142857144</v>
+      </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -2931,15 +2939,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>12 October</v>
+        <v>13 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -2973,15 +2981,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>11 October</v>
+        <v>12 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -2989,41 +2997,41 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10 October</v>
+        <v>11 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -3031,125 +3039,125 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>9 October</v>
+        <v>10 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>8 October</v>
+        <v>9 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>7 October</v>
+        <v>8 October</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3157,41 +3165,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>6 October</v>
+        <v>7 October</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3199,11 +3207,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
@@ -3225,15 +3233,15 @@
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>5 October</v>
+        <v>6 October</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3241,41 +3249,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>4 October</v>
+        <v>5 October</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3309,99 +3317,99 @@
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3 October</v>
+        <v>4 October</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1409</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2 October</v>
+        <v>3 October</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1557</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1 October</v>
+        <v>2 October</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3409,41 +3417,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1705</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>30 September</v>
+        <v>1 October</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3451,41 +3459,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>29 September</v>
+        <v>30 September</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3493,27 +3501,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2009</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3839,8 +3847,8 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="8" t="str">
-        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on "&amp;C60&amp;" edelliset 7 päivää "&amp;F60&amp;" (muutos "&amp;G60&amp;"), "&amp;F67&amp;" ("&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;" https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 12.10 on 691 edelliset 7 päivää 4395 (muutos 106 %), 2138 (42 %), 1510 (47 %), 1029 https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on "&amp;C60&amp;" edelliset 7 päivää "&amp;F60&amp;" (muutos "&amp;G60&amp;"), "&amp;F67&amp;" ("&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;". Kumulatiivisesti /14 arvioituna avauskoodeja jaettu vähintään "&amp;TEXT(H2/14,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 13.10 on 649 edelliset 7 päivää 4389 (muutos 72 %), 2555 (78 %), 1437 (19 %), 1204. Kumulatiivisesti /14 arvioituna avauskoodeja jaettu vähintään 60, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
       </c>
       <c r="C56"/>
     </row>
@@ -3850,13 +3858,13 @@
       </c>
       <c r="F58" s="8" t="str">
         <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C60&amp;"."</f>
-        <v>Uusia #koronavilkku päiväavaimia 691.</v>
+        <v>Uusia #koronavilkku päiväavaimia 649.</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44117.382465509261</v>
+        <v>44118.36683796296</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -3868,11 +3876,11 @@
     <row r="60" spans="1:7">
       <c r="B60" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B59)</f>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="C60">
         <f t="shared" ref="C60:C93" ca="1" si="10">VLOOKUP(B60,data,2,FALSE)</f>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D60">
         <f t="shared" ref="D60:D72" ca="1" si="11">VLOOKUP(B60,data,3,FALSE)</f>
@@ -3880,21 +3888,21 @@
       </c>
       <c r="F60">
         <f ca="1">SUM(C60:C66)</f>
-        <v>4395</v>
+        <v>4389</v>
       </c>
       <c r="G60" s="9" t="str">
         <f ca="1">TEXT(F60/F67-1,"0 %")</f>
-        <v>106 %</v>
+        <v>72 %</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="B61" s="3">
         <f t="shared" ref="B61:B81" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B60)</f>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="10"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="11"/>
@@ -3904,11 +3912,11 @@
     <row r="62" spans="1:7">
       <c r="B62" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="11"/>
@@ -3918,39 +3926,39 @@
     <row r="63" spans="1:7">
       <c r="B63" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="B64" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="11"/>
@@ -3960,11 +3968,11 @@
     <row r="66" spans="2:7">
       <c r="B66" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="11"/>
@@ -3974,11 +3982,11 @@
     <row r="67" spans="2:7">
       <c r="B67" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="11"/>
@@ -3986,21 +3994,21 @@
       </c>
       <c r="F67">
         <f ca="1">SUM(C67:C73)</f>
-        <v>2138</v>
+        <v>2555</v>
       </c>
       <c r="G67" s="9" t="str">
         <f ca="1">TEXT(F67/F74-1,"0 %")</f>
-        <v>42 %</v>
+        <v>78 %</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="11"/>
@@ -4010,39 +4018,39 @@
     <row r="69" spans="2:7">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="11"/>
@@ -4052,11 +4060,11 @@
     <row r="72" spans="2:7">
       <c r="B72" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="11"/>
@@ -4066,11 +4074,11 @@
     <row r="73" spans="2:7">
       <c r="B73" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D73">
         <f ca="1">VLOOKUP(B73,data,3,FALSE)</f>
@@ -4080,11 +4088,11 @@
     <row r="74" spans="2:7">
       <c r="B74" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D74">
         <f t="shared" ref="D74:D80" ca="1" si="13">VLOOKUP(B74,data,3,FALSE)</f>
@@ -4092,21 +4100,21 @@
       </c>
       <c r="F74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>1510</v>
+        <v>1437</v>
       </c>
       <c r="G74" s="9" t="str">
         <f ca="1">TEXT(F74/F81-1,"0 %")</f>
-        <v>47 %</v>
+        <v>19 %</v>
       </c>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="13"/>
@@ -4116,11 +4124,11 @@
     <row r="76" spans="2:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="13"/>
@@ -4130,39 +4138,39 @@
     <row r="77" spans="2:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="13"/>
@@ -4172,11 +4180,11 @@
     <row r="80" spans="2:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="13"/>
@@ -4186,11 +4194,11 @@
     <row r="81" spans="1:7">
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D81">
         <f t="shared" ref="D81:D93" ca="1" si="14">VLOOKUP(B81,data,3,FALSE)</f>
@@ -4198,21 +4206,21 @@
       </c>
       <c r="F81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>1029</v>
+        <v>1204</v>
       </c>
       <c r="G81" s="9" t="str">
         <f ca="1">TEXT(F81/F88-1,"0 %")</f>
-        <v>105 %</v>
+        <v>107 %</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="B82" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B81),1.8202)</f>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="14"/>
@@ -4222,11 +4230,11 @@
     <row r="83" spans="1:7">
       <c r="B83" s="3">
         <f t="shared" ref="B83:B102" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B82),44077)</f>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="14"/>
@@ -4236,11 +4244,11 @@
     <row r="84" spans="1:7">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="14"/>
@@ -4250,11 +4258,11 @@
     <row r="85" spans="1:7">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="14"/>
@@ -4265,11 +4273,11 @@
       <c r="A86" s="7"/>
       <c r="B86" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="14"/>
@@ -4280,11 +4288,11 @@
       <c r="A87" s="3"/>
       <c r="B87" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="14"/>
@@ -4294,11 +4302,11 @@
     <row r="88" spans="1:7">
       <c r="B88" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="14"/>
@@ -4306,21 +4314,21 @@
       </c>
       <c r="F88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>502</v>
+        <v>582</v>
       </c>
       <c r="G88" s="9" t="str">
         <f ca="1">TEXT(F88/F95-1,"0 %")</f>
-        <v>315 %</v>
+        <v>249 %</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
@@ -4330,11 +4338,11 @@
     <row r="90" spans="1:7">
       <c r="B90" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
@@ -4344,11 +4352,11 @@
     <row r="91" spans="1:7">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
@@ -4358,11 +4366,11 @@
     <row r="92" spans="1:7">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
@@ -4372,11 +4380,11 @@
     <row r="93" spans="1:7">
       <c r="B93" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
@@ -4386,11 +4394,11 @@
     <row r="94" spans="1:7">
       <c r="B94" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C94">
         <f t="shared" ref="C94" ca="1" si="16">VLOOKUP(B94,data,2,FALSE)</f>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D94">
         <f t="shared" ref="D94" ca="1" si="17">VLOOKUP(B94,data,3,FALSE)</f>
@@ -4400,11 +4408,11 @@
     <row r="95" spans="1:7">
       <c r="B95" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C95">
         <f t="shared" ref="C95:C102" ca="1" si="18">VLOOKUP(B95,data,2,FALSE)</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D95">
         <f t="shared" ref="D95:D102" ca="1" si="19">VLOOKUP(B95,data,3,FALSE)</f>
@@ -4412,17 +4420,17 @@
       </c>
       <c r="F95">
         <f ca="1">SUM(C95:C101)</f>
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="19"/>
@@ -4432,11 +4440,11 @@
     <row r="97" spans="2:4">
       <c r="B97" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="18"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="19"/>
@@ -4446,11 +4454,11 @@
     <row r="98" spans="2:4">
       <c r="B98" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="19"/>
@@ -4460,11 +4468,11 @@
     <row r="99" spans="2:4">
       <c r="B99" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="19"/>
@@ -4488,11 +4496,11 @@
     <row r="101" spans="2:4">
       <c r="B101" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B97),44077)</f>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="19"/>
@@ -4502,11 +4510,11 @@
     <row r="102" spans="2:4">
       <c r="B102" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="19"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701B8F1A-DBC7-4F6F-BC86-F403D8A97F9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9711824B-6056-4114-9089-6DC869B8D948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="951" yWindow="17" windowWidth="20992" windowHeight="12326" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
+    <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Android" sheetId="1" r:id="rId1"/>
@@ -654,7 +654,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Uusia #koronavilkku päiväavaimia 649.</c:v>
+              <c:v>Uusia #koronavilkku päiväavaimia 559.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -960,133 +960,133 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>44078</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>44077</c:v>
-                </c:pt>
                 <c:pt idx="41">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>44079</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,133 +1098,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,8 +2872,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2896,11 +2896,11 @@
       </c>
       <c r="G2">
         <f>SUM(D9:D54)</f>
-        <v>11766</v>
+        <v>12031</v>
       </c>
       <c r="H2">
         <f>G2/14</f>
-        <v>840.42857142857144</v>
+        <v>859.35714285714289</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -3529,10 +3529,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="5">
-        <v>44108</v>
+        <v>44118</v>
       </c>
       <c r="D23" s="2">
-        <v>294</v>
+        <v>559</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -3847,8 +3847,8 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="8" t="str">
-        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on "&amp;C60&amp;" edelliset 7 päivää "&amp;F60&amp;" (muutos "&amp;G60&amp;"), "&amp;F67&amp;" ("&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;". Kumulatiivisesti /14 arvioituna avauskoodeja jaettu vähintään "&amp;TEXT(H2/14,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 13.10 on 649 edelliset 7 päivää 4389 (muutos 72 %), 2555 (78 %), 1437 (19 %), 1204. Kumulatiivisesti /14 arvioituna avauskoodeja jaettu vähintään 60, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C60&amp;" edelliset 7 päivää "&amp;F60&amp;" (muutos "&amp;G60&amp;"), "&amp;F67&amp;" ("&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;". Kumulatiivisesti "&amp;G2&amp;" ja /14 arvioituna avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 14.10 on n=559 edelliset 7 päivää 4370 (muutos 55 %), 2815 (80 %), 1566 (24 %), 1268. Kumulatiivisesti 12031 ja /14 arvioituna avauskoodeja jaettu vähintään 859, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
       </c>
       <c r="C56"/>
     </row>
@@ -3858,13 +3858,13 @@
       </c>
       <c r="F58" s="8" t="str">
         <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C60&amp;"."</f>
-        <v>Uusia #koronavilkku päiväavaimia 649.</v>
+        <v>Uusia #koronavilkku päiväavaimia 559.</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44118.36683796296</v>
+        <v>44119.338861574077</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -3876,11 +3876,11 @@
     <row r="60" spans="1:7">
       <c r="B60" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B59)</f>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C60">
         <f t="shared" ref="C60:C93" ca="1" si="10">VLOOKUP(B60,data,2,FALSE)</f>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="D60">
         <f t="shared" ref="D60:D72" ca="1" si="11">VLOOKUP(B60,data,3,FALSE)</f>
@@ -3888,21 +3888,21 @@
       </c>
       <c r="F60">
         <f ca="1">SUM(C60:C66)</f>
-        <v>4389</v>
+        <v>4370</v>
       </c>
       <c r="G60" s="9" t="str">
         <f ca="1">TEXT(F60/F67-1,"0 %")</f>
-        <v>72 %</v>
+        <v>55 %</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="B61" s="3">
         <f t="shared" ref="B61:B81" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B60)</f>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="10"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="11"/>
@@ -3912,11 +3912,11 @@
     <row r="62" spans="1:7">
       <c r="B62" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="10"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="11"/>
@@ -3926,11 +3926,11 @@
     <row r="63" spans="1:7">
       <c r="B63" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="11"/>
@@ -3940,39 +3940,39 @@
     <row r="64" spans="1:7">
       <c r="B64" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="11"/>
@@ -3982,11 +3982,11 @@
     <row r="67" spans="2:7">
       <c r="B67" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="11"/>
@@ -3994,21 +3994,21 @@
       </c>
       <c r="F67">
         <f ca="1">SUM(C67:C73)</f>
-        <v>2555</v>
+        <v>2815</v>
       </c>
       <c r="G67" s="9" t="str">
         <f ca="1">TEXT(F67/F74-1,"0 %")</f>
-        <v>78 %</v>
+        <v>80 %</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="11"/>
@@ -4018,11 +4018,11 @@
     <row r="69" spans="2:7">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="11"/>
@@ -4032,39 +4032,39 @@
     <row r="70" spans="2:7">
       <c r="B70" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="11"/>
@@ -4074,11 +4074,11 @@
     <row r="73" spans="2:7">
       <c r="B73" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D73">
         <f ca="1">VLOOKUP(B73,data,3,FALSE)</f>
@@ -4088,11 +4088,11 @@
     <row r="74" spans="2:7">
       <c r="B74" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D74">
         <f t="shared" ref="D74:D80" ca="1" si="13">VLOOKUP(B74,data,3,FALSE)</f>
@@ -4100,21 +4100,21 @@
       </c>
       <c r="F74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>1437</v>
+        <v>1566</v>
       </c>
       <c r="G74" s="9" t="str">
         <f ca="1">TEXT(F74/F81-1,"0 %")</f>
-        <v>19 %</v>
+        <v>24 %</v>
       </c>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="13"/>
@@ -4124,11 +4124,11 @@
     <row r="76" spans="2:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="13"/>
@@ -4138,11 +4138,11 @@
     <row r="77" spans="2:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="13"/>
@@ -4152,39 +4152,39 @@
     <row r="78" spans="2:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="13"/>
@@ -4194,11 +4194,11 @@
     <row r="81" spans="1:7">
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D81">
         <f t="shared" ref="D81:D93" ca="1" si="14">VLOOKUP(B81,data,3,FALSE)</f>
@@ -4206,21 +4206,21 @@
       </c>
       <c r="F81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>1204</v>
+        <v>1268</v>
       </c>
       <c r="G81" s="9" t="str">
         <f ca="1">TEXT(F81/F88-1,"0 %")</f>
-        <v>107 %</v>
+        <v>109 %</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="B82" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B81),1.8202)</f>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="14"/>
@@ -4230,11 +4230,11 @@
     <row r="83" spans="1:7">
       <c r="B83" s="3">
         <f t="shared" ref="B83:B102" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B82),44077)</f>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="14"/>
@@ -4244,11 +4244,11 @@
     <row r="84" spans="1:7">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="14"/>
@@ -4258,11 +4258,11 @@
     <row r="85" spans="1:7">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="14"/>
@@ -4273,11 +4273,11 @@
       <c r="A86" s="7"/>
       <c r="B86" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="14"/>
@@ -4288,11 +4288,11 @@
       <c r="A87" s="3"/>
       <c r="B87" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="14"/>
@@ -4302,11 +4302,11 @@
     <row r="88" spans="1:7">
       <c r="B88" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="14"/>
@@ -4314,21 +4314,21 @@
       </c>
       <c r="F88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="G88" s="9" t="str">
         <f ca="1">TEXT(F88/F95-1,"0 %")</f>
-        <v>249 %</v>
+        <v>136 %</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
@@ -4338,11 +4338,11 @@
     <row r="90" spans="1:7">
       <c r="B90" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
@@ -4352,11 +4352,11 @@
     <row r="91" spans="1:7">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
@@ -4366,11 +4366,11 @@
     <row r="92" spans="1:7">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
@@ -4380,11 +4380,11 @@
     <row r="93" spans="1:7">
       <c r="B93" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
@@ -4394,11 +4394,11 @@
     <row r="94" spans="1:7">
       <c r="B94" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C94">
         <f t="shared" ref="C94" ca="1" si="16">VLOOKUP(B94,data,2,FALSE)</f>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D94">
         <f t="shared" ref="D94" ca="1" si="17">VLOOKUP(B94,data,3,FALSE)</f>
@@ -4408,11 +4408,11 @@
     <row r="95" spans="1:7">
       <c r="B95" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C95">
         <f t="shared" ref="C95:C102" ca="1" si="18">VLOOKUP(B95,data,2,FALSE)</f>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D95">
         <f t="shared" ref="D95:D102" ca="1" si="19">VLOOKUP(B95,data,3,FALSE)</f>
@@ -4420,17 +4420,17 @@
       </c>
       <c r="F95">
         <f ca="1">SUM(C95:C101)</f>
-        <v>167</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="19"/>
@@ -4440,11 +4440,11 @@
     <row r="97" spans="2:4">
       <c r="B97" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="19"/>
@@ -4454,11 +4454,11 @@
     <row r="98" spans="2:4">
       <c r="B98" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="18"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="19"/>
@@ -4468,11 +4468,11 @@
     <row r="99" spans="2:4">
       <c r="B99" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="19"/>
@@ -4482,11 +4482,11 @@
     <row r="100" spans="2:4">
       <c r="B100" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="19"/>
@@ -4496,11 +4496,11 @@
     <row r="101" spans="2:4">
       <c r="B101" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B97),44077)</f>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="18"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="19"/>
@@ -4510,11 +4510,11 @@
     <row r="102" spans="2:4">
       <c r="B102" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="19"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9711824B-6056-4114-9089-6DC869B8D948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187F8D2E-BC1A-44AD-9835-8CBB9162F5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>Paste Android all-exposure-checks.json into A4</t>
   </si>
   <si>
-    <t>[{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="}]</t>
+    <t>[{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="}]</t>
   </si>
 </sst>
 </file>
@@ -361,46 +361,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>15 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14 October</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>13 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>12 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>11 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>10 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>9 October</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>8 October</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>7 October</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>6 October</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>5 October</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>4 October</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>3 October</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>2 October</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1 October</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30 September</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -412,46 +412,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -654,7 +654,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Uusia #koronavilkku päiväavaimia 559.</c:v>
+              <c:v>Uusia #koronavilkku päiväavaimia 429.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -960,133 +960,133 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>44078</c:v>
-                </c:pt>
                 <c:pt idx="41">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>44080</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,133 +1098,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>19</c:v>
-                </c:pt>
                 <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,8 +2872,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2896,11 +2896,11 @@
       </c>
       <c r="G2">
         <f>SUM(D9:D54)</f>
-        <v>12031</v>
+        <v>11939</v>
       </c>
       <c r="H2">
         <f>G2/14</f>
-        <v>859.35714285714289</v>
+        <v>852.78571428571433</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -2939,15 +2939,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>13 October</v>
+        <v>15 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44117</v>
+        <v>44119</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>649</v>
+        <v>429</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -2981,15 +2981,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>12 October</v>
+        <v>14 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44116</v>
+        <v>44118</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>691</v>
+        <v>559</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -2997,41 +2997,41 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>11 October</v>
+        <v>13 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44115</v>
+        <v>44117</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -3065,15 +3065,15 @@
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10 October</v>
+        <v>12 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44114</v>
+        <v>44116</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3081,83 +3081,83 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>9 October</v>
+        <v>11 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>666</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>8 October</v>
+        <v>10 October</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>720</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3165,83 +3165,83 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>7 October</v>
+        <v>9 October</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44111</v>
+        <v>44113</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>6 October</v>
+        <v>8 October</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44110</v>
+        <v>44112</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>655</v>
+        <v>445</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3249,11 +3249,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
@@ -3275,15 +3275,15 @@
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>5 October</v>
+        <v>7 October</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44109</v>
+        <v>44111</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>578</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3291,41 +3291,41 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>4 October</v>
+        <v>6 October</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44108</v>
+        <v>44110</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>655</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3341,75 +3341,75 @@
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3 October</v>
+        <v>5 October</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44107</v>
+        <v>44109</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2 October</v>
+        <v>4 October</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44106</v>
+        <v>44108</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3417,83 +3417,83 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1707</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1 October</v>
+        <v>3 October</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44105</v>
+        <v>44107</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>463</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1855</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>30 September</v>
+        <v>2 October</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44104</v>
+        <v>44106</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>169</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
@@ -3528,15 +3528,9 @@
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="5">
-        <v>44118</v>
-      </c>
-      <c r="D23" s="2">
-        <v>559</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:12">
       <c r="C24" s="5">
@@ -3622,7 +3616,9 @@
       <c r="D31" s="2">
         <v>242</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
       <c r="C32" s="5">
@@ -3642,7 +3638,9 @@
       <c r="D33" s="2">
         <v>211</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="5">
@@ -3651,7 +3649,9 @@
       <c r="D34" s="2">
         <v>189</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="5">
@@ -3660,7 +3660,9 @@
       <c r="D35" s="2">
         <v>311</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="5">
@@ -3669,7 +3671,9 @@
       <c r="D36" s="2">
         <v>157</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="3:5">
       <c r="C37" s="5">
@@ -3678,7 +3682,9 @@
       <c r="D37" s="2">
         <v>202</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="3:5">
       <c r="C38" s="5">
@@ -3687,7 +3693,9 @@
       <c r="D38" s="2">
         <v>190</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="3:5">
       <c r="C39" s="5">
@@ -3696,7 +3704,9 @@
       <c r="D39" s="2">
         <v>82</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="3:5">
       <c r="C40" s="5">
@@ -3705,7 +3715,9 @@
       <c r="D40" s="2">
         <v>137</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="3:5">
       <c r="C41" s="5">
@@ -3714,7 +3726,9 @@
       <c r="D41" s="2">
         <v>125</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="5">
@@ -3723,7 +3737,9 @@
       <c r="D42" s="2">
         <v>136</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="3:5">
       <c r="C43" s="5">
@@ -3732,7 +3748,9 @@
       <c r="D43" s="2">
         <v>67</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="3:5">
       <c r="C44" s="5">
@@ -3741,7 +3759,9 @@
       <c r="D44" s="2">
         <v>87</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="3:5">
       <c r="C45" s="5">
@@ -3750,7 +3770,9 @@
       <c r="D45" s="2">
         <v>46</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="3:5">
       <c r="C46" s="5">
@@ -3759,7 +3781,9 @@
       <c r="D46" s="2">
         <v>70</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="3:5">
       <c r="C47" s="5">
@@ -3768,7 +3792,9 @@
       <c r="D47" s="2">
         <v>75</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="3:5">
       <c r="C48" s="5">
@@ -3777,7 +3803,9 @@
       <c r="D48" s="2">
         <v>101</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="C49" s="5">
@@ -3786,7 +3814,9 @@
       <c r="D49" s="2">
         <v>56</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="6" t="s">
@@ -3798,7 +3828,9 @@
       <c r="D50" s="2">
         <v>46</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="6" t="s">
         <v>6</v>
       </c>
@@ -3810,7 +3842,9 @@
       <c r="D51" s="2">
         <v>10</v>
       </c>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="C52" s="5">
@@ -3819,7 +3853,9 @@
       <c r="D52" s="2">
         <v>15</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
       <c r="C53" s="5">
@@ -3828,7 +3864,9 @@
       <c r="D53" s="2">
         <v>19</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="C54" s="5">
@@ -3837,7 +3875,9 @@
       <c r="D54" s="2">
         <v>6</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
@@ -3848,7 +3888,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C60&amp;" edelliset 7 päivää "&amp;F60&amp;" (muutos "&amp;G60&amp;"), "&amp;F67&amp;" ("&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;". Kumulatiivisesti "&amp;G2&amp;" ja /14 arvioituna avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 14.10 on n=559 edelliset 7 päivää 4370 (muutos 55 %), 2815 (80 %), 1566 (24 %), 1268. Kumulatiivisesti 12031 ja /14 arvioituna avauskoodeja jaettu vähintään 859, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 15.10 on n=429 edelliset 7 päivää 4354 (muutos 42 %), 3057 (96 %), 1558 (16 %), 1342. Kumulatiivisesti 11939 ja /14 arvioituna avauskoodeja jaettu vähintään 853, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
       </c>
       <c r="C56"/>
     </row>
@@ -3858,13 +3898,13 @@
       </c>
       <c r="F58" s="8" t="str">
         <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C60&amp;"."</f>
-        <v>Uusia #koronavilkku päiväavaimia 559.</v>
+        <v>Uusia #koronavilkku päiväavaimia 429.</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44119.338861574077</v>
+        <v>44120.373298148152</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -3876,11 +3916,11 @@
     <row r="60" spans="1:7">
       <c r="B60" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B59)</f>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C60">
         <f t="shared" ref="C60:C93" ca="1" si="10">VLOOKUP(B60,data,2,FALSE)</f>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="D60">
         <f t="shared" ref="D60:D72" ca="1" si="11">VLOOKUP(B60,data,3,FALSE)</f>
@@ -3888,21 +3928,21 @@
       </c>
       <c r="F60">
         <f ca="1">SUM(C60:C66)</f>
-        <v>4370</v>
+        <v>4354</v>
       </c>
       <c r="G60" s="9" t="str">
         <f ca="1">TEXT(F60/F67-1,"0 %")</f>
-        <v>55 %</v>
+        <v>42 %</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="B61" s="3">
         <f t="shared" ref="B61:B81" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B60)</f>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="10"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="11"/>
@@ -3912,11 +3952,11 @@
     <row r="62" spans="1:7">
       <c r="B62" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="10"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="11"/>
@@ -3926,11 +3966,11 @@
     <row r="63" spans="1:7">
       <c r="B63" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="10"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="11"/>
@@ -3940,11 +3980,11 @@
     <row r="64" spans="1:7">
       <c r="B64" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="11"/>
@@ -3954,39 +3994,39 @@
     <row r="65" spans="2:7">
       <c r="B65" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="11"/>
@@ -3994,21 +4034,21 @@
       </c>
       <c r="F67">
         <f ca="1">SUM(C67:C73)</f>
-        <v>2815</v>
+        <v>3057</v>
       </c>
       <c r="G67" s="9" t="str">
         <f ca="1">TEXT(F67/F74-1,"0 %")</f>
-        <v>80 %</v>
+        <v>96 %</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="11"/>
@@ -4018,11 +4058,11 @@
     <row r="69" spans="2:7">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="11"/>
@@ -4032,11 +4072,11 @@
     <row r="70" spans="2:7">
       <c r="B70" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="11"/>
@@ -4046,39 +4086,39 @@
     <row r="71" spans="2:7">
       <c r="B71" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D73">
         <f ca="1">VLOOKUP(B73,data,3,FALSE)</f>
@@ -4088,11 +4128,11 @@
     <row r="74" spans="2:7">
       <c r="B74" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D74">
         <f t="shared" ref="D74:D80" ca="1" si="13">VLOOKUP(B74,data,3,FALSE)</f>
@@ -4100,21 +4140,21 @@
       </c>
       <c r="F74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="G74" s="9" t="str">
         <f ca="1">TEXT(F74/F81-1,"0 %")</f>
-        <v>24 %</v>
+        <v>16 %</v>
       </c>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="13"/>
@@ -4124,11 +4164,11 @@
     <row r="76" spans="2:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="13"/>
@@ -4138,11 +4178,11 @@
     <row r="77" spans="2:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="13"/>
@@ -4152,11 +4192,11 @@
     <row r="78" spans="2:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="13"/>
@@ -4166,39 +4206,39 @@
     <row r="79" spans="2:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D81">
         <f t="shared" ref="D81:D93" ca="1" si="14">VLOOKUP(B81,data,3,FALSE)</f>
@@ -4206,21 +4246,21 @@
       </c>
       <c r="F81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>1268</v>
+        <v>1342</v>
       </c>
       <c r="G81" s="9" t="str">
         <f ca="1">TEXT(F81/F88-1,"0 %")</f>
-        <v>109 %</v>
+        <v>101 %</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="B82" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B81),1.8202)</f>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="14"/>
@@ -4230,11 +4270,11 @@
     <row r="83" spans="1:7">
       <c r="B83" s="3">
         <f t="shared" ref="B83:B102" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B82),44077)</f>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="14"/>
@@ -4244,11 +4284,11 @@
     <row r="84" spans="1:7">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="14"/>
@@ -4258,11 +4298,11 @@
     <row r="85" spans="1:7">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="14"/>
@@ -4273,11 +4313,11 @@
       <c r="A86" s="7"/>
       <c r="B86" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="14"/>
@@ -4288,11 +4328,11 @@
       <c r="A87" s="3"/>
       <c r="B87" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="14"/>
@@ -4302,11 +4342,11 @@
     <row r="88" spans="1:7">
       <c r="B88" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="14"/>
@@ -4314,21 +4354,21 @@
       </c>
       <c r="F88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>606</v>
+        <v>668</v>
       </c>
       <c r="G88" s="9" t="str">
         <f ca="1">TEXT(F88/F95-1,"0 %")</f>
-        <v>136 %</v>
+        <v>91 %</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
@@ -4338,11 +4378,11 @@
     <row r="90" spans="1:7">
       <c r="B90" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
@@ -4352,11 +4392,11 @@
     <row r="91" spans="1:7">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
@@ -4366,11 +4406,11 @@
     <row r="92" spans="1:7">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
@@ -4380,11 +4420,11 @@
     <row r="93" spans="1:7">
       <c r="B93" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
@@ -4394,11 +4434,11 @@
     <row r="94" spans="1:7">
       <c r="B94" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C94">
         <f t="shared" ref="C94" ca="1" si="16">VLOOKUP(B94,data,2,FALSE)</f>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D94">
         <f t="shared" ref="D94" ca="1" si="17">VLOOKUP(B94,data,3,FALSE)</f>
@@ -4408,11 +4448,11 @@
     <row r="95" spans="1:7">
       <c r="B95" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C95">
         <f t="shared" ref="C95:C102" ca="1" si="18">VLOOKUP(B95,data,2,FALSE)</f>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D95">
         <f t="shared" ref="D95:D102" ca="1" si="19">VLOOKUP(B95,data,3,FALSE)</f>
@@ -4420,17 +4460,17 @@
       </c>
       <c r="F95">
         <f ca="1">SUM(C95:C101)</f>
-        <v>257</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="18"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="19"/>
@@ -4440,11 +4480,11 @@
     <row r="97" spans="2:4">
       <c r="B97" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="19"/>
@@ -4454,11 +4494,11 @@
     <row r="98" spans="2:4">
       <c r="B98" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="19"/>
@@ -4468,11 +4508,11 @@
     <row r="99" spans="2:4">
       <c r="B99" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="18"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="19"/>
@@ -4482,11 +4522,11 @@
     <row r="100" spans="2:4">
       <c r="B100" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="19"/>
@@ -4496,11 +4536,11 @@
     <row r="101" spans="2:4">
       <c r="B101" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B97),44077)</f>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="19"/>
@@ -4510,11 +4550,11 @@
     <row r="102" spans="2:4">
       <c r="B102" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="18"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="19"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187F8D2E-BC1A-44AD-9835-8CBB9162F5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3324E77-1E2C-4101-BFCC-89336B74FDC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>Paste Android all-exposure-checks.json into A4</t>
   </si>
   <si>
-    <t>[{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="},{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="}]</t>
+    <t>[{"timestamp":"16 October 2020, 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="}]</t>
   </si>
 </sst>
 </file>
@@ -361,46 +361,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>16 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>15 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>14 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>13 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>12 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>11 October</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>10 October</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>9 October</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8 October</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>7 October</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>6 October</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>5 October</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>4 October</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>3 October</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2 October</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -412,46 +412,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>463</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -654,7 +654,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Uusia #koronavilkku päiväavaimia 429.</c:v>
+              <c:v>Uusia #koronavilkku päiväavaimia 639.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -960,133 +960,133 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44119</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>44079</c:v>
-                </c:pt>
                 <c:pt idx="41">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>44081</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,133 +1098,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="41">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,8 +2872,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2896,11 +2896,11 @@
       </c>
       <c r="G2">
         <f>SUM(D9:D54)</f>
-        <v>11939</v>
+        <v>12703</v>
       </c>
       <c r="H2">
         <f>G2/14</f>
-        <v>852.78571428571433</v>
+        <v>907.35714285714289</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -2939,15 +2939,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>15 October</v>
+        <v>16 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -2981,15 +2981,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>14 October</v>
+        <v>15 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -3023,15 +3023,15 @@
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>13 October</v>
+        <v>14 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -3039,41 +3039,41 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>12 October</v>
+        <v>13 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3081,41 +3081,41 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>11 October</v>
+        <v>12 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3149,15 +3149,15 @@
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10 October</v>
+        <v>11 October</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3191,19 +3191,19 @@
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>9 October</v>
+        <v>10 October</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
@@ -3211,79 +3211,79 @@
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>8 October</v>
+        <v>9 October</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>7 October</v>
+        <v>8 October</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3317,15 +3317,15 @@
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>6 October</v>
+        <v>7 October</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3341,33 +3341,33 @@
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>5 October</v>
+        <v>6 October</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3383,33 +3383,33 @@
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>4 October</v>
+        <v>5 October</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3417,120 +3417,126 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3 October</v>
+        <v>4 October</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2 October</v>
+        <v>3 October</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="C23" s="5">
+        <v>44108</v>
+      </c>
+      <c r="D23" s="2">
+        <v>294</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="C24" s="5">
@@ -3888,7 +3894,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C60&amp;" edelliset 7 päivää "&amp;F60&amp;" (muutos "&amp;G60&amp;"), "&amp;F67&amp;" ("&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;". Kumulatiivisesti "&amp;G2&amp;" ja /14 arvioituna avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 15.10 on n=429 edelliset 7 päivää 4354 (muutos 42 %), 3057 (96 %), 1558 (16 %), 1342. Kumulatiivisesti 11939 ja /14 arvioituna avauskoodeja jaettu vähintään 853, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 16.10 on n=639 edelliset 7 päivää 4353 (muutos 23 %), 3528 (134 %), 1510 (2 %), 1477. Kumulatiivisesti 12703 ja /14 arvioituna avauskoodeja jaettu vähintään 907, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
       </c>
       <c r="C56"/>
     </row>
@@ -3898,13 +3904,13 @@
       </c>
       <c r="F58" s="8" t="str">
         <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C60&amp;"."</f>
-        <v>Uusia #koronavilkku päiväavaimia 429.</v>
+        <v>Uusia #koronavilkku päiväavaimia 639.</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44120.373298148152</v>
+        <v>44121.386854166667</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -3916,11 +3922,11 @@
     <row r="60" spans="1:7">
       <c r="B60" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B59)</f>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C60">
         <f t="shared" ref="C60:C93" ca="1" si="10">VLOOKUP(B60,data,2,FALSE)</f>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="D60">
         <f t="shared" ref="D60:D72" ca="1" si="11">VLOOKUP(B60,data,3,FALSE)</f>
@@ -3928,21 +3934,21 @@
       </c>
       <c r="F60">
         <f ca="1">SUM(C60:C66)</f>
-        <v>4354</v>
+        <v>4353</v>
       </c>
       <c r="G60" s="9" t="str">
         <f ca="1">TEXT(F60/F67-1,"0 %")</f>
-        <v>42 %</v>
+        <v>23 %</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="B61" s="3">
         <f t="shared" ref="B61:B81" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B60)</f>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="10"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="11"/>
@@ -3952,11 +3958,11 @@
     <row r="62" spans="1:7">
       <c r="B62" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="10"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="11"/>
@@ -3966,11 +3972,11 @@
     <row r="63" spans="1:7">
       <c r="B63" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="10"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="11"/>
@@ -3980,11 +3986,11 @@
     <row r="64" spans="1:7">
       <c r="B64" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="10"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="11"/>
@@ -3994,11 +4000,11 @@
     <row r="65" spans="2:7">
       <c r="B65" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="11"/>
@@ -4008,47 +4014,47 @@
     <row r="66" spans="2:7">
       <c r="B66" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <f ca="1">SUM(C67:C73)</f>
-        <v>3057</v>
+        <v>3528</v>
       </c>
       <c r="G67" s="9" t="str">
         <f ca="1">TEXT(F67/F74-1,"0 %")</f>
-        <v>96 %</v>
+        <v>134 %</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="11"/>
@@ -4058,11 +4064,11 @@
     <row r="69" spans="2:7">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="11"/>
@@ -4072,11 +4078,11 @@
     <row r="70" spans="2:7">
       <c r="B70" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="11"/>
@@ -4086,11 +4092,11 @@
     <row r="71" spans="2:7">
       <c r="B71" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="11"/>
@@ -4100,39 +4106,39 @@
     <row r="72" spans="2:7">
       <c r="B72" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D73">
         <f ca="1">VLOOKUP(B73,data,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D74">
         <f t="shared" ref="D74:D80" ca="1" si="13">VLOOKUP(B74,data,3,FALSE)</f>
@@ -4140,21 +4146,21 @@
       </c>
       <c r="F74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>1558</v>
+        <v>1510</v>
       </c>
       <c r="G74" s="9" t="str">
         <f ca="1">TEXT(F74/F81-1,"0 %")</f>
-        <v>16 %</v>
+        <v>2 %</v>
       </c>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="13"/>
@@ -4164,11 +4170,11 @@
     <row r="76" spans="2:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="13"/>
@@ -4178,11 +4184,11 @@
     <row r="77" spans="2:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="13"/>
@@ -4192,11 +4198,11 @@
     <row r="78" spans="2:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="13"/>
@@ -4206,11 +4212,11 @@
     <row r="79" spans="2:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="13"/>
@@ -4220,47 +4226,47 @@
     <row r="80" spans="2:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D81">
         <f t="shared" ref="D81:D93" ca="1" si="14">VLOOKUP(B81,data,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>1342</v>
+        <v>1477</v>
       </c>
       <c r="G81" s="9" t="str">
         <f ca="1">TEXT(F81/F88-1,"0 %")</f>
-        <v>101 %</v>
+        <v>117 %</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="B82" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B81),1.8202)</f>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="14"/>
@@ -4270,11 +4276,11 @@
     <row r="83" spans="1:7">
       <c r="B83" s="3">
         <f t="shared" ref="B83:B102" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B82),44077)</f>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="14"/>
@@ -4284,11 +4290,11 @@
     <row r="84" spans="1:7">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="14"/>
@@ -4298,11 +4304,11 @@
     <row r="85" spans="1:7">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="14"/>
@@ -4313,11 +4319,11 @@
       <c r="A86" s="7"/>
       <c r="B86" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="14"/>
@@ -4328,11 +4334,11 @@
       <c r="A87" s="3"/>
       <c r="B87" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="14"/>
@@ -4342,11 +4348,11 @@
     <row r="88" spans="1:7">
       <c r="B88" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="14"/>
@@ -4354,21 +4360,21 @@
       </c>
       <c r="F88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="G88" s="9" t="str">
         <f ca="1">TEXT(F88/F95-1,"0 %")</f>
-        <v>91 %</v>
+        <v>64 %</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
@@ -4378,11 +4384,11 @@
     <row r="90" spans="1:7">
       <c r="B90" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
@@ -4392,11 +4398,11 @@
     <row r="91" spans="1:7">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
@@ -4406,11 +4412,11 @@
     <row r="92" spans="1:7">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
@@ -4420,11 +4426,11 @@
     <row r="93" spans="1:7">
       <c r="B93" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
@@ -4434,11 +4440,11 @@
     <row r="94" spans="1:7">
       <c r="B94" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C94">
         <f t="shared" ref="C94" ca="1" si="16">VLOOKUP(B94,data,2,FALSE)</f>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D94">
         <f t="shared" ref="D94" ca="1" si="17">VLOOKUP(B94,data,3,FALSE)</f>
@@ -4448,11 +4454,11 @@
     <row r="95" spans="1:7">
       <c r="B95" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C95">
         <f t="shared" ref="C95:C102" ca="1" si="18">VLOOKUP(B95,data,2,FALSE)</f>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D95">
         <f t="shared" ref="D95:D102" ca="1" si="19">VLOOKUP(B95,data,3,FALSE)</f>
@@ -4460,17 +4466,17 @@
       </c>
       <c r="F95">
         <f ca="1">SUM(C95:C101)</f>
-        <v>349</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="18"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="19"/>
@@ -4480,11 +4486,11 @@
     <row r="97" spans="2:4">
       <c r="B97" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="18"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="19"/>
@@ -4494,11 +4500,11 @@
     <row r="98" spans="2:4">
       <c r="B98" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="19"/>
@@ -4508,11 +4514,11 @@
     <row r="99" spans="2:4">
       <c r="B99" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="19"/>
@@ -4522,11 +4528,11 @@
     <row r="100" spans="2:4">
       <c r="B100" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="18"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="19"/>
@@ -4536,11 +4542,11 @@
     <row r="101" spans="2:4">
       <c r="B101" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B97),44077)</f>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="19"/>
@@ -4550,11 +4556,11 @@
     <row r="102" spans="2:4">
       <c r="B102" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="19"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3324E77-1E2C-4101-BFCC-89336B74FDC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD839BB-71E4-4499-83FE-4059D2DA8F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -16,9 +16,10 @@
     <sheet name="Android" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="data">Android!$C$9:$E$54</definedName>
+    <definedName name="AllKeys">Android!$C$67:$C$116</definedName>
+    <definedName name="data">Android!$C$9:$E$61</definedName>
     <definedName name="Json">Android!$A$4</definedName>
-    <definedName name="time">Android!$C$9:$C$54</definedName>
+    <definedName name="time">Android!$C$9:$C$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>timestamp</t>
   </si>
@@ -80,13 +81,25 @@
     <t>Paste Android all-exposure-checks.json into A4</t>
   </si>
   <si>
-    <t>[{"timestamp":"16 October 2020, 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="},{"timestamp":"1 October 2020, 9.07","keyCount":203,"matchesCount":0,"appName":"Koronavilkku","hash":"mD9IkzXd7S6jwjYPgvXf0mwtj2GlI598HMmUFSfP9wM="}]</t>
+    <t>Keys, /7</t>
+  </si>
+  <si>
+    <t>https://twitter.com/spheroid/status/1317109409869406209</t>
+  </si>
+  <si>
+    <t>Avauskoodin arvioinnista, oireista -2 päivää eteenpäin jaetaan käyttäjille:</t>
+  </si>
+  <si>
+    <t>[{"timestamp":"17 October 2020, 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16 October 2020, 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -150,7 +163,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -161,6 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -361,46 +375,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>17 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>16 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>15 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>14 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>12 October</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>11 October</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>10 October</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>9 October</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>8 October</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>7 October</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>6 October</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>5 October</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>4 October</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3 October</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -412,46 +426,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,11 +664,11 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>Android!$F$58</c:f>
+          <c:f>Android!$F$65</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Uusia #koronavilkku päiväavaimia 639.</c:v>
+              <c:v>Uusia #koronavilkku päiväavaimia 537.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -741,17 +755,14 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-DED5-46AA-8717-42B4CF19EA4C}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="25"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.3154804339117405E-2"/>
@@ -766,13 +777,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-95C7-492A-BC0E-1F5E118CF0A6}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="26"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-9.8660385161277279E-3"/>
@@ -794,13 +802,10 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F9C1-4A63-BDB8-AFD70CD3546C}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="31"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.1510453796727717E-2"/>
@@ -815,13 +820,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-F9C1-4A63-BDB8-AFD70CD3546C}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="29"/>
+              <c:idx val="36"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
@@ -836,13 +838,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-95C7-492A-BC0E-1F5E118CF0A6}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="38"/>
+              <c:idx val="45"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.8087855966286533E-2"/>
@@ -857,13 +856,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-95C7-492A-BC0E-1F5E118CF0A6}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="42"/>
+              <c:idx val="49"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-6.867231543527935E-3"/>
@@ -878,9 +874,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-95C7-492A-BC0E-1F5E118CF0A6}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -955,276 +948,318 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Android!$B$60:$B$102</c:f>
+              <c:f>Android!$B$67:$B$116</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44120</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44119</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>44082</c:v>
-                </c:pt>
                 <c:pt idx="42">
-                  <c:v>44081</c:v>
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Android!$C$60:$C$102</c:f>
+              <c:f>Android!$C$67:$C$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>56</c:v>
-                </c:pt>
                 <c:pt idx="42">
-                  <c:v>46</c:v>
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2507,7 +2542,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>348342</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>146955</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2537,13 +2572,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>408213</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2870,10 +2905,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E4FBF2-530B-45FC-AB24-E83337470135}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:L102"/>
+  <dimension ref="A2:L118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2892,20 +2927,23 @@
       </c>
       <c r="E2" s="2">
         <f>SUM(E9:E22)</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
       </c>
       <c r="G2">
-        <f>SUM(D9:D54)</f>
-        <v>12703</v>
-      </c>
-      <c r="H2">
-        <f>G2/14</f>
-        <v>907.35714285714289</v>
+        <f ca="1">SUM(AllKeys)</f>
+        <v>12483</v>
+      </c>
+      <c r="H2" s="10">
+        <f ca="1">G2/7</f>
+        <v>1783.2857142857142</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -2939,15 +2977,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>16 October</v>
+        <v>17 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -2981,15 +3019,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15 October</v>
+        <v>16 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -2997,41 +3035,41 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>14 October</v>
+        <v>15 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -3039,41 +3077,41 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>13 October</v>
+        <v>14 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3081,41 +3119,41 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>12 October</v>
+        <v>13 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3123,41 +3161,41 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>11 October</v>
+        <v>12 October</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3165,41 +3203,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10 October</v>
+        <v>11 October</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3207,125 +3245,125 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>9 October</v>
+        <v>10 October</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1114</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>8 October</v>
+        <v>9 October</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1262</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>7 October</v>
+        <v>8 October</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3333,41 +3371,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1411</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>6 October</v>
+        <v>7 October</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3375,41 +3413,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>5 October</v>
+        <v>6 October</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3417,41 +3455,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1709</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>4 October</v>
+        <v>5 October</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3459,69 +3497,69 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3 October</v>
+        <v>4 October</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2007</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3529,10 +3567,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="5">
-        <v>44108</v>
+        <v>44121</v>
       </c>
       <c r="D23" s="2">
-        <v>294</v>
+        <v>537</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -3540,32 +3578,32 @@
     </row>
     <row r="24" spans="1:12">
       <c r="C24" s="5">
-        <v>44107</v>
+        <v>44114</v>
       </c>
       <c r="D24" s="2">
-        <v>463</v>
+        <v>720</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="C25" s="5">
-        <v>44106</v>
+        <v>44113</v>
       </c>
       <c r="D25" s="2">
-        <v>169</v>
+        <v>640</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="C26" s="5">
-        <v>44105</v>
+        <v>44112</v>
       </c>
       <c r="D26" s="2">
-        <v>203</v>
+        <v>445</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -3573,10 +3611,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="C27" s="5">
-        <v>44104</v>
+        <v>44111</v>
       </c>
       <c r="D27" s="2">
-        <v>318</v>
+        <v>578</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -3584,10 +3622,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="C28" s="5">
-        <v>44103</v>
+        <v>44110</v>
       </c>
       <c r="D28" s="2">
-        <v>238</v>
+        <v>655</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -3595,10 +3633,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="C29" s="5">
-        <v>44102</v>
+        <v>44109</v>
       </c>
       <c r="D29" s="2">
-        <v>199</v>
+        <v>453</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -3606,10 +3644,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="C30" s="5">
-        <v>44101</v>
+        <v>44108</v>
       </c>
       <c r="D30" s="2">
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -3617,32 +3655,32 @@
     </row>
     <row r="31" spans="1:12">
       <c r="C31" s="5">
-        <v>44100</v>
+        <v>44107</v>
       </c>
       <c r="D31" s="2">
-        <v>242</v>
+        <v>463</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="C32" s="5">
-        <v>44099</v>
+        <v>44106</v>
       </c>
       <c r="D32" s="2">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="E32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="5">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="D33" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -3650,10 +3688,10 @@
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="5">
-        <v>44097</v>
+        <v>44104</v>
       </c>
       <c r="D34" s="2">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -3661,10 +3699,10 @@
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="5">
-        <v>44096</v>
+        <v>44103</v>
       </c>
       <c r="D35" s="2">
-        <v>311</v>
+        <v>238</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -3672,10 +3710,10 @@
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="5">
-        <v>44095</v>
+        <v>44102</v>
       </c>
       <c r="D36" s="2">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -3683,10 +3721,10 @@
     </row>
     <row r="37" spans="3:5">
       <c r="C37" s="5">
-        <v>44094</v>
+        <v>44101</v>
       </c>
       <c r="D37" s="2">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -3694,10 +3732,10 @@
     </row>
     <row r="38" spans="3:5">
       <c r="C38" s="5">
-        <v>44093</v>
+        <v>44100</v>
       </c>
       <c r="D38" s="2">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -3705,21 +3743,21 @@
     </row>
     <row r="39" spans="3:5">
       <c r="C39" s="5">
-        <v>44092</v>
+        <v>44099</v>
       </c>
       <c r="D39" s="2">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="E39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="3:5">
       <c r="C40" s="5">
-        <v>44091</v>
+        <v>44098</v>
       </c>
       <c r="D40" s="2">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -3727,10 +3765,10 @@
     </row>
     <row r="41" spans="3:5">
       <c r="C41" s="5">
-        <v>44090</v>
+        <v>44097</v>
       </c>
       <c r="D41" s="2">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -3738,10 +3776,10 @@
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="5">
-        <v>44089</v>
+        <v>44096</v>
       </c>
       <c r="D42" s="2">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -3749,10 +3787,10 @@
     </row>
     <row r="43" spans="3:5">
       <c r="C43" s="5">
-        <v>44088</v>
+        <v>44095</v>
       </c>
       <c r="D43" s="2">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -3760,10 +3798,10 @@
     </row>
     <row r="44" spans="3:5">
       <c r="C44" s="5">
-        <v>44087</v>
+        <v>44094</v>
       </c>
       <c r="D44" s="2">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -3771,10 +3809,10 @@
     </row>
     <row r="45" spans="3:5">
       <c r="C45" s="5">
-        <v>44086</v>
+        <v>44093</v>
       </c>
       <c r="D45" s="2">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -3782,10 +3820,10 @@
     </row>
     <row r="46" spans="3:5">
       <c r="C46" s="5">
-        <v>44085</v>
+        <v>44092</v>
       </c>
       <c r="D46" s="2">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -3793,10 +3831,10 @@
     </row>
     <row r="47" spans="3:5">
       <c r="C47" s="5">
-        <v>44084</v>
+        <v>44091</v>
       </c>
       <c r="D47" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -3804,10 +3842,10 @@
     </row>
     <row r="48" spans="3:5">
       <c r="C48" s="5">
-        <v>44083</v>
+        <v>44090</v>
       </c>
       <c r="D48" s="2">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -3815,38 +3853,32 @@
     </row>
     <row r="49" spans="1:7">
       <c r="C49" s="5">
-        <v>44082</v>
+        <v>44089</v>
       </c>
       <c r="D49" s="2">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="C50" s="5">
-        <v>44081</v>
+        <v>44088</v>
       </c>
       <c r="D50" s="2">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="C51" s="5">
-        <v>44080</v>
+        <v>44087</v>
       </c>
       <c r="D51" s="2">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -3854,10 +3886,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="C52" s="5">
-        <v>44079</v>
+        <v>44086</v>
       </c>
       <c r="D52" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -3865,10 +3897,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="C53" s="5">
-        <v>44078</v>
+        <v>44085</v>
       </c>
       <c r="D53" s="2">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -3876,519 +3908,504 @@
     </row>
     <row r="54" spans="1:7">
       <c r="C54" s="5">
+        <v>44084</v>
+      </c>
+      <c r="D54" s="2">
+        <v>75</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="C55" s="5">
+        <v>44083</v>
+      </c>
+      <c r="D55" s="2">
+        <v>101</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="C56" s="5">
+        <v>44082</v>
+      </c>
+      <c r="D56" s="2">
+        <v>56</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="5">
+        <v>44081</v>
+      </c>
+      <c r="D57" s="2">
+        <v>46</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="C58" s="5">
+        <v>44080</v>
+      </c>
+      <c r="D58" s="2">
+        <v>10</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="C59" s="5">
+        <v>44079</v>
+      </c>
+      <c r="D59" s="2">
+        <v>15</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <f>4363/14</f>
+        <v>311.64285714285717</v>
+      </c>
+      <c r="C60" s="5">
+        <v>44078</v>
+      </c>
+      <c r="D60" s="2">
+        <v>19</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="C61" s="5">
         <v>44077</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D61" s="2">
         <v>6</v>
       </c>
-      <c r="E54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
         <v>10</v>
       </c>
-      <c r="C55"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="8" t="str">
-        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C60&amp;" edelliset 7 päivää "&amp;F60&amp;" (muutos "&amp;G60&amp;"), "&amp;F67&amp;" ("&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;". Kumulatiivisesti "&amp;G2&amp;" ja /14 arvioituna avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 16.10 on n=639 edelliset 7 päivää 4353 (muutos 23 %), 3528 (134 %), 1510 (2 %), 1477. Kumulatiivisesti 12703 ja /14 arvioituna avauskoodeja jaettu vähintään 907, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
-      </c>
-      <c r="C56"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="8" t="str">
+        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C67&amp;" edelliset 7 päivää "&amp;F67&amp;" (muutos "&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;" ("&amp;G81&amp;"), "&amp;F88&amp;". Kumulatiivisesti N="&amp;G2&amp;" ja /7 arvioituna (*) avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 17.10 on n=537 edelliset 7 päivää 4170 (muutos 10 %), 3785 (119 %), 1731 (13 %), 1529. Kumulatiivisesti N=12483 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 1783, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+      </c>
+      <c r="C63"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="8" t="str">
-        <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C60&amp;"."</f>
-        <v>Uusia #koronavilkku päiväavaimia 639.</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="B59" s="3">
+      <c r="F65" s="8" t="str">
+        <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C67&amp;"."</f>
+        <v>Uusia #koronavilkku päiväavaimia 537.</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="B66" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44121.386854166667</v>
-      </c>
-      <c r="C59" t="s">
+        <v>44122.385231712964</v>
+      </c>
+      <c r="C66" t="s">
         <v>1</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D66" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="B60" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B59)</f>
+    <row r="67" spans="1:7">
+      <c r="B67" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B66)</f>
+        <v>44121</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C100" ca="1" si="10">VLOOKUP(B67,data,2,FALSE)</f>
+        <v>537</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D79" ca="1" si="11">VLOOKUP(B67,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f ca="1">SUM(C67:C73)</f>
+        <v>4170</v>
+      </c>
+      <c r="G67" s="9" t="str">
+        <f ca="1">TEXT(F67/F74-1,"0 %")</f>
+        <v>10 %</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="B68" s="3">
+        <f t="shared" ref="B68:B88" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B67)</f>
         <v>44120</v>
       </c>
-      <c r="C60">
-        <f t="shared" ref="C60:C93" ca="1" si="10">VLOOKUP(B60,data,2,FALSE)</f>
+      <c r="C68">
+        <f t="shared" ca="1" si="10"/>
         <v>639</v>
       </c>
-      <c r="D60">
-        <f t="shared" ref="D60:D72" ca="1" si="11">VLOOKUP(B60,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <f ca="1">SUM(C60:C66)</f>
-        <v>4353</v>
-      </c>
-      <c r="G60" s="9" t="str">
-        <f ca="1">TEXT(F60/F67-1,"0 %")</f>
-        <v>23 %</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="B61" s="3">
-        <f t="shared" ref="B61:B81" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B60)</f>
+      <c r="D68">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="B69" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>44119</v>
       </c>
-      <c r="C61">
+      <c r="C69">
         <f t="shared" ca="1" si="10"/>
         <v>429</v>
       </c>
-      <c r="D61">
+      <c r="D69">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="B62" s="3">
+    <row r="70" spans="1:7">
+      <c r="B70" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44118</v>
       </c>
-      <c r="C62">
+      <c r="C70">
         <f t="shared" ca="1" si="10"/>
         <v>559</v>
       </c>
-      <c r="D62">
+      <c r="D70">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="B63" s="3">
+    <row r="71" spans="1:7">
+      <c r="B71" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44117</v>
       </c>
-      <c r="C63">
+      <c r="C71">
         <f t="shared" ca="1" si="10"/>
         <v>649</v>
       </c>
-      <c r="D63">
+      <c r="D71">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="B64" s="3">
+    <row r="72" spans="1:7">
+      <c r="B72" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44116</v>
       </c>
-      <c r="C64">
+      <c r="C72">
         <f t="shared" ca="1" si="10"/>
         <v>691</v>
       </c>
-      <c r="D64">
+      <c r="D72">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="3">
+    <row r="73" spans="1:7">
+      <c r="B73" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44115</v>
       </c>
-      <c r="C65">
+      <c r="C73">
         <f t="shared" ca="1" si="10"/>
         <v>666</v>
       </c>
-      <c r="D65">
+      <c r="D73">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
-      <c r="B66" s="3">
+    <row r="74" spans="1:7">
+      <c r="B74" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44114</v>
       </c>
-      <c r="C66">
+      <c r="C74">
         <f t="shared" ca="1" si="10"/>
         <v>720</v>
       </c>
-      <c r="D66">
+      <c r="D74">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="3">
+      <c r="F74">
+        <f ca="1">SUM(C74:C80)</f>
+        <v>3785</v>
+      </c>
+      <c r="G74" s="9" t="str">
+        <f ca="1">TEXT(F74/F81-1,"0 %")</f>
+        <v>119 %</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="B75" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44113</v>
       </c>
-      <c r="C67">
+      <c r="C75">
         <f t="shared" ca="1" si="10"/>
         <v>640</v>
       </c>
-      <c r="D67">
+      <c r="D75">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="F67">
-        <f ca="1">SUM(C67:C73)</f>
-        <v>3528</v>
-      </c>
-      <c r="G67" s="9" t="str">
-        <f ca="1">TEXT(F67/F74-1,"0 %")</f>
-        <v>134 %</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7">
-      <c r="B68" s="3">
+    </row>
+    <row r="76" spans="1:7">
+      <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44112</v>
       </c>
-      <c r="C68">
+      <c r="C76">
         <f t="shared" ca="1" si="10"/>
         <v>445</v>
       </c>
-      <c r="D68">
+      <c r="D76">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
-      <c r="B69" s="3">
+    <row r="77" spans="1:7">
+      <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44111</v>
       </c>
-      <c r="C69">
+      <c r="C77">
         <f t="shared" ca="1" si="10"/>
         <v>578</v>
       </c>
-      <c r="D69">
+      <c r="D77">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
-      <c r="B70" s="3">
+    <row r="78" spans="1:7">
+      <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44110</v>
       </c>
-      <c r="C70">
+      <c r="C78">
         <f t="shared" ca="1" si="10"/>
         <v>655</v>
       </c>
-      <c r="D70">
+      <c r="D78">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
-      <c r="B71" s="3">
+    <row r="79" spans="1:7">
+      <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44109</v>
       </c>
-      <c r="C71">
+      <c r="C79">
         <f t="shared" ca="1" si="10"/>
         <v>453</v>
       </c>
-      <c r="D71">
+      <c r="D79">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
-      <c r="B72" s="3">
+    <row r="80" spans="1:7">
+      <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44108</v>
       </c>
-      <c r="C72">
+      <c r="C80">
         <f t="shared" ca="1" si="10"/>
         <v>294</v>
       </c>
-      <c r="D72">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44107</v>
-      </c>
-      <c r="C73">
-        <f t="shared" ca="1" si="10"/>
-        <v>463</v>
-      </c>
-      <c r="D73">
-        <f ca="1">VLOOKUP(B73,data,3,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44106</v>
-      </c>
-      <c r="C74">
-        <f t="shared" ca="1" si="10"/>
-        <v>169</v>
-      </c>
-      <c r="D74">
-        <f t="shared" ref="D74:D80" ca="1" si="13">VLOOKUP(B74,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <f ca="1">SUM(C74:C80)</f>
-        <v>1510</v>
-      </c>
-      <c r="G74" s="9" t="str">
-        <f ca="1">TEXT(F74/F81-1,"0 %")</f>
-        <v>2 %</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44105</v>
-      </c>
-      <c r="C75">
-        <f t="shared" ca="1" si="10"/>
-        <v>203</v>
-      </c>
-      <c r="D75">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44104</v>
-      </c>
-      <c r="C76">
-        <f t="shared" ca="1" si="10"/>
-        <v>318</v>
-      </c>
-      <c r="D76">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="B77" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44103</v>
-      </c>
-      <c r="C77">
-        <f t="shared" ca="1" si="10"/>
-        <v>238</v>
-      </c>
-      <c r="D77">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="B78" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44102</v>
-      </c>
-      <c r="C78">
-        <f t="shared" ca="1" si="10"/>
-        <v>199</v>
-      </c>
-      <c r="D78">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="B79" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44101</v>
-      </c>
-      <c r="C79">
-        <f t="shared" ca="1" si="10"/>
-        <v>141</v>
-      </c>
-      <c r="D79">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44100</v>
-      </c>
-      <c r="C80">
-        <f t="shared" ca="1" si="10"/>
-        <v>242</v>
-      </c>
       <c r="D80">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">VLOOKUP(B80,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44099</v>
+        <v>44107</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>463</v>
       </c>
       <c r="D81">
-        <f t="shared" ref="D81:D93" ca="1" si="14">VLOOKUP(B81,data,3,FALSE)</f>
+        <f t="shared" ref="D81:D87" ca="1" si="13">VLOOKUP(B81,data,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>1477</v>
+        <v>1731</v>
       </c>
       <c r="G81" s="9" t="str">
         <f ca="1">TEXT(F81/F88-1,"0 %")</f>
-        <v>117 %</v>
+        <v>13 %</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="B82" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B81),1.8202)</f>
-        <v>44098</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44106</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="D82">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="B83" s="3">
-        <f t="shared" ref="B83:B102" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B82),44077)</f>
-        <v>44097</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44105</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D83">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44096</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44104</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D84">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="B85" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44095</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44103</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="D85">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="7"/>
       <c r="B86" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44094</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44102</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D86">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="3"/>
       <c r="B87" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44093</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44101</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="D87">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="B88" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44092</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44100</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="D88">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="D88:D100" ca="1" si="14">VLOOKUP(B88,data,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>680</v>
+        <v>1529</v>
       </c>
       <c r="G88" s="9" t="str">
         <f ca="1">TEXT(F88/F95-1,"0 %")</f>
-        <v>64 %</v>
+        <v>86 %</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44091</v>
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B88),1.8202)</f>
+        <v>44099</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="B90" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44090</v>
+        <f t="shared" ref="B90:B118" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B89),44077)</f>
+        <v>44098</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
@@ -4398,11 +4415,11 @@
     <row r="91" spans="1:7">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44089</v>
+        <v>44097</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
@@ -4412,11 +4429,11 @@
     <row r="92" spans="1:7">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44088</v>
+        <v>44096</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>311</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
@@ -4424,13 +4441,14 @@
       </c>
     </row>
     <row r="93" spans="1:7">
+      <c r="A93" s="7"/>
       <c r="B93" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44087</v>
+        <v>44095</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
@@ -4438,145 +4456,359 @@
       </c>
     </row>
     <row r="94" spans="1:7">
+      <c r="A94" s="3"/>
       <c r="B94" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44086</v>
+        <v>44094</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94" ca="1" si="16">VLOOKUP(B94,data,2,FALSE)</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>202</v>
       </c>
       <c r="D94">
-        <f t="shared" ref="D94" ca="1" si="17">VLOOKUP(B94,data,3,FALSE)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="B95" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44085</v>
+        <v>44093</v>
       </c>
       <c r="C95">
-        <f t="shared" ref="C95:C102" ca="1" si="18">VLOOKUP(B95,data,2,FALSE)</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>190</v>
       </c>
       <c r="D95">
-        <f t="shared" ref="D95:D102" ca="1" si="19">VLOOKUP(B95,data,3,FALSE)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="F95">
         <f ca="1">SUM(C95:C101)</f>
-        <v>414</v>
+        <v>824</v>
+      </c>
+      <c r="G95" s="9" t="str">
+        <f ca="1">TEXT(F95/F102-1,"0 %")</f>
+        <v>104 %</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="3">
         <f t="shared" ca="1" si="15"/>
+        <v>44092</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44091</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="10"/>
+        <v>137</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44090</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44089</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="10"/>
+        <v>136</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44088</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="10"/>
+        <v>67</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44087</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ref="C101" ca="1" si="16">VLOOKUP(B101,data,2,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ref="D101" ca="1" si="17">VLOOKUP(B101,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44086</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ref="C102:C116" ca="1" si="18">VLOOKUP(B102,data,2,FALSE)</f>
+        <v>46</v>
+      </c>
+      <c r="D102">
+        <f t="shared" ref="D102:D116" ca="1" si="19">VLOOKUP(B102,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <f ca="1">SUM(C102:C108)</f>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44085</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ca="1" si="18"/>
+        <v>70</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="3">
+        <f t="shared" ca="1" si="15"/>
         <v>44084</v>
       </c>
-      <c r="C96">
+      <c r="C104">
         <f t="shared" ca="1" si="18"/>
         <v>75</v>
       </c>
-      <c r="D96">
+      <c r="D104">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="3">
+    <row r="105" spans="2:6">
+      <c r="B105" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44083</v>
       </c>
-      <c r="C97">
-        <f t="shared" ca="1" si="18"/>
+      <c r="C105">
+        <f t="shared" ref="C105:C118" ca="1" si="20">VLOOKUP(B105,data,2,FALSE)</f>
         <v>101</v>
       </c>
-      <c r="D97">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="3">
+      <c r="D105">
+        <f t="shared" ref="D105:D118" ca="1" si="21">VLOOKUP(B105,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44082</v>
       </c>
-      <c r="C98">
-        <f t="shared" ca="1" si="18"/>
+      <c r="C106">
+        <f t="shared" ca="1" si="20"/>
         <v>56</v>
       </c>
-      <c r="D98">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="3">
+      <c r="D106">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44081</v>
       </c>
-      <c r="C99">
-        <f t="shared" ca="1" si="18"/>
+      <c r="C107">
+        <f t="shared" ca="1" si="20"/>
         <v>46</v>
       </c>
-      <c r="D99">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="3">
+      <c r="D107">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>44080</v>
       </c>
-      <c r="C100">
-        <f t="shared" ca="1" si="18"/>
+      <c r="C108">
+        <f t="shared" ca="1" si="20"/>
         <v>10</v>
       </c>
-      <c r="D100">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B97),44077)</f>
-        <v>44082</v>
-      </c>
-      <c r="C101">
-        <f t="shared" ca="1" si="18"/>
-        <v>56</v>
-      </c>
-      <c r="D101">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="B102" s="3">
+      <c r="D108">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44081</v>
-      </c>
-      <c r="C102">
-        <f t="shared" ca="1" si="18"/>
-        <v>46</v>
-      </c>
-      <c r="D102">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
+        <v>44079</v>
+      </c>
+      <c r="C109">
+        <f t="shared" ca="1" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="D109">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44078</v>
+      </c>
+      <c r="C110">
+        <f ca="1">IF(B110&lt;&gt;B109,VLOOKUP(B110,data,2,FALSE),"")</f>
+        <v>19</v>
+      </c>
+      <c r="D110">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44077</v>
+      </c>
+      <c r="C111">
+        <f ca="1">IF(B111&lt;&gt;B110,VLOOKUP(B111,data,2,FALSE),"")</f>
+        <v>6</v>
+      </c>
+      <c r="D111">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44077</v>
+      </c>
+      <c r="C112" t="str">
+        <f ca="1">IF(B112&lt;&gt;B111,VLOOKUP(B112,data,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D112">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44077</v>
+      </c>
+      <c r="C113" t="str">
+        <f ca="1">IF(B113&lt;&gt;B112,VLOOKUP(B113,data,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D113">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44077</v>
+      </c>
+      <c r="C114" t="str">
+        <f ca="1">IF(B114&lt;&gt;B113,VLOOKUP(B114,data,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D114">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44077</v>
+      </c>
+      <c r="C115" t="str">
+        <f ca="1">IF(B115&lt;&gt;B114,VLOOKUP(B115,data,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D115">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>44077</v>
+      </c>
+      <c r="C116" t="str">
+        <f ca="1">IF(B116&lt;&gt;B115,VLOOKUP(B116,data,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D116">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="3"/>
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="3"/>
+      <c r="C118"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C37:D49">
-    <sortCondition descending="1" ref="C37:C49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C44:D56">
+    <sortCondition descending="1" ref="C44:C56"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G50" r:id="rId1" location="Koronavilkkua" display="https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin - Koronavilkkua" xr:uid="{F06E6CD0-5429-431D-B74B-547C41718C4B}"/>
-    <hyperlink ref="A50" r:id="rId2" xr:uid="{517C9E3A-E5DB-4E26-91C6-74B95F09EC29}"/>
+    <hyperlink ref="G57" r:id="rId1" location="Koronavilkkua" display="https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin - Koronavilkkua" xr:uid="{F06E6CD0-5429-431D-B74B-547C41718C4B}"/>
+    <hyperlink ref="A57" r:id="rId2" xr:uid="{517C9E3A-E5DB-4E26-91C6-74B95F09EC29}"/>
+    <hyperlink ref="G60" r:id="rId3" xr:uid="{3C2C00FB-7ED4-4D75-B3CB-111EF0AE4BA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD839BB-71E4-4499-83FE-4059D2DA8F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44B3FE4-E8EA-4C09-8827-6D62B89B2314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Avauskoodin arvioinnista, oireista -2 päivää eteenpäin jaetaan käyttäjille:</t>
   </si>
   <si>
-    <t>[{"timestamp":"17 October 2020, 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16 October 2020, 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="},{"timestamp":"3 October 2020, 9.11","keyCount":463,"matchesCount":1,"appName":"Koronavilkku","hash":"iPWqNktMJaCDhcEFEQTByXGeIIavudoZESnKTlWziAA="},{"timestamp":"2 October 2020, 9.09","keyCount":169,"matchesCount":0,"appName":"Koronavilkku","hash":"xyqnyXxhZgHzWvNEkm6H6mzXtkSkZ7w2t9Pk8pRsqWs="}]</t>
+    <t>[{"timestamp":"18 October 2020, 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17 October 2020, 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16 October 2020, 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":11,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="}]</t>
   </si>
 </sst>
 </file>
@@ -375,46 +375,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>18 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>17 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>16 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>14 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>13 October</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>12 October</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>11 October</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>10 October</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9 October</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>8 October</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>7 October</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>6 October</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5 October</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4 October</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -426,46 +426,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +668,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Uusia #koronavilkku päiväavaimia 537.</c:v>
+              <c:v>Uusia #koronavilkku päiväavaimia 421.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -755,7 +755,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -777,6 +777,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5918-43F7-A248-E7FD28078B23}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -802,6 +805,9 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5918-43F7-A248-E7FD28078B23}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -820,6 +826,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5918-43F7-A248-E7FD28078B23}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -838,6 +847,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5918-43F7-A248-E7FD28078B23}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -856,6 +868,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5918-43F7-A248-E7FD28078B23}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -874,6 +889,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5918-43F7-A248-E7FD28078B23}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -953,142 +971,142 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>44121</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>44120</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>44119</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44077</c:v>
@@ -1112,145 +1130,145 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0</c:v>
@@ -2907,8 +2925,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2927,18 +2945,18 @@
       </c>
       <c r="E2" s="2">
         <f>SUM(E9:E22)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2">
         <f ca="1">SUM(AllKeys)</f>
-        <v>12483</v>
+        <v>13439</v>
       </c>
       <c r="H2" s="10">
         <f ca="1">G2/7</f>
-        <v>1783.2857142857142</v>
+        <v>1919.8571428571429</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -2977,15 +2995,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>17 October</v>
+        <v>18 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -3019,15 +3037,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>16 October</v>
+        <v>17 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -3035,41 +3053,41 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15 October</v>
+        <v>16 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -3077,41 +3095,41 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>14 October</v>
+        <v>15 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3119,41 +3137,41 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>13 October</v>
+        <v>14 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3161,41 +3179,41 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>12 October</v>
+        <v>13 October</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3203,41 +3221,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>11 October</v>
+        <v>12 October</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3245,41 +3263,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10 October</v>
+        <v>11 October</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3287,125 +3305,125 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1117</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>9 October</v>
+        <v>10 October</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1265</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>8 October</v>
+        <v>9 October</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1413</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>7 October</v>
+        <v>8 October</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3413,41 +3431,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>6 October</v>
+        <v>7 October</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3455,41 +3473,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1712</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>5 October</v>
+        <v>6 October</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3497,41 +3515,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1843</v>
+        <v>1848</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1845</v>
+        <v>1850</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1860</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>4 October</v>
+        <v>5 October</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3539,27 +3557,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3567,10 +3585,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="5">
-        <v>44121</v>
+        <v>44123</v>
       </c>
       <c r="D23" s="2">
-        <v>537</v>
+        <v>421</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -4019,7 +4037,7 @@
     <row r="63" spans="1:7">
       <c r="A63" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C67&amp;" edelliset 7 päivää "&amp;F67&amp;" (muutos "&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;" ("&amp;G81&amp;"), "&amp;F88&amp;". Kumulatiivisesti N="&amp;G2&amp;" ja /7 arvioituna (*) avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 17.10 on n=537 edelliset 7 päivää 4170 (muutos 10 %), 3785 (119 %), 1731 (13 %), 1529. Kumulatiivisesti N=12483 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 1783, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 19.10 on n=421 edelliset 7 päivää 3769 (muutos -14 %), 4395 (106 %), 2138 (42 %), 1510. Kumulatiivisesti N=13439 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 1920, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
       </c>
       <c r="C63"/>
     </row>
@@ -4029,13 +4047,13 @@
       </c>
       <c r="F65" s="8" t="str">
         <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C67&amp;"."</f>
-        <v>Uusia #koronavilkku päiväavaimia 537.</v>
+        <v>Uusia #koronavilkku päiväavaimia 421.</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="B66" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44122.385231712964</v>
+        <v>44124.388174305554</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -4047,11 +4065,11 @@
     <row r="67" spans="1:7">
       <c r="B67" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B66)</f>
-        <v>44121</v>
+        <v>44123</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C100" ca="1" si="10">VLOOKUP(B67,data,2,FALSE)</f>
-        <v>537</v>
+        <v>421</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D79" ca="1" si="11">VLOOKUP(B67,data,3,FALSE)</f>
@@ -4059,21 +4077,21 @@
       </c>
       <c r="F67">
         <f ca="1">SUM(C67:C73)</f>
-        <v>4170</v>
+        <v>3769</v>
       </c>
       <c r="G67" s="9" t="str">
         <f ca="1">TEXT(F67/F74-1,"0 %")</f>
-        <v>10 %</v>
+        <v>-14 %</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="B68" s="3">
         <f t="shared" ref="B68:B88" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B67)</f>
-        <v>44120</v>
+        <v>44122</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="10"/>
-        <v>639</v>
+        <v>535</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="11"/>
@@ -4083,11 +4101,11 @@
     <row r="69" spans="1:7">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44119</v>
+        <v>44121</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="10"/>
-        <v>429</v>
+        <v>537</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="11"/>
@@ -4097,11 +4115,11 @@
     <row r="70" spans="1:7">
       <c r="B70" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44118</v>
+        <v>44120</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="10"/>
-        <v>559</v>
+        <v>639</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="11"/>
@@ -4111,11 +4129,11 @@
     <row r="71" spans="1:7">
       <c r="B71" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44117</v>
+        <v>44119</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="10"/>
-        <v>649</v>
+        <v>429</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="11"/>
@@ -4125,11 +4143,11 @@
     <row r="72" spans="1:7">
       <c r="B72" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44116</v>
+        <v>44118</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="10"/>
-        <v>691</v>
+        <v>559</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="11"/>
@@ -4139,11 +4157,11 @@
     <row r="73" spans="1:7">
       <c r="B73" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44115</v>
+        <v>44117</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="10"/>
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="11"/>
@@ -4153,11 +4171,11 @@
     <row r="74" spans="1:7">
       <c r="B74" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
+        <v>44116</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="11"/>
@@ -4165,35 +4183,35 @@
       </c>
       <c r="F74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>3785</v>
+        <v>4395</v>
       </c>
       <c r="G74" s="9" t="str">
         <f ca="1">TEXT(F74/F81-1,"0 %")</f>
-        <v>119 %</v>
+        <v>106 %</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="B75" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>666</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>720</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="11"/>
@@ -4203,25 +4221,25 @@
     <row r="77" spans="1:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
+        <v>44113</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44110</v>
+        <v>44112</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>445</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="11"/>
@@ -4231,11 +4249,11 @@
     <row r="79" spans="1:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44109</v>
+        <v>44111</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>578</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="11"/>
@@ -4245,11 +4263,11 @@
     <row r="80" spans="1:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44108</v>
+        <v>44110</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>655</v>
       </c>
       <c r="D80">
         <f ca="1">VLOOKUP(B80,data,3,FALSE)</f>
@@ -4259,33 +4277,33 @@
     <row r="81" spans="1:7">
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44107</v>
+        <v>44109</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D81">
         <f t="shared" ref="D81:D87" ca="1" si="13">VLOOKUP(B81,data,3,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>1731</v>
+        <v>2138</v>
       </c>
       <c r="G81" s="9" t="str">
         <f ca="1">TEXT(F81/F88-1,"0 %")</f>
-        <v>13 %</v>
+        <v>42 %</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="B82" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44106</v>
+        <v>44108</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="13"/>
@@ -4295,25 +4313,25 @@
     <row r="83" spans="1:7">
       <c r="B83" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44105</v>
+        <v>44107</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>463</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44104</v>
+        <v>44106</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>169</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="13"/>
@@ -4323,11 +4341,11 @@
     <row r="85" spans="1:7">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44103</v>
+        <v>44105</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="13"/>
@@ -4337,11 +4355,11 @@
     <row r="86" spans="1:7">
       <c r="B86" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44102</v>
+        <v>44104</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>318</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="13"/>
@@ -4351,11 +4369,11 @@
     <row r="87" spans="1:7">
       <c r="B87" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44101</v>
+        <v>44103</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="13"/>
@@ -4365,11 +4383,11 @@
     <row r="88" spans="1:7">
       <c r="B88" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44100</v>
+        <v>44102</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="D88">
         <f t="shared" ref="D88:D100" ca="1" si="14">VLOOKUP(B88,data,3,FALSE)</f>
@@ -4377,35 +4395,35 @@
       </c>
       <c r="F88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>1529</v>
+        <v>1510</v>
       </c>
       <c r="G88" s="9" t="str">
         <f ca="1">TEXT(F88/F95-1,"0 %")</f>
-        <v>86 %</v>
+        <v>47 %</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B88),1.8202)</f>
-        <v>44099</v>
+        <v>44101</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="B90" s="3">
-        <f t="shared" ref="B90:B118" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B89),44077)</f>
-        <v>44098</v>
+        <f t="shared" ref="B90:B116" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B89),44077)</f>
+        <v>44100</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
@@ -4415,25 +4433,25 @@
     <row r="91" spans="1:7">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44097</v>
+        <v>44099</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44096</v>
+        <v>44098</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
@@ -4444,11 +4462,11 @@
       <c r="A93" s="7"/>
       <c r="B93" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44095</v>
+        <v>44097</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
@@ -4459,11 +4477,11 @@
       <c r="A94" s="3"/>
       <c r="B94" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44094</v>
+        <v>44096</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="10"/>
-        <v>202</v>
+        <v>311</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="14"/>
@@ -4473,11 +4491,11 @@
     <row r="95" spans="1:7">
       <c r="B95" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="10"/>
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="14"/>
@@ -4485,21 +4503,21 @@
       </c>
       <c r="F95">
         <f ca="1">SUM(C95:C101)</f>
-        <v>824</v>
+        <v>1029</v>
       </c>
       <c r="G95" s="9" t="str">
         <f ca="1">TEXT(F95/F102-1,"0 %")</f>
-        <v>104 %</v>
+        <v>105 %</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44092</v>
+        <v>44094</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="14"/>
@@ -4509,11 +4527,11 @@
     <row r="97" spans="2:6">
       <c r="B97" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44091</v>
+        <v>44093</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="10"/>
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="14"/>
@@ -4523,11 +4541,11 @@
     <row r="98" spans="2:6">
       <c r="B98" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44090</v>
+        <v>44092</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="10"/>
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="14"/>
@@ -4537,11 +4555,11 @@
     <row r="99" spans="2:6">
       <c r="B99" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44089</v>
+        <v>44091</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="10"/>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="14"/>
@@ -4551,11 +4569,11 @@
     <row r="100" spans="2:6">
       <c r="B100" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="14"/>
@@ -4565,11 +4583,11 @@
     <row r="101" spans="2:6">
       <c r="B101" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44087</v>
+        <v>44089</v>
       </c>
       <c r="C101">
         <f t="shared" ref="C101" ca="1" si="16">VLOOKUP(B101,data,2,FALSE)</f>
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="D101">
         <f t="shared" ref="D101" ca="1" si="17">VLOOKUP(B101,data,3,FALSE)</f>
@@ -4579,29 +4597,29 @@
     <row r="102" spans="2:6">
       <c r="B102" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="C102">
-        <f t="shared" ref="C102:C116" ca="1" si="18">VLOOKUP(B102,data,2,FALSE)</f>
-        <v>46</v>
+        <f t="shared" ref="C102:C104" ca="1" si="18">VLOOKUP(B102,data,2,FALSE)</f>
+        <v>67</v>
       </c>
       <c r="D102">
-        <f t="shared" ref="D102:D116" ca="1" si="19">VLOOKUP(B102,data,3,FALSE)</f>
+        <f t="shared" ref="D102:D104" ca="1" si="19">VLOOKUP(B102,data,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F102">
         <f ca="1">SUM(C102:C108)</f>
-        <v>404</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44085</v>
+        <v>44087</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="18"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="19"/>
@@ -4611,11 +4629,11 @@
     <row r="104" spans="2:6">
       <c r="B104" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44084</v>
+        <v>44086</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="18"/>
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="19"/>
@@ -4625,25 +4643,25 @@
     <row r="105" spans="2:6">
       <c r="B105" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C105">
-        <f t="shared" ref="C105:C118" ca="1" si="20">VLOOKUP(B105,data,2,FALSE)</f>
-        <v>101</v>
+        <f t="shared" ref="C105:C109" ca="1" si="20">VLOOKUP(B105,data,2,FALSE)</f>
+        <v>70</v>
       </c>
       <c r="D105">
-        <f t="shared" ref="D105:D118" ca="1" si="21">VLOOKUP(B105,data,3,FALSE)</f>
+        <f t="shared" ref="D105:D116" ca="1" si="21">VLOOKUP(B105,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:6">
       <c r="B106" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44082</v>
+        <v>44084</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="20"/>
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="21"/>
@@ -4653,11 +4671,11 @@
     <row r="107" spans="2:6">
       <c r="B107" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44081</v>
+        <v>44083</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="20"/>
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="21"/>
@@ -4667,11 +4685,11 @@
     <row r="108" spans="2:6">
       <c r="B108" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44080</v>
+        <v>44082</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="20"/>
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="21"/>
@@ -4681,11 +4699,11 @@
     <row r="109" spans="2:6">
       <c r="B109" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44079</v>
+        <v>44081</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="20"/>
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="21"/>
@@ -4695,11 +4713,11 @@
     <row r="110" spans="2:6">
       <c r="B110" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44078</v>
+        <v>44080</v>
       </c>
       <c r="C110">
-        <f ca="1">IF(B110&lt;&gt;B109,VLOOKUP(B110,data,2,FALSE),"")</f>
-        <v>19</v>
+        <f t="shared" ref="C110:C116" ca="1" si="22">IF(B110&lt;&gt;B109,VLOOKUP(B110,data,2,FALSE),"")</f>
+        <v>10</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="21"/>
@@ -4709,11 +4727,11 @@
     <row r="111" spans="2:6">
       <c r="B111" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
+        <v>44079</v>
       </c>
       <c r="C111">
-        <f ca="1">IF(B111&lt;&gt;B110,VLOOKUP(B111,data,2,FALSE),"")</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>15</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="21"/>
@@ -4723,11 +4741,11 @@
     <row r="112" spans="2:6">
       <c r="B112" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
-      </c>
-      <c r="C112" t="str">
-        <f ca="1">IF(B112&lt;&gt;B111,VLOOKUP(B112,data,2,FALSE),"")</f>
-        <v/>
+        <v>44078</v>
+      </c>
+      <c r="C112">
+        <f t="shared" ca="1" si="22"/>
+        <v>19</v>
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="21"/>
@@ -4739,9 +4757,9 @@
         <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
-      <c r="C113" t="str">
-        <f ca="1">IF(B113&lt;&gt;B112,VLOOKUP(B113,data,2,FALSE),"")</f>
-        <v/>
+      <c r="C113">
+        <f t="shared" ca="1" si="22"/>
+        <v>6</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="21"/>
@@ -4754,7 +4772,7 @@
         <v>44077</v>
       </c>
       <c r="C114" t="str">
-        <f ca="1">IF(B114&lt;&gt;B113,VLOOKUP(B114,data,2,FALSE),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="D114">
@@ -4768,7 +4786,7 @@
         <v>44077</v>
       </c>
       <c r="C115" t="str">
-        <f ca="1">IF(B115&lt;&gt;B114,VLOOKUP(B115,data,2,FALSE),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="D115">
@@ -4782,7 +4800,7 @@
         <v>44077</v>
       </c>
       <c r="C116" t="str">
-        <f ca="1">IF(B116&lt;&gt;B115,VLOOKUP(B116,data,2,FALSE),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="D116">

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44B3FE4-E8EA-4C09-8827-6D62B89B2314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8658B2-D5C8-4154-824E-0103F51D5472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Avauskoodin arvioinnista, oireista -2 päivää eteenpäin jaetaan käyttäjille:</t>
   </si>
   <si>
-    <t>[{"timestamp":"18 October 2020, 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17 October 2020, 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16 October 2020, 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":11,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="},{"timestamp":"4 October 2020, 9.39","keyCount":294,"matchesCount":0,"appName":"Koronavilkku","hash":"tTVuHifp6l1THlJ4sYSz8MYEvf8KLWLUlz0AvLbsXcM="}]</t>
+    <t>[{"timestamp":"20 October 2020, 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19 October 2020, 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18 October 2020, 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17 October 2020, 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16 October 2020, 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="}]</t>
   </si>
 </sst>
 </file>
@@ -375,46 +375,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>20 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19 October</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>18 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>17 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>16 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>15 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>14 October</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>13 October</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>12 October</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>11 October</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>10 October</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>9 October</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>8 October</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>7 October</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6 October</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5 October</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -426,46 +426,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>578</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>655</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +668,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Uusia #koronavilkku päiväavaimia 421.</c:v>
+              <c:v>Uusia #koronavilkku päiväavaimia 386.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -755,7 +755,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -971,145 +971,145 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44123</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44122</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44121</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44120</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44119</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44077</c:v>
@@ -1130,148 +1130,148 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
@@ -2925,8 +2925,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2945,18 +2945,18 @@
       </c>
       <c r="E2" s="2">
         <f>SUM(E9:E22)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2">
         <f ca="1">SUM(AllKeys)</f>
-        <v>13439</v>
+        <v>13825</v>
       </c>
       <c r="H2" s="10">
         <f ca="1">G2/7</f>
-        <v>1919.8571428571429</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -2995,15 +2995,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>18 October</v>
+        <v>20 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44122</v>
+        <v>44124</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>535</v>
+        <v>386</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -3037,15 +3037,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17 October</v>
+        <v>19 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44121</v>
+        <v>44123</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>537</v>
+        <v>421</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -3053,41 +3053,41 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>16 October</v>
+        <v>18 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44120</v>
+        <v>44122</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>639</v>
+        <v>535</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -3095,41 +3095,41 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15 October</v>
+        <v>17 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44119</v>
+        <v>44121</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>537</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3137,41 +3137,41 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>14 October</v>
+        <v>16 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44118</v>
+        <v>44120</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>559</v>
+        <v>639</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3179,41 +3179,41 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>13 October</v>
+        <v>15 October</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44117</v>
+        <v>44119</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>649</v>
+        <v>429</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3221,41 +3221,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>12 October</v>
+        <v>14 October</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44116</v>
+        <v>44118</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>691</v>
+        <v>559</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3263,41 +3263,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>11 October</v>
+        <v>13 October</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44115</v>
+        <v>44117</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3305,41 +3305,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10 October</v>
+        <v>12 October</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44114</v>
+        <v>44116</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3347,83 +3347,83 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1269</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>9 October</v>
+        <v>11 October</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>666</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1387</v>
+        <v>1391</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1418</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>8 October</v>
+        <v>10 October</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>720</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3431,83 +3431,83 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1566</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>7 October</v>
+        <v>9 October</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44111</v>
+        <v>44113</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1715</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>6 October</v>
+        <v>8 October</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44110</v>
+        <v>44112</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>655</v>
+        <v>445</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3515,41 +3515,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>5 October</v>
+        <v>7 October</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44109</v>
+        <v>44111</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>578</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3557,27 +3557,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4037,7 +4037,7 @@
     <row r="63" spans="1:7">
       <c r="A63" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C67&amp;" edelliset 7 päivää "&amp;F67&amp;" (muutos "&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;" ("&amp;G81&amp;"), "&amp;F88&amp;". Kumulatiivisesti N="&amp;G2&amp;" ja /7 arvioituna (*) avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 19.10 on n=421 edelliset 7 päivää 3769 (muutos -14 %), 4395 (106 %), 2138 (42 %), 1510. Kumulatiivisesti N=13439 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 1920, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 20.10 on n=386 edelliset 7 päivää 3506 (muutos -20 %), 4389 (72 %), 2555 (78 %), 1437. Kumulatiivisesti N=13825 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 1975, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
       </c>
       <c r="C63"/>
     </row>
@@ -4047,13 +4047,13 @@
       </c>
       <c r="F65" s="8" t="str">
         <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C67&amp;"."</f>
-        <v>Uusia #koronavilkku päiväavaimia 421.</v>
+        <v>Uusia #koronavilkku päiväavaimia 386.</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="B66" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44124.388174305554</v>
+        <v>44125.347089930554</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -4065,11 +4065,11 @@
     <row r="67" spans="1:7">
       <c r="B67" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B66)</f>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C100" ca="1" si="10">VLOOKUP(B67,data,2,FALSE)</f>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D79" ca="1" si="11">VLOOKUP(B67,data,3,FALSE)</f>
@@ -4077,21 +4077,21 @@
       </c>
       <c r="F67">
         <f ca="1">SUM(C67:C73)</f>
-        <v>3769</v>
+        <v>3506</v>
       </c>
       <c r="G67" s="9" t="str">
         <f ca="1">TEXT(F67/F74-1,"0 %")</f>
-        <v>-14 %</v>
+        <v>-20 %</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="B68" s="3">
         <f t="shared" ref="B68:B88" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B67)</f>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="10"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="11"/>
@@ -4101,11 +4101,11 @@
     <row r="69" spans="1:7">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="10"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="11"/>
@@ -4115,11 +4115,11 @@
     <row r="70" spans="1:7">
       <c r="B70" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="10"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="11"/>
@@ -4129,11 +4129,11 @@
     <row r="71" spans="1:7">
       <c r="B71" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="10"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="11"/>
@@ -4143,11 +4143,11 @@
     <row r="72" spans="1:7">
       <c r="B72" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="10"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="11"/>
@@ -4157,11 +4157,11 @@
     <row r="73" spans="1:7">
       <c r="B73" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="10"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="11"/>
@@ -4171,11 +4171,11 @@
     <row r="74" spans="1:7">
       <c r="B74" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="10"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="11"/>
@@ -4183,21 +4183,21 @@
       </c>
       <c r="F74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>4395</v>
+        <v>4389</v>
       </c>
       <c r="G74" s="9" t="str">
         <f ca="1">TEXT(F74/F81-1,"0 %")</f>
-        <v>106 %</v>
+        <v>72 %</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="B75" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="11"/>
@@ -4207,11 +4207,11 @@
     <row r="76" spans="1:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="11"/>
@@ -4221,39 +4221,39 @@
     <row r="77" spans="1:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="11"/>
@@ -4263,11 +4263,11 @@
     <row r="80" spans="1:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="D80">
         <f ca="1">VLOOKUP(B80,data,3,FALSE)</f>
@@ -4277,11 +4277,11 @@
     <row r="81" spans="1:7">
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D81">
         <f t="shared" ref="D81:D87" ca="1" si="13">VLOOKUP(B81,data,3,FALSE)</f>
@@ -4289,21 +4289,21 @@
       </c>
       <c r="F81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>2138</v>
+        <v>2555</v>
       </c>
       <c r="G81" s="9" t="str">
         <f ca="1">TEXT(F81/F88-1,"0 %")</f>
-        <v>42 %</v>
+        <v>78 %</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="B82" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="13"/>
@@ -4313,39 +4313,39 @@
     <row r="83" spans="1:7">
       <c r="B83" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="13"/>
@@ -4355,11 +4355,11 @@
     <row r="86" spans="1:7">
       <c r="B86" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="13"/>
@@ -4369,11 +4369,11 @@
     <row r="87" spans="1:7">
       <c r="B87" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="13"/>
@@ -4383,11 +4383,11 @@
     <row r="88" spans="1:7">
       <c r="B88" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D88">
         <f t="shared" ref="D88:D100" ca="1" si="14">VLOOKUP(B88,data,3,FALSE)</f>
@@ -4395,21 +4395,21 @@
       </c>
       <c r="F88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>1510</v>
+        <v>1437</v>
       </c>
       <c r="G88" s="9" t="str">
         <f ca="1">TEXT(F88/F95-1,"0 %")</f>
-        <v>47 %</v>
+        <v>19 %</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B88),1.8202)</f>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
@@ -4419,11 +4419,11 @@
     <row r="90" spans="1:7">
       <c r="B90" s="3">
         <f t="shared" ref="B90:B116" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B89),44077)</f>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
@@ -4433,40 +4433,40 @@
     <row r="91" spans="1:7">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="7"/>
       <c r="B93" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
@@ -4477,11 +4477,11 @@
       <c r="A94" s="3"/>
       <c r="B94" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="14"/>
@@ -4491,11 +4491,11 @@
     <row r="95" spans="1:7">
       <c r="B95" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="14"/>
@@ -4503,21 +4503,21 @@
       </c>
       <c r="F95">
         <f ca="1">SUM(C95:C101)</f>
-        <v>1029</v>
+        <v>1204</v>
       </c>
       <c r="G95" s="9" t="str">
         <f ca="1">TEXT(F95/F102-1,"0 %")</f>
-        <v>105 %</v>
+        <v>107 %</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="10"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="14"/>
@@ -4527,11 +4527,11 @@
     <row r="97" spans="2:6">
       <c r="B97" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="10"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="14"/>
@@ -4541,11 +4541,11 @@
     <row r="98" spans="2:6">
       <c r="B98" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="14"/>
@@ -4555,11 +4555,11 @@
     <row r="99" spans="2:6">
       <c r="B99" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="10"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="14"/>
@@ -4569,11 +4569,11 @@
     <row r="100" spans="2:6">
       <c r="B100" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="10"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="14"/>
@@ -4583,11 +4583,11 @@
     <row r="101" spans="2:6">
       <c r="B101" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C101">
         <f t="shared" ref="C101" ca="1" si="16">VLOOKUP(B101,data,2,FALSE)</f>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D101">
         <f t="shared" ref="D101" ca="1" si="17">VLOOKUP(B101,data,3,FALSE)</f>
@@ -4597,11 +4597,11 @@
     <row r="102" spans="2:6">
       <c r="B102" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C102">
         <f t="shared" ref="C102:C104" ca="1" si="18">VLOOKUP(B102,data,2,FALSE)</f>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D102">
         <f t="shared" ref="D102:D104" ca="1" si="19">VLOOKUP(B102,data,3,FALSE)</f>
@@ -4609,17 +4609,17 @@
       </c>
       <c r="F102">
         <f ca="1">SUM(C102:C108)</f>
-        <v>502</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="18"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="19"/>
@@ -4629,11 +4629,11 @@
     <row r="104" spans="2:6">
       <c r="B104" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="19"/>
@@ -4643,11 +4643,11 @@
     <row r="105" spans="2:6">
       <c r="B105" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C105">
         <f t="shared" ref="C105:C109" ca="1" si="20">VLOOKUP(B105,data,2,FALSE)</f>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D105">
         <f t="shared" ref="D105:D116" ca="1" si="21">VLOOKUP(B105,data,3,FALSE)</f>
@@ -4657,11 +4657,11 @@
     <row r="106" spans="2:6">
       <c r="B106" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="20"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="21"/>
@@ -4671,11 +4671,11 @@
     <row r="107" spans="2:6">
       <c r="B107" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="20"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="21"/>
@@ -4685,11 +4685,11 @@
     <row r="108" spans="2:6">
       <c r="B108" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="20"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="21"/>
@@ -4699,11 +4699,11 @@
     <row r="109" spans="2:6">
       <c r="B109" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="20"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="21"/>
@@ -4713,11 +4713,11 @@
     <row r="110" spans="2:6">
       <c r="B110" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C110">
         <f t="shared" ref="C110:C116" ca="1" si="22">IF(B110&lt;&gt;B109,VLOOKUP(B110,data,2,FALSE),"")</f>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="21"/>
@@ -4727,11 +4727,11 @@
     <row r="111" spans="2:6">
       <c r="B111" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="22"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="21"/>
@@ -4741,11 +4741,11 @@
     <row r="112" spans="2:6">
       <c r="B112" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="22"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="21"/>
@@ -4755,11 +4755,11 @@
     <row r="113" spans="2:4">
       <c r="B113" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="22"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="21"/>
@@ -4771,9 +4771,9 @@
         <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
-      <c r="C114" t="str">
+      <c r="C114">
         <f t="shared" ca="1" si="22"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="21"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8658B2-D5C8-4154-824E-0103F51D5472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F474003-43E0-4FA7-B2BE-929B16CB0E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -2925,7 +2925,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
@@ -4053,7 +4053,7 @@
     <row r="66" spans="1:7">
       <c r="B66" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44125.347089930554</v>
+        <v>44125.348248842594</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F474003-43E0-4FA7-B2BE-929B16CB0E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E4726A-376A-4229-9579-92F86071C18F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Avauskoodin arvioinnista, oireista -2 päivää eteenpäin jaetaan käyttäjille:</t>
   </si>
   <si>
-    <t>[{"timestamp":"20 October 2020, 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19 October 2020, 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18 October 2020, 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17 October 2020, 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16 October 2020, 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="},{"timestamp":"5 October 2020, 9.45","keyCount":453,"matchesCount":0,"appName":"Koronavilkku","hash":"uXzpPv\/iuYbGNuULuioRwpfJLd29mtcPYSw8\/JDZXu4="}]</t>
+    <t>[{"timestamp":"21 October 2020, 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20 October 2020, 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19 October 2020, 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18 October 2020, 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17 October 2020, 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16 October 2020, 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="}]</t>
   </si>
 </sst>
 </file>
@@ -375,46 +375,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>21 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>20 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>19 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>18 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>17 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>16 October</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15 October</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>14 October</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>13 October</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>12 October</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11 October</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>10 October</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>9 October</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>8 October</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7 October</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -426,46 +426,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +668,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Uusia #koronavilkku päiväavaimia 386.</c:v>
+              <c:v>Uusia #koronavilkku päiväavaimia 446.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -755,10 +755,13 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3B8D-4D5B-9586-BB7AA514BE8C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -877,8 +880,8 @@
               <c:idx val="49"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.867231543527935E-3"/>
-                  <c:y val="7.5784833734408474E-2"/>
+                  <c:x val="-9.4684944054416222E-3"/>
+                  <c:y val="-7.9770838473319755E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -971,148 +974,148 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44124</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44123</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44122</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44121</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44120</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44119</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44077</c:v>
@@ -1130,151 +1133,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0</c:v>
@@ -2925,8 +2928,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2952,11 +2955,11 @@
       </c>
       <c r="G2">
         <f ca="1">SUM(AllKeys)</f>
-        <v>13825</v>
+        <v>14271</v>
       </c>
       <c r="H2" s="10">
         <f ca="1">G2/7</f>
-        <v>1975</v>
+        <v>2038.7142857142858</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -2995,15 +2998,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>20 October</v>
+        <v>21 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -3037,15 +3040,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19 October</v>
+        <v>20 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -3053,41 +3056,41 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18 October</v>
+        <v>19 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -3095,41 +3098,41 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17 October</v>
+        <v>18 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3137,41 +3140,41 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>16 October</v>
+        <v>17 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3179,41 +3182,41 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15 October</v>
+        <v>16 October</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3247,15 +3250,15 @@
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>14 October</v>
+        <v>15 October</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3289,15 +3292,15 @@
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>13 October</v>
+        <v>14 October</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3305,41 +3308,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>12 October</v>
+        <v>13 October</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3347,41 +3350,41 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>11 October</v>
+        <v>12 October</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3415,15 +3418,15 @@
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10 October</v>
+        <v>11 October</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3457,19 +3460,19 @@
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>9 October</v>
+        <v>10 October</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
@@ -3477,79 +3480,79 @@
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>8 October</v>
+        <v>9 October</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>7 October</v>
+        <v>8 October</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3585,10 +3588,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="5">
-        <v>44123</v>
+        <v>44115</v>
       </c>
       <c r="D23" s="2">
-        <v>421</v>
+        <v>666</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -4037,7 +4040,7 @@
     <row r="63" spans="1:7">
       <c r="A63" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C67&amp;" edelliset 7 päivää "&amp;F67&amp;" (muutos "&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;" ("&amp;G81&amp;"), "&amp;F88&amp;". Kumulatiivisesti N="&amp;G2&amp;" ja /7 arvioituna (*) avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 20.10 on n=386 edelliset 7 päivää 3506 (muutos -20 %), 4389 (72 %), 2555 (78 %), 1437. Kumulatiivisesti N=13825 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 1975, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 21.10 on n=446 edelliset 7 päivää 3393 (muutos -22 %), 4370 (55 %), 2815 (80 %), 1566. Kumulatiivisesti N=14271 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2039, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
       </c>
       <c r="C63"/>
     </row>
@@ -4047,13 +4050,13 @@
       </c>
       <c r="F65" s="8" t="str">
         <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C67&amp;"."</f>
-        <v>Uusia #koronavilkku päiväavaimia 386.</v>
+        <v>Uusia #koronavilkku päiväavaimia 446.</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="B66" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44125.348248842594</v>
+        <v>44126.35123252315</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -4065,11 +4068,11 @@
     <row r="67" spans="1:7">
       <c r="B67" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B66)</f>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C100" ca="1" si="10">VLOOKUP(B67,data,2,FALSE)</f>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D79" ca="1" si="11">VLOOKUP(B67,data,3,FALSE)</f>
@@ -4077,21 +4080,21 @@
       </c>
       <c r="F67">
         <f ca="1">SUM(C67:C73)</f>
-        <v>3506</v>
+        <v>3393</v>
       </c>
       <c r="G67" s="9" t="str">
         <f ca="1">TEXT(F67/F74-1,"0 %")</f>
-        <v>-20 %</v>
+        <v>-22 %</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="B68" s="3">
         <f t="shared" ref="B68:B88" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B67)</f>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="10"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="11"/>
@@ -4101,11 +4104,11 @@
     <row r="69" spans="1:7">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="10"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="11"/>
@@ -4115,11 +4118,11 @@
     <row r="70" spans="1:7">
       <c r="B70" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="10"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="11"/>
@@ -4129,11 +4132,11 @@
     <row r="71" spans="1:7">
       <c r="B71" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="10"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="11"/>
@@ -4143,11 +4146,11 @@
     <row r="72" spans="1:7">
       <c r="B72" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="10"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="11"/>
@@ -4157,11 +4160,11 @@
     <row r="73" spans="1:7">
       <c r="B73" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="10"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="11"/>
@@ -4171,11 +4174,11 @@
     <row r="74" spans="1:7">
       <c r="B74" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="10"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="11"/>
@@ -4183,21 +4186,21 @@
       </c>
       <c r="F74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>4389</v>
+        <v>4370</v>
       </c>
       <c r="G74" s="9" t="str">
         <f ca="1">TEXT(F74/F81-1,"0 %")</f>
-        <v>72 %</v>
+        <v>55 %</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="B75" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="11"/>
@@ -4207,11 +4210,11 @@
     <row r="76" spans="1:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="11"/>
@@ -4221,11 +4224,11 @@
     <row r="77" spans="1:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="11"/>
@@ -4235,39 +4238,39 @@
     <row r="78" spans="1:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="D80">
         <f ca="1">VLOOKUP(B80,data,3,FALSE)</f>
@@ -4277,11 +4280,11 @@
     <row r="81" spans="1:7">
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="D81">
         <f t="shared" ref="D81:D87" ca="1" si="13">VLOOKUP(B81,data,3,FALSE)</f>
@@ -4289,21 +4292,21 @@
       </c>
       <c r="F81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>2555</v>
+        <v>2815</v>
       </c>
       <c r="G81" s="9" t="str">
         <f ca="1">TEXT(F81/F88-1,"0 %")</f>
-        <v>78 %</v>
+        <v>80 %</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="B82" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="13"/>
@@ -4313,11 +4316,11 @@
     <row r="83" spans="1:7">
       <c r="B83" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="13"/>
@@ -4327,39 +4330,39 @@
     <row r="84" spans="1:7">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="B86" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="13"/>
@@ -4369,11 +4372,11 @@
     <row r="87" spans="1:7">
       <c r="B87" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="13"/>
@@ -4383,11 +4386,11 @@
     <row r="88" spans="1:7">
       <c r="B88" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D88">
         <f t="shared" ref="D88:D100" ca="1" si="14">VLOOKUP(B88,data,3,FALSE)</f>
@@ -4395,21 +4398,21 @@
       </c>
       <c r="F88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>1437</v>
+        <v>1566</v>
       </c>
       <c r="G88" s="9" t="str">
         <f ca="1">TEXT(F88/F95-1,"0 %")</f>
-        <v>19 %</v>
+        <v>24 %</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B88),1.8202)</f>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
@@ -4419,11 +4422,11 @@
     <row r="90" spans="1:7">
       <c r="B90" s="3">
         <f t="shared" ref="B90:B116" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B89),44077)</f>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
@@ -4433,11 +4436,11 @@
     <row r="91" spans="1:7">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
@@ -4447,41 +4450,41 @@
     <row r="92" spans="1:7">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="7"/>
       <c r="B93" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="3"/>
       <c r="B94" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="14"/>
@@ -4491,11 +4494,11 @@
     <row r="95" spans="1:7">
       <c r="B95" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="14"/>
@@ -4503,21 +4506,21 @@
       </c>
       <c r="F95">
         <f ca="1">SUM(C95:C101)</f>
-        <v>1204</v>
+        <v>1268</v>
       </c>
       <c r="G95" s="9" t="str">
         <f ca="1">TEXT(F95/F102-1,"0 %")</f>
-        <v>107 %</v>
+        <v>109 %</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="14"/>
@@ -4527,11 +4530,11 @@
     <row r="97" spans="2:6">
       <c r="B97" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="10"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="14"/>
@@ -4541,11 +4544,11 @@
     <row r="98" spans="2:6">
       <c r="B98" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="10"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="14"/>
@@ -4555,11 +4558,11 @@
     <row r="99" spans="2:6">
       <c r="B99" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="14"/>
@@ -4569,11 +4572,11 @@
     <row r="100" spans="2:6">
       <c r="B100" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="10"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="14"/>
@@ -4583,11 +4586,11 @@
     <row r="101" spans="2:6">
       <c r="B101" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C101">
         <f t="shared" ref="C101" ca="1" si="16">VLOOKUP(B101,data,2,FALSE)</f>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D101">
         <f t="shared" ref="D101" ca="1" si="17">VLOOKUP(B101,data,3,FALSE)</f>
@@ -4597,11 +4600,11 @@
     <row r="102" spans="2:6">
       <c r="B102" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C102">
         <f t="shared" ref="C102:C104" ca="1" si="18">VLOOKUP(B102,data,2,FALSE)</f>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D102">
         <f t="shared" ref="D102:D104" ca="1" si="19">VLOOKUP(B102,data,3,FALSE)</f>
@@ -4609,17 +4612,17 @@
       </c>
       <c r="F102">
         <f ca="1">SUM(C102:C108)</f>
-        <v>582</v>
+        <v>606</v>
       </c>
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="18"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="19"/>
@@ -4629,11 +4632,11 @@
     <row r="104" spans="2:6">
       <c r="B104" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="18"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="19"/>
@@ -4643,11 +4646,11 @@
     <row r="105" spans="2:6">
       <c r="B105" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C105">
         <f t="shared" ref="C105:C109" ca="1" si="20">VLOOKUP(B105,data,2,FALSE)</f>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D105">
         <f t="shared" ref="D105:D116" ca="1" si="21">VLOOKUP(B105,data,3,FALSE)</f>
@@ -4657,11 +4660,11 @@
     <row r="106" spans="2:6">
       <c r="B106" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="20"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="21"/>
@@ -4671,11 +4674,11 @@
     <row r="107" spans="2:6">
       <c r="B107" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="20"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="21"/>
@@ -4685,11 +4688,11 @@
     <row r="108" spans="2:6">
       <c r="B108" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="20"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="21"/>
@@ -4699,11 +4702,11 @@
     <row r="109" spans="2:6">
       <c r="B109" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="20"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="21"/>
@@ -4713,11 +4716,11 @@
     <row r="110" spans="2:6">
       <c r="B110" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C110">
         <f t="shared" ref="C110:C116" ca="1" si="22">IF(B110&lt;&gt;B109,VLOOKUP(B110,data,2,FALSE),"")</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="21"/>
@@ -4727,11 +4730,11 @@
     <row r="111" spans="2:6">
       <c r="B111" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="22"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="21"/>
@@ -4741,11 +4744,11 @@
     <row r="112" spans="2:6">
       <c r="B112" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="22"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="21"/>
@@ -4755,11 +4758,11 @@
     <row r="113" spans="2:4">
       <c r="B113" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="22"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="21"/>
@@ -4769,11 +4772,11 @@
     <row r="114" spans="2:4">
       <c r="B114" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="22"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="21"/>
@@ -4785,9 +4788,9 @@
         <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
-      <c r="C115" t="str">
+      <c r="C115">
         <f t="shared" ca="1" si="22"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="21"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E4726A-376A-4229-9579-92F86071C18F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2914487B-8E9B-49DC-8D97-490246182594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Avauskoodin arvioinnista, oireista -2 päivää eteenpäin jaetaan käyttäjille:</t>
   </si>
   <si>
-    <t>[{"timestamp":"21 October 2020, 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20 October 2020, 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19 October 2020, 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18 October 2020, 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17 October 2020, 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16 October 2020, 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="},{"timestamp":"6 October 2020, 11.01","keyCount":655,"matchesCount":0,"appName":"Koronavilkku","hash":"QeRbsfWYQceRkpkjqfgj97iR0zGI+MgkHf7w4pz1+eg="}]</t>
+    <t>[{"timestamp":"22 October 2020, 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21 October 2020, 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20 October 2020, 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19 October 2020, 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18 October 2020, 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17 October 2020, 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16 October 2020, 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="}]</t>
   </si>
 </sst>
 </file>
@@ -375,46 +375,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>22 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>21 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>20 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>19 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>18 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>17 October</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>16 October</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>15 October</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>14 October</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>13 October</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>12 October</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11 October</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>10 October</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>9 October</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8 October</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -426,46 +426,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +668,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Uusia #koronavilkku päiväavaimia 446.</c:v>
+              <c:v>Uusia #koronavilkku päiväavaimia 372.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -755,13 +755,10 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-3B8D-4D5B-9586-BB7AA514BE8C}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -880,8 +877,8 @@
               <c:idx val="49"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.4684944054416222E-3"/>
-                  <c:y val="-7.9770838473319755E-2"/>
+                  <c:x val="-1.7272282991181925E-2"/>
+                  <c:y val="8.5308650400187772E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -974,151 +971,151 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44125</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44124</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44123</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44122</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44121</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44120</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44119</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44077</c:v>
@@ -1133,154 +1130,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2928,8 +2925,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2955,11 +2952,11 @@
       </c>
       <c r="G2">
         <f ca="1">SUM(AllKeys)</f>
-        <v>14271</v>
+        <v>14643</v>
       </c>
       <c r="H2" s="10">
         <f ca="1">G2/7</f>
-        <v>2038.7142857142858</v>
+        <v>2091.8571428571427</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -2998,15 +2995,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>21 October</v>
+        <v>22 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -3040,15 +3037,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20 October</v>
+        <v>21 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -3056,41 +3053,41 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19 October</v>
+        <v>20 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -3124,15 +3121,15 @@
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18 October</v>
+        <v>19 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3140,41 +3137,41 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17 October</v>
+        <v>18 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3182,41 +3179,41 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>16 October</v>
+        <v>17 October</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3224,41 +3221,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15 October</v>
+        <v>16 October</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3266,41 +3263,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>14 October</v>
+        <v>15 October</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3308,41 +3305,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>13 October</v>
+        <v>14 October</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3376,15 +3373,15 @@
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>12 October</v>
+        <v>13 October</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3418,15 +3415,15 @@
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>11 October</v>
+        <v>12 October</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3434,41 +3431,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10 October</v>
+        <v>11 October</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3476,111 +3473,111 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>9 October</v>
+        <v>10 October</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1867</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>8 October</v>
+        <v>9 October</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4040,7 +4037,7 @@
     <row r="63" spans="1:7">
       <c r="A63" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C67&amp;" edelliset 7 päivää "&amp;F67&amp;" (muutos "&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;" ("&amp;G81&amp;"), "&amp;F88&amp;". Kumulatiivisesti N="&amp;G2&amp;" ja /7 arvioituna (*) avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 21.10 on n=446 edelliset 7 päivää 3393 (muutos -22 %), 4370 (55 %), 2815 (80 %), 1566. Kumulatiivisesti N=14271 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2039, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 22.10 on n=372 edelliset 7 päivää 3336 (muutos -23 %), 4354 (42 %), 3057 (96 %), 1558. Kumulatiivisesti N=14643 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2092, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
       </c>
       <c r="C63"/>
     </row>
@@ -4050,13 +4047,13 @@
       </c>
       <c r="F65" s="8" t="str">
         <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C67&amp;"."</f>
-        <v>Uusia #koronavilkku päiväavaimia 446.</v>
+        <v>Uusia #koronavilkku päiväavaimia 372.</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="B66" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44126.35123252315</v>
+        <v>44127.369034953706</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -4068,11 +4065,11 @@
     <row r="67" spans="1:7">
       <c r="B67" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B66)</f>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C100" ca="1" si="10">VLOOKUP(B67,data,2,FALSE)</f>
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D79" ca="1" si="11">VLOOKUP(B67,data,3,FALSE)</f>
@@ -4080,21 +4077,21 @@
       </c>
       <c r="F67">
         <f ca="1">SUM(C67:C73)</f>
-        <v>3393</v>
+        <v>3336</v>
       </c>
       <c r="G67" s="9" t="str">
         <f ca="1">TEXT(F67/F74-1,"0 %")</f>
-        <v>-22 %</v>
+        <v>-23 %</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="B68" s="3">
         <f t="shared" ref="B68:B88" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B67)</f>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="10"/>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="11"/>
@@ -4104,11 +4101,11 @@
     <row r="69" spans="1:7">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="10"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="11"/>
@@ -4118,11 +4115,11 @@
     <row r="70" spans="1:7">
       <c r="B70" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="10"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="11"/>
@@ -4132,11 +4129,11 @@
     <row r="71" spans="1:7">
       <c r="B71" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="10"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="11"/>
@@ -4146,11 +4143,11 @@
     <row r="72" spans="1:7">
       <c r="B72" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="10"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="11"/>
@@ -4160,11 +4157,11 @@
     <row r="73" spans="1:7">
       <c r="B73" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="10"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="11"/>
@@ -4174,11 +4171,11 @@
     <row r="74" spans="1:7">
       <c r="B74" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="10"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="11"/>
@@ -4186,21 +4183,21 @@
       </c>
       <c r="F74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>4370</v>
+        <v>4354</v>
       </c>
       <c r="G74" s="9" t="str">
         <f ca="1">TEXT(F74/F81-1,"0 %")</f>
-        <v>55 %</v>
+        <v>42 %</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="B75" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="11"/>
@@ -4210,11 +4207,11 @@
     <row r="76" spans="1:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="11"/>
@@ -4224,11 +4221,11 @@
     <row r="77" spans="1:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="11"/>
@@ -4238,11 +4235,11 @@
     <row r="78" spans="1:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="11"/>
@@ -4252,39 +4249,39 @@
     <row r="79" spans="1:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="D80">
         <f ca="1">VLOOKUP(B80,data,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="D81">
         <f t="shared" ref="D81:D87" ca="1" si="13">VLOOKUP(B81,data,3,FALSE)</f>
@@ -4292,21 +4289,21 @@
       </c>
       <c r="F81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>2815</v>
+        <v>3057</v>
       </c>
       <c r="G81" s="9" t="str">
         <f ca="1">TEXT(F81/F88-1,"0 %")</f>
-        <v>80 %</v>
+        <v>96 %</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="B82" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="13"/>
@@ -4316,11 +4313,11 @@
     <row r="83" spans="1:7">
       <c r="B83" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="13"/>
@@ -4330,11 +4327,11 @@
     <row r="84" spans="1:7">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="13"/>
@@ -4344,39 +4341,39 @@
     <row r="85" spans="1:7">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="B86" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="B87" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="13"/>
@@ -4386,11 +4383,11 @@
     <row r="88" spans="1:7">
       <c r="B88" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D88">
         <f t="shared" ref="D88:D100" ca="1" si="14">VLOOKUP(B88,data,3,FALSE)</f>
@@ -4398,21 +4395,21 @@
       </c>
       <c r="F88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="G88" s="9" t="str">
         <f ca="1">TEXT(F88/F95-1,"0 %")</f>
-        <v>24 %</v>
+        <v>16 %</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B88),1.8202)</f>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
@@ -4422,11 +4419,11 @@
     <row r="90" spans="1:7">
       <c r="B90" s="3">
         <f t="shared" ref="B90:B116" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B89),44077)</f>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
@@ -4436,11 +4433,11 @@
     <row r="91" spans="1:7">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
@@ -4450,11 +4447,11 @@
     <row r="92" spans="1:7">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
@@ -4465,40 +4462,40 @@
       <c r="A93" s="7"/>
       <c r="B93" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="3"/>
       <c r="B94" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="B95" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="14"/>
@@ -4506,21 +4503,21 @@
       </c>
       <c r="F95">
         <f ca="1">SUM(C95:C101)</f>
-        <v>1268</v>
+        <v>1342</v>
       </c>
       <c r="G95" s="9" t="str">
         <f ca="1">TEXT(F95/F102-1,"0 %")</f>
-        <v>109 %</v>
+        <v>101 %</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="14"/>
@@ -4530,11 +4527,11 @@
     <row r="97" spans="2:6">
       <c r="B97" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="14"/>
@@ -4544,11 +4541,11 @@
     <row r="98" spans="2:6">
       <c r="B98" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="10"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="14"/>
@@ -4558,11 +4555,11 @@
     <row r="99" spans="2:6">
       <c r="B99" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="10"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="14"/>
@@ -4572,11 +4569,11 @@
     <row r="100" spans="2:6">
       <c r="B100" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="14"/>
@@ -4586,11 +4583,11 @@
     <row r="101" spans="2:6">
       <c r="B101" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C101">
         <f t="shared" ref="C101" ca="1" si="16">VLOOKUP(B101,data,2,FALSE)</f>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D101">
         <f t="shared" ref="D101" ca="1" si="17">VLOOKUP(B101,data,3,FALSE)</f>
@@ -4600,11 +4597,11 @@
     <row r="102" spans="2:6">
       <c r="B102" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C102">
         <f t="shared" ref="C102:C104" ca="1" si="18">VLOOKUP(B102,data,2,FALSE)</f>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D102">
         <f t="shared" ref="D102:D104" ca="1" si="19">VLOOKUP(B102,data,3,FALSE)</f>
@@ -4612,17 +4609,17 @@
       </c>
       <c r="F102">
         <f ca="1">SUM(C102:C108)</f>
-        <v>606</v>
+        <v>668</v>
       </c>
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="18"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="19"/>
@@ -4632,11 +4629,11 @@
     <row r="104" spans="2:6">
       <c r="B104" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="18"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="19"/>
@@ -4646,11 +4643,11 @@
     <row r="105" spans="2:6">
       <c r="B105" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C105">
         <f t="shared" ref="C105:C109" ca="1" si="20">VLOOKUP(B105,data,2,FALSE)</f>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D105">
         <f t="shared" ref="D105:D116" ca="1" si="21">VLOOKUP(B105,data,3,FALSE)</f>
@@ -4660,11 +4657,11 @@
     <row r="106" spans="2:6">
       <c r="B106" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="20"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="21"/>
@@ -4674,11 +4671,11 @@
     <row r="107" spans="2:6">
       <c r="B107" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="20"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="21"/>
@@ -4688,11 +4685,11 @@
     <row r="108" spans="2:6">
       <c r="B108" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="20"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="21"/>
@@ -4702,11 +4699,11 @@
     <row r="109" spans="2:6">
       <c r="B109" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="20"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="21"/>
@@ -4716,11 +4713,11 @@
     <row r="110" spans="2:6">
       <c r="B110" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C110">
         <f t="shared" ref="C110:C116" ca="1" si="22">IF(B110&lt;&gt;B109,VLOOKUP(B110,data,2,FALSE),"")</f>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="21"/>
@@ -4730,11 +4727,11 @@
     <row r="111" spans="2:6">
       <c r="B111" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="22"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="21"/>
@@ -4744,11 +4741,11 @@
     <row r="112" spans="2:6">
       <c r="B112" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="22"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="21"/>
@@ -4758,11 +4755,11 @@
     <row r="113" spans="2:4">
       <c r="B113" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="22"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="21"/>
@@ -4772,11 +4769,11 @@
     <row r="114" spans="2:4">
       <c r="B114" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="22"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="21"/>
@@ -4786,11 +4783,11 @@
     <row r="115" spans="2:4">
       <c r="B115" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="22"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="21"/>
@@ -4802,9 +4799,9 @@
         <f t="shared" ca="1" si="15"/>
         <v>44077</v>
       </c>
-      <c r="C116" t="str">
+      <c r="C116">
         <f t="shared" ca="1" si="22"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="21"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2914487B-8E9B-49DC-8D97-490246182594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB73C36-6EE4-40E5-BED5-6DFB97ABEF1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Android" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="AllKeys">Android!$C$67:$C$116</definedName>
-    <definedName name="data">Android!$C$9:$E$61</definedName>
+    <definedName name="AllKeys">Android!$C$74:$C$130</definedName>
+    <definedName name="data">Android!$C$9:$E$68</definedName>
     <definedName name="Json">Android!$A$4</definedName>
-    <definedName name="time">Android!$C$9:$C$61</definedName>
+    <definedName name="time">Android!$C$9:$C$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +90,7 @@
     <t>Avauskoodin arvioinnista, oireista -2 päivää eteenpäin jaetaan käyttäjille:</t>
   </si>
   <si>
-    <t>[{"timestamp":"22 October 2020, 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21 October 2020, 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20 October 2020, 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19 October 2020, 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18 October 2020, 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17 October 2020, 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16 October 2020, 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":1,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="},{"timestamp":"8 October 2020, 9.33","keyCount":445,"matchesCount":0,"appName":"Koronavilkku","hash":"7uxLPs1U4l9Xax\/0SsxKy7LS6lu4CJG6ijGiHFHVnU4="},{"timestamp":"7 October 2020, 7.00","keyCount":578,"matchesCount":0,"appName":"Koronavilkku","hash":"RIGV0l5NLmKxV1TOxtgiUbxpTmkoo8\/6iipNvK9wbio="}]</t>
+    <t>[{"timestamp":"24 October 2020, 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23 October 2020, 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22 October 2020, 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21 October 2020, 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20 October 2020, 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19 October 2020, 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18 October 2020, 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17 October 2020, 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16 October 2020, 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":11,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="}]</t>
   </si>
 </sst>
 </file>
@@ -375,46 +375,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>24 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23 October</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>22 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>21 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>20 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>19 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>18 October</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>17 October</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>16 October</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>15 October</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>14 October</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>13 October</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>12 October</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>11 October</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10 October</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9 October</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -426,46 +426,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>666</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -664,11 +664,11 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>Android!$F$65</c:f>
+          <c:f>Android!$F$72</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Uusia #koronavilkku päiväavaimia 372.</c:v>
+              <c:v>24.10.2020 uusia #koronavilkku päiväavaimia 329.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -755,14 +755,14 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="25"/>
+              <c:idx val="32"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.3154804339117405E-2"/>
@@ -777,13 +777,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-5918-43F7-A248-E7FD28078B23}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="26"/>
+              <c:idx val="33"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-9.8660385161277279E-3"/>
@@ -805,13 +802,10 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5918-43F7-A248-E7FD28078B23}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="31"/>
+              <c:idx val="38"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.1510453796727717E-2"/>
@@ -826,13 +820,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5918-43F7-A248-E7FD28078B23}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="36"/>
+              <c:idx val="43"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
@@ -847,13 +838,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-5918-43F7-A248-E7FD28078B23}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="45"/>
+              <c:idx val="52"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.8087855966286533E-2"/>
@@ -868,17 +856,14 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-5918-43F7-A248-E7FD28078B23}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="49"/>
+              <c:idx val="53"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7272282991181925E-2"/>
-                  <c:y val="8.5308650400187772E-2"/>
+                  <c:x val="-1.5607577171480983E-2"/>
+                  <c:y val="-6.3492111105195231E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -889,8 +874,77 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-5918-43F7-A248-E7FD28078B23}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="54"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4711997188178222E-2"/>
+                  <c:y val="-7.9365138881493977E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="56"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3370388698311869E-2"/>
+                  <c:y val="9.3245164288337179E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.3400215146969302E-2"/>
+                      <c:h val="0.1301113336667919"/>
+                    </c:manualLayout>
+                  </c15:layout>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -966,158 +1020,179 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Android!$B$67:$B$116</c:f>
+              <c:f>Android!$B$74:$B$130</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>44126</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>44125</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>44124</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>44123</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>44122</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>44121</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>44120</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>44119</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>44078</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>44077</c:v>
                 </c:pt>
               </c:numCache>
@@ -1125,159 +1200,180 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Android!$C$67:$C$116</c:f>
+              <c:f>Android!$C$74:$C$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2560,7 +2656,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>348342</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>146955</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2588,16 +2684,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>408213</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>103416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>598717</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2923,10 +3019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E4FBF2-530B-45FC-AB24-E83337470135}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:L118"/>
+  <dimension ref="A2:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2945,18 +3041,18 @@
       </c>
       <c r="E2" s="2">
         <f>SUM(E9:E22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2">
         <f ca="1">SUM(AllKeys)</f>
-        <v>14643</v>
+        <v>15458</v>
       </c>
       <c r="H2" s="10">
         <f ca="1">G2/7</f>
-        <v>2091.8571428571427</v>
+        <v>2208.2857142857142</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -2995,15 +3091,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>22 October</v>
+        <v>24 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44126</v>
+        <v>44128</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -3037,15 +3133,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21 October</v>
+        <v>23 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44125</v>
+        <v>44127</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -3053,41 +3149,41 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20 October</v>
+        <v>22 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44124</v>
+        <v>44126</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -3095,41 +3191,41 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19 October</v>
+        <v>21 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44123</v>
+        <v>44125</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3137,41 +3233,41 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18 October</v>
+        <v>20 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44122</v>
+        <v>44124</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>535</v>
+        <v>386</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3205,15 +3301,15 @@
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17 October</v>
+        <v>19 October</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44121</v>
+        <v>44123</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>537</v>
+        <v>421</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3221,41 +3317,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>16 October</v>
+        <v>18 October</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44120</v>
+        <v>44122</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>639</v>
+        <v>535</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3263,41 +3359,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15 October</v>
+        <v>17 October</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44119</v>
+        <v>44121</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>537</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3305,41 +3401,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>14 October</v>
+        <v>16 October</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44118</v>
+        <v>44120</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>559</v>
+        <v>639</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3347,41 +3443,41 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1271</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>13 October</v>
+        <v>15 October</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44117</v>
+        <v>44119</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>649</v>
+        <v>429</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3389,41 +3485,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1421</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>12 October</v>
+        <v>14 October</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44116</v>
+        <v>44118</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>691</v>
+        <v>559</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3431,41 +3527,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>11 October</v>
+        <v>13 October</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44115</v>
+        <v>44117</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3473,41 +3569,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1720</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10 October</v>
+        <v>12 October</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44114</v>
+        <v>44116</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3515,69 +3611,69 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1869</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>9 October</v>
+        <v>11 October</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>666</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3585,10 +3681,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="5">
-        <v>44115</v>
+        <v>44122</v>
       </c>
       <c r="D23" s="2">
-        <v>666</v>
+        <v>535</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -3596,10 +3692,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="C24" s="5">
-        <v>44114</v>
+        <v>44121</v>
       </c>
       <c r="D24" s="2">
-        <v>720</v>
+        <v>537</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -3607,21 +3703,21 @@
     </row>
     <row r="25" spans="1:12">
       <c r="C25" s="5">
-        <v>44113</v>
+        <v>44120</v>
       </c>
       <c r="D25" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="C26" s="5">
-        <v>44112</v>
+        <v>44119</v>
       </c>
       <c r="D26" s="2">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -3629,10 +3725,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="C27" s="5">
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="D27" s="2">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -3640,10 +3736,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="C28" s="5">
-        <v>44110</v>
+        <v>44117</v>
       </c>
       <c r="D28" s="2">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -3651,10 +3747,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="C29" s="5">
-        <v>44109</v>
+        <v>44116</v>
       </c>
       <c r="D29" s="2">
-        <v>453</v>
+        <v>691</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -3662,10 +3758,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="C30" s="5">
-        <v>44108</v>
+        <v>44115</v>
       </c>
       <c r="D30" s="2">
-        <v>294</v>
+        <v>666</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -3673,32 +3769,32 @@
     </row>
     <row r="31" spans="1:12">
       <c r="C31" s="5">
-        <v>44107</v>
+        <v>44114</v>
       </c>
       <c r="D31" s="2">
-        <v>463</v>
+        <v>720</v>
       </c>
       <c r="E31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="C32" s="5">
-        <v>44106</v>
+        <v>44113</v>
       </c>
       <c r="D32" s="2">
-        <v>169</v>
+        <v>640</v>
       </c>
       <c r="E32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="5">
-        <v>44105</v>
+        <v>44112</v>
       </c>
       <c r="D33" s="2">
-        <v>203</v>
+        <v>445</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -3706,10 +3802,10 @@
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="5">
-        <v>44104</v>
+        <v>44111</v>
       </c>
       <c r="D34" s="2">
-        <v>318</v>
+        <v>578</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -3717,10 +3813,10 @@
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="5">
-        <v>44103</v>
+        <v>44110</v>
       </c>
       <c r="D35" s="2">
-        <v>238</v>
+        <v>655</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -3728,10 +3824,10 @@
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="5">
-        <v>44102</v>
+        <v>44109</v>
       </c>
       <c r="D36" s="2">
-        <v>199</v>
+        <v>453</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -3739,10 +3835,10 @@
     </row>
     <row r="37" spans="3:5">
       <c r="C37" s="5">
-        <v>44101</v>
+        <v>44108</v>
       </c>
       <c r="D37" s="2">
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -3750,32 +3846,32 @@
     </row>
     <row r="38" spans="3:5">
       <c r="C38" s="5">
-        <v>44100</v>
+        <v>44107</v>
       </c>
       <c r="D38" s="2">
-        <v>242</v>
+        <v>463</v>
       </c>
       <c r="E38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="3:5">
       <c r="C39" s="5">
-        <v>44099</v>
+        <v>44106</v>
       </c>
       <c r="D39" s="2">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="E39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:5">
       <c r="C40" s="5">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="D40" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -3783,10 +3879,10 @@
     </row>
     <row r="41" spans="3:5">
       <c r="C41" s="5">
-        <v>44097</v>
+        <v>44104</v>
       </c>
       <c r="D41" s="2">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -3794,10 +3890,10 @@
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="5">
-        <v>44096</v>
+        <v>44103</v>
       </c>
       <c r="D42" s="2">
-        <v>311</v>
+        <v>238</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -3805,10 +3901,10 @@
     </row>
     <row r="43" spans="3:5">
       <c r="C43" s="5">
-        <v>44095</v>
+        <v>44102</v>
       </c>
       <c r="D43" s="2">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -3816,10 +3912,10 @@
     </row>
     <row r="44" spans="3:5">
       <c r="C44" s="5">
-        <v>44094</v>
+        <v>44101</v>
       </c>
       <c r="D44" s="2">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -3827,10 +3923,10 @@
     </row>
     <row r="45" spans="3:5">
       <c r="C45" s="5">
-        <v>44093</v>
+        <v>44100</v>
       </c>
       <c r="D45" s="2">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -3838,21 +3934,21 @@
     </row>
     <row r="46" spans="3:5">
       <c r="C46" s="5">
-        <v>44092</v>
+        <v>44099</v>
       </c>
       <c r="D46" s="2">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="E46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="3:5">
       <c r="C47" s="5">
-        <v>44091</v>
+        <v>44098</v>
       </c>
       <c r="D47" s="2">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -3860,10 +3956,10 @@
     </row>
     <row r="48" spans="3:5">
       <c r="C48" s="5">
-        <v>44090</v>
+        <v>44097</v>
       </c>
       <c r="D48" s="2">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -3871,10 +3967,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="C49" s="5">
-        <v>44089</v>
+        <v>44096</v>
       </c>
       <c r="D49" s="2">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -3882,10 +3978,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="C50" s="5">
-        <v>44088</v>
+        <v>44095</v>
       </c>
       <c r="D50" s="2">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -3893,10 +3989,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="C51" s="5">
-        <v>44087</v>
+        <v>44094</v>
       </c>
       <c r="D51" s="2">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -3904,10 +4000,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="C52" s="5">
-        <v>44086</v>
+        <v>44093</v>
       </c>
       <c r="D52" s="2">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -3915,10 +4011,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="C53" s="5">
-        <v>44085</v>
+        <v>44092</v>
       </c>
       <c r="D53" s="2">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -3926,10 +4022,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="C54" s="5">
-        <v>44084</v>
+        <v>44091</v>
       </c>
       <c r="D54" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -3937,10 +4033,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="C55" s="5">
-        <v>44083</v>
+        <v>44090</v>
       </c>
       <c r="D55" s="2">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -3948,38 +4044,32 @@
     </row>
     <row r="56" spans="1:7">
       <c r="C56" s="5">
-        <v>44082</v>
+        <v>44089</v>
       </c>
       <c r="D56" s="2">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="C57" s="5">
-        <v>44081</v>
+        <v>44088</v>
       </c>
       <c r="D57" s="2">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="C58" s="5">
-        <v>44080</v>
+        <v>44087</v>
       </c>
       <c r="D58" s="2">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -3987,843 +4077,1260 @@
     </row>
     <row r="59" spans="1:7">
       <c r="C59" s="5">
+        <v>44086</v>
+      </c>
+      <c r="D59" s="2">
+        <v>46</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="C60" s="5">
+        <v>44085</v>
+      </c>
+      <c r="D60" s="2">
+        <v>70</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="C61" s="5">
+        <v>44084</v>
+      </c>
+      <c r="D61" s="2">
+        <v>75</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="C62" s="5">
+        <v>44083</v>
+      </c>
+      <c r="D62" s="2">
+        <v>101</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="C63" s="5">
+        <v>44082</v>
+      </c>
+      <c r="D63" s="2">
+        <v>56</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="5">
+        <v>44081</v>
+      </c>
+      <c r="D64" s="2">
+        <v>46</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="C65" s="5">
+        <v>44080</v>
+      </c>
+      <c r="D65" s="2">
+        <v>10</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="C66" s="5">
         <v>44079</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D66" s="2">
         <v>15</v>
       </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
+    <row r="67" spans="1:7">
+      <c r="A67">
         <f>4363/14</f>
         <v>311.64285714285717</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C67" s="5">
         <v>44078</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D67" s="2">
         <v>19</v>
       </c>
-      <c r="E60" s="2">
-        <v>0</v>
-      </c>
-      <c r="G60" s="6" t="s">
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="C61" s="5">
+    <row r="68" spans="1:7">
+      <c r="C68" s="5">
         <v>44077</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D68" s="2">
         <v>6</v>
       </c>
-      <c r="E61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
         <v>10</v>
       </c>
-      <c r="C62"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="8" t="str">
-        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C67&amp;" edelliset 7 päivää "&amp;F67&amp;" (muutos "&amp;G67&amp;"), "&amp;F74&amp;" ("&amp;G74&amp;"), "&amp;F81&amp;" ("&amp;G81&amp;"), "&amp;F88&amp;". Kumulatiivisesti N="&amp;G2&amp;" ja /7 arvioituna (*) avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 22.10 on n=372 edelliset 7 päivää 3336 (muutos -23 %), 4354 (42 %), 3057 (96 %), 1558. Kumulatiivisesti N=14643 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2092, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
-      </c>
-      <c r="C63"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="8" t="str">
+        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C74&amp;" edelliset 7 päivää "&amp;A74&amp;" (muutos "&amp;A75&amp;"), "&amp;A81&amp;" ("&amp;A82&amp;"), "&amp;A88&amp;" ("&amp;A89&amp;"), "&amp;A95&amp;". Kumulatiivisesti N="&amp;G2&amp;" ja /7 arvioituna (*) avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 24.10 on n=329 edelliset 7 päivää 2975 (muutos -29 %), 4170 (10 %), 3785 (119 %), 1731. Kumulatiivisesti N=15458 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2208, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+      </c>
+      <c r="C70"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="8" t="str">
-        <f ca="1">"Uusia #koronavilkku päiväavaimia "&amp;C67&amp;"."</f>
-        <v>Uusia #koronavilkku päiväavaimia 372.</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="B66" s="3">
-        <f ca="1">NOW()+1</f>
-        <v>44127.369034953706</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="B67" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B66)</f>
-        <v>44126</v>
-      </c>
-      <c r="C67">
-        <f t="shared" ref="C67:C100" ca="1" si="10">VLOOKUP(B67,data,2,FALSE)</f>
-        <v>372</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D79" ca="1" si="11">VLOOKUP(B67,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <f ca="1">SUM(C67:C73)</f>
-        <v>3336</v>
-      </c>
-      <c r="G67" s="9" t="str">
-        <f ca="1">TEXT(F67/F74-1,"0 %")</f>
-        <v>-23 %</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="B68" s="3">
-        <f t="shared" ref="B68:B88" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B67)</f>
-        <v>44125</v>
-      </c>
-      <c r="C68">
-        <f t="shared" ca="1" si="10"/>
-        <v>446</v>
-      </c>
-      <c r="D68">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="B69" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44124</v>
-      </c>
-      <c r="C69">
-        <f t="shared" ca="1" si="10"/>
-        <v>386</v>
-      </c>
-      <c r="D69">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="B70" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44123</v>
-      </c>
-      <c r="C70">
-        <f t="shared" ca="1" si="10"/>
-        <v>421</v>
-      </c>
-      <c r="D70">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="B71" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44122</v>
-      </c>
-      <c r="C71">
-        <f t="shared" ca="1" si="10"/>
-        <v>535</v>
-      </c>
-      <c r="D71">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="B72" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44121</v>
-      </c>
-      <c r="C72">
-        <f t="shared" ca="1" si="10"/>
-        <v>537</v>
-      </c>
-      <c r="D72">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+      <c r="F72" s="8" t="str">
+        <f ca="1">TEXT(NOW(),"p.k.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C74&amp;"."</f>
+        <v>24.10.2020 uusia #koronavilkku päiväavaimia 329.</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="B73" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44120</v>
-      </c>
-      <c r="C73">
-        <f t="shared" ca="1" si="10"/>
-        <v>639</v>
-      </c>
-      <c r="D73">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f ca="1">NOW()+1</f>
+        <v>44129.465841666664</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:7">
+      <c r="A74">
+        <f ca="1">SUM(C74:C80)</f>
+        <v>2975</v>
+      </c>
       <c r="B74" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44119</v>
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B73)</f>
+        <v>44128</v>
       </c>
       <c r="C74">
-        <f t="shared" ca="1" si="10"/>
-        <v>429</v>
+        <f t="shared" ref="C74:C107" ca="1" si="10">VLOOKUP(B74,data,2,FALSE)</f>
+        <v>329</v>
       </c>
       <c r="D74">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <f ca="1">SUM(C74:C80)</f>
-        <v>4354</v>
-      </c>
-      <c r="G74" s="9" t="str">
-        <f ca="1">TEXT(F74/F81-1,"0 %")</f>
-        <v>42 %</v>
+        <f t="shared" ref="D74:D86" ca="1" si="11">VLOOKUP(B74,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f ca="1">IF(C74&lt;C75,C74,0)</f>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="1:7">
+      <c r="A75" s="9" t="str">
+        <f ca="1">TEXT(A74/A81-1,"0 %")</f>
+        <v>-29 %</v>
+      </c>
       <c r="B75" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44118</v>
+        <f t="shared" ref="B75:B95" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B74)</f>
+        <v>44127</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>559</v>
+        <v>486</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
+      </c>
+      <c r="E75">
+        <f ca="1">IF(C75&gt;=E74,E74,0)</f>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44117</v>
+        <v>44126</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>649</v>
+        <v>372</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ref="E76:E120" ca="1" si="13">IF(C76&gt;E75,E75,0)</f>
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44116</v>
+        <v>44125</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>691</v>
+        <v>446</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="13"/>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44115</v>
+        <v>44124</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>666</v>
+        <v>386</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="13"/>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
+        <v>44123</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>421</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="13"/>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
+        <v>44122</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>535</v>
       </c>
       <c r="D80">
-        <f ca="1">VLOOKUP(B80,data,3,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="13"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <f ca="1">SUM(C81:C87)</f>
+        <v>4170</v>
+      </c>
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44121</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>537</v>
       </c>
       <c r="D81">
-        <f t="shared" ref="D81:D87" ca="1" si="13">VLOOKUP(B81,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <f ca="1">SUM(C81:C87)</f>
-        <v>3057</v>
-      </c>
-      <c r="G81" s="9" t="str">
-        <f ca="1">TEXT(F81/F88-1,"0 %")</f>
-        <v>96 %</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="13"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="9" t="str">
+        <f ca="1">TEXT(A81/A88-1,"0 %")</f>
+        <v>10 %</v>
+      </c>
       <c r="B82" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
+        <v>44120</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>639</v>
       </c>
       <c r="D82">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E82">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="B83" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44110</v>
+        <v>44119</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>429</v>
       </c>
       <c r="D83">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E83">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44109</v>
+        <v>44118</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>559</v>
       </c>
       <c r="D84">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E84">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44108</v>
+        <v>44117</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>649</v>
       </c>
       <c r="D85">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E85">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="B86" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44107</v>
+        <v>44116</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>691</v>
       </c>
       <c r="D86">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E86">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="B87" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44106</v>
+        <v>44115</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>666</v>
       </c>
       <c r="D87">
+        <f ca="1">VLOOKUP(B87,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E87">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <f ca="1">SUM(C88:C94)</f>
+        <v>3785</v>
+      </c>
       <c r="B88" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44105</v>
+        <v>44114</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>720</v>
       </c>
       <c r="D88">
-        <f t="shared" ref="D88:D100" ca="1" si="14">VLOOKUP(B88,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <f ca="1">SUM(C88:C94)</f>
-        <v>1558</v>
-      </c>
-      <c r="G88" s="9" t="str">
-        <f ca="1">TEXT(F88/F95-1,"0 %")</f>
-        <v>16 %</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <f t="shared" ref="D88:D94" ca="1" si="14">VLOOKUP(B88,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="13"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="9" t="str">
+        <f ca="1">TEXT(A88/A95-1,"0 %")</f>
+        <v>119 %</v>
+      </c>
       <c r="B89" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B88),1.8202)</f>
-        <v>44104</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44113</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>640</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="13"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="B90" s="3">
-        <f t="shared" ref="B90:B116" ca="1" si="15">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B89),44077)</f>
-        <v>44103</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44112</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>445</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="E90">
+        <f t="shared" ca="1" si="13"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="B91" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44102</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44111</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>578</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="E91">
+        <f t="shared" ca="1" si="13"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="B92" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44101</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44110</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>655</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="7"/>
+      <c r="E92">
+        <f t="shared" ca="1" si="13"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="B93" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44100</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44109</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>453</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="3"/>
+      <c r="E93">
+        <f t="shared" ca="1" si="13"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="B94" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44099</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44108</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <f ca="1">SUM(C95:C101)</f>
+        <v>1731</v>
+      </c>
       <c r="B95" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44098</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44107</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>463</v>
       </c>
       <c r="D95">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <f ca="1">SUM(C95:C101)</f>
-        <v>1342</v>
-      </c>
-      <c r="G95" s="9" t="str">
-        <f ca="1">TEXT(F95/F102-1,"0 %")</f>
-        <v>101 %</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <f t="shared" ref="D95:D107" ca="1" si="15">VLOOKUP(B95,data,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="9" t="str">
+        <f ca="1">TEXT(A95/A102-1,"0 %")</f>
+        <v>13 %</v>
+      </c>
       <c r="B96" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44097</v>
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B95),1.8202)</f>
+        <v>44106</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="D96">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="B97" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44096</v>
+        <f t="shared" ref="B97:B130" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B96),44077)</f>
+        <v>44105</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D97">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="B98" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44095</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>44104</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <v>318</v>
       </c>
       <c r="D98">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="B99" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44094</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>44103</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="10"/>
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="D99">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="7"/>
       <c r="B100" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44093</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>44102</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="10"/>
+        <v>199</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44101</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="10"/>
+        <v>141</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <f ca="1">SUM(C102:C108)</f>
+        <v>1529</v>
+      </c>
+      <c r="B102" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44100</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ca="1" si="10"/>
+        <v>242</v>
+      </c>
+      <c r="D102">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="9" t="str">
+        <f ca="1">TEXT(A102/A109-1,"0 %")</f>
+        <v>86 %</v>
+      </c>
+      <c r="B103" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44099</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ca="1" si="10"/>
+        <v>217</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="B104" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44098</v>
+      </c>
+      <c r="C104">
+        <f t="shared" ca="1" si="10"/>
+        <v>211</v>
+      </c>
+      <c r="D104">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="B105" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44097</v>
+      </c>
+      <c r="C105">
+        <f t="shared" ca="1" si="10"/>
+        <v>189</v>
+      </c>
+      <c r="D105">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="B106" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44096</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ca="1" si="10"/>
+        <v>311</v>
+      </c>
+      <c r="D106">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="B107" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44095</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ca="1" si="10"/>
+        <v>157</v>
+      </c>
+      <c r="D107">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="B108" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44094</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ref="C108" ca="1" si="17">VLOOKUP(B108,data,2,FALSE)</f>
+        <v>202</v>
+      </c>
+      <c r="D108">
+        <f t="shared" ref="D108" ca="1" si="18">VLOOKUP(B108,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <f ca="1">SUM(C109:C115)</f>
+        <v>824</v>
+      </c>
+      <c r="B109" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44093</v>
+      </c>
+      <c r="C109">
+        <f t="shared" ref="C109:C111" ca="1" si="19">VLOOKUP(B109,data,2,FALSE)</f>
         <v>190</v>
       </c>
-      <c r="D100">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6">
-      <c r="B101" s="3">
-        <f t="shared" ca="1" si="15"/>
+      <c r="D109">
+        <f t="shared" ref="D109:D111" ca="1" si="20">VLOOKUP(B109,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="9" t="str">
+        <f ca="1">TEXT(A109/A116-1,"0 %")</f>
+        <v>104 %</v>
+      </c>
+      <c r="B110" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>44092</v>
       </c>
-      <c r="C101">
-        <f t="shared" ref="C101" ca="1" si="16">VLOOKUP(B101,data,2,FALSE)</f>
+      <c r="C110">
+        <f t="shared" ca="1" si="19"/>
         <v>82</v>
       </c>
-      <c r="D101">
-        <f t="shared" ref="D101" ca="1" si="17">VLOOKUP(B101,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6">
-      <c r="B102" s="3">
-        <f t="shared" ca="1" si="15"/>
+      <c r="D110">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="B111" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>44091</v>
       </c>
-      <c r="C102">
-        <f t="shared" ref="C102:C104" ca="1" si="18">VLOOKUP(B102,data,2,FALSE)</f>
+      <c r="C111">
+        <f t="shared" ca="1" si="19"/>
         <v>137</v>
       </c>
-      <c r="D102">
-        <f t="shared" ref="D102:D104" ca="1" si="19">VLOOKUP(B102,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <f ca="1">SUM(C102:C108)</f>
-        <v>668</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6">
-      <c r="B103" s="3">
-        <f t="shared" ca="1" si="15"/>
+      <c r="D111">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="B112" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>44090</v>
       </c>
-      <c r="C103">
-        <f t="shared" ca="1" si="18"/>
+      <c r="C112">
+        <f t="shared" ref="C112:C116" ca="1" si="21">VLOOKUP(B112,data,2,FALSE)</f>
         <v>125</v>
       </c>
-      <c r="D103">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6">
-      <c r="B104" s="3">
-        <f t="shared" ca="1" si="15"/>
+      <c r="D112">
+        <f t="shared" ref="D112:D120" ca="1" si="22">VLOOKUP(B112,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="B113" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>44089</v>
       </c>
-      <c r="C104">
-        <f t="shared" ca="1" si="18"/>
+      <c r="C113">
+        <f t="shared" ca="1" si="21"/>
         <v>136</v>
       </c>
-      <c r="D104">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6">
-      <c r="B105" s="3">
-        <f t="shared" ca="1" si="15"/>
+      <c r="D113">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>44088</v>
       </c>
-      <c r="C105">
-        <f t="shared" ref="C105:C109" ca="1" si="20">VLOOKUP(B105,data,2,FALSE)</f>
+      <c r="C114">
+        <f t="shared" ca="1" si="21"/>
         <v>67</v>
       </c>
-      <c r="D105">
-        <f t="shared" ref="D105:D116" ca="1" si="21">VLOOKUP(B105,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6">
-      <c r="B106" s="3">
-        <f t="shared" ca="1" si="15"/>
+      <c r="D114">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="B115" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>44087</v>
       </c>
-      <c r="C106">
-        <f t="shared" ca="1" si="20"/>
+      <c r="C115">
+        <f t="shared" ca="1" si="21"/>
         <v>87</v>
       </c>
-      <c r="D106">
+      <c r="D115">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <f ca="1">SUM(C116:C122)</f>
+        <v>404</v>
+      </c>
+      <c r="B116" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44086</v>
+      </c>
+      <c r="C116">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="B107" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>44086</v>
-      </c>
-      <c r="C107">
-        <f t="shared" ca="1" si="20"/>
         <v>46</v>
       </c>
-      <c r="D107">
-        <f t="shared" ca="1" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6">
-      <c r="B108" s="3">
-        <f t="shared" ca="1" si="15"/>
+      <c r="D116">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="B117" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>44085</v>
       </c>
-      <c r="C108">
-        <f t="shared" ca="1" si="20"/>
+      <c r="C117">
+        <f t="shared" ref="C117:C120" ca="1" si="23">IF(B117&lt;&gt;B116,VLOOKUP(B117,data,2,FALSE),"")</f>
         <v>70</v>
       </c>
-      <c r="D108">
-        <f t="shared" ca="1" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6">
-      <c r="B109" s="3">
-        <f t="shared" ca="1" si="15"/>
+      <c r="D117">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="B118" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>44084</v>
       </c>
-      <c r="C109">
-        <f t="shared" ca="1" si="20"/>
+      <c r="C118">
+        <f t="shared" ca="1" si="23"/>
         <v>75</v>
       </c>
-      <c r="D109">
-        <f t="shared" ca="1" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="B110" s="3">
-        <f t="shared" ca="1" si="15"/>
+      <c r="D118">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="B119" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>44083</v>
       </c>
-      <c r="C110">
-        <f t="shared" ref="C110:C116" ca="1" si="22">IF(B110&lt;&gt;B109,VLOOKUP(B110,data,2,FALSE),"")</f>
+      <c r="C119">
+        <f t="shared" ca="1" si="23"/>
         <v>101</v>
       </c>
-      <c r="D110">
-        <f t="shared" ca="1" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6">
-      <c r="B111" s="3">
-        <f t="shared" ca="1" si="15"/>
+      <c r="D119">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="B120" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>44082</v>
       </c>
-      <c r="C111">
+      <c r="C120">
+        <f t="shared" ca="1" si="23"/>
+        <v>56</v>
+      </c>
+      <c r="D120">
         <f t="shared" ca="1" si="22"/>
-        <v>56</v>
-      </c>
-      <c r="D111">
-        <f t="shared" ca="1" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6">
-      <c r="B112" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="B121" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>44081</v>
       </c>
-      <c r="C112">
-        <f t="shared" ca="1" si="22"/>
+      <c r="C121">
+        <f t="shared" ref="C121:C130" ca="1" si="24">IF(B121&lt;&gt;B120,VLOOKUP(B121,data,2,FALSE),"")</f>
         <v>46</v>
       </c>
-      <c r="D112">
-        <f t="shared" ca="1" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4">
-      <c r="B113" s="3">
-        <f t="shared" ca="1" si="15"/>
+      <c r="D121">
+        <f t="shared" ref="D121:D130" ca="1" si="25">VLOOKUP(B121,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <f t="shared" ref="E121:E130" ca="1" si="26">IF(C121&gt;E120,E120,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="B122" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>44080</v>
       </c>
-      <c r="C113">
-        <f t="shared" ca="1" si="22"/>
+      <c r="C122">
+        <f t="shared" ca="1" si="24"/>
         <v>10</v>
       </c>
-      <c r="D113">
-        <f t="shared" ca="1" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4">
-      <c r="B114" s="3">
-        <f t="shared" ca="1" si="15"/>
+      <c r="D122">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="B123" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>44079</v>
       </c>
-      <c r="C114">
-        <f t="shared" ca="1" si="22"/>
+      <c r="C123">
+        <f t="shared" ca="1" si="24"/>
         <v>15</v>
       </c>
-      <c r="D114">
-        <f t="shared" ca="1" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4">
-      <c r="B115" s="3">
-        <f t="shared" ca="1" si="15"/>
+      <c r="D123">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="B124" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>44078</v>
       </c>
-      <c r="C115">
-        <f t="shared" ca="1" si="22"/>
+      <c r="C124">
+        <f t="shared" ca="1" si="24"/>
         <v>19</v>
       </c>
-      <c r="D115">
-        <f t="shared" ca="1" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4">
-      <c r="B116" s="3">
-        <f t="shared" ca="1" si="15"/>
+      <c r="D124">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="B125" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
-      <c r="C116">
-        <f t="shared" ca="1" si="22"/>
+      <c r="C125">
+        <f t="shared" ca="1" si="24"/>
         <v>6</v>
       </c>
-      <c r="D116">
-        <f t="shared" ca="1" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4">
-      <c r="B117" s="3"/>
-      <c r="C117"/>
-    </row>
-    <row r="118" spans="2:4">
-      <c r="B118" s="3"/>
-      <c r="C118"/>
+      <c r="D125">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="B126" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44077</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="D126">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="B127" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44077</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="D127">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="B128" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44077</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="D128">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44077</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="D129">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44077</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="D130">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="3"/>
+      <c r="C131"/>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="3"/>
+      <c r="C132"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C44:D56">
-    <sortCondition descending="1" ref="C44:C56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C51:D63">
+    <sortCondition descending="1" ref="C51:C63"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G57" r:id="rId1" location="Koronavilkkua" display="https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin - Koronavilkkua" xr:uid="{F06E6CD0-5429-431D-B74B-547C41718C4B}"/>
-    <hyperlink ref="A57" r:id="rId2" xr:uid="{517C9E3A-E5DB-4E26-91C6-74B95F09EC29}"/>
-    <hyperlink ref="G60" r:id="rId3" xr:uid="{3C2C00FB-7ED4-4D75-B3CB-111EF0AE4BA3}"/>
+    <hyperlink ref="G64" r:id="rId1" location="Koronavilkkua" display="https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin - Koronavilkkua" xr:uid="{F06E6CD0-5429-431D-B74B-547C41718C4B}"/>
+    <hyperlink ref="A64" r:id="rId2" xr:uid="{517C9E3A-E5DB-4E26-91C6-74B95F09EC29}"/>
+    <hyperlink ref="G67" r:id="rId3" xr:uid="{3C2C00FB-7ED4-4D75-B3CB-111EF0AE4BA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB73C36-6EE4-40E5-BED5-6DFB97ABEF1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB27A2B-B910-4786-9D8E-8287009FE11E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -3022,7 +3022,7 @@
   <dimension ref="A2:L132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -4226,7 +4226,7 @@
     <row r="73" spans="1:7">
       <c r="B73" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44129.465841666664</v>
+        <v>44129.470519675924</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -4255,6 +4255,10 @@
       <c r="E74">
         <f ca="1">IF(C74&lt;C75,C74,0)</f>
         <v>329</v>
+      </c>
+      <c r="F74">
+        <f ca="1">COUNTIF(E74:E130,E74)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:7">

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB27A2B-B910-4786-9D8E-8287009FE11E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8533CA-699C-430D-B469-FB61858E8C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Avauskoodin arvioinnista, oireista -2 päivää eteenpäin jaetaan käyttäjille:</t>
   </si>
   <si>
-    <t>[{"timestamp":"24 October 2020, 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23 October 2020, 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22 October 2020, 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21 October 2020, 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20 October 2020, 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19 October 2020, 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18 October 2020, 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17 October 2020, 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16 October 2020, 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="},{"timestamp":"9 October 2020, 9.37","keyCount":640,"matchesCount":11,"appName":"Koronavilkku","hash":"DPtU2zd7ruh3+pprAmVkssRIipXQLzHG8Yy7I59TSrE="}]</t>
+    <t>[{"timestamp":"25 October 2020, 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24 October 2020, 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23 October 2020, 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22 October 2020, 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21 October 2020, 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20 October 2020, 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19 October 2020, 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18 October 2020, 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17 October 2020, 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16 October 2020, 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="}]</t>
   </si>
 </sst>
 </file>
@@ -375,46 +375,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>25 October</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>24 October</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>23 October</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>22 October</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>21 October</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>20 October</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>19 October</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>18 October</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>17 October</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>16 October</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>15 October</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>14 October</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>13 October</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>12 October</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11 October</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -426,46 +426,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>691</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +668,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>24.10.2020 uusia #koronavilkku päiväavaimia 329.</c:v>
+              <c:v>25.10.2020 uusia #koronavilkku päiväavaimia 312.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -755,7 +755,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -777,6 +777,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5CAE-4A4E-BEE0-01C87E68808F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -802,6 +805,9 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5CAE-4A4E-BEE0-01C87E68808F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -820,6 +826,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5CAE-4A4E-BEE0-01C87E68808F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -838,6 +847,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5CAE-4A4E-BEE0-01C87E68808F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -856,6 +868,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5CAE-4A4E-BEE0-01C87E68808F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -874,6 +889,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5CAE-4A4E-BEE0-01C87E68808F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -892,6 +910,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5CAE-4A4E-BEE0-01C87E68808F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -945,6 +966,9 @@
                       <c:h val="0.1301113336667919"/>
                     </c:manualLayout>
                   </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5CAE-4A4E-BEE0-01C87E68808F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1025,160 +1049,160 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44128</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44127</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44126</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44125</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44124</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44123</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44122</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44121</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44120</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44119</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>44077</c:v>
@@ -1205,163 +1229,163 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -3022,7 +3046,7 @@
   <dimension ref="A2:L132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -3041,18 +3065,18 @@
       </c>
       <c r="E2" s="2">
         <f>SUM(E9:E22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2">
         <f ca="1">SUM(AllKeys)</f>
-        <v>15458</v>
+        <v>15770</v>
       </c>
       <c r="H2" s="10">
         <f ca="1">G2/7</f>
-        <v>2208.2857142857142</v>
+        <v>2252.8571428571427</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -3091,19 +3115,19 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>24 October</v>
+        <v>25 October</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f>FIND("timestamp",Json,L8)</f>
@@ -3133,15 +3157,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23 October</v>
+        <v>24 October</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>329</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -3149,41 +3173,41 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22 October</v>
+        <v>23 October</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -3191,41 +3215,41 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21 October</v>
+        <v>22 October</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3233,41 +3257,41 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20 October</v>
+        <v>21 October</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3301,15 +3325,15 @@
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19 October</v>
+        <v>20 October</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3317,41 +3341,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18 October</v>
+        <v>19 October</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3359,41 +3383,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17 October</v>
+        <v>18 October</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3401,41 +3425,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>16 October</v>
+        <v>17 October</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3443,41 +3467,41 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15 October</v>
+        <v>16 October</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3511,15 +3535,15 @@
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>14 October</v>
+        <v>15 October</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3553,15 +3577,15 @@
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>13 October</v>
+        <v>14 October</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3569,41 +3593,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>12 October</v>
+        <v>13 October</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3611,41 +3635,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>11 October</v>
+        <v>12 October</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -4210,7 +4234,7 @@
     <row r="70" spans="1:7">
       <c r="A70" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C74&amp;" edelliset 7 päivää "&amp;A74&amp;" (muutos "&amp;A75&amp;"), "&amp;A81&amp;" ("&amp;A82&amp;"), "&amp;A88&amp;" ("&amp;A89&amp;"), "&amp;A95&amp;". Kumulatiivisesti N="&amp;G2&amp;" ja /7 arvioituna (*) avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 24.10 on n=329 edelliset 7 päivää 2975 (muutos -29 %), 4170 (10 %), 3785 (119 %), 1731. Kumulatiivisesti N=15458 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2208, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 25.10 on n=312 edelliset 7 päivää 2752 (muutos -32 %), 4039 (-3 %), 4157 (121 %), 1884. Kumulatiivisesti N=15770 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2253, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
       </c>
       <c r="C70"/>
     </row>
@@ -4220,13 +4244,13 @@
       </c>
       <c r="F72" s="8" t="str">
         <f ca="1">TEXT(NOW(),"p.k.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C74&amp;"."</f>
-        <v>24.10.2020 uusia #koronavilkku päiväavaimia 329.</v>
+        <v>25.10.2020 uusia #koronavilkku päiväavaimia 312.</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="B73" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44129.470519675924</v>
+        <v>44130.371728587961</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -4238,41 +4262,41 @@
     <row r="74" spans="1:7">
       <c r="A74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>2975</v>
+        <v>2752</v>
       </c>
       <c r="B74" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B73)</f>
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="C74">
         <f t="shared" ref="C74:C107" ca="1" si="10">VLOOKUP(B74,data,2,FALSE)</f>
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D74">
         <f t="shared" ref="D74:D86" ca="1" si="11">VLOOKUP(B74,data,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <f ca="1">IF(C74&lt;C75,C74,0)</f>
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="F74">
         <f ca="1">COUNTIF(E74:E130,E74)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="9" t="str">
         <f ca="1">TEXT(A74/A81-1,"0 %")</f>
-        <v>-29 %</v>
+        <v>-32 %</v>
       </c>
       <c r="B75" s="3">
         <f t="shared" ref="B75:B95" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B74)</f>
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>486</v>
+        <v>329</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="11"/>
@@ -4280,17 +4304,17 @@
       </c>
       <c r="E75">
         <f ca="1">IF(C75&gt;=E74,E74,0)</f>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="11"/>
@@ -4298,17 +4322,17 @@
       </c>
       <c r="E76">
         <f t="shared" ref="E76:E120" ca="1" si="13">IF(C76&gt;E75,E75,0)</f>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="11"/>
@@ -4316,17 +4340,17 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="11"/>
@@ -4334,17 +4358,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="11"/>
@@ -4352,17 +4376,17 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="11"/>
@@ -4370,21 +4394,21 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>4170</v>
+        <v>4039</v>
       </c>
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="11"/>
@@ -4392,21 +4416,21 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="9" t="str">
         <f ca="1">TEXT(A81/A88-1,"0 %")</f>
-        <v>10 %</v>
+        <v>-3 %</v>
       </c>
       <c r="B82" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="11"/>
@@ -4414,17 +4438,17 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="B83" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="11"/>
@@ -4432,17 +4456,17 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="11"/>
@@ -4450,17 +4474,17 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="11"/>
@@ -4468,17 +4492,17 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="B86" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="11"/>
@@ -4486,17 +4510,17 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="B87" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="D87">
         <f ca="1">VLOOKUP(B87,data,3,FALSE)</f>
@@ -4504,21 +4528,21 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>3785</v>
+        <v>4157</v>
       </c>
       <c r="B88" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="D88">
         <f t="shared" ref="D88:D94" ca="1" si="14">VLOOKUP(B88,data,3,FALSE)</f>
@@ -4526,57 +4550,57 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="9" t="str">
         <f ca="1">TEXT(A88/A95-1,"0 %")</f>
-        <v>119 %</v>
+        <v>121 %</v>
       </c>
       <c r="B89" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="B90" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
@@ -4584,17 +4608,17 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
@@ -4602,17 +4626,17 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="B93" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
@@ -4620,17 +4644,17 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="13"/>
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="B94" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="14"/>
@@ -4638,25 +4662,25 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
         <f ca="1">SUM(C95:C101)</f>
-        <v>1731</v>
+        <v>1884</v>
       </c>
       <c r="B95" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D95">
         <f t="shared" ref="D95:D107" ca="1" si="15">VLOOKUP(B95,data,3,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="13"/>
@@ -4666,19 +4690,19 @@
     <row r="96" spans="1:5">
       <c r="A96" s="9" t="str">
         <f ca="1">TEXT(A95/A102-1,"0 %")</f>
-        <v>13 %</v>
+        <v>28 %</v>
       </c>
       <c r="B96" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B95),1.8202)</f>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="13"/>
@@ -4688,11 +4712,11 @@
     <row r="97" spans="1:5">
       <c r="B97" s="3">
         <f t="shared" ref="B97:B130" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B96),44077)</f>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="15"/>
@@ -4706,11 +4730,11 @@
     <row r="98" spans="1:5">
       <c r="B98" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="15"/>
@@ -4724,11 +4748,11 @@
     <row r="99" spans="1:5">
       <c r="B99" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="15"/>
@@ -4743,11 +4767,11 @@
       <c r="A100" s="7"/>
       <c r="B100" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="15"/>
@@ -4762,11 +4786,11 @@
       <c r="A101" s="3"/>
       <c r="B101" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="15"/>
@@ -4780,15 +4804,15 @@
     <row r="102" spans="1:5">
       <c r="A102">
         <f ca="1">SUM(C102:C108)</f>
-        <v>1529</v>
+        <v>1468</v>
       </c>
       <c r="B102" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="15"/>
@@ -4802,19 +4826,19 @@
     <row r="103" spans="1:5">
       <c r="A103" s="9" t="str">
         <f ca="1">TEXT(A102/A109-1,"0 %")</f>
-        <v>86 %</v>
+        <v>56 %</v>
       </c>
       <c r="B103" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="13"/>
@@ -4824,15 +4848,15 @@
     <row r="104" spans="1:5">
       <c r="B104" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="13"/>
@@ -4842,11 +4866,11 @@
     <row r="105" spans="1:5">
       <c r="B105" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="15"/>
@@ -4860,11 +4884,11 @@
     <row r="106" spans="1:5">
       <c r="B106" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="15"/>
@@ -4878,11 +4902,11 @@
     <row r="107" spans="1:5">
       <c r="B107" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="15"/>
@@ -4896,11 +4920,11 @@
     <row r="108" spans="1:5">
       <c r="B108" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C108">
         <f t="shared" ref="C108" ca="1" si="17">VLOOKUP(B108,data,2,FALSE)</f>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D108">
         <f t="shared" ref="D108" ca="1" si="18">VLOOKUP(B108,data,3,FALSE)</f>
@@ -4914,15 +4938,15 @@
     <row r="109" spans="1:5">
       <c r="A109">
         <f ca="1">SUM(C109:C115)</f>
-        <v>824</v>
+        <v>939</v>
       </c>
       <c r="B109" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C109">
         <f t="shared" ref="C109:C111" ca="1" si="19">VLOOKUP(B109,data,2,FALSE)</f>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D109">
         <f t="shared" ref="D109:D111" ca="1" si="20">VLOOKUP(B109,data,3,FALSE)</f>
@@ -4936,15 +4960,15 @@
     <row r="110" spans="1:5">
       <c r="A110" s="9" t="str">
         <f ca="1">TEXT(A109/A116-1,"0 %")</f>
-        <v>104 %</v>
+        <v>95 %</v>
       </c>
       <c r="B110" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="19"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="20"/>
@@ -4958,11 +4982,11 @@
     <row r="111" spans="1:5">
       <c r="B111" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="19"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="20"/>
@@ -4976,11 +5000,11 @@
     <row r="112" spans="1:5">
       <c r="B112" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C112">
         <f t="shared" ref="C112:C116" ca="1" si="21">VLOOKUP(B112,data,2,FALSE)</f>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D112">
         <f t="shared" ref="D112:D120" ca="1" si="22">VLOOKUP(B112,data,3,FALSE)</f>
@@ -4994,11 +5018,11 @@
     <row r="113" spans="1:5">
       <c r="B113" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="21"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="22"/>
@@ -5012,11 +5036,11 @@
     <row r="114" spans="1:5">
       <c r="B114" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="22"/>
@@ -5030,11 +5054,11 @@
     <row r="115" spans="1:5">
       <c r="B115" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="21"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="22"/>
@@ -5048,15 +5072,15 @@
     <row r="116" spans="1:5">
       <c r="A116">
         <f ca="1">SUM(C116:C122)</f>
-        <v>404</v>
+        <v>481</v>
       </c>
       <c r="B116" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="21"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="22"/>
@@ -5070,11 +5094,11 @@
     <row r="117" spans="1:5">
       <c r="B117" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C117">
         <f t="shared" ref="C117:C120" ca="1" si="23">IF(B117&lt;&gt;B116,VLOOKUP(B117,data,2,FALSE),"")</f>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="22"/>
@@ -5088,11 +5112,11 @@
     <row r="118" spans="1:5">
       <c r="B118" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="23"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="22"/>
@@ -5106,11 +5130,11 @@
     <row r="119" spans="1:5">
       <c r="B119" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="23"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="22"/>
@@ -5124,11 +5148,11 @@
     <row r="120" spans="1:5">
       <c r="B120" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="23"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="22"/>
@@ -5142,11 +5166,11 @@
     <row r="121" spans="1:5">
       <c r="B121" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C121">
         <f t="shared" ref="C121:C130" ca="1" si="24">IF(B121&lt;&gt;B120,VLOOKUP(B121,data,2,FALSE),"")</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D121">
         <f t="shared" ref="D121:D130" ca="1" si="25">VLOOKUP(B121,data,3,FALSE)</f>
@@ -5160,11 +5184,11 @@
     <row r="122" spans="1:5">
       <c r="B122" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="24"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="25"/>
@@ -5178,11 +5202,11 @@
     <row r="123" spans="1:5">
       <c r="B123" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="24"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="25"/>
@@ -5196,11 +5220,11 @@
     <row r="124" spans="1:5">
       <c r="B124" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="24"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="25"/>
@@ -5214,11 +5238,11 @@
     <row r="125" spans="1:5">
       <c r="B125" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="25"/>
@@ -5234,9 +5258,9 @@
         <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
-      <c r="C126" t="str">
+      <c r="C126">
         <f t="shared" ca="1" si="24"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="25"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8533CA-699C-430D-B469-FB61858E8C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAD1B52-880E-4859-BB6E-E2D19F0D9DDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
+    <workbookView xWindow="934" yWindow="0" windowWidth="21009" windowHeight="12343" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Android" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>Avauskoodin arvioinnista, oireista -2 päivää eteenpäin jaetaan käyttäjille:</t>
   </si>
   <si>
-    <t>[{"timestamp":"25 October 2020, 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24 October 2020, 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23 October 2020, 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22 October 2020, 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21 October 2020, 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20 October 2020, 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19 October 2020, 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18 October 2020, 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17 October 2020, 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16 October 2020, 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15 October 2020, 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14 October 2020, 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13 October 2020, 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12 October 2020, 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11 October 2020, 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="},{"timestamp":"10 October 2020, 9.41","keyCount":720,"matchesCount":0,"appName":"Koronavilkku","hash":"ai6ll2UsOGUGF3FkMqQzpSklXPlQAQZordsGWRB3jrk="}]</t>
+    <t>[{"timestamp":"26. lokakuuta 2020 klo 8.06","keyCount":309,"matchesCount":0,"appName":"Koronavilkku","hash":"o1jUaoLy7sjjnI6r87C9qbQfT0Pej3LoGAXxaVZqg+s="},{"timestamp":"25. lokakuuta 2020 klo 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24. lokakuuta 2020 klo 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23. lokakuuta 2020 klo 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22. lokakuuta 2020 klo 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21. lokakuuta 2020 klo 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20. lokakuuta 2020 klo 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19. lokakuuta 2020 klo 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18. lokakuuta 2020 klo 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17. lokakuuta 2020 klo 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16. lokakuuta 2020 klo 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15. lokakuuta 2020 klo 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14. lokakuuta 2020 klo 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13. lokakuuta 2020 klo 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12. lokakuuta 2020 klo 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11. lokakuuta 2020 klo 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="}]</t>
   </si>
 </sst>
 </file>
@@ -375,46 +375,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>25 October</c:v>
+                  <c:v>26. lokakuuta</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24 October</c:v>
+                  <c:v>25. lokakuuta</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23 October</c:v>
+                  <c:v>24. lokakuuta</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22 October</c:v>
+                  <c:v>23. lokakuuta</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21 October</c:v>
+                  <c:v>22. lokakuuta</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20 October</c:v>
+                  <c:v>21. lokakuuta</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19 October</c:v>
+                  <c:v>20. lokakuuta</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18 October</c:v>
+                  <c:v>19. lokakuuta</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17 October</c:v>
+                  <c:v>18. lokakuuta</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16 October</c:v>
+                  <c:v>17. lokakuuta</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15 October</c:v>
+                  <c:v>16. lokakuuta</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14 October</c:v>
+                  <c:v>15. lokakuuta</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13 October</c:v>
+                  <c:v>14. lokakuuta</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12 October</c:v>
+                  <c:v>13. lokakuuta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -426,46 +426,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>649</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +668,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>25.10.2020 uusia #koronavilkku päiväavaimia 312.</c:v>
+              <c:v>26.10.2020 uusia #koronavilkku päiväavaimia 309.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -755,7 +755,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -1049,163 +1049,163 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44129</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44128</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44127</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44126</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44125</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44124</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44123</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44122</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44121</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44120</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44119</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>44077</c:v>
@@ -1229,166 +1229,166 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -3045,8 +3045,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -3072,11 +3072,11 @@
       </c>
       <c r="G2">
         <f ca="1">SUM(AllKeys)</f>
-        <v>15770</v>
+        <v>16079</v>
       </c>
       <c r="H2" s="10">
         <f ca="1">G2/7</f>
-        <v>2252.8571428571427</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -3115,19 +3115,19 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>25 October</v>
+        <v>26. lokakuuta</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f>FIND("timestamp",Json,L8)</f>
@@ -3135,79 +3135,79 @@
       </c>
       <c r="H9">
         <f t="shared" ref="H9:H22" si="3">FIND("2020",Json,G9)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I22" si="4">FIND("keyCount",Json,H9)</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J22" si="5">FIND(",""",Json,I9)</f>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K22" si="6">FIND("matchesCount",Json,J9)</f>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L22" si="7">FIND(",""",Json,K9)</f>
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24 October</v>
+        <v>25. lokakuuta</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23 October</v>
+        <v>24. lokakuuta</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>329</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -3215,41 +3215,41 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22 October</v>
+        <v>23. lokakuuta</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3257,41 +3257,41 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>520</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21 October</v>
+        <v>22. lokakuuta</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3299,41 +3299,41 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>640</v>
+        <v>669</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>653</v>
+        <v>682</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>655</v>
+        <v>684</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>670</v>
+        <v>699</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20 October</v>
+        <v>21. lokakuuta</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3341,41 +3341,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>753</v>
+        <v>783</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>776</v>
+        <v>809</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>789</v>
+        <v>825</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>802</v>
+        <v>838</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>804</v>
+        <v>840</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>819</v>
+        <v>855</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19 October</v>
+        <v>20. lokakuuta</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3383,41 +3383,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>903</v>
+        <v>938</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>926</v>
+        <v>964</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>939</v>
+        <v>980</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>952</v>
+        <v>993</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>954</v>
+        <v>995</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>969</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18 October</v>
+        <v>19. lokakuuta</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3425,41 +3425,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1054</v>
+        <v>1094</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1077</v>
+        <v>1120</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1090</v>
+        <v>1136</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1103</v>
+        <v>1149</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1105</v>
+        <v>1151</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1120</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17 October</v>
+        <v>18. lokakuuta</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3467,41 +3467,41 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1206</v>
+        <v>1251</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1229</v>
+        <v>1277</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1242</v>
+        <v>1293</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1255</v>
+        <v>1306</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1257</v>
+        <v>1308</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1272</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>16 October</v>
+        <v>17. lokakuuta</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3509,41 +3509,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1357</v>
+        <v>1409</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1380</v>
+        <v>1435</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1393</v>
+        <v>1451</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1406</v>
+        <v>1464</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1408</v>
+        <v>1466</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1423</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15 October</v>
+        <v>16. lokakuuta</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3551,41 +3551,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1506</v>
+        <v>1566</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1529</v>
+        <v>1592</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1542</v>
+        <v>1608</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1555</v>
+        <v>1621</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1557</v>
+        <v>1623</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1572</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>14 October</v>
+        <v>15. lokakuuta</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3593,41 +3593,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1655</v>
+        <v>1721</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1678</v>
+        <v>1747</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1691</v>
+        <v>1763</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1704</v>
+        <v>1776</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1706</v>
+        <v>1778</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1721</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>13 October</v>
+        <v>14. lokakuuta</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3635,41 +3635,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1805</v>
+        <v>1876</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1828</v>
+        <v>1902</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1841</v>
+        <v>1918</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1854</v>
+        <v>1931</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1856</v>
+        <v>1933</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1871</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>12 October</v>
+        <v>13. lokakuuta</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3677,27 +3677,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1955</v>
+        <v>2032</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1978</v>
+        <v>2058</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>1991</v>
+        <v>2074</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2004</v>
+        <v>2087</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2006</v>
+        <v>2089</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2021</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4234,7 +4234,7 @@
     <row r="70" spans="1:7">
       <c r="A70" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C74&amp;" edelliset 7 päivää "&amp;A74&amp;" (muutos "&amp;A75&amp;"), "&amp;A81&amp;" ("&amp;A82&amp;"), "&amp;A88&amp;" ("&amp;A89&amp;"), "&amp;A95&amp;". Kumulatiivisesti N="&amp;G2&amp;" ja /7 arvioituna (*) avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 25.10 on n=312 edelliset 7 päivää 2752 (muutos -32 %), 4039 (-3 %), 4157 (121 %), 1884. Kumulatiivisesti N=15770 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2253, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 26.10 on n=309 edelliset 7 päivää 2640 (muutos -30 %), 3769 (-14 %), 4395 (106 %), 2138. Kumulatiivisesti N=16079 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2297, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
       </c>
       <c r="C70"/>
     </row>
@@ -4244,13 +4244,13 @@
       </c>
       <c r="F72" s="8" t="str">
         <f ca="1">TEXT(NOW(),"p.k.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C74&amp;"."</f>
-        <v>25.10.2020 uusia #koronavilkku päiväavaimia 312.</v>
+        <v>26.10.2020 uusia #koronavilkku päiväavaimia 309.</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="B73" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44130.371728587961</v>
+        <v>44131.346068055558</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -4262,59 +4262,59 @@
     <row r="74" spans="1:7">
       <c r="A74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>2752</v>
+        <v>2640</v>
       </c>
       <c r="B74" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B73)</f>
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="C74">
         <f t="shared" ref="C74:C107" ca="1" si="10">VLOOKUP(B74,data,2,FALSE)</f>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D74">
         <f t="shared" ref="D74:D86" ca="1" si="11">VLOOKUP(B74,data,3,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <f ca="1">IF(C74&lt;C75,C74,0)</f>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F74">
         <f ca="1">COUNTIF(E74:E130,E74)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="9" t="str">
         <f ca="1">TEXT(A74/A81-1,"0 %")</f>
-        <v>-32 %</v>
+        <v>-30 %</v>
       </c>
       <c r="B75" s="3">
         <f t="shared" ref="B75:B95" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B74)</f>
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <f ca="1">IF(C75&gt;=E74,E74,0)</f>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>486</v>
+        <v>329</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="11"/>
@@ -4322,17 +4322,17 @@
       </c>
       <c r="E76">
         <f t="shared" ref="E76:E120" ca="1" si="13">IF(C76&gt;E75,E75,0)</f>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="11"/>
@@ -4340,17 +4340,17 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="11"/>
@@ -4358,17 +4358,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="11"/>
@@ -4376,17 +4376,17 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="11"/>
@@ -4394,21 +4394,21 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>4039</v>
+        <v>3769</v>
       </c>
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="11"/>
@@ -4416,21 +4416,21 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="9" t="str">
         <f ca="1">TEXT(A81/A88-1,"0 %")</f>
-        <v>-3 %</v>
+        <v>-14 %</v>
       </c>
       <c r="B82" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="11"/>
@@ -4438,17 +4438,17 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="B83" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="11"/>
@@ -4456,17 +4456,17 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="11"/>
@@ -4474,17 +4474,17 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="11"/>
@@ -4492,17 +4492,17 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="B86" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="11"/>
@@ -4510,17 +4510,17 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="B87" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D87">
         <f ca="1">VLOOKUP(B87,data,3,FALSE)</f>
@@ -4528,21 +4528,21 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>4157</v>
+        <v>4395</v>
       </c>
       <c r="B88" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="D88">
         <f t="shared" ref="D88:D94" ca="1" si="14">VLOOKUP(B88,data,3,FALSE)</f>
@@ -4550,21 +4550,21 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="9" t="str">
         <f ca="1">TEXT(A88/A95-1,"0 %")</f>
-        <v>121 %</v>
+        <v>106 %</v>
       </c>
       <c r="B89" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
@@ -4572,53 +4572,53 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="B90" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
@@ -4626,17 +4626,17 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="B93" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
@@ -4644,17 +4644,17 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="B94" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="14"/>
@@ -4662,21 +4662,21 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
         <f ca="1">SUM(C95:C101)</f>
-        <v>1884</v>
+        <v>2138</v>
       </c>
       <c r="B95" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D95">
         <f t="shared" ref="D95:D107" ca="1" si="15">VLOOKUP(B95,data,3,FALSE)</f>
@@ -4684,25 +4684,25 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="9" t="str">
         <f ca="1">TEXT(A95/A102-1,"0 %")</f>
-        <v>28 %</v>
+        <v>42 %</v>
       </c>
       <c r="B96" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B95),1.8202)</f>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="13"/>
@@ -4712,15 +4712,15 @@
     <row r="97" spans="1:5">
       <c r="B97" s="3">
         <f t="shared" ref="B97:B130" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B96),44077)</f>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="13"/>
@@ -4730,11 +4730,11 @@
     <row r="98" spans="1:5">
       <c r="B98" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="15"/>
@@ -4748,11 +4748,11 @@
     <row r="99" spans="1:5">
       <c r="B99" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="15"/>
@@ -4767,11 +4767,11 @@
       <c r="A100" s="7"/>
       <c r="B100" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="15"/>
@@ -4786,11 +4786,11 @@
       <c r="A101" s="3"/>
       <c r="B101" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="15"/>
@@ -4804,15 +4804,15 @@
     <row r="102" spans="1:5">
       <c r="A102">
         <f ca="1">SUM(C102:C108)</f>
-        <v>1468</v>
+        <v>1510</v>
       </c>
       <c r="B102" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="15"/>
@@ -4826,15 +4826,15 @@
     <row r="103" spans="1:5">
       <c r="A103" s="9" t="str">
         <f ca="1">TEXT(A102/A109-1,"0 %")</f>
-        <v>56 %</v>
+        <v>47 %</v>
       </c>
       <c r="B103" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="15"/>
@@ -4848,15 +4848,15 @@
     <row r="104" spans="1:5">
       <c r="B104" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="13"/>
@@ -4866,15 +4866,15 @@
     <row r="105" spans="1:5">
       <c r="B105" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="13"/>
@@ -4884,11 +4884,11 @@
     <row r="106" spans="1:5">
       <c r="B106" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="15"/>
@@ -4902,11 +4902,11 @@
     <row r="107" spans="1:5">
       <c r="B107" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="15"/>
@@ -4920,11 +4920,11 @@
     <row r="108" spans="1:5">
       <c r="B108" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C108">
         <f t="shared" ref="C108" ca="1" si="17">VLOOKUP(B108,data,2,FALSE)</f>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D108">
         <f t="shared" ref="D108" ca="1" si="18">VLOOKUP(B108,data,3,FALSE)</f>
@@ -4938,15 +4938,15 @@
     <row r="109" spans="1:5">
       <c r="A109">
         <f ca="1">SUM(C109:C115)</f>
-        <v>939</v>
+        <v>1029</v>
       </c>
       <c r="B109" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C109">
         <f t="shared" ref="C109:C111" ca="1" si="19">VLOOKUP(B109,data,2,FALSE)</f>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D109">
         <f t="shared" ref="D109:D111" ca="1" si="20">VLOOKUP(B109,data,3,FALSE)</f>
@@ -4960,15 +4960,15 @@
     <row r="110" spans="1:5">
       <c r="A110" s="9" t="str">
         <f ca="1">TEXT(A109/A116-1,"0 %")</f>
-        <v>95 %</v>
+        <v>105 %</v>
       </c>
       <c r="B110" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="19"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="20"/>
@@ -4982,11 +4982,11 @@
     <row r="111" spans="1:5">
       <c r="B111" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="19"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="20"/>
@@ -5000,11 +5000,11 @@
     <row r="112" spans="1:5">
       <c r="B112" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C112">
         <f t="shared" ref="C112:C116" ca="1" si="21">VLOOKUP(B112,data,2,FALSE)</f>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D112">
         <f t="shared" ref="D112:D120" ca="1" si="22">VLOOKUP(B112,data,3,FALSE)</f>
@@ -5018,11 +5018,11 @@
     <row r="113" spans="1:5">
       <c r="B113" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="21"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="22"/>
@@ -5036,11 +5036,11 @@
     <row r="114" spans="1:5">
       <c r="B114" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="21"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="22"/>
@@ -5054,11 +5054,11 @@
     <row r="115" spans="1:5">
       <c r="B115" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="22"/>
@@ -5072,15 +5072,15 @@
     <row r="116" spans="1:5">
       <c r="A116">
         <f ca="1">SUM(C116:C122)</f>
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="B116" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="21"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="22"/>
@@ -5094,11 +5094,11 @@
     <row r="117" spans="1:5">
       <c r="B117" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C117">
         <f t="shared" ref="C117:C120" ca="1" si="23">IF(B117&lt;&gt;B116,VLOOKUP(B117,data,2,FALSE),"")</f>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="22"/>
@@ -5112,11 +5112,11 @@
     <row r="118" spans="1:5">
       <c r="B118" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="23"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="22"/>
@@ -5130,11 +5130,11 @@
     <row r="119" spans="1:5">
       <c r="B119" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="23"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="22"/>
@@ -5148,11 +5148,11 @@
     <row r="120" spans="1:5">
       <c r="B120" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="23"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="22"/>
@@ -5166,11 +5166,11 @@
     <row r="121" spans="1:5">
       <c r="B121" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C121">
         <f t="shared" ref="C121:C130" ca="1" si="24">IF(B121&lt;&gt;B120,VLOOKUP(B121,data,2,FALSE),"")</f>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D121">
         <f t="shared" ref="D121:D130" ca="1" si="25">VLOOKUP(B121,data,3,FALSE)</f>
@@ -5184,11 +5184,11 @@
     <row r="122" spans="1:5">
       <c r="B122" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="24"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="25"/>
@@ -5202,11 +5202,11 @@
     <row r="123" spans="1:5">
       <c r="B123" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="24"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="25"/>
@@ -5220,11 +5220,11 @@
     <row r="124" spans="1:5">
       <c r="B124" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="24"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="25"/>
@@ -5238,11 +5238,11 @@
     <row r="125" spans="1:5">
       <c r="B125" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="24"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="25"/>
@@ -5256,11 +5256,11 @@
     <row r="126" spans="1:5">
       <c r="B126" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="25"/>
@@ -5276,9 +5276,9 @@
         <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
-      <c r="C127" t="str">
+      <c r="C127">
         <f t="shared" ca="1" si="24"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="25"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAD1B52-880E-4859-BB6E-E2D19F0D9DDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194C5093-6FC9-4497-B250-774B0727BC01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="934" yWindow="0" windowWidth="21009" windowHeight="12343" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Avauskoodin arvioinnista, oireista -2 päivää eteenpäin jaetaan käyttäjille:</t>
   </si>
   <si>
-    <t>[{"timestamp":"26. lokakuuta 2020 klo 8.06","keyCount":309,"matchesCount":0,"appName":"Koronavilkku","hash":"o1jUaoLy7sjjnI6r87C9qbQfT0Pej3LoGAXxaVZqg+s="},{"timestamp":"25. lokakuuta 2020 klo 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24. lokakuuta 2020 klo 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23. lokakuuta 2020 klo 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22. lokakuuta 2020 klo 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21. lokakuuta 2020 klo 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20. lokakuuta 2020 klo 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19. lokakuuta 2020 klo 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18. lokakuuta 2020 klo 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17. lokakuuta 2020 klo 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16. lokakuuta 2020 klo 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15. lokakuuta 2020 klo 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14. lokakuuta 2020 klo 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13. lokakuuta 2020 klo 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12. lokakuuta 2020 klo 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="},{"timestamp":"11. lokakuuta 2020 klo 8.24","keyCount":666,"matchesCount":0,"appName":"Koronavilkku","hash":"slXfa3ePSYi5FhtAzfpCeAHx8Yp2h7W6YiyKXVZH9Io="}]</t>
+    <t>[{"timestamp":"27. lokakuuta 2020 klo 8.10","keyCount":260,"matchesCount":0,"appName":"Koronavilkku","hash":"+ohL5VuTmBUV6\/Z\/P+bkoV6gMjJkLLXIu9i2wnPtW7A="},{"timestamp":"26. lokakuuta 2020 klo 8.06","keyCount":309,"matchesCount":0,"appName":"Koronavilkku","hash":"o1jUaoLy7sjjnI6r87C9qbQfT0Pej3LoGAXxaVZqg+s="},{"timestamp":"25. lokakuuta 2020 klo 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24. lokakuuta 2020 klo 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23. lokakuuta 2020 klo 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22. lokakuuta 2020 klo 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21. lokakuuta 2020 klo 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20. lokakuuta 2020 klo 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19. lokakuuta 2020 klo 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18. lokakuuta 2020 klo 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17. lokakuuta 2020 klo 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16. lokakuuta 2020 klo 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15. lokakuuta 2020 klo 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14. lokakuuta 2020 klo 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13. lokakuuta 2020 klo 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12. lokakuuta 2020 klo 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="}]</t>
   </si>
 </sst>
 </file>
@@ -375,46 +375,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>27. lokakuuta</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>26. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>25. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>24. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>23. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>22. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>21. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>20. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>19. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>18. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>17. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>16. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>15. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>14. lokakuuta</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13. lokakuuta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -426,46 +426,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>559</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +668,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>26.10.2020 uusia #koronavilkku päiväavaimia 309.</c:v>
+              <c:v>27.10.2020 uusia #koronavilkku päiväavaimia 260.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -717,7 +717,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.6945700132268625E-2"/>
+          <c:x val="3.9546978807286158E-2"/>
           <c:y val="5.2053032410722969E-2"/>
           <c:w val="0.95771026668114068"/>
           <c:h val="0.83050480977738517"/>
@@ -755,7 +755,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -853,11 +853,32 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="51"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.1044200166972393E-3"/>
+                  <c:y val="-4.7619083328896444E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-DCF1-4084-85F4-121830B869FA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="52"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.8087855966286533E-2"/>
-                  <c:y val="-4.1116002704375404E-2"/>
+                  <c:x val="1.9630419946237838E-2"/>
+                  <c:y val="-6.6512735792577771E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -898,8 +919,8 @@
               <c:idx val="54"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.4711997188178222E-2"/>
-                  <c:y val="-7.9365138881493977E-2"/>
+                  <c:x val="-4.4221468652529454E-2"/>
+                  <c:y val="9.5238166657792764E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -916,11 +937,32 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="55"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1705682878610736E-2"/>
+                  <c:y val="-5.7142899994675658E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DCF1-4084-85F4-121830B869FA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="56"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.3370388698311869E-2"/>
-                  <c:y val="9.3245164288337179E-2"/>
+                  <c:y val="5.8324503180479832E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -963,7 +1005,7 @@
                   <c15:layout>
                     <c:manualLayout>
                       <c:w val="3.3400215146969302E-2"/>
-                      <c:h val="0.1301113336667919"/>
+                      <c:h val="6.0270011451077202E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1049,166 +1091,166 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44130</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44129</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44128</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44127</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44126</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44125</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44124</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44123</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44122</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44121</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44120</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44119</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>44077</c:v>
@@ -1229,169 +1271,169 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -2709,15 +2751,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>511629</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>103416</xdr:rowOff>
+      <xdr:colOff>179615</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>598717</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>32656</xdr:rowOff>
+      <xdr:colOff>266703</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>81641</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3045,7 +3087,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
@@ -3072,11 +3114,11 @@
       </c>
       <c r="G2">
         <f ca="1">SUM(AllKeys)</f>
-        <v>16079</v>
+        <v>16339</v>
       </c>
       <c r="H2" s="10">
         <f ca="1">G2/7</f>
-        <v>2297</v>
+        <v>2334.1428571428573</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -3115,15 +3157,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>26. lokakuuta</v>
+        <v>27. lokakuuta</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -3157,99 +3199,99 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25. lokakuuta</v>
+        <v>26. lokakuuta</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24. lokakuuta</v>
+        <v>25. lokakuuta</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23. lokakuuta</v>
+        <v>24. lokakuuta</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>329</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3283,15 +3325,15 @@
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22. lokakuuta</v>
+        <v>23. lokakuuta</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3299,41 +3341,41 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21. lokakuuta</v>
+        <v>22. lokakuuta</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3341,41 +3383,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20. lokakuuta</v>
+        <v>21. lokakuuta</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3383,41 +3425,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19. lokakuuta</v>
+        <v>20. lokakuuta</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3425,41 +3467,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18. lokakuuta</v>
+        <v>19. lokakuuta</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3493,15 +3535,15 @@
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17. lokakuuta</v>
+        <v>18. lokakuuta</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3509,41 +3551,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>16. lokakuuta</v>
+        <v>17. lokakuuta</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3577,15 +3619,15 @@
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15. lokakuuta</v>
+        <v>16. lokakuuta</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3593,41 +3635,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1793</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>14. lokakuuta</v>
+        <v>15. lokakuuta</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3635,41 +3677,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1948</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>13. lokakuuta</v>
+        <v>14. lokakuuta</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3677,27 +3719,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2104</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4234,7 +4276,7 @@
     <row r="70" spans="1:7">
       <c r="A70" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C74&amp;" edelliset 7 päivää "&amp;A74&amp;" (muutos "&amp;A75&amp;"), "&amp;A81&amp;" ("&amp;A82&amp;"), "&amp;A88&amp;" ("&amp;A89&amp;"), "&amp;A95&amp;". Kumulatiivisesti N="&amp;G2&amp;" ja /7 arvioituna (*) avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 26.10 on n=309 edelliset 7 päivää 2640 (muutos -30 %), 3769 (-14 %), 4395 (106 %), 2138. Kumulatiivisesti N=16079 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2297, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 27.10 on n=260 edelliset 7 päivää 2514 (muutos -28 %), 3506 (-20 %), 4389 (72 %), 2555. Kumulatiivisesti N=16339 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2334, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
       </c>
       <c r="C70"/>
     </row>
@@ -4244,13 +4286,13 @@
       </c>
       <c r="F72" s="8" t="str">
         <f ca="1">TEXT(NOW(),"p.k.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C74&amp;"."</f>
-        <v>26.10.2020 uusia #koronavilkku päiväavaimia 309.</v>
+        <v>27.10.2020 uusia #koronavilkku päiväavaimia 260.</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="B73" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44131.346068055558</v>
+        <v>44132.596875578703</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -4262,15 +4304,15 @@
     <row r="74" spans="1:7">
       <c r="A74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>2640</v>
+        <v>2514</v>
       </c>
       <c r="B74" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B73)</f>
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="C74">
         <f t="shared" ref="C74:C107" ca="1" si="10">VLOOKUP(B74,data,2,FALSE)</f>
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="D74">
         <f t="shared" ref="D74:D86" ca="1" si="11">VLOOKUP(B74,data,3,FALSE)</f>
@@ -4278,61 +4320,61 @@
       </c>
       <c r="E74">
         <f ca="1">IF(C74&lt;C75,C74,0)</f>
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="F74">
         <f ca="1">COUNTIF(E74:E130,E74)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="9" t="str">
         <f ca="1">TEXT(A74/A81-1,"0 %")</f>
-        <v>-30 %</v>
+        <v>-28 %</v>
       </c>
       <c r="B75" s="3">
         <f t="shared" ref="B75:B95" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B74)</f>
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <f ca="1">IF(C75&gt;=E74,E74,0)</f>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <f t="shared" ref="E76:E120" ca="1" si="13">IF(C76&gt;E75,E75,0)</f>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>486</v>
+        <v>329</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="11"/>
@@ -4340,17 +4382,17 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="11"/>
@@ -4358,17 +4400,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="11"/>
@@ -4376,17 +4418,17 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="11"/>
@@ -4394,21 +4436,21 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>3769</v>
+        <v>3506</v>
       </c>
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="11"/>
@@ -4416,21 +4458,21 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="9" t="str">
         <f ca="1">TEXT(A81/A88-1,"0 %")</f>
-        <v>-14 %</v>
+        <v>-20 %</v>
       </c>
       <c r="B82" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="11"/>
@@ -4438,17 +4480,17 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="B83" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="11"/>
@@ -4456,17 +4498,17 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="11"/>
@@ -4474,17 +4516,17 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="11"/>
@@ -4492,17 +4534,17 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="B86" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="11"/>
@@ -4510,17 +4552,17 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="B87" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="D87">
         <f ca="1">VLOOKUP(B87,data,3,FALSE)</f>
@@ -4528,21 +4570,21 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>4395</v>
+        <v>4389</v>
       </c>
       <c r="B88" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D88">
         <f t="shared" ref="D88:D94" ca="1" si="14">VLOOKUP(B88,data,3,FALSE)</f>
@@ -4550,21 +4592,21 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="9" t="str">
         <f ca="1">TEXT(A88/A95-1,"0 %")</f>
-        <v>106 %</v>
+        <v>72 %</v>
       </c>
       <c r="B89" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
@@ -4572,17 +4614,17 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="B90" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
@@ -4590,53 +4632,53 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="B93" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
@@ -4644,17 +4686,17 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="B94" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="14"/>
@@ -4662,21 +4704,21 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
         <f ca="1">SUM(C95:C101)</f>
-        <v>2138</v>
+        <v>2555</v>
       </c>
       <c r="B95" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D95">
         <f t="shared" ref="D95:D107" ca="1" si="15">VLOOKUP(B95,data,3,FALSE)</f>
@@ -4684,21 +4726,21 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="13"/>
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="9" t="str">
         <f ca="1">TEXT(A95/A102-1,"0 %")</f>
-        <v>42 %</v>
+        <v>78 %</v>
       </c>
       <c r="B96" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B95),1.8202)</f>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="15"/>
@@ -4706,53 +4748,53 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="B97" s="3">
         <f t="shared" ref="B97:B130" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B96),44077)</f>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="B98" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="B99" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="15"/>
@@ -4767,11 +4809,11 @@
       <c r="A100" s="7"/>
       <c r="B100" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="15"/>
@@ -4786,11 +4828,11 @@
       <c r="A101" s="3"/>
       <c r="B101" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="15"/>
@@ -4804,15 +4846,15 @@
     <row r="102" spans="1:5">
       <c r="A102">
         <f ca="1">SUM(C102:C108)</f>
-        <v>1510</v>
+        <v>1437</v>
       </c>
       <c r="B102" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="15"/>
@@ -4826,15 +4868,15 @@
     <row r="103" spans="1:5">
       <c r="A103" s="9" t="str">
         <f ca="1">TEXT(A102/A109-1,"0 %")</f>
-        <v>47 %</v>
+        <v>19 %</v>
       </c>
       <c r="B103" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="15"/>
@@ -4848,11 +4890,11 @@
     <row r="104" spans="1:5">
       <c r="B104" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="15"/>
@@ -4866,15 +4908,15 @@
     <row r="105" spans="1:5">
       <c r="B105" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="13"/>
@@ -4884,15 +4926,15 @@
     <row r="106" spans="1:5">
       <c r="B106" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="13"/>
@@ -4902,11 +4944,11 @@
     <row r="107" spans="1:5">
       <c r="B107" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="15"/>
@@ -4920,11 +4962,11 @@
     <row r="108" spans="1:5">
       <c r="B108" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C108">
         <f t="shared" ref="C108" ca="1" si="17">VLOOKUP(B108,data,2,FALSE)</f>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D108">
         <f t="shared" ref="D108" ca="1" si="18">VLOOKUP(B108,data,3,FALSE)</f>
@@ -4938,15 +4980,15 @@
     <row r="109" spans="1:5">
       <c r="A109">
         <f ca="1">SUM(C109:C115)</f>
-        <v>1029</v>
+        <v>1204</v>
       </c>
       <c r="B109" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C109">
         <f t="shared" ref="C109:C111" ca="1" si="19">VLOOKUP(B109,data,2,FALSE)</f>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D109">
         <f t="shared" ref="D109:D111" ca="1" si="20">VLOOKUP(B109,data,3,FALSE)</f>
@@ -4960,15 +5002,15 @@
     <row r="110" spans="1:5">
       <c r="A110" s="9" t="str">
         <f ca="1">TEXT(A109/A116-1,"0 %")</f>
-        <v>105 %</v>
+        <v>107 %</v>
       </c>
       <c r="B110" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="19"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="20"/>
@@ -4982,11 +5024,11 @@
     <row r="111" spans="1:5">
       <c r="B111" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="19"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="20"/>
@@ -5000,11 +5042,11 @@
     <row r="112" spans="1:5">
       <c r="B112" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C112">
         <f t="shared" ref="C112:C116" ca="1" si="21">VLOOKUP(B112,data,2,FALSE)</f>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D112">
         <f t="shared" ref="D112:D120" ca="1" si="22">VLOOKUP(B112,data,3,FALSE)</f>
@@ -5018,11 +5060,11 @@
     <row r="113" spans="1:5">
       <c r="B113" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="21"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="22"/>
@@ -5036,11 +5078,11 @@
     <row r="114" spans="1:5">
       <c r="B114" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="21"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="22"/>
@@ -5054,11 +5096,11 @@
     <row r="115" spans="1:5">
       <c r="B115" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="21"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="22"/>
@@ -5072,15 +5114,15 @@
     <row r="116" spans="1:5">
       <c r="A116">
         <f ca="1">SUM(C116:C122)</f>
-        <v>502</v>
+        <v>582</v>
       </c>
       <c r="B116" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="22"/>
@@ -5094,11 +5136,11 @@
     <row r="117" spans="1:5">
       <c r="B117" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C117">
         <f t="shared" ref="C117:C120" ca="1" si="23">IF(B117&lt;&gt;B116,VLOOKUP(B117,data,2,FALSE),"")</f>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="22"/>
@@ -5112,11 +5154,11 @@
     <row r="118" spans="1:5">
       <c r="B118" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="23"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="22"/>
@@ -5130,11 +5172,11 @@
     <row r="119" spans="1:5">
       <c r="B119" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="23"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="22"/>
@@ -5148,11 +5190,11 @@
     <row r="120" spans="1:5">
       <c r="B120" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="23"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="22"/>
@@ -5166,11 +5208,11 @@
     <row r="121" spans="1:5">
       <c r="B121" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C121">
         <f t="shared" ref="C121:C130" ca="1" si="24">IF(B121&lt;&gt;B120,VLOOKUP(B121,data,2,FALSE),"")</f>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D121">
         <f t="shared" ref="D121:D130" ca="1" si="25">VLOOKUP(B121,data,3,FALSE)</f>
@@ -5184,11 +5226,11 @@
     <row r="122" spans="1:5">
       <c r="B122" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="24"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="25"/>
@@ -5202,11 +5244,11 @@
     <row r="123" spans="1:5">
       <c r="B123" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="24"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="25"/>
@@ -5220,11 +5262,11 @@
     <row r="124" spans="1:5">
       <c r="B124" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="24"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="25"/>
@@ -5238,11 +5280,11 @@
     <row r="125" spans="1:5">
       <c r="B125" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="24"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="25"/>
@@ -5256,11 +5298,11 @@
     <row r="126" spans="1:5">
       <c r="B126" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="24"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="25"/>
@@ -5274,11 +5316,11 @@
     <row r="127" spans="1:5">
       <c r="B127" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="25"/>
@@ -5294,9 +5336,9 @@
         <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
-      <c r="C128" t="str">
+      <c r="C128">
         <f t="shared" ca="1" si="24"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="25"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194C5093-6FC9-4497-B250-774B0727BC01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66AE159-5698-4B9C-9BCF-954902C9E9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="934" yWindow="0" windowWidth="21009" windowHeight="12343" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
+    <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Android" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>Avauskoodin arvioinnista, oireista -2 päivää eteenpäin jaetaan käyttäjille:</t>
   </si>
   <si>
-    <t>[{"timestamp":"27. lokakuuta 2020 klo 8.10","keyCount":260,"matchesCount":0,"appName":"Koronavilkku","hash":"+ohL5VuTmBUV6\/Z\/P+bkoV6gMjJkLLXIu9i2wnPtW7A="},{"timestamp":"26. lokakuuta 2020 klo 8.06","keyCount":309,"matchesCount":0,"appName":"Koronavilkku","hash":"o1jUaoLy7sjjnI6r87C9qbQfT0Pej3LoGAXxaVZqg+s="},{"timestamp":"25. lokakuuta 2020 klo 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24. lokakuuta 2020 klo 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23. lokakuuta 2020 klo 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22. lokakuuta 2020 klo 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21. lokakuuta 2020 klo 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20. lokakuuta 2020 klo 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19. lokakuuta 2020 klo 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18. lokakuuta 2020 klo 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17. lokakuuta 2020 klo 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16. lokakuuta 2020 klo 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15. lokakuuta 2020 klo 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14. lokakuuta 2020 klo 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13. lokakuuta 2020 klo 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="},{"timestamp":"12. lokakuuta 2020 klo 8.28","keyCount":691,"matchesCount":0,"appName":"Koronavilkku","hash":"qoURebnRYLz4UWPjy6sHVr61ISkiXHIBnOj4FXNrV7U="}]</t>
+    <t>[{"timestamp":"28. lokakuuta 2020 klo 8.21","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"8dBdeK0Gwzy7W2jo5u6W5wnWCNeHuRzLfObXxwYDWYc="},{"timestamp":"27. lokakuuta 2020 klo 8.10","keyCount":260,"matchesCount":0,"appName":"Koronavilkku","hash":"+ohL5VuTmBUV6\/Z\/P+bkoV6gMjJkLLXIu9i2wnPtW7A="},{"timestamp":"26. lokakuuta 2020 klo 8.06","keyCount":309,"matchesCount":0,"appName":"Koronavilkku","hash":"o1jUaoLy7sjjnI6r87C9qbQfT0Pej3LoGAXxaVZqg+s="},{"timestamp":"25. lokakuuta 2020 klo 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24. lokakuuta 2020 klo 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23. lokakuuta 2020 klo 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22. lokakuuta 2020 klo 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21. lokakuuta 2020 klo 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20. lokakuuta 2020 klo 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19. lokakuuta 2020 klo 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18. lokakuuta 2020 klo 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17. lokakuuta 2020 klo 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16. lokakuuta 2020 klo 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15. lokakuuta 2020 klo 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14. lokakuuta 2020 klo 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13. lokakuuta 2020 klo 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="}]</t>
   </si>
 </sst>
 </file>
@@ -375,46 +375,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>28. lokakuuta</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>27. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>26. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>25. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>24. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>23. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>22. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>21. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>20. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>19. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>18. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>17. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>16. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>15. lokakuuta</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14. lokakuuta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -426,46 +426,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>429</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +668,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>27.10.2020 uusia #koronavilkku päiväavaimia 260.</c:v>
+              <c:v>28.10.2020 uusia #koronavilkku päiväavaimia 367.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -755,7 +755,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -877,8 +877,8 @@
               <c:idx val="52"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9630419946237838E-2"/>
-                  <c:y val="-6.6512735792577771E-2"/>
+                  <c:x val="2.7222113437999143E-3"/>
+                  <c:y val="-4.4290496905759515E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -898,8 +898,8 @@
               <c:idx val="53"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.5607577171480983E-2"/>
-                  <c:y val="-6.3492111105195231E-2"/>
+                  <c:x val="-3.6417680066788957E-2"/>
+                  <c:y val="3.1746055552597588E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -919,8 +919,8 @@
               <c:idx val="54"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.4221468652529454E-2"/>
-                  <c:y val="9.5238166657792764E-3"/>
+                  <c:x val="-2.7313260050091721E-2"/>
+                  <c:y val="8.5714349992013494E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -940,8 +940,8 @@
               <c:idx val="55"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.1705682878610736E-2"/>
-                  <c:y val="-5.7142899994675658E-2"/>
+                  <c:x val="-5.2025257238269944E-3"/>
+                  <c:y val="5.3968294439415899E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -961,8 +961,8 @@
               <c:idx val="56"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.3370388698311869E-2"/>
-                  <c:y val="5.8324503180479832E-2"/>
+                  <c:x val="-6.8672315435281258E-3"/>
+                  <c:y val="-8.7707352361469093E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -1091,169 +1091,169 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44131</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44130</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44129</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44128</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44127</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44126</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44125</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44124</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44123</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44122</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44121</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44120</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44119</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>44077</c:v>
@@ -1271,172 +1271,172 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0</c:v>
@@ -3088,7 +3088,7 @@
   <dimension ref="A2:L132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -3114,11 +3114,11 @@
       </c>
       <c r="G2">
         <f ca="1">SUM(AllKeys)</f>
-        <v>16339</v>
+        <v>16706</v>
       </c>
       <c r="H2" s="10">
         <f ca="1">G2/7</f>
-        <v>2334.1428571428573</v>
+        <v>2386.5714285714284</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -3157,15 +3157,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>27. lokakuuta</v>
+        <v>28. lokakuuta</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -3199,15 +3199,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26. lokakuuta</v>
+        <v>27. lokakuuta</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -3215,45 +3215,45 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25. lokakuuta</v>
+        <v>26. lokakuuta</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
@@ -3283,19 +3283,19 @@
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24. lokakuuta</v>
+        <v>25. lokakuuta</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
@@ -3325,15 +3325,15 @@
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23. lokakuuta</v>
+        <v>24. lokakuuta</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>329</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3341,41 +3341,41 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22. lokakuuta</v>
+        <v>23. lokakuuta</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3383,41 +3383,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21. lokakuuta</v>
+        <v>22. lokakuuta</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3425,41 +3425,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20. lokakuuta</v>
+        <v>21. lokakuuta</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3493,15 +3493,15 @@
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19. lokakuuta</v>
+        <v>20. lokakuuta</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3509,41 +3509,41 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18. lokakuuta</v>
+        <v>19. lokakuuta</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3551,41 +3551,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17. lokakuuta</v>
+        <v>18. lokakuuta</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3593,41 +3593,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>16. lokakuuta</v>
+        <v>17. lokakuuta</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3635,41 +3635,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15. lokakuuta</v>
+        <v>16. lokakuuta</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3703,15 +3703,15 @@
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>14. lokakuuta</v>
+        <v>15. lokakuuta</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -4276,7 +4276,7 @@
     <row r="70" spans="1:7">
       <c r="A70" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C74&amp;" edelliset 7 päivää "&amp;A74&amp;" (muutos "&amp;A75&amp;"), "&amp;A81&amp;" ("&amp;A82&amp;"), "&amp;A88&amp;" ("&amp;A89&amp;"), "&amp;A95&amp;". Kumulatiivisesti N="&amp;G2&amp;" ja /7 arvioituna (*) avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 27.10 on n=260 edelliset 7 päivää 2514 (muutos -28 %), 3506 (-20 %), 4389 (72 %), 2555. Kumulatiivisesti N=16339 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2334, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 28.10 on n=367 edelliset 7 päivää 2435 (muutos -28 %), 3393 (-22 %), 4370 (55 %), 2815. Kumulatiivisesti N=16706 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2387, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
       </c>
       <c r="C70"/>
     </row>
@@ -4286,13 +4286,13 @@
       </c>
       <c r="F72" s="8" t="str">
         <f ca="1">TEXT(NOW(),"p.k.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C74&amp;"."</f>
-        <v>27.10.2020 uusia #koronavilkku päiväavaimia 260.</v>
+        <v>28.10.2020 uusia #koronavilkku päiväavaimia 367.</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="B73" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44132.596875578703</v>
+        <v>44133.356271643519</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -4304,15 +4304,15 @@
     <row r="74" spans="1:7">
       <c r="A74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>2514</v>
+        <v>2435</v>
       </c>
       <c r="B74" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B73)</f>
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C74">
         <f t="shared" ref="C74:C107" ca="1" si="10">VLOOKUP(B74,data,2,FALSE)</f>
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="D74">
         <f t="shared" ref="D74:D86" ca="1" si="11">VLOOKUP(B74,data,3,FALSE)</f>
@@ -4320,11 +4320,11 @@
       </c>
       <c r="E74">
         <f ca="1">IF(C74&lt;C75,C74,0)</f>
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <f ca="1">COUNTIF(E74:E130,E74)</f>
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4334,11 +4334,11 @@
       </c>
       <c r="B75" s="3">
         <f t="shared" ref="B75:B95" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B74)</f>
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="11"/>
@@ -4346,53 +4346,53 @@
       </c>
       <c r="E75">
         <f ca="1">IF(C75&gt;=E74,E74,0)</f>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <f t="shared" ref="E76:E120" ca="1" si="13">IF(C76&gt;E75,E75,0)</f>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>486</v>
+        <v>329</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="11"/>
@@ -4400,17 +4400,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="11"/>
@@ -4418,17 +4418,17 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="11"/>
@@ -4436,21 +4436,21 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>3506</v>
+        <v>3393</v>
       </c>
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="11"/>
@@ -4458,21 +4458,21 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="9" t="str">
         <f ca="1">TEXT(A81/A88-1,"0 %")</f>
-        <v>-20 %</v>
+        <v>-22 %</v>
       </c>
       <c r="B82" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="11"/>
@@ -4480,17 +4480,17 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="B83" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="11"/>
@@ -4498,17 +4498,17 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="11"/>
@@ -4516,17 +4516,17 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="11"/>
@@ -4534,17 +4534,17 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="B86" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="11"/>
@@ -4552,17 +4552,17 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="B87" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="D87">
         <f ca="1">VLOOKUP(B87,data,3,FALSE)</f>
@@ -4570,21 +4570,21 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>4389</v>
+        <v>4370</v>
       </c>
       <c r="B88" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="D88">
         <f t="shared" ref="D88:D94" ca="1" si="14">VLOOKUP(B88,data,3,FALSE)</f>
@@ -4592,21 +4592,21 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="9" t="str">
         <f ca="1">TEXT(A88/A95-1,"0 %")</f>
-        <v>72 %</v>
+        <v>55 %</v>
       </c>
       <c r="B89" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
@@ -4614,17 +4614,17 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="B90" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
@@ -4632,17 +4632,17 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
@@ -4650,53 +4650,53 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="B93" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="B94" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="14"/>
@@ -4704,21 +4704,21 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
         <f ca="1">SUM(C95:C101)</f>
-        <v>2555</v>
+        <v>2815</v>
       </c>
       <c r="B95" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="D95">
         <f t="shared" ref="D95:D107" ca="1" si="15">VLOOKUP(B95,data,3,FALSE)</f>
@@ -4726,21 +4726,21 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="9" t="str">
         <f ca="1">TEXT(A95/A102-1,"0 %")</f>
-        <v>78 %</v>
+        <v>80 %</v>
       </c>
       <c r="B96" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B95),1.8202)</f>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="15"/>
@@ -4748,17 +4748,17 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="B97" s="3">
         <f t="shared" ref="B97:B130" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B96),44077)</f>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="15"/>
@@ -4766,39 +4766,39 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="B98" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="13"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="B99" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="13"/>
@@ -4809,11 +4809,11 @@
       <c r="A100" s="7"/>
       <c r="B100" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="15"/>
@@ -4828,11 +4828,11 @@
       <c r="A101" s="3"/>
       <c r="B101" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="15"/>
@@ -4846,15 +4846,15 @@
     <row r="102" spans="1:5">
       <c r="A102">
         <f ca="1">SUM(C102:C108)</f>
-        <v>1437</v>
+        <v>1566</v>
       </c>
       <c r="B102" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="15"/>
@@ -4868,15 +4868,15 @@
     <row r="103" spans="1:5">
       <c r="A103" s="9" t="str">
         <f ca="1">TEXT(A102/A109-1,"0 %")</f>
-        <v>19 %</v>
+        <v>24 %</v>
       </c>
       <c r="B103" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="15"/>
@@ -4890,11 +4890,11 @@
     <row r="104" spans="1:5">
       <c r="B104" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="15"/>
@@ -4908,11 +4908,11 @@
     <row r="105" spans="1:5">
       <c r="B105" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="15"/>
@@ -4926,15 +4926,15 @@
     <row r="106" spans="1:5">
       <c r="B106" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="13"/>
@@ -4944,15 +4944,15 @@
     <row r="107" spans="1:5">
       <c r="B107" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="13"/>
@@ -4962,11 +4962,11 @@
     <row r="108" spans="1:5">
       <c r="B108" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C108">
         <f t="shared" ref="C108" ca="1" si="17">VLOOKUP(B108,data,2,FALSE)</f>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D108">
         <f t="shared" ref="D108" ca="1" si="18">VLOOKUP(B108,data,3,FALSE)</f>
@@ -4980,15 +4980,15 @@
     <row r="109" spans="1:5">
       <c r="A109">
         <f ca="1">SUM(C109:C115)</f>
-        <v>1204</v>
+        <v>1268</v>
       </c>
       <c r="B109" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C109">
         <f t="shared" ref="C109:C111" ca="1" si="19">VLOOKUP(B109,data,2,FALSE)</f>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D109">
         <f t="shared" ref="D109:D111" ca="1" si="20">VLOOKUP(B109,data,3,FALSE)</f>
@@ -5002,15 +5002,15 @@
     <row r="110" spans="1:5">
       <c r="A110" s="9" t="str">
         <f ca="1">TEXT(A109/A116-1,"0 %")</f>
-        <v>107 %</v>
+        <v>109 %</v>
       </c>
       <c r="B110" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="19"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="20"/>
@@ -5024,11 +5024,11 @@
     <row r="111" spans="1:5">
       <c r="B111" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="19"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="20"/>
@@ -5042,11 +5042,11 @@
     <row r="112" spans="1:5">
       <c r="B112" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C112">
         <f t="shared" ref="C112:C116" ca="1" si="21">VLOOKUP(B112,data,2,FALSE)</f>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D112">
         <f t="shared" ref="D112:D120" ca="1" si="22">VLOOKUP(B112,data,3,FALSE)</f>
@@ -5060,11 +5060,11 @@
     <row r="113" spans="1:5">
       <c r="B113" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="21"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="22"/>
@@ -5078,11 +5078,11 @@
     <row r="114" spans="1:5">
       <c r="B114" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="21"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="22"/>
@@ -5096,11 +5096,11 @@
     <row r="115" spans="1:5">
       <c r="B115" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="21"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="22"/>
@@ -5114,15 +5114,15 @@
     <row r="116" spans="1:5">
       <c r="A116">
         <f ca="1">SUM(C116:C122)</f>
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="B116" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="21"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="22"/>
@@ -5136,11 +5136,11 @@
     <row r="117" spans="1:5">
       <c r="B117" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C117">
         <f t="shared" ref="C117:C120" ca="1" si="23">IF(B117&lt;&gt;B116,VLOOKUP(B117,data,2,FALSE),"")</f>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="22"/>
@@ -5154,11 +5154,11 @@
     <row r="118" spans="1:5">
       <c r="B118" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="23"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="22"/>
@@ -5172,11 +5172,11 @@
     <row r="119" spans="1:5">
       <c r="B119" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="23"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="22"/>
@@ -5190,11 +5190,11 @@
     <row r="120" spans="1:5">
       <c r="B120" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="23"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="22"/>
@@ -5208,11 +5208,11 @@
     <row r="121" spans="1:5">
       <c r="B121" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C121">
         <f t="shared" ref="C121:C130" ca="1" si="24">IF(B121&lt;&gt;B120,VLOOKUP(B121,data,2,FALSE),"")</f>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D121">
         <f t="shared" ref="D121:D130" ca="1" si="25">VLOOKUP(B121,data,3,FALSE)</f>
@@ -5226,11 +5226,11 @@
     <row r="122" spans="1:5">
       <c r="B122" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="24"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="25"/>
@@ -5244,11 +5244,11 @@
     <row r="123" spans="1:5">
       <c r="B123" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="24"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="25"/>
@@ -5262,11 +5262,11 @@
     <row r="124" spans="1:5">
       <c r="B124" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="24"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="25"/>
@@ -5280,11 +5280,11 @@
     <row r="125" spans="1:5">
       <c r="B125" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="24"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="25"/>
@@ -5298,11 +5298,11 @@
     <row r="126" spans="1:5">
       <c r="B126" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="24"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="25"/>
@@ -5316,11 +5316,11 @@
     <row r="127" spans="1:5">
       <c r="B127" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="24"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="25"/>
@@ -5334,11 +5334,11 @@
     <row r="128" spans="1:5">
       <c r="B128" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="25"/>
@@ -5354,9 +5354,9 @@
         <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
-      <c r="C129" t="str">
+      <c r="C129">
         <f t="shared" ca="1" si="24"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="25"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66AE159-5698-4B9C-9BCF-954902C9E9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3651540E-DC46-459B-9518-48E480791D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Avauskoodin arvioinnista, oireista -2 päivää eteenpäin jaetaan käyttäjille:</t>
   </si>
   <si>
-    <t>[{"timestamp":"28. lokakuuta 2020 klo 8.21","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"8dBdeK0Gwzy7W2jo5u6W5wnWCNeHuRzLfObXxwYDWYc="},{"timestamp":"27. lokakuuta 2020 klo 8.10","keyCount":260,"matchesCount":0,"appName":"Koronavilkku","hash":"+ohL5VuTmBUV6\/Z\/P+bkoV6gMjJkLLXIu9i2wnPtW7A="},{"timestamp":"26. lokakuuta 2020 klo 8.06","keyCount":309,"matchesCount":0,"appName":"Koronavilkku","hash":"o1jUaoLy7sjjnI6r87C9qbQfT0Pej3LoGAXxaVZqg+s="},{"timestamp":"25. lokakuuta 2020 klo 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24. lokakuuta 2020 klo 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23. lokakuuta 2020 klo 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22. lokakuuta 2020 klo 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21. lokakuuta 2020 klo 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20. lokakuuta 2020 klo 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19. lokakuuta 2020 klo 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18. lokakuuta 2020 klo 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17. lokakuuta 2020 klo 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16. lokakuuta 2020 klo 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15. lokakuuta 2020 klo 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14. lokakuuta 2020 klo 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="},{"timestamp":"13. lokakuuta 2020 klo 8.30","keyCount":649,"matchesCount":0,"appName":"Koronavilkku","hash":"VKxeks2QgrD64aFrou+ZbHIeLK3HK4ZcN\/J0Wyu8RLA="}]</t>
+    <t>[{"timestamp":"29. lokakuuta 2020 klo 6.09","keyCount":353,"matchesCount":0,"appName":"Koronavilkku","hash":"mJ7sSINsdoPvS2a9pLCQKtvOBsGbAUOMMCA5cIcpRSk="},{"timestamp":"28. lokakuuta 2020 klo 8.21","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"8dBdeK0Gwzy7W2jo5u6W5wnWCNeHuRzLfObXxwYDWYc="},{"timestamp":"27. lokakuuta 2020 klo 8.10","keyCount":260,"matchesCount":0,"appName":"Koronavilkku","hash":"+ohL5VuTmBUV6\/Z\/P+bkoV6gMjJkLLXIu9i2wnPtW7A="},{"timestamp":"26. lokakuuta 2020 klo 8.06","keyCount":309,"matchesCount":0,"appName":"Koronavilkku","hash":"o1jUaoLy7sjjnI6r87C9qbQfT0Pej3LoGAXxaVZqg+s="},{"timestamp":"25. lokakuuta 2020 klo 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24. lokakuuta 2020 klo 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23. lokakuuta 2020 klo 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22. lokakuuta 2020 klo 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21. lokakuuta 2020 klo 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20. lokakuuta 2020 klo 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19. lokakuuta 2020 klo 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18. lokakuuta 2020 klo 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17. lokakuuta 2020 klo 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16. lokakuuta 2020 klo 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15. lokakuuta 2020 klo 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14. lokakuuta 2020 klo 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="}]</t>
   </si>
 </sst>
 </file>
@@ -375,46 +375,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>29. lokakuuta</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>28. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>27. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>26. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>25. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>23. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>22. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>21. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>20. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>19. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>18. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>17. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>16. lokakuuta</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15. lokakuuta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -426,46 +426,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>639</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +668,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>28.10.2020 uusia #koronavilkku päiväavaimia 367.</c:v>
+              <c:v>29.10.2020 uusia #koronavilkku päiväavaimia 353.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -755,7 +755,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -1091,172 +1091,172 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44132</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44131</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44130</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44129</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44128</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44127</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44126</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44125</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44124</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44123</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44122</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44121</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44120</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44119</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>44077</c:v>
@@ -1271,175 +1271,175 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3088,7 +3088,7 @@
   <dimension ref="A2:L132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -3114,11 +3114,11 @@
       </c>
       <c r="G2">
         <f ca="1">SUM(AllKeys)</f>
-        <v>16706</v>
+        <v>17059</v>
       </c>
       <c r="H2" s="10">
         <f ca="1">G2/7</f>
-        <v>2386.5714285714284</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -3157,15 +3157,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>28. lokakuuta</v>
+        <v>29. lokakuuta</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -3199,15 +3199,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>27. lokakuuta</v>
+        <v>28. lokakuuta</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -3241,15 +3241,15 @@
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26. lokakuuta</v>
+        <v>27. lokakuuta</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -3257,45 +3257,45 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25. lokakuuta</v>
+        <v>26. lokakuuta</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
@@ -3325,19 +3325,19 @@
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24. lokakuuta</v>
+        <v>25. lokakuuta</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
@@ -3367,15 +3367,15 @@
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23. lokakuuta</v>
+        <v>24. lokakuuta</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>329</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3383,41 +3383,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22. lokakuuta</v>
+        <v>23. lokakuuta</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3425,41 +3425,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21. lokakuuta</v>
+        <v>22. lokakuuta</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3467,41 +3467,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20. lokakuuta</v>
+        <v>21. lokakuuta</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3535,15 +3535,15 @@
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19. lokakuuta</v>
+        <v>20. lokakuuta</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3551,41 +3551,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18. lokakuuta</v>
+        <v>19. lokakuuta</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3593,41 +3593,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17. lokakuuta</v>
+        <v>18. lokakuuta</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3635,41 +3635,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1793</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>16. lokakuuta</v>
+        <v>17. lokakuuta</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3677,41 +3677,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1950</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15. lokakuuta</v>
+        <v>16. lokakuuta</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -4276,7 +4276,7 @@
     <row r="70" spans="1:7">
       <c r="A70" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C74&amp;" edelliset 7 päivää "&amp;A74&amp;" (muutos "&amp;A75&amp;"), "&amp;A81&amp;" ("&amp;A82&amp;"), "&amp;A88&amp;" ("&amp;A89&amp;"), "&amp;A95&amp;". Kumulatiivisesti N="&amp;G2&amp;" ja /7 arvioituna (*) avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 28.10 on n=367 edelliset 7 päivää 2435 (muutos -28 %), 3393 (-22 %), 4370 (55 %), 2815. Kumulatiivisesti N=16706 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2387, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 29.10 on n=353 edelliset 7 päivää 2416 (muutos -28 %), 3336 (-23 %), 4354 (42 %), 3057. Kumulatiivisesti N=17059 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2437, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
       </c>
       <c r="C70"/>
     </row>
@@ -4286,13 +4286,13 @@
       </c>
       <c r="F72" s="8" t="str">
         <f ca="1">TEXT(NOW(),"p.k.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C74&amp;"."</f>
-        <v>28.10.2020 uusia #koronavilkku päiväavaimia 367.</v>
+        <v>29.10.2020 uusia #koronavilkku päiväavaimia 353.</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="B73" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44133.356271643519</v>
+        <v>44134.292471875</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -4304,15 +4304,15 @@
     <row r="74" spans="1:7">
       <c r="A74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>2435</v>
+        <v>2416</v>
       </c>
       <c r="B74" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B73)</f>
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C74">
         <f t="shared" ref="C74:C107" ca="1" si="10">VLOOKUP(B74,data,2,FALSE)</f>
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D74">
         <f t="shared" ref="D74:D86" ca="1" si="11">VLOOKUP(B74,data,3,FALSE)</f>
@@ -4320,11 +4320,11 @@
       </c>
       <c r="E74">
         <f ca="1">IF(C74&lt;C75,C74,0)</f>
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F74">
         <f ca="1">COUNTIF(E74:E130,E74)</f>
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4334,11 +4334,11 @@
       </c>
       <c r="B75" s="3">
         <f t="shared" ref="B75:B95" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B74)</f>
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="11"/>
@@ -4346,17 +4346,17 @@
       </c>
       <c r="E75">
         <f ca="1">IF(C75&gt;=E74,E74,0)</f>
-        <v>0</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="11"/>
@@ -4370,15 +4370,15 @@
     <row r="77" spans="1:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="13"/>
@@ -4388,15 +4388,15 @@
     <row r="78" spans="1:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="13"/>
@@ -4406,11 +4406,11 @@
     <row r="79" spans="1:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>486</v>
+        <v>329</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="11"/>
@@ -4424,11 +4424,11 @@
     <row r="80" spans="1:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="11"/>
@@ -4442,15 +4442,15 @@
     <row r="81" spans="1:5">
       <c r="A81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>3393</v>
+        <v>3336</v>
       </c>
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="11"/>
@@ -4464,15 +4464,15 @@
     <row r="82" spans="1:5">
       <c r="A82" s="9" t="str">
         <f ca="1">TEXT(A81/A88-1,"0 %")</f>
-        <v>-22 %</v>
+        <v>-23 %</v>
       </c>
       <c r="B82" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="11"/>
@@ -4486,11 +4486,11 @@
     <row r="83" spans="1:5">
       <c r="B83" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="11"/>
@@ -4504,11 +4504,11 @@
     <row r="84" spans="1:5">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="11"/>
@@ -4522,11 +4522,11 @@
     <row r="85" spans="1:5">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="11"/>
@@ -4540,11 +4540,11 @@
     <row r="86" spans="1:5">
       <c r="B86" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="11"/>
@@ -4558,11 +4558,11 @@
     <row r="87" spans="1:5">
       <c r="B87" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="D87">
         <f ca="1">VLOOKUP(B87,data,3,FALSE)</f>
@@ -4576,15 +4576,15 @@
     <row r="88" spans="1:5">
       <c r="A88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>4370</v>
+        <v>4354</v>
       </c>
       <c r="B88" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="D88">
         <f t="shared" ref="D88:D94" ca="1" si="14">VLOOKUP(B88,data,3,FALSE)</f>
@@ -4598,15 +4598,15 @@
     <row r="89" spans="1:5">
       <c r="A89" s="9" t="str">
         <f ca="1">TEXT(A88/A95-1,"0 %")</f>
-        <v>55 %</v>
+        <v>42 %</v>
       </c>
       <c r="B89" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
@@ -4620,11 +4620,11 @@
     <row r="90" spans="1:5">
       <c r="B90" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
@@ -4638,11 +4638,11 @@
     <row r="91" spans="1:5">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
@@ -4656,11 +4656,11 @@
     <row r="92" spans="1:5">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
@@ -4674,15 +4674,15 @@
     <row r="93" spans="1:5">
       <c r="B93" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="13"/>
@@ -4692,15 +4692,15 @@
     <row r="94" spans="1:5">
       <c r="B94" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="13"/>
@@ -4710,15 +4710,15 @@
     <row r="95" spans="1:5">
       <c r="A95">
         <f ca="1">SUM(C95:C101)</f>
-        <v>2815</v>
+        <v>3057</v>
       </c>
       <c r="B95" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="D95">
         <f t="shared" ref="D95:D107" ca="1" si="15">VLOOKUP(B95,data,3,FALSE)</f>
@@ -4732,15 +4732,15 @@
     <row r="96" spans="1:5">
       <c r="A96" s="9" t="str">
         <f ca="1">TEXT(A95/A102-1,"0 %")</f>
-        <v>80 %</v>
+        <v>96 %</v>
       </c>
       <c r="B96" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B95),1.8202)</f>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="15"/>
@@ -4754,11 +4754,11 @@
     <row r="97" spans="1:5">
       <c r="B97" s="3">
         <f t="shared" ref="B97:B130" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B96),44077)</f>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="15"/>
@@ -4772,11 +4772,11 @@
     <row r="98" spans="1:5">
       <c r="B98" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="15"/>
@@ -4790,15 +4790,15 @@
     <row r="99" spans="1:5">
       <c r="B99" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="13"/>
@@ -4809,15 +4809,15 @@
       <c r="A100" s="7"/>
       <c r="B100" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="13"/>
@@ -4828,11 +4828,11 @@
       <c r="A101" s="3"/>
       <c r="B101" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="15"/>
@@ -4846,15 +4846,15 @@
     <row r="102" spans="1:5">
       <c r="A102">
         <f ca="1">SUM(C102:C108)</f>
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="B102" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="15"/>
@@ -4868,15 +4868,15 @@
     <row r="103" spans="1:5">
       <c r="A103" s="9" t="str">
         <f ca="1">TEXT(A102/A109-1,"0 %")</f>
-        <v>24 %</v>
+        <v>16 %</v>
       </c>
       <c r="B103" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="15"/>
@@ -4890,11 +4890,11 @@
     <row r="104" spans="1:5">
       <c r="B104" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="15"/>
@@ -4908,11 +4908,11 @@
     <row r="105" spans="1:5">
       <c r="B105" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="15"/>
@@ -4926,11 +4926,11 @@
     <row r="106" spans="1:5">
       <c r="B106" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="15"/>
@@ -4944,15 +4944,15 @@
     <row r="107" spans="1:5">
       <c r="B107" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="13"/>
@@ -4962,15 +4962,15 @@
     <row r="108" spans="1:5">
       <c r="B108" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C108">
         <f t="shared" ref="C108" ca="1" si="17">VLOOKUP(B108,data,2,FALSE)</f>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D108">
         <f t="shared" ref="D108" ca="1" si="18">VLOOKUP(B108,data,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="13"/>
@@ -4980,15 +4980,15 @@
     <row r="109" spans="1:5">
       <c r="A109">
         <f ca="1">SUM(C109:C115)</f>
-        <v>1268</v>
+        <v>1342</v>
       </c>
       <c r="B109" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C109">
         <f t="shared" ref="C109:C111" ca="1" si="19">VLOOKUP(B109,data,2,FALSE)</f>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D109">
         <f t="shared" ref="D109:D111" ca="1" si="20">VLOOKUP(B109,data,3,FALSE)</f>
@@ -5002,15 +5002,15 @@
     <row r="110" spans="1:5">
       <c r="A110" s="9" t="str">
         <f ca="1">TEXT(A109/A116-1,"0 %")</f>
-        <v>109 %</v>
+        <v>101 %</v>
       </c>
       <c r="B110" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="19"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="20"/>
@@ -5024,11 +5024,11 @@
     <row r="111" spans="1:5">
       <c r="B111" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="19"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="20"/>
@@ -5042,11 +5042,11 @@
     <row r="112" spans="1:5">
       <c r="B112" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C112">
         <f t="shared" ref="C112:C116" ca="1" si="21">VLOOKUP(B112,data,2,FALSE)</f>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D112">
         <f t="shared" ref="D112:D120" ca="1" si="22">VLOOKUP(B112,data,3,FALSE)</f>
@@ -5060,11 +5060,11 @@
     <row r="113" spans="1:5">
       <c r="B113" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="21"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="22"/>
@@ -5078,11 +5078,11 @@
     <row r="114" spans="1:5">
       <c r="B114" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="21"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="22"/>
@@ -5096,11 +5096,11 @@
     <row r="115" spans="1:5">
       <c r="B115" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="21"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="22"/>
@@ -5114,15 +5114,15 @@
     <row r="116" spans="1:5">
       <c r="A116">
         <f ca="1">SUM(C116:C122)</f>
-        <v>606</v>
+        <v>668</v>
       </c>
       <c r="B116" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="21"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="22"/>
@@ -5136,11 +5136,11 @@
     <row r="117" spans="1:5">
       <c r="B117" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C117">
         <f t="shared" ref="C117:C120" ca="1" si="23">IF(B117&lt;&gt;B116,VLOOKUP(B117,data,2,FALSE),"")</f>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="22"/>
@@ -5154,11 +5154,11 @@
     <row r="118" spans="1:5">
       <c r="B118" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="23"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="22"/>
@@ -5172,11 +5172,11 @@
     <row r="119" spans="1:5">
       <c r="B119" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="23"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="22"/>
@@ -5190,11 +5190,11 @@
     <row r="120" spans="1:5">
       <c r="B120" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="23"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="22"/>
@@ -5208,11 +5208,11 @@
     <row r="121" spans="1:5">
       <c r="B121" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C121">
         <f t="shared" ref="C121:C130" ca="1" si="24">IF(B121&lt;&gt;B120,VLOOKUP(B121,data,2,FALSE),"")</f>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D121">
         <f t="shared" ref="D121:D130" ca="1" si="25">VLOOKUP(B121,data,3,FALSE)</f>
@@ -5226,11 +5226,11 @@
     <row r="122" spans="1:5">
       <c r="B122" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="24"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="25"/>
@@ -5244,11 +5244,11 @@
     <row r="123" spans="1:5">
       <c r="B123" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="24"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="25"/>
@@ -5262,11 +5262,11 @@
     <row r="124" spans="1:5">
       <c r="B124" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="24"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="25"/>
@@ -5280,11 +5280,11 @@
     <row r="125" spans="1:5">
       <c r="B125" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="24"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="25"/>
@@ -5298,11 +5298,11 @@
     <row r="126" spans="1:5">
       <c r="B126" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="24"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="25"/>
@@ -5316,11 +5316,11 @@
     <row r="127" spans="1:5">
       <c r="B127" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="24"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="25"/>
@@ -5334,11 +5334,11 @@
     <row r="128" spans="1:5">
       <c r="B128" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="24"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="25"/>
@@ -5352,11 +5352,11 @@
     <row r="129" spans="2:5">
       <c r="B129" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="25"/>
@@ -5372,9 +5372,9 @@
         <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
-      <c r="C130" t="str">
+      <c r="C130">
         <f t="shared" ca="1" si="24"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="25"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3651540E-DC46-459B-9518-48E480791D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C35DDC3-33E1-4AF2-900B-0361CF559CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Avauskoodin arvioinnista, oireista -2 päivää eteenpäin jaetaan käyttäjille:</t>
   </si>
   <si>
-    <t>[{"timestamp":"29. lokakuuta 2020 klo 6.09","keyCount":353,"matchesCount":0,"appName":"Koronavilkku","hash":"mJ7sSINsdoPvS2a9pLCQKtvOBsGbAUOMMCA5cIcpRSk="},{"timestamp":"28. lokakuuta 2020 klo 8.21","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"8dBdeK0Gwzy7W2jo5u6W5wnWCNeHuRzLfObXxwYDWYc="},{"timestamp":"27. lokakuuta 2020 klo 8.10","keyCount":260,"matchesCount":0,"appName":"Koronavilkku","hash":"+ohL5VuTmBUV6\/Z\/P+bkoV6gMjJkLLXIu9i2wnPtW7A="},{"timestamp":"26. lokakuuta 2020 klo 8.06","keyCount":309,"matchesCount":0,"appName":"Koronavilkku","hash":"o1jUaoLy7sjjnI6r87C9qbQfT0Pej3LoGAXxaVZqg+s="},{"timestamp":"25. lokakuuta 2020 klo 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24. lokakuuta 2020 klo 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23. lokakuuta 2020 klo 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22. lokakuuta 2020 klo 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21. lokakuuta 2020 klo 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20. lokakuuta 2020 klo 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19. lokakuuta 2020 klo 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18. lokakuuta 2020 klo 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17. lokakuuta 2020 klo 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16. lokakuuta 2020 klo 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15. lokakuuta 2020 klo 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14. lokakuuta 2020 klo 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="}]</t>
+    <t>[{"timestamp":"30. lokakuuta 2020 klo 6.22","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"bBcjOzvbto3qcWqUykDf0FaMOIgCbg+sVYGquz6nLTA="},{"timestamp":"29. lokakuuta 2020 klo 6.09","keyCount":353,"matchesCount":0,"appName":"Koronavilkku","hash":"mJ7sSINsdoPvS2a9pLCQKtvOBsGbAUOMMCA5cIcpRSk="},{"timestamp":"28. lokakuuta 2020 klo 8.21","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"8dBdeK0Gwzy7W2jo5u6W5wnWCNeHuRzLfObXxwYDWYc="},{"timestamp":"27. lokakuuta 2020 klo 8.10","keyCount":260,"matchesCount":0,"appName":"Koronavilkku","hash":"+ohL5VuTmBUV6\/Z\/P+bkoV6gMjJkLLXIu9i2wnPtW7A="},{"timestamp":"26. lokakuuta 2020 klo 8.06","keyCount":309,"matchesCount":0,"appName":"Koronavilkku","hash":"o1jUaoLy7sjjnI6r87C9qbQfT0Pej3LoGAXxaVZqg+s="},{"timestamp":"25. lokakuuta 2020 klo 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24. lokakuuta 2020 klo 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23. lokakuuta 2020 klo 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22. lokakuuta 2020 klo 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21. lokakuuta 2020 klo 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20. lokakuuta 2020 klo 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19. lokakuuta 2020 klo 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18. lokakuuta 2020 klo 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17. lokakuuta 2020 klo 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16. lokakuuta 2020 klo 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15. lokakuuta 2020 klo 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14. lokakuuta 2020 klo 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="}]</t>
   </si>
 </sst>
 </file>
@@ -375,46 +375,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>30. lokakuuta</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>29. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>28. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>27. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>26. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>24. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>23. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>22. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>21. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>20. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>19. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>18. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>17. lokakuuta</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16. lokakuuta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -426,46 +426,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>353</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>537</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +668,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>29.10.2020 uusia #koronavilkku päiväavaimia 353.</c:v>
+              <c:v>30.10.2020 uusia #koronavilkku päiväavaimia 367.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -759,6 +759,9 @@
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-66A6-4E3A-AFF8-6985A850FD73}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1091,175 +1094,175 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44133</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44132</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44131</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44130</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44129</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44128</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44127</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44126</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44125</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44124</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44123</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44122</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44121</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44120</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44119</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1271,175 +1274,175 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>353</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3087,8 +3090,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -3114,11 +3117,11 @@
       </c>
       <c r="G2">
         <f ca="1">SUM(AllKeys)</f>
-        <v>17059</v>
+        <v>17420</v>
       </c>
       <c r="H2" s="10">
         <f ca="1">G2/7</f>
-        <v>2437</v>
+        <v>2488.5714285714284</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -3157,15 +3160,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>29. lokakuuta</v>
+        <v>30. lokakuuta</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -3199,15 +3202,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>28. lokakuuta</v>
+        <v>29. lokakuuta</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -3241,15 +3244,15 @@
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>27. lokakuuta</v>
+        <v>28. lokakuuta</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -3283,15 +3286,15 @@
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26. lokakuuta</v>
+        <v>27. lokakuuta</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3299,45 +3302,45 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25. lokakuuta</v>
+        <v>26. lokakuuta</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
@@ -3367,19 +3370,19 @@
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24. lokakuuta</v>
+        <v>25. lokakuuta</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
@@ -3409,15 +3412,15 @@
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23. lokakuuta</v>
+        <v>24. lokakuuta</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>329</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3425,41 +3428,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22. lokakuuta</v>
+        <v>23. lokakuuta</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3467,41 +3470,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21. lokakuuta</v>
+        <v>22. lokakuuta</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3509,41 +3512,41 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20. lokakuuta</v>
+        <v>21. lokakuuta</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3577,15 +3580,15 @@
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19. lokakuuta</v>
+        <v>20. lokakuuta</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3593,41 +3596,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18. lokakuuta</v>
+        <v>19. lokakuuta</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3635,41 +3638,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1790</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17. lokakuuta</v>
+        <v>18. lokakuuta</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3677,41 +3680,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1948</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>16. lokakuuta</v>
+        <v>17. lokakuuta</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3719,27 +3722,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2105</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4276,7 +4279,7 @@
     <row r="70" spans="1:7">
       <c r="A70" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C74&amp;" edelliset 7 päivää "&amp;A74&amp;" (muutos "&amp;A75&amp;"), "&amp;A81&amp;" ("&amp;A82&amp;"), "&amp;A88&amp;" ("&amp;A89&amp;"), "&amp;A95&amp;". Kumulatiivisesti N="&amp;G2&amp;" ja /7 arvioituna (*) avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 29.10 on n=353 edelliset 7 päivää 2416 (muutos -28 %), 3336 (-23 %), 4354 (42 %), 3057. Kumulatiivisesti N=17059 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2437, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 30.10 on n=367 edelliset 7 päivää 2297 (muutos -28 %), 3183 (-27 %), 4353 (23 %), 3528. Kumulatiivisesti N=17420 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2489, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
       </c>
       <c r="C70"/>
     </row>
@@ -4286,13 +4289,13 @@
       </c>
       <c r="F72" s="8" t="str">
         <f ca="1">TEXT(NOW(),"p.k.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C74&amp;"."</f>
-        <v>29.10.2020 uusia #koronavilkku päiväavaimia 353.</v>
+        <v>30.10.2020 uusia #koronavilkku päiväavaimia 367.</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="B73" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44134.292471875</v>
+        <v>44135.29024988426</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -4304,15 +4307,15 @@
     <row r="74" spans="1:7">
       <c r="A74">
         <f ca="1">SUM(C74:C80)</f>
-        <v>2416</v>
+        <v>2297</v>
       </c>
       <c r="B74" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B73)</f>
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="C74">
         <f t="shared" ref="C74:C107" ca="1" si="10">VLOOKUP(B74,data,2,FALSE)</f>
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="D74">
         <f t="shared" ref="D74:D86" ca="1" si="11">VLOOKUP(B74,data,3,FALSE)</f>
@@ -4320,11 +4323,11 @@
       </c>
       <c r="E74">
         <f ca="1">IF(C74&lt;C75,C74,0)</f>
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <f ca="1">COUNTIF(E74:E130,E74)</f>
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4334,11 +4337,11 @@
       </c>
       <c r="B75" s="3">
         <f t="shared" ref="B75:B95" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B74)</f>
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="11"/>
@@ -4346,17 +4349,17 @@
       </c>
       <c r="E75">
         <f ca="1">IF(C75&gt;=E74,E74,0)</f>
-        <v>353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="B76" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="11"/>
@@ -4370,11 +4373,11 @@
     <row r="77" spans="1:7">
       <c r="B77" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="11"/>
@@ -4388,15 +4391,15 @@
     <row r="78" spans="1:7">
       <c r="B78" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="13"/>
@@ -4406,15 +4409,15 @@
     <row r="79" spans="1:7">
       <c r="B79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="13"/>
@@ -4424,11 +4427,11 @@
     <row r="80" spans="1:7">
       <c r="B80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
-        <v>486</v>
+        <v>329</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="11"/>
@@ -4442,15 +4445,15 @@
     <row r="81" spans="1:5">
       <c r="A81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>3336</v>
+        <v>3183</v>
       </c>
       <c r="B81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="11"/>
@@ -4464,15 +4467,15 @@
     <row r="82" spans="1:5">
       <c r="A82" s="9" t="str">
         <f ca="1">TEXT(A81/A88-1,"0 %")</f>
-        <v>-23 %</v>
+        <v>-27 %</v>
       </c>
       <c r="B82" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="11"/>
@@ -4486,11 +4489,11 @@
     <row r="83" spans="1:5">
       <c r="B83" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="11"/>
@@ -4504,11 +4507,11 @@
     <row r="84" spans="1:5">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="11"/>
@@ -4522,11 +4525,11 @@
     <row r="85" spans="1:5">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="11"/>
@@ -4540,11 +4543,11 @@
     <row r="86" spans="1:5">
       <c r="B86" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="11"/>
@@ -4558,11 +4561,11 @@
     <row r="87" spans="1:5">
       <c r="B87" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>639</v>
+        <v>537</v>
       </c>
       <c r="D87">
         <f ca="1">VLOOKUP(B87,data,3,FALSE)</f>
@@ -4576,15 +4579,15 @@
     <row r="88" spans="1:5">
       <c r="A88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>4354</v>
+        <v>4353</v>
       </c>
       <c r="B88" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>429</v>
+        <v>639</v>
       </c>
       <c r="D88">
         <f t="shared" ref="D88:D94" ca="1" si="14">VLOOKUP(B88,data,3,FALSE)</f>
@@ -4598,15 +4601,15 @@
     <row r="89" spans="1:5">
       <c r="A89" s="9" t="str">
         <f ca="1">TEXT(A88/A95-1,"0 %")</f>
-        <v>42 %</v>
+        <v>23 %</v>
       </c>
       <c r="B89" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
@@ -4620,11 +4623,11 @@
     <row r="90" spans="1:5">
       <c r="B90" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
@@ -4638,11 +4641,11 @@
     <row r="91" spans="1:5">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
@@ -4656,11 +4659,11 @@
     <row r="92" spans="1:5">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
@@ -4674,11 +4677,11 @@
     <row r="93" spans="1:5">
       <c r="B93" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
@@ -4692,15 +4695,15 @@
     <row r="94" spans="1:5">
       <c r="B94" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="13"/>
@@ -4710,19 +4713,19 @@
     <row r="95" spans="1:5">
       <c r="A95">
         <f ca="1">SUM(C95:C101)</f>
-        <v>3057</v>
+        <v>3528</v>
       </c>
       <c r="B95" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>640</v>
       </c>
       <c r="D95">
         <f t="shared" ref="D95:D107" ca="1" si="15">VLOOKUP(B95,data,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="13"/>
@@ -4732,15 +4735,15 @@
     <row r="96" spans="1:5">
       <c r="A96" s="9" t="str">
         <f ca="1">TEXT(A95/A102-1,"0 %")</f>
-        <v>96 %</v>
+        <v>134 %</v>
       </c>
       <c r="B96" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B95),1.8202)</f>
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="15"/>
@@ -4754,11 +4757,11 @@
     <row r="97" spans="1:5">
       <c r="B97" s="3">
         <f t="shared" ref="B97:B130" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B96),44077)</f>
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="15"/>
@@ -4772,11 +4775,11 @@
     <row r="98" spans="1:5">
       <c r="B98" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="15"/>
@@ -4790,11 +4793,11 @@
     <row r="99" spans="1:5">
       <c r="B99" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="15"/>
@@ -4809,15 +4812,15 @@
       <c r="A100" s="7"/>
       <c r="B100" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="13"/>
@@ -4828,15 +4831,15 @@
       <c r="A101" s="3"/>
       <c r="B101" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="13"/>
@@ -4846,15 +4849,15 @@
     <row r="102" spans="1:5">
       <c r="A102">
         <f ca="1">SUM(C102:C108)</f>
-        <v>1558</v>
+        <v>1510</v>
       </c>
       <c r="B102" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="15"/>
@@ -4868,15 +4871,15 @@
     <row r="103" spans="1:5">
       <c r="A103" s="9" t="str">
         <f ca="1">TEXT(A102/A109-1,"0 %")</f>
-        <v>16 %</v>
+        <v>2 %</v>
       </c>
       <c r="B103" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="15"/>
@@ -4890,11 +4893,11 @@
     <row r="104" spans="1:5">
       <c r="B104" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="15"/>
@@ -4908,11 +4911,11 @@
     <row r="105" spans="1:5">
       <c r="B105" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="15"/>
@@ -4926,11 +4929,11 @@
     <row r="106" spans="1:5">
       <c r="B106" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="15"/>
@@ -4944,11 +4947,11 @@
     <row r="107" spans="1:5">
       <c r="B107" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="15"/>
@@ -4962,15 +4965,15 @@
     <row r="108" spans="1:5">
       <c r="B108" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C108">
         <f t="shared" ref="C108" ca="1" si="17">VLOOKUP(B108,data,2,FALSE)</f>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D108">
         <f t="shared" ref="D108" ca="1" si="18">VLOOKUP(B108,data,3,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="13"/>
@@ -4980,19 +4983,19 @@
     <row r="109" spans="1:5">
       <c r="A109">
         <f ca="1">SUM(C109:C115)</f>
-        <v>1342</v>
+        <v>1477</v>
       </c>
       <c r="B109" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C109">
         <f t="shared" ref="C109:C111" ca="1" si="19">VLOOKUP(B109,data,2,FALSE)</f>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D109">
         <f t="shared" ref="D109:D111" ca="1" si="20">VLOOKUP(B109,data,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="13"/>
@@ -5002,15 +5005,15 @@
     <row r="110" spans="1:5">
       <c r="A110" s="9" t="str">
         <f ca="1">TEXT(A109/A116-1,"0 %")</f>
-        <v>101 %</v>
+        <v>117 %</v>
       </c>
       <c r="B110" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="19"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="20"/>
@@ -5024,11 +5027,11 @@
     <row r="111" spans="1:5">
       <c r="B111" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="19"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="20"/>
@@ -5042,11 +5045,11 @@
     <row r="112" spans="1:5">
       <c r="B112" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C112">
         <f t="shared" ref="C112:C116" ca="1" si="21">VLOOKUP(B112,data,2,FALSE)</f>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D112">
         <f t="shared" ref="D112:D120" ca="1" si="22">VLOOKUP(B112,data,3,FALSE)</f>
@@ -5060,11 +5063,11 @@
     <row r="113" spans="1:5">
       <c r="B113" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="21"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="22"/>
@@ -5078,11 +5081,11 @@
     <row r="114" spans="1:5">
       <c r="B114" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="21"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="22"/>
@@ -5096,11 +5099,11 @@
     <row r="115" spans="1:5">
       <c r="B115" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="21"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="22"/>
@@ -5114,15 +5117,15 @@
     <row r="116" spans="1:5">
       <c r="A116">
         <f ca="1">SUM(C116:C122)</f>
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="B116" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="21"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="22"/>
@@ -5136,11 +5139,11 @@
     <row r="117" spans="1:5">
       <c r="B117" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C117">
         <f t="shared" ref="C117:C120" ca="1" si="23">IF(B117&lt;&gt;B116,VLOOKUP(B117,data,2,FALSE),"")</f>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="22"/>
@@ -5154,11 +5157,11 @@
     <row r="118" spans="1:5">
       <c r="B118" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="23"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="22"/>
@@ -5172,11 +5175,11 @@
     <row r="119" spans="1:5">
       <c r="B119" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="23"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="22"/>
@@ -5190,11 +5193,11 @@
     <row r="120" spans="1:5">
       <c r="B120" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="23"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="22"/>
@@ -5208,11 +5211,11 @@
     <row r="121" spans="1:5">
       <c r="B121" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C121">
         <f t="shared" ref="C121:C130" ca="1" si="24">IF(B121&lt;&gt;B120,VLOOKUP(B121,data,2,FALSE),"")</f>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D121">
         <f t="shared" ref="D121:D130" ca="1" si="25">VLOOKUP(B121,data,3,FALSE)</f>
@@ -5226,11 +5229,11 @@
     <row r="122" spans="1:5">
       <c r="B122" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="24"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="25"/>
@@ -5244,11 +5247,11 @@
     <row r="123" spans="1:5">
       <c r="B123" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="24"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="25"/>
@@ -5262,11 +5265,11 @@
     <row r="124" spans="1:5">
       <c r="B124" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="24"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="25"/>
@@ -5280,11 +5283,11 @@
     <row r="125" spans="1:5">
       <c r="B125" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="24"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="25"/>
@@ -5298,11 +5301,11 @@
     <row r="126" spans="1:5">
       <c r="B126" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="24"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="25"/>
@@ -5316,11 +5319,11 @@
     <row r="127" spans="1:5">
       <c r="B127" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="24"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="25"/>
@@ -5334,11 +5337,11 @@
     <row r="128" spans="1:5">
       <c r="B128" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="24"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="25"/>
@@ -5352,11 +5355,11 @@
     <row r="129" spans="2:5">
       <c r="B129" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="24"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="25"/>
@@ -5370,11 +5373,11 @@
     <row r="130" spans="2:5">
       <c r="B130" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="25"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C35DDC3-33E1-4AF2-900B-0361CF559CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910524CA-F9DB-4868-B5CD-40E9BAD336CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Android" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="AllKeys">Android!$C$74:$C$130</definedName>
-    <definedName name="data">Android!$C$9:$E$68</definedName>
+    <definedName name="AllKeys">Android!$C$81:$C$146</definedName>
+    <definedName name="data">Android!$C$9:$E$75</definedName>
     <definedName name="Json">Android!$A$4</definedName>
-    <definedName name="time">Android!$C$9:$C$68</definedName>
+    <definedName name="time">Android!$C$9:$C$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +90,7 @@
     <t>Avauskoodin arvioinnista, oireista -2 päivää eteenpäin jaetaan käyttäjille:</t>
   </si>
   <si>
-    <t>[{"timestamp":"30. lokakuuta 2020 klo 6.22","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"bBcjOzvbto3qcWqUykDf0FaMOIgCbg+sVYGquz6nLTA="},{"timestamp":"29. lokakuuta 2020 klo 6.09","keyCount":353,"matchesCount":0,"appName":"Koronavilkku","hash":"mJ7sSINsdoPvS2a9pLCQKtvOBsGbAUOMMCA5cIcpRSk="},{"timestamp":"28. lokakuuta 2020 klo 8.21","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"8dBdeK0Gwzy7W2jo5u6W5wnWCNeHuRzLfObXxwYDWYc="},{"timestamp":"27. lokakuuta 2020 klo 8.10","keyCount":260,"matchesCount":0,"appName":"Koronavilkku","hash":"+ohL5VuTmBUV6\/Z\/P+bkoV6gMjJkLLXIu9i2wnPtW7A="},{"timestamp":"26. lokakuuta 2020 klo 8.06","keyCount":309,"matchesCount":0,"appName":"Koronavilkku","hash":"o1jUaoLy7sjjnI6r87C9qbQfT0Pej3LoGAXxaVZqg+s="},{"timestamp":"25. lokakuuta 2020 klo 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24. lokakuuta 2020 klo 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23. lokakuuta 2020 klo 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22. lokakuuta 2020 klo 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21. lokakuuta 2020 klo 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20. lokakuuta 2020 klo 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19. lokakuuta 2020 klo 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18. lokakuuta 2020 klo 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17. lokakuuta 2020 klo 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16. lokakuuta 2020 klo 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="},{"timestamp":"15. lokakuuta 2020 klo 8.51","keyCount":429,"matchesCount":0,"appName":"Koronavilkku","hash":"KZb9ftqqpKHJy4PknRep+ueL0dXu0vEGkk8Ktk5ADKs="},{"timestamp":"14. lokakuuta 2020 klo 8.49","keyCount":559,"matchesCount":0,"appName":"Koronavilkku","hash":"cTNUkqKfz5DNv4XCB1l\/2EcOCQ74uhIJCgeaqm2uk5I="}]</t>
+    <t>[{"timestamp":"31. lokakuuta 2020 klo 6.26","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"+auwlRUBjwMUj9Zt18cSKN\/nJXa4QH4tjtEpsOsHvGQ="},{"timestamp":"30. lokakuuta 2020 klo 6.22","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"bBcjOzvbto3qcWqUykDf0FaMOIgCbg+sVYGquz6nLTA="},{"timestamp":"29. lokakuuta 2020 klo 6.09","keyCount":353,"matchesCount":0,"appName":"Koronavilkku","hash":"mJ7sSINsdoPvS2a9pLCQKtvOBsGbAUOMMCA5cIcpRSk="},{"timestamp":"28. lokakuuta 2020 klo 8.21","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"8dBdeK0Gwzy7W2jo5u6W5wnWCNeHuRzLfObXxwYDWYc="},{"timestamp":"27. lokakuuta 2020 klo 8.10","keyCount":260,"matchesCount":0,"appName":"Koronavilkku","hash":"+ohL5VuTmBUV6\/Z\/P+bkoV6gMjJkLLXIu9i2wnPtW7A="},{"timestamp":"26. lokakuuta 2020 klo 8.06","keyCount":309,"matchesCount":0,"appName":"Koronavilkku","hash":"o1jUaoLy7sjjnI6r87C9qbQfT0Pej3LoGAXxaVZqg+s="},{"timestamp":"25. lokakuuta 2020 klo 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24. lokakuuta 2020 klo 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23. lokakuuta 2020 klo 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22. lokakuuta 2020 klo 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21. lokakuuta 2020 klo 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20. lokakuuta 2020 klo 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19. lokakuuta 2020 klo 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18. lokakuuta 2020 klo 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17. lokakuuta 2020 klo 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16. lokakuuta 2020 klo 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="}]</t>
   </si>
 </sst>
 </file>
@@ -375,46 +375,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>31. lokakuuta</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>30. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>29. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>28. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>27. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>26. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>25. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>24. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>23. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>22. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>21. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>20. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>19. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>18. lokakuuta</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17. lokakuuta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -426,46 +426,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>353</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>535</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -664,11 +664,11 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>Android!$F$72</c:f>
+          <c:f>Android!$F$79</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>30.10.2020 uusia #koronavilkku päiväavaimia 367.</c:v>
+              <c:v>31.10.2020 uusia #koronavilkku päiväavaimia 372.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -755,17 +755,14 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-66A6-4E3A-AFF8-6985A850FD73}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="32"/>
+              <c:idx val="41"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.3154804339117405E-2"/>
@@ -780,13 +777,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-5CAE-4A4E-BEE0-01C87E68808F}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="33"/>
+              <c:idx val="42"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-9.8660385161277279E-3"/>
@@ -808,13 +802,10 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5CAE-4A4E-BEE0-01C87E68808F}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="38"/>
+              <c:idx val="47"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.1510453796727717E-2"/>
@@ -829,59 +820,14 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5CAE-4A4E-BEE0-01C87E68808F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="43"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-2.3984334910885651E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-5CAE-4A4E-BEE0-01C87E68808F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="51"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.1044200166972393E-3"/>
-                  <c:y val="-4.7619083328896444E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-DCF1-4084-85F4-121830B869FA}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="52"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.7222113437999143E-3"/>
-                  <c:y val="-4.4290496905759515E-2"/>
+                  <c:x val="0"/>
+                  <c:y val="-2.3984334910885651E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -898,7 +844,43 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="53"/>
+              <c:idx val="60"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.1044200166972393E-3"/>
+                  <c:y val="-4.7619083328896444E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="61"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7222113437999143E-3"/>
+                  <c:y val="-4.4290496905759515E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="62"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-3.6417680066788957E-2"/>
@@ -913,13 +895,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-5CAE-4A4E-BEE0-01C87E68808F}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="54"/>
+              <c:idx val="63"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-2.7313260050091721E-2"/>
@@ -934,13 +913,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-5CAE-4A4E-BEE0-01C87E68808F}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="55"/>
+              <c:idx val="64"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-5.2025257238269944E-3"/>
@@ -955,13 +931,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-DCF1-4084-85F4-121830B869FA}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="56"/>
+              <c:idx val="65"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-6.8672315435281258E-3"/>
@@ -1011,9 +984,6 @@
                       <c:h val="6.0270011451077202E-2"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-5CAE-4A4E-BEE0-01C87E68808F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1089,360 +1059,414 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Android!$B$74:$B$130</c:f>
+              <c:f>Android!$B$81:$B$146</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44134</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44133</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44132</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44131</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44130</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44129</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44128</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44127</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44126</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44125</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44124</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44123</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44122</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44121</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44120</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44119</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Android!$C$74:$C$130</c:f>
+              <c:f>Android!$C$81:$C$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>353</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2725,7 +2749,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>348342</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>146955</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2755,13 +2779,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>179615</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266703</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>81641</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3088,10 +3112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E4FBF2-530B-45FC-AB24-E83337470135}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:L132"/>
+  <dimension ref="A2:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -3117,11 +3141,11 @@
       </c>
       <c r="G2">
         <f ca="1">SUM(AllKeys)</f>
-        <v>17420</v>
+        <v>17798</v>
       </c>
       <c r="H2" s="10">
         <f ca="1">G2/7</f>
-        <v>2488.5714285714284</v>
+        <v>2542.5714285714284</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -3160,15 +3184,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>30. lokakuuta</v>
+        <v>31. lokakuuta</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44134</v>
+        <v>44135</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -3202,15 +3226,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>29. lokakuuta</v>
+        <v>30. lokakuuta</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -3218,41 +3242,41 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>28. lokakuuta</v>
+        <v>29. lokakuuta</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -3260,41 +3284,41 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>27. lokakuuta</v>
+        <v>28. lokakuuta</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3302,41 +3326,41 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26. lokakuuta</v>
+        <v>27. lokakuuta</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3344,125 +3368,125 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25. lokakuuta</v>
+        <v>26. lokakuuta</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24. lokakuuta</v>
+        <v>25. lokakuuta</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23. lokakuuta</v>
+        <v>24. lokakuuta</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>329</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3470,41 +3494,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22. lokakuuta</v>
+        <v>23. lokakuuta</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3538,15 +3562,15 @@
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21. lokakuuta</v>
+        <v>22. lokakuuta</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3580,15 +3604,15 @@
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20. lokakuuta</v>
+        <v>21. lokakuuta</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3596,41 +3620,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19. lokakuuta</v>
+        <v>20. lokakuuta</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3664,15 +3688,15 @@
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18. lokakuuta</v>
+        <v>19. lokakuuta</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>535</v>
+        <v>421</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3680,41 +3704,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17. lokakuuta</v>
+        <v>18. lokakuuta</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3722,27 +3746,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2103</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3761,10 +3785,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="C24" s="5">
-        <v>44121</v>
+        <v>44128</v>
       </c>
       <c r="D24" s="2">
-        <v>537</v>
+        <v>329</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -3772,10 +3796,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="C25" s="5">
-        <v>44120</v>
+        <v>44127</v>
       </c>
       <c r="D25" s="2">
-        <v>639</v>
+        <v>486</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -3783,10 +3807,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="C26" s="5">
-        <v>44119</v>
+        <v>44126</v>
       </c>
       <c r="D26" s="2">
-        <v>429</v>
+        <v>372</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -3794,10 +3818,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="C27" s="5">
-        <v>44118</v>
+        <v>44125</v>
       </c>
       <c r="D27" s="2">
-        <v>559</v>
+        <v>446</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -3805,10 +3829,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="C28" s="5">
-        <v>44117</v>
+        <v>44124</v>
       </c>
       <c r="D28" s="2">
-        <v>649</v>
+        <v>386</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -3816,10 +3840,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="C29" s="5">
-        <v>44116</v>
+        <v>44123</v>
       </c>
       <c r="D29" s="2">
-        <v>691</v>
+        <v>421</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -3827,10 +3851,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="C30" s="5">
-        <v>44115</v>
+        <v>44122</v>
       </c>
       <c r="D30" s="2">
-        <v>666</v>
+        <v>535</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -3838,10 +3862,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="C31" s="5">
-        <v>44114</v>
+        <v>44121</v>
       </c>
       <c r="D31" s="2">
-        <v>720</v>
+        <v>537</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -3849,21 +3873,21 @@
     </row>
     <row r="32" spans="1:12">
       <c r="C32" s="5">
-        <v>44113</v>
+        <v>44120</v>
       </c>
       <c r="D32" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="5">
-        <v>44112</v>
+        <v>44119</v>
       </c>
       <c r="D33" s="2">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -3871,10 +3895,10 @@
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="5">
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="D34" s="2">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -3882,10 +3906,10 @@
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="5">
-        <v>44110</v>
+        <v>44117</v>
       </c>
       <c r="D35" s="2">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -3893,10 +3917,10 @@
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="5">
-        <v>44109</v>
+        <v>44116</v>
       </c>
       <c r="D36" s="2">
-        <v>453</v>
+        <v>691</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -3904,10 +3928,10 @@
     </row>
     <row r="37" spans="3:5">
       <c r="C37" s="5">
-        <v>44108</v>
+        <v>44115</v>
       </c>
       <c r="D37" s="2">
-        <v>294</v>
+        <v>666</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -3915,32 +3939,32 @@
     </row>
     <row r="38" spans="3:5">
       <c r="C38" s="5">
-        <v>44107</v>
+        <v>44114</v>
       </c>
       <c r="D38" s="2">
-        <v>463</v>
+        <v>720</v>
       </c>
       <c r="E38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:5">
       <c r="C39" s="5">
-        <v>44106</v>
+        <v>44113</v>
       </c>
       <c r="D39" s="2">
-        <v>169</v>
+        <v>640</v>
       </c>
       <c r="E39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="3:5">
       <c r="C40" s="5">
-        <v>44105</v>
+        <v>44112</v>
       </c>
       <c r="D40" s="2">
-        <v>203</v>
+        <v>445</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -3948,10 +3972,10 @@
     </row>
     <row r="41" spans="3:5">
       <c r="C41" s="5">
-        <v>44104</v>
+        <v>44111</v>
       </c>
       <c r="D41" s="2">
-        <v>318</v>
+        <v>578</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -3959,10 +3983,10 @@
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="5">
-        <v>44103</v>
+        <v>44110</v>
       </c>
       <c r="D42" s="2">
-        <v>238</v>
+        <v>655</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -3970,10 +3994,10 @@
     </row>
     <row r="43" spans="3:5">
       <c r="C43" s="5">
-        <v>44102</v>
+        <v>44109</v>
       </c>
       <c r="D43" s="2">
-        <v>199</v>
+        <v>453</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -3981,10 +4005,10 @@
     </row>
     <row r="44" spans="3:5">
       <c r="C44" s="5">
-        <v>44101</v>
+        <v>44108</v>
       </c>
       <c r="D44" s="2">
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -3992,32 +4016,32 @@
     </row>
     <row r="45" spans="3:5">
       <c r="C45" s="5">
-        <v>44100</v>
+        <v>44107</v>
       </c>
       <c r="D45" s="2">
-        <v>242</v>
+        <v>463</v>
       </c>
       <c r="E45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="3:5">
       <c r="C46" s="5">
-        <v>44099</v>
+        <v>44106</v>
       </c>
       <c r="D46" s="2">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="E46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="3:5">
       <c r="C47" s="5">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="D47" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -4025,203 +4049,197 @@
     </row>
     <row r="48" spans="3:5">
       <c r="C48" s="5">
+        <v>44104</v>
+      </c>
+      <c r="D48" s="2">
+        <v>318</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="C49" s="5">
+        <v>44103</v>
+      </c>
+      <c r="D49" s="2">
+        <v>238</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="C50" s="5">
+        <v>44102</v>
+      </c>
+      <c r="D50" s="2">
+        <v>199</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="C51" s="5">
+        <v>44101</v>
+      </c>
+      <c r="D51" s="2">
+        <v>141</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" s="5">
+        <v>44100</v>
+      </c>
+      <c r="D52" s="2">
+        <v>242</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53" s="5">
+        <v>44099</v>
+      </c>
+      <c r="D53" s="2">
+        <v>217</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="C54" s="5">
+        <v>44098</v>
+      </c>
+      <c r="D54" s="2">
+        <v>211</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55" s="5">
         <v>44097</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D55" s="2">
         <v>189</v>
       </c>
-      <c r="E48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="C49" s="5">
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="C56" s="5">
         <v>44096</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D56" s="2">
         <v>311</v>
       </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="C50" s="5">
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="C57" s="5">
         <v>44095</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D57" s="2">
         <v>157</v>
       </c>
-      <c r="E50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="C51" s="5">
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="C58" s="5">
         <v>44094</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D58" s="2">
         <v>202</v>
       </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="C52" s="5">
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="C59" s="5">
         <v>44093</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D59" s="2">
         <v>190</v>
       </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="C53" s="5">
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5">
+      <c r="C60" s="5">
         <v>44092</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D60" s="2">
         <v>82</v>
       </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="C54" s="5">
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61" s="5">
         <v>44091</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D61" s="2">
         <v>137</v>
       </c>
-      <c r="E54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="C55" s="5">
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5">
+      <c r="C62" s="5">
         <v>44090</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D62" s="2">
         <v>125</v>
       </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="C56" s="5">
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5">
+      <c r="C63" s="5">
         <v>44089</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D63" s="2">
         <v>136</v>
       </c>
-      <c r="E56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="C57" s="5">
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5">
+      <c r="C64" s="5">
         <v>44088</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D64" s="2">
         <v>67</v>
       </c>
-      <c r="E57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="C58" s="5">
-        <v>44087</v>
-      </c>
-      <c r="D58" s="2">
-        <v>87</v>
-      </c>
-      <c r="E58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="C59" s="5">
-        <v>44086</v>
-      </c>
-      <c r="D59" s="2">
-        <v>46</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="C60" s="5">
-        <v>44085</v>
-      </c>
-      <c r="D60" s="2">
-        <v>70</v>
-      </c>
-      <c r="E60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="C61" s="5">
-        <v>44084</v>
-      </c>
-      <c r="D61" s="2">
-        <v>75</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="C62" s="5">
-        <v>44083</v>
-      </c>
-      <c r="D62" s="2">
-        <v>101</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="C63" s="5">
-        <v>44082</v>
-      </c>
-      <c r="D63" s="2">
-        <v>56</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="5">
-        <v>44081</v>
-      </c>
-      <c r="D64" s="2">
-        <v>46</v>
-      </c>
       <c r="E64" s="2">
         <v>0</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="C65" s="5">
-        <v>44080</v>
+        <v>44087</v>
       </c>
       <c r="D65" s="2">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -4229,617 +4247,564 @@
     </row>
     <row r="66" spans="1:7">
       <c r="C66" s="5">
+        <v>44086</v>
+      </c>
+      <c r="D66" s="2">
+        <v>46</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="C67" s="5">
+        <v>44085</v>
+      </c>
+      <c r="D67" s="2">
+        <v>70</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="C68" s="5">
+        <v>44084</v>
+      </c>
+      <c r="D68" s="2">
+        <v>75</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="C69" s="5">
+        <v>44083</v>
+      </c>
+      <c r="D69" s="2">
+        <v>101</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="C70" s="5">
+        <v>44082</v>
+      </c>
+      <c r="D70" s="2">
+        <v>56</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="5">
+        <v>44081</v>
+      </c>
+      <c r="D71" s="2">
+        <v>46</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="C72" s="5">
+        <v>44080</v>
+      </c>
+      <c r="D72" s="2">
+        <v>10</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="C73" s="5">
         <v>44079</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D73" s="2">
         <v>15</v>
       </c>
-      <c r="E66" s="2">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67">
+    <row r="74" spans="1:7">
+      <c r="A74">
         <f>4363/14</f>
         <v>311.64285714285717</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C74" s="5">
         <v>44078</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D74" s="2">
         <v>19</v>
       </c>
-      <c r="E67" s="2">
-        <v>0</v>
-      </c>
-      <c r="G67" s="6" t="s">
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="C68" s="5">
+    <row r="75" spans="1:7">
+      <c r="C75" s="5">
         <v>44077</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D75" s="2">
         <v>6</v>
       </c>
-      <c r="E68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
         <v>10</v>
       </c>
-      <c r="C69"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="8" t="str">
-        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C74&amp;" edelliset 7 päivää "&amp;A74&amp;" (muutos "&amp;A75&amp;"), "&amp;A81&amp;" ("&amp;A82&amp;"), "&amp;A88&amp;" ("&amp;A89&amp;"), "&amp;A95&amp;". Kumulatiivisesti N="&amp;G2&amp;" ja /7 arvioituna (*) avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 30.10 on n=367 edelliset 7 päivää 2297 (muutos -28 %), 3183 (-27 %), 4353 (23 %), 3528. Kumulatiivisesti N=17420 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2489, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
-      </c>
-      <c r="C70"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="8" t="str">
+        <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C81&amp;" edelliset 7 päivää "&amp;A81&amp;" (muutos "&amp;A82&amp;"), "&amp;A88&amp;" ("&amp;A89&amp;"), "&amp;A95&amp;" ("&amp;A96&amp;"), "&amp;A102&amp;". Kumulatiivisesti N="&amp;G2&amp;" ja /7 arvioituna (*) avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 31.10 on n=372 edelliset 7 päivää 2340 (muutos -21 %), 2975 (-29 %), 4170 (10 %), 3785. Kumulatiivisesti N=17798 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2543, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+      </c>
+      <c r="C77"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="8" t="str">
-        <f ca="1">TEXT(NOW(),"p.k.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C74&amp;"."</f>
-        <v>30.10.2020 uusia #koronavilkku päiväavaimia 367.</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="B73" s="3">
+      <c r="F79" s="8" t="str">
+        <f ca="1">TEXT(NOW(),"p.k.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C81&amp;"."</f>
+        <v>31.10.2020 uusia #koronavilkku päiväavaimia 372.</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="B80" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44135.29024988426</v>
-      </c>
-      <c r="C73" t="s">
+        <v>44136.589995138886</v>
+      </c>
+      <c r="C80" t="s">
         <v>1</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D80" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74">
-        <f ca="1">SUM(C74:C80)</f>
-        <v>2297</v>
-      </c>
-      <c r="B74" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B73)</f>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <f ca="1">SUM(C81:C87)</f>
+        <v>2340</v>
+      </c>
+      <c r="B81" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B80)</f>
+        <v>44135</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ref="C81:C114" ca="1" si="10">VLOOKUP(B81,data,2,FALSE)</f>
+        <v>372</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ref="D81:D93" ca="1" si="11">VLOOKUP(B81,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f ca="1">IF(C81&lt;C82,C81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f ca="1">COUNTIF(E81:E146,E81)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="9" t="str">
+        <f ca="1">TEXT(A81/A88-1,"0 %")</f>
+        <v>-21 %</v>
+      </c>
+      <c r="B82" s="3">
+        <f t="shared" ref="B82:B102" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B81)</f>
         <v>44134</v>
       </c>
-      <c r="C74">
-        <f t="shared" ref="C74:C107" ca="1" si="10">VLOOKUP(B74,data,2,FALSE)</f>
+      <c r="C82">
+        <f t="shared" ca="1" si="10"/>
         <v>367</v>
       </c>
-      <c r="D74">
-        <f t="shared" ref="D74:D86" ca="1" si="11">VLOOKUP(B74,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <f ca="1">IF(C74&lt;C75,C74,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <f ca="1">COUNTIF(E74:E130,E74)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="9" t="str">
-        <f ca="1">TEXT(A74/A81-1,"0 %")</f>
-        <v>-28 %</v>
-      </c>
-      <c r="B75" s="3">
-        <f t="shared" ref="B75:B95" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B74)</f>
+      <c r="D82">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f ca="1">IF(C82&gt;=E81,E81,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="B83" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>44133</v>
       </c>
-      <c r="C75">
+      <c r="C83">
         <f t="shared" ca="1" si="10"/>
         <v>353</v>
       </c>
-      <c r="D75">
+      <c r="D83">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="E75">
-        <f ca="1">IF(C75&gt;=E74,E74,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="B76" s="3">
+      <c r="E83">
+        <f t="shared" ref="E83:E127" ca="1" si="13">IF(C83&gt;E82,E82,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="B84" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44132</v>
       </c>
-      <c r="C76">
+      <c r="C84">
         <f t="shared" ca="1" si="10"/>
         <v>367</v>
       </c>
-      <c r="D76">
+      <c r="D84">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="E76">
-        <f t="shared" ref="E76:E120" ca="1" si="13">IF(C76&gt;E75,E75,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="B77" s="3">
+      <c r="E84">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="B85" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44131</v>
       </c>
-      <c r="C77">
+      <c r="C85">
         <f t="shared" ca="1" si="10"/>
         <v>260</v>
       </c>
-      <c r="D77">
+      <c r="D85">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="E77">
+      <c r="E85">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="B78" s="3">
+    <row r="86" spans="1:6">
+      <c r="B86" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44130</v>
       </c>
-      <c r="C78">
+      <c r="C86">
         <f t="shared" ca="1" si="10"/>
         <v>309</v>
       </c>
-      <c r="D78">
+      <c r="D86">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="E78">
+      <c r="E86">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="B79" s="3">
+    <row r="87" spans="1:6">
+      <c r="B87" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44129</v>
       </c>
-      <c r="C79">
+      <c r="C87">
         <f t="shared" ca="1" si="10"/>
         <v>312</v>
       </c>
-      <c r="D79">
+      <c r="D87">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="E79">
+      <c r="E87">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="B80" s="3">
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <f ca="1">SUM(C88:C94)</f>
+        <v>2975</v>
+      </c>
+      <c r="B88" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44128</v>
       </c>
-      <c r="C80">
+      <c r="C88">
         <f t="shared" ca="1" si="10"/>
         <v>329</v>
       </c>
-      <c r="D80">
+      <c r="D88">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="E80">
+      <c r="E88">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81">
-        <f ca="1">SUM(C81:C87)</f>
-        <v>3183</v>
-      </c>
-      <c r="B81" s="3">
+    <row r="89" spans="1:6">
+      <c r="A89" s="9" t="str">
+        <f ca="1">TEXT(A88/A95-1,"0 %")</f>
+        <v>-29 %</v>
+      </c>
+      <c r="B89" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44127</v>
       </c>
-      <c r="C81">
+      <c r="C89">
         <f t="shared" ca="1" si="10"/>
         <v>486</v>
       </c>
-      <c r="D81">
+      <c r="D89">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="E81">
+      <c r="E89">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="9" t="str">
-        <f ca="1">TEXT(A81/A88-1,"0 %")</f>
-        <v>-27 %</v>
-      </c>
-      <c r="B82" s="3">
+    <row r="90" spans="1:6">
+      <c r="B90" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44126</v>
       </c>
-      <c r="C82">
+      <c r="C90">
         <f t="shared" ca="1" si="10"/>
         <v>372</v>
       </c>
-      <c r="D82">
+      <c r="D90">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="E82">
+      <c r="E90">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="B83" s="3">
+    <row r="91" spans="1:6">
+      <c r="B91" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44125</v>
       </c>
-      <c r="C83">
+      <c r="C91">
         <f t="shared" ca="1" si="10"/>
         <v>446</v>
       </c>
-      <c r="D83">
+      <c r="D91">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="E83">
+      <c r="E91">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="B84" s="3">
+    <row r="92" spans="1:6">
+      <c r="B92" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44124</v>
       </c>
-      <c r="C84">
+      <c r="C92">
         <f t="shared" ca="1" si="10"/>
         <v>386</v>
       </c>
-      <c r="D84">
+      <c r="D92">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="E84">
+      <c r="E92">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="B85" s="3">
+    <row r="93" spans="1:6">
+      <c r="B93" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44123</v>
       </c>
-      <c r="C85">
+      <c r="C93">
         <f t="shared" ca="1" si="10"/>
         <v>421</v>
       </c>
-      <c r="D85">
+      <c r="D93">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="E85">
+      <c r="E93">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="B86" s="3">
+    <row r="94" spans="1:6">
+      <c r="B94" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44122</v>
       </c>
-      <c r="C86">
+      <c r="C94">
         <f t="shared" ca="1" si="10"/>
         <v>535</v>
       </c>
-      <c r="D86">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E86">
+      <c r="D94">
+        <f ca="1">VLOOKUP(B94,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E94">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="B87" s="3">
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <f ca="1">SUM(C95:C101)</f>
+        <v>4170</v>
+      </c>
+      <c r="B95" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44121</v>
       </c>
-      <c r="C87">
+      <c r="C95">
         <f t="shared" ca="1" si="10"/>
         <v>537</v>
       </c>
-      <c r="D87">
-        <f ca="1">VLOOKUP(B87,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E87">
+      <c r="D95">
+        <f t="shared" ref="D95:D101" ca="1" si="14">VLOOKUP(B95,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E95">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88">
-        <f ca="1">SUM(C88:C94)</f>
-        <v>4353</v>
-      </c>
-      <c r="B88" s="3">
+    <row r="96" spans="1:6">
+      <c r="A96" s="9" t="str">
+        <f ca="1">TEXT(A95/A102-1,"0 %")</f>
+        <v>10 %</v>
+      </c>
+      <c r="B96" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44120</v>
       </c>
-      <c r="C88">
+      <c r="C96">
         <f t="shared" ca="1" si="10"/>
         <v>639</v>
       </c>
-      <c r="D88">
-        <f t="shared" ref="D88:D94" ca="1" si="14">VLOOKUP(B88,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E88">
+      <c r="D96">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E96">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="9" t="str">
-        <f ca="1">TEXT(A88/A95-1,"0 %")</f>
-        <v>23 %</v>
-      </c>
-      <c r="B89" s="3">
+    <row r="97" spans="1:5">
+      <c r="B97" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44119</v>
       </c>
-      <c r="C89">
+      <c r="C97">
         <f t="shared" ca="1" si="10"/>
         <v>429</v>
       </c>
-      <c r="D89">
+      <c r="D97">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="E89">
+      <c r="E97">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="B90" s="3">
+    <row r="98" spans="1:5">
+      <c r="B98" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44118</v>
       </c>
-      <c r="C90">
+      <c r="C98">
         <f t="shared" ca="1" si="10"/>
         <v>559</v>
       </c>
-      <c r="D90">
+      <c r="D98">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="E90">
+      <c r="E98">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="B91" s="3">
+    <row r="99" spans="1:5">
+      <c r="B99" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44117</v>
       </c>
-      <c r="C91">
+      <c r="C99">
         <f t="shared" ca="1" si="10"/>
         <v>649</v>
       </c>
-      <c r="D91">
+      <c r="D99">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="E91">
+      <c r="E99">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="B92" s="3">
+    <row r="100" spans="1:5">
+      <c r="B100" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44116</v>
       </c>
-      <c r="C92">
+      <c r="C100">
         <f t="shared" ca="1" si="10"/>
         <v>691</v>
       </c>
-      <c r="D92">
+      <c r="D100">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="E92">
+      <c r="E100">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="B93" s="3">
+    <row r="101" spans="1:5">
+      <c r="B101" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>44115</v>
       </c>
-      <c r="C93">
+      <c r="C101">
         <f t="shared" ca="1" si="10"/>
         <v>666</v>
       </c>
-      <c r="D93">
+      <c r="D101">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
-      </c>
-      <c r="E93">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="B94" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
-      </c>
-      <c r="C94">
-        <f t="shared" ca="1" si="10"/>
-        <v>720</v>
-      </c>
-      <c r="D94">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95">
-        <f ca="1">SUM(C95:C101)</f>
-        <v>3528</v>
-      </c>
-      <c r="B95" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>44113</v>
-      </c>
-      <c r="C95">
-        <f t="shared" ca="1" si="10"/>
-        <v>640</v>
-      </c>
-      <c r="D95">
-        <f t="shared" ref="D95:D107" ca="1" si="15">VLOOKUP(B95,data,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="9" t="str">
-        <f ca="1">TEXT(A95/A102-1,"0 %")</f>
-        <v>134 %</v>
-      </c>
-      <c r="B96" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B95),1.8202)</f>
-        <v>44112</v>
-      </c>
-      <c r="C96">
-        <f t="shared" ca="1" si="10"/>
-        <v>445</v>
-      </c>
-      <c r="D96">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="B97" s="3">
-        <f t="shared" ref="B97:B130" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B96),44077)</f>
-        <v>44111</v>
-      </c>
-      <c r="C97">
-        <f t="shared" ca="1" si="10"/>
-        <v>578</v>
-      </c>
-      <c r="D97">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="B98" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>44110</v>
-      </c>
-      <c r="C98">
-        <f t="shared" ca="1" si="10"/>
-        <v>655</v>
-      </c>
-      <c r="D98">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="B99" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>44109</v>
-      </c>
-      <c r="C99">
-        <f t="shared" ca="1" si="10"/>
-        <v>453</v>
-      </c>
-      <c r="D99">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="7"/>
-      <c r="B100" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>44108</v>
-      </c>
-      <c r="C100">
-        <f t="shared" ca="1" si="10"/>
-        <v>294</v>
-      </c>
-      <c r="D100">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>44107</v>
-      </c>
-      <c r="C101">
-        <f t="shared" ca="1" si="10"/>
-        <v>463</v>
-      </c>
-      <c r="D101">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="13"/>
@@ -4849,18 +4814,18 @@
     <row r="102" spans="1:5">
       <c r="A102">
         <f ca="1">SUM(C102:C108)</f>
-        <v>1510</v>
+        <v>3785</v>
       </c>
       <c r="B102" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>44106</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44114</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>720</v>
       </c>
       <c r="D102">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="D102:D114" ca="1" si="15">VLOOKUP(B102,data,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E102">
@@ -4871,19 +4836,19 @@
     <row r="103" spans="1:5">
       <c r="A103" s="9" t="str">
         <f ca="1">TEXT(A102/A109-1,"0 %")</f>
-        <v>2 %</v>
+        <v>119 %</v>
       </c>
       <c r="B103" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>44105</v>
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B102),1.8202)</f>
+        <v>44113</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>640</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="13"/>
@@ -4892,12 +4857,12 @@
     </row>
     <row r="104" spans="1:5">
       <c r="B104" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>44104</v>
+        <f t="shared" ref="B104:B146" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B103),44077)</f>
+        <v>44112</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>445</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="15"/>
@@ -4911,11 +4876,11 @@
     <row r="105" spans="1:5">
       <c r="B105" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44103</v>
+        <v>44111</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>578</v>
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="15"/>
@@ -4929,11 +4894,11 @@
     <row r="106" spans="1:5">
       <c r="B106" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44102</v>
+        <v>44110</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>655</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="15"/>
@@ -4945,13 +4910,14 @@
       </c>
     </row>
     <row r="107" spans="1:5">
+      <c r="A107" s="7"/>
       <c r="B107" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44101</v>
+        <v>44109</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>453</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="15"/>
@@ -4963,16 +4929,17 @@
       </c>
     </row>
     <row r="108" spans="1:5">
+      <c r="A108" s="3"/>
       <c r="B108" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44100</v>
+        <v>44108</v>
       </c>
       <c r="C108">
-        <f t="shared" ref="C108" ca="1" si="17">VLOOKUP(B108,data,2,FALSE)</f>
-        <v>242</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>294</v>
       </c>
       <c r="D108">
-        <f t="shared" ref="D108" ca="1" si="18">VLOOKUP(B108,data,3,FALSE)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="E108">
@@ -4983,18 +4950,18 @@
     <row r="109" spans="1:5">
       <c r="A109">
         <f ca="1">SUM(C109:C115)</f>
-        <v>1477</v>
+        <v>1731</v>
       </c>
       <c r="B109" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44099</v>
+        <v>44107</v>
       </c>
       <c r="C109">
-        <f t="shared" ref="C109:C111" ca="1" si="19">VLOOKUP(B109,data,2,FALSE)</f>
-        <v>217</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>463</v>
       </c>
       <c r="D109">
-        <f t="shared" ref="D109:D111" ca="1" si="20">VLOOKUP(B109,data,3,FALSE)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E109">
@@ -5005,18 +4972,18 @@
     <row r="110" spans="1:5">
       <c r="A110" s="9" t="str">
         <f ca="1">TEXT(A109/A116-1,"0 %")</f>
-        <v>117 %</v>
+        <v>13 %</v>
       </c>
       <c r="B110" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44098</v>
+        <v>44106</v>
       </c>
       <c r="C110">
-        <f t="shared" ca="1" si="19"/>
-        <v>211</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>169</v>
       </c>
       <c r="D110">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="E110">
@@ -5027,14 +4994,14 @@
     <row r="111" spans="1:5">
       <c r="B111" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44097</v>
+        <v>44105</v>
       </c>
       <c r="C111">
-        <f t="shared" ca="1" si="19"/>
-        <v>189</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>203</v>
       </c>
       <c r="D111">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="E111">
@@ -5045,14 +5012,14 @@
     <row r="112" spans="1:5">
       <c r="B112" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44096</v>
+        <v>44104</v>
       </c>
       <c r="C112">
-        <f t="shared" ref="C112:C116" ca="1" si="21">VLOOKUP(B112,data,2,FALSE)</f>
-        <v>311</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>318</v>
       </c>
       <c r="D112">
-        <f t="shared" ref="D112:D120" ca="1" si="22">VLOOKUP(B112,data,3,FALSE)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="E112">
@@ -5063,14 +5030,14 @@
     <row r="113" spans="1:5">
       <c r="B113" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44095</v>
+        <v>44103</v>
       </c>
       <c r="C113">
-        <f t="shared" ca="1" si="21"/>
-        <v>157</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>238</v>
       </c>
       <c r="D113">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="E113">
@@ -5081,14 +5048,14 @@
     <row r="114" spans="1:5">
       <c r="B114" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="C114">
-        <f t="shared" ca="1" si="21"/>
-        <v>202</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>199</v>
       </c>
       <c r="D114">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="E114">
@@ -5099,14 +5066,14 @@
     <row r="115" spans="1:5">
       <c r="B115" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44093</v>
+        <v>44101</v>
       </c>
       <c r="C115">
-        <f t="shared" ca="1" si="21"/>
-        <v>190</v>
+        <f t="shared" ref="C115" ca="1" si="17">VLOOKUP(B115,data,2,FALSE)</f>
+        <v>141</v>
       </c>
       <c r="D115">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ref="D115" ca="1" si="18">VLOOKUP(B115,data,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E115">
@@ -5117,18 +5084,18 @@
     <row r="116" spans="1:5">
       <c r="A116">
         <f ca="1">SUM(C116:C122)</f>
-        <v>680</v>
+        <v>1529</v>
       </c>
       <c r="B116" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44092</v>
+        <v>44100</v>
       </c>
       <c r="C116">
-        <f t="shared" ca="1" si="21"/>
-        <v>82</v>
+        <f t="shared" ref="C116:C118" ca="1" si="19">VLOOKUP(B116,data,2,FALSE)</f>
+        <v>242</v>
       </c>
       <c r="D116">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ref="D116:D118" ca="1" si="20">VLOOKUP(B116,data,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E116">
@@ -5137,17 +5104,21 @@
       </c>
     </row>
     <row r="117" spans="1:5">
+      <c r="A117" s="9" t="str">
+        <f ca="1">TEXT(A116/A123-1,"0 %")</f>
+        <v>86 %</v>
+      </c>
       <c r="B117" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44091</v>
+        <v>44099</v>
       </c>
       <c r="C117">
-        <f t="shared" ref="C117:C120" ca="1" si="23">IF(B117&lt;&gt;B116,VLOOKUP(B117,data,2,FALSE),"")</f>
-        <v>137</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>217</v>
       </c>
       <c r="D117">
-        <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>1</v>
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="13"/>
@@ -5157,14 +5128,14 @@
     <row r="118" spans="1:5">
       <c r="B118" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44090</v>
+        <v>44098</v>
       </c>
       <c r="C118">
-        <f t="shared" ca="1" si="23"/>
-        <v>125</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>211</v>
       </c>
       <c r="D118">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="E118">
@@ -5175,14 +5146,14 @@
     <row r="119" spans="1:5">
       <c r="B119" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44089</v>
+        <v>44097</v>
       </c>
       <c r="C119">
-        <f t="shared" ca="1" si="23"/>
-        <v>136</v>
+        <f t="shared" ref="C119:C123" ca="1" si="21">VLOOKUP(B119,data,2,FALSE)</f>
+        <v>189</v>
       </c>
       <c r="D119">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ref="D119:D127" ca="1" si="22">VLOOKUP(B119,data,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E119">
@@ -5193,11 +5164,11 @@
     <row r="120" spans="1:5">
       <c r="B120" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44088</v>
+        <v>44096</v>
       </c>
       <c r="C120">
-        <f t="shared" ca="1" si="23"/>
-        <v>67</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>311</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="22"/>
@@ -5211,155 +5182,159 @@
     <row r="121" spans="1:5">
       <c r="B121" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44087</v>
+        <v>44095</v>
       </c>
       <c r="C121">
-        <f t="shared" ref="C121:C130" ca="1" si="24">IF(B121&lt;&gt;B120,VLOOKUP(B121,data,2,FALSE),"")</f>
-        <v>87</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>157</v>
       </c>
       <c r="D121">
-        <f t="shared" ref="D121:D130" ca="1" si="25">VLOOKUP(B121,data,3,FALSE)</f>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" ref="E121:E130" ca="1" si="26">IF(C121&gt;E120,E120,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="B122" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44086</v>
+        <v>44094</v>
       </c>
       <c r="C122">
-        <f t="shared" ca="1" si="24"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>202</v>
       </c>
       <c r="D122">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="E122">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5">
+      <c r="A123">
+        <f ca="1">SUM(C123:C129)</f>
+        <v>824</v>
+      </c>
       <c r="B123" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44085</v>
+        <v>44093</v>
       </c>
       <c r="C123">
-        <f t="shared" ca="1" si="24"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>190</v>
       </c>
       <c r="D123">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="B124" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44084</v>
+        <v>44092</v>
       </c>
       <c r="C124">
-        <f t="shared" ca="1" si="24"/>
-        <v>75</v>
+        <f t="shared" ref="C124:C127" ca="1" si="23">IF(B124&lt;&gt;B123,VLOOKUP(B124,data,2,FALSE),"")</f>
+        <v>82</v>
       </c>
       <c r="D124">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="B125" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44083</v>
+        <v>44091</v>
       </c>
       <c r="C125">
-        <f t="shared" ca="1" si="24"/>
-        <v>101</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>137</v>
       </c>
       <c r="D125">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="B126" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44082</v>
+        <v>44090</v>
       </c>
       <c r="C126">
-        <f t="shared" ca="1" si="24"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>125</v>
       </c>
       <c r="D126">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="E126">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="B127" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44081</v>
+        <v>44089</v>
       </c>
       <c r="C127">
-        <f t="shared" ca="1" si="24"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>136</v>
       </c>
       <c r="D127">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="B128" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44080</v>
+        <v>44088</v>
       </c>
       <c r="C128">
-        <f t="shared" ca="1" si="24"/>
-        <v>10</v>
+        <f t="shared" ref="C128:C136" ca="1" si="24">IF(B128&lt;&gt;B127,VLOOKUP(B128,data,2,FALSE),"")</f>
+        <v>67</v>
       </c>
       <c r="D128">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ref="D128:D146" ca="1" si="25">VLOOKUP(B128,data,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ref="E128:E136" ca="1" si="26">IF(C128&gt;E127,E127,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="2:5">
       <c r="B129" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44079</v>
+        <v>44087</v>
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="24"/>
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="25"/>
@@ -5373,11 +5348,11 @@
     <row r="130" spans="2:5">
       <c r="B130" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44078</v>
+        <v>44086</v>
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="24"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="25"/>
@@ -5389,21 +5364,309 @@
       </c>
     </row>
     <row r="131" spans="2:5">
-      <c r="B131" s="3"/>
-      <c r="C131"/>
+      <c r="B131" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44085</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ca="1" si="24"/>
+        <v>70</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="2:5">
-      <c r="B132" s="3"/>
-      <c r="C132"/>
+      <c r="B132" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44084</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ca="1" si="24"/>
+        <v>75</v>
+      </c>
+      <c r="D132">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44083</v>
+      </c>
+      <c r="C133">
+        <f t="shared" ca="1" si="24"/>
+        <v>101</v>
+      </c>
+      <c r="D133">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44082</v>
+      </c>
+      <c r="C134">
+        <f t="shared" ca="1" si="24"/>
+        <v>56</v>
+      </c>
+      <c r="D134">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44081</v>
+      </c>
+      <c r="C135">
+        <f t="shared" ca="1" si="24"/>
+        <v>46</v>
+      </c>
+      <c r="D135">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44080</v>
+      </c>
+      <c r="C136">
+        <f t="shared" ca="1" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44079</v>
+      </c>
+      <c r="C137">
+        <f t="shared" ref="C137:C146" ca="1" si="27">IF(B137&lt;&gt;B136,VLOOKUP(B137,data,2,FALSE),"")</f>
+        <v>15</v>
+      </c>
+      <c r="D137">
+        <f t="shared" ref="D137:D146" ca="1" si="28">VLOOKUP(B137,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <f t="shared" ref="E137:E146" ca="1" si="29">IF(C137&gt;E136,E136,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44078</v>
+      </c>
+      <c r="C138">
+        <f t="shared" ca="1" si="27"/>
+        <v>19</v>
+      </c>
+      <c r="D138">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44077</v>
+      </c>
+      <c r="C139">
+        <f t="shared" ca="1" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="D139">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44077</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="D140">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44077</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="D141">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44077</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="D142">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44077</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="D143">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44077</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="D144">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44077</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="D145">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44077</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="D146">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="3"/>
+      <c r="C147"/>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="3"/>
+      <c r="C148"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C51:D63">
-    <sortCondition descending="1" ref="C51:C63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C58:D70">
+    <sortCondition descending="1" ref="C58:C70"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G64" r:id="rId1" location="Koronavilkkua" display="https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin - Koronavilkkua" xr:uid="{F06E6CD0-5429-431D-B74B-547C41718C4B}"/>
-    <hyperlink ref="A64" r:id="rId2" xr:uid="{517C9E3A-E5DB-4E26-91C6-74B95F09EC29}"/>
-    <hyperlink ref="G67" r:id="rId3" xr:uid="{3C2C00FB-7ED4-4D75-B3CB-111EF0AE4BA3}"/>
+    <hyperlink ref="G71" r:id="rId1" location="Koronavilkkua" display="https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin - Koronavilkkua" xr:uid="{F06E6CD0-5429-431D-B74B-547C41718C4B}"/>
+    <hyperlink ref="A71" r:id="rId2" xr:uid="{517C9E3A-E5DB-4E26-91C6-74B95F09EC29}"/>
+    <hyperlink ref="G74" r:id="rId3" xr:uid="{3C2C00FB-7ED4-4D75-B3CB-111EF0AE4BA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>

--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910524CA-F9DB-4868-B5CD-40E9BAD336CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DA04B7-7209-4B6F-A04D-2C4331962F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Android" sheetId="1" r:id="rId1"/>
+    <sheet name="Compare" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="AllKeys">Android!$C$81:$C$146</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>timestamp</t>
   </si>
@@ -90,15 +91,199 @@
     <t>Avauskoodin arvioinnista, oireista -2 päivää eteenpäin jaetaan käyttäjille:</t>
   </si>
   <si>
-    <t>[{"timestamp":"31. lokakuuta 2020 klo 6.26","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"+auwlRUBjwMUj9Zt18cSKN\/nJXa4QH4tjtEpsOsHvGQ="},{"timestamp":"30. lokakuuta 2020 klo 6.22","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"bBcjOzvbto3qcWqUykDf0FaMOIgCbg+sVYGquz6nLTA="},{"timestamp":"29. lokakuuta 2020 klo 6.09","keyCount":353,"matchesCount":0,"appName":"Koronavilkku","hash":"mJ7sSINsdoPvS2a9pLCQKtvOBsGbAUOMMCA5cIcpRSk="},{"timestamp":"28. lokakuuta 2020 klo 8.21","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"8dBdeK0Gwzy7W2jo5u6W5wnWCNeHuRzLfObXxwYDWYc="},{"timestamp":"27. lokakuuta 2020 klo 8.10","keyCount":260,"matchesCount":0,"appName":"Koronavilkku","hash":"+ohL5VuTmBUV6\/Z\/P+bkoV6gMjJkLLXIu9i2wnPtW7A="},{"timestamp":"26. lokakuuta 2020 klo 8.06","keyCount":309,"matchesCount":0,"appName":"Koronavilkku","hash":"o1jUaoLy7sjjnI6r87C9qbQfT0Pej3LoGAXxaVZqg+s="},{"timestamp":"25. lokakuuta 2020 klo 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24. lokakuuta 2020 klo 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23. lokakuuta 2020 klo 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22. lokakuuta 2020 klo 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21. lokakuuta 2020 klo 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20. lokakuuta 2020 klo 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19. lokakuuta 2020 klo 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18. lokakuuta 2020 klo 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="},{"timestamp":"17. lokakuuta 2020 klo 8.52","keyCount":537,"matchesCount":0,"appName":"Koronavilkku","hash":"JD\/pTFrILgHXr0IJkOUBqntAFS\/q38Kkp80yWr+A12g="},{"timestamp":"16. lokakuuta 2020 klo 8.53","keyCount":639,"matchesCount":0,"appName":"Koronavilkku","hash":"E1obwr3PITP+C1Y7XeCf7PEe4L7Q5CpPM4k8W05frtg="}]</t>
+    <t>2020-09-03T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-04T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-05T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-06T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-07T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-08T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-09T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-10T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-11T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-12T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-13T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-14T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-15T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-16T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-17T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-18T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-19T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-20T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-21T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-22T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-24T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-27T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-28T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-29T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-09-30T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-01T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-02T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-03T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-04T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-05T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-06T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-07T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-08T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-09T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-10T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-11T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-12T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-13T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-14T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-15T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-16T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-17T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-18T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-19T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-20T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-21T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-22T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-23T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-24T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-25T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-26T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-27T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-28T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-29T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-30T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-10-31T10:08:38.846Z</t>
+  </si>
+  <si>
+    <t>Päiväavaimia</t>
+  </si>
+  <si>
+    <t>COVID-19  tapauksia</t>
+  </si>
+  <si>
+    <t>[{"timestamp":"2. marraskuuta 2020 klo 9.00","keyCount":241,"matchesCount":0,"appName":"Koronavilkku","hash":"bDKcgFmXE\/dKf9gDsKDbRfkZ4ARh6mIzF6Zwgxnu0UE="},{"timestamp":"1. marraskuuta 2020 klo 8.58","keyCount":240,"matchesCount":0,"appName":"Koronavilkku","hash":"YXGW9r8u8QC7E4C\/ha3e4syXeMN6h24mTXBxoU\/xktg="},{"timestamp":"31. lokakuuta 2020 klo 6.26","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"+auwlRUBjwMUj9Zt18cSKN\/nJXa4QH4tjtEpsOsHvGQ="},{"timestamp":"30. lokakuuta 2020 klo 6.22","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"bBcjOzvbto3qcWqUykDf0FaMOIgCbg+sVYGquz6nLTA="},{"timestamp":"29. lokakuuta 2020 klo 6.09","keyCount":353,"matchesCount":0,"appName":"Koronavilkku","hash":"mJ7sSINsdoPvS2a9pLCQKtvOBsGbAUOMMCA5cIcpRSk="},{"timestamp":"28. lokakuuta 2020 klo 8.21","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"8dBdeK0Gwzy7W2jo5u6W5wnWCNeHuRzLfObXxwYDWYc="},{"timestamp":"27. lokakuuta 2020 klo 8.10","keyCount":260,"matchesCount":0,"appName":"Koronavilkku","hash":"+ohL5VuTmBUV6\/Z\/P+bkoV6gMjJkLLXIu9i2wnPtW7A="},{"timestamp":"26. lokakuuta 2020 klo 8.06","keyCount":309,"matchesCount":0,"appName":"Koronavilkku","hash":"o1jUaoLy7sjjnI6r87C9qbQfT0Pej3LoGAXxaVZqg+s="},{"timestamp":"25. lokakuuta 2020 klo 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24. lokakuuta 2020 klo 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23. lokakuuta 2020 klo 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22. lokakuuta 2020 klo 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21. lokakuuta 2020 klo 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20. lokakuuta 2020 klo 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19. lokakuuta 2020 klo 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18. lokakuuta 2020 klo 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="d/m/;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -163,7 +348,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -175,6 +360,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -375,46 +561,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>2. marraskuuta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1. marraskuuta</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>31. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>30. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>29. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>28. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>27. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>26. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>25. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>24. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>23. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>22. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>21. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>20. lokakuuta</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19. lokakuuta</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18. lokakuuta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -426,46 +612,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +854,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>31.10.2020 uusia #koronavilkku päiväavaimia 372.</c:v>
+              <c:v>2.11.2020 uusia #koronavilkku päiväavaimia 241.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -717,8 +903,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.9546978807286158E-2"/>
-          <c:y val="5.2053032410722969E-2"/>
+          <c:x val="3.3597596726529275E-2"/>
+          <c:y val="2.0306976858125377E-2"/>
           <c:w val="0.95771026668114068"/>
           <c:h val="0.83050480977738517"/>
         </c:manualLayout>
@@ -755,7 +941,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -777,6 +963,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DADA-42D0-9FAD-17B17734A2C3}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -802,6 +991,9 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-DADA-42D0-9FAD-17B17734A2C3}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -820,6 +1012,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DADA-42D0-9FAD-17B17734A2C3}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -844,10 +1039,52 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="60"/>
+              <c:idx val="57"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.1044200166972393E-3"/>
+                  <c:x val="-2.3797384199024083E-2"/>
+                  <c:y val="5.3968294439415899E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-DADA-42D0-9FAD-17B17734A2C3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="58"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3088561309463245E-2"/>
+                  <c:y val="5.0793688884156141E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-DADA-42D0-9FAD-17B17734A2C3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="59"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.329084469658429E-3"/>
                   <c:y val="-4.7619083328896444E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -859,6 +1096,30 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-DADA-42D0-9FAD-17B17734A2C3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="60"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4091626674881623E-2"/>
+                  <c:y val="4.7619083328896382E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-DADA-42D0-9FAD-17B17734A2C3}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -877,14 +1138,17 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-DADA-42D0-9FAD-17B17734A2C3}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="62"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.6417680066788957E-2"/>
-                  <c:y val="3.1746055552597588E-2"/>
+                  <c:x val="-3.6417680444602592E-2"/>
+                  <c:y val="0.14920646109720856"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -895,6 +1159,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-DADA-42D0-9FAD-17B17734A2C3}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -913,14 +1180,17 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-DADA-42D0-9FAD-17B17734A2C3}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="64"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.2025257238269944E-3"/>
-                  <c:y val="5.3968294439415899E-2"/>
+                  <c:x val="-5.2025391621559379E-3"/>
+                  <c:y val="-7.9365138881493977E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -931,14 +1201,17 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-DADA-42D0-9FAD-17B17734A2C3}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="65"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.8672315435281258E-3"/>
-                  <c:y val="-8.7707352361469093E-2"/>
+                  <c:x val="-5.677362560268749E-3"/>
+                  <c:y val="3.6102264293661514E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -984,6 +1257,9 @@
                       <c:h val="6.0270011451077202E-2"/>
                     </c:manualLayout>
                   </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-DADA-42D0-9FAD-17B17734A2C3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1064,184 +1340,184 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>44135</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>44134</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>44133</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>44132</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>44131</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>44130</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>44129</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>44128</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>44127</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>44126</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>44125</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>44124</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>44123</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>44122</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>44121</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>44120</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>44119</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>44077</c:v>
@@ -1271,187 +1547,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0</c:v>
@@ -1649,6 +1925,1115 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>#koronavilkku</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> päiväavaimia suhteessa raportoituihin</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>COVID-19 tapauksiin</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Päiväavaimia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$A$2:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>d/m/;@</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$B$2:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="3">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A52F-4725-93C7-368CE9ACD1A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COVID-19  tapauksia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$A$2:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>d/m/;@</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$C$2:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="3">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A52F-4725-93C7-368CE9ACD1A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="632215448"/>
+        <c:axId val="632217416"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="632215448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d/m/;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632217416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="632217416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632215448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1729,6 +3114,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -2236,6 +3661,509 @@
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2780,13 +4708,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>179615</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>146958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>522514</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>81641</xdr:rowOff>
+      <xdr:rowOff>76198</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2806,6 +4734,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>587830</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>59870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>527957</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5AA47D-64FA-42DD-9220-E7D7D9472A48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3114,8 +5083,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -3141,16 +5110,16 @@
       </c>
       <c r="G2">
         <f ca="1">SUM(AllKeys)</f>
-        <v>17798</v>
+        <v>18279</v>
       </c>
       <c r="H2" s="10">
         <f ca="1">G2/7</f>
-        <v>2542.5714285714284</v>
+        <v>2611.2857142857142</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -3184,15 +5153,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>31. lokakuuta</v>
+        <v>2. marraskuuta</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44135</v>
+        <v>44137</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>372</v>
+        <v>241</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -3204,37 +5173,37 @@
       </c>
       <c r="H9">
         <f t="shared" ref="H9:H22" si="3">FIND("2020",Json,G9)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I22" si="4">FIND("keyCount",Json,H9)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J22" si="5">FIND(",""",Json,I9)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K22" si="6">FIND("matchesCount",Json,J9)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L22" si="7">FIND(",""",Json,K9)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>30. lokakuuta</v>
+        <v>1. marraskuuta</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>367</v>
+        <v>240</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -3242,41 +5211,41 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>29. lokakuuta</v>
+        <v>31. lokakuuta</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44133</v>
+        <v>44135</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -3284,37 +5253,37 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>28. lokakuuta</v>
+        <v>30. lokakuuta</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44132</v>
+        <v>44134</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
@@ -3326,41 +5295,41 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>27. lokakuuta</v>
+        <v>29. lokakuuta</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>353</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3368,41 +5337,41 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26. lokakuuta</v>
+        <v>28. lokakuuta</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44130</v>
+        <v>44132</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>309</v>
+        <v>367</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3410,83 +5379,83 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25. lokakuuta</v>
+        <v>27. lokakuuta</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44129</v>
+        <v>44131</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24. lokakuuta</v>
+        <v>26. lokakuuta</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44128</v>
+        <v>44130</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3494,83 +5463,83 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1118</v>
+        <v>1123</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1149</v>
+        <v>1154</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1164</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23. lokakuuta</v>
+        <v>25. lokakuuta</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44127</v>
+        <v>44129</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>312</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1321</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22. lokakuuta</v>
+        <v>24. lokakuuta</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44126</v>
+        <v>44128</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3578,41 +5547,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21. lokakuuta</v>
+        <v>23. lokakuuta</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44125</v>
+        <v>44127</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3620,41 +5589,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1633</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20. lokakuuta</v>
+        <v>22. lokakuuta</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44124</v>
+        <v>44126</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3662,41 +5631,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1788</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19. lokakuuta</v>
+        <v>21. lokakuuta</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44123</v>
+        <v>44125</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3704,41 +5673,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1914</v>
+        <v>1918</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1944</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18. lokakuuta</v>
+        <v>20. lokakuuta</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44122</v>
+        <v>44124</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>535</v>
+        <v>386</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3746,27 +5715,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2101</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4380,7 +6349,7 @@
     <row r="77" spans="1:7">
       <c r="A77" s="8" t="str">
         <f ca="1">"Uusien #koronavilkku päiväavaimien lukumäärä "&amp;TEXT(NOW(),"p.kk")&amp;" on n="&amp;C81&amp;" edelliset 7 päivää "&amp;A81&amp;" (muutos "&amp;A82&amp;"), "&amp;A88&amp;" ("&amp;A89&amp;"), "&amp;A95&amp;" ("&amp;A96&amp;"), "&amp;A102&amp;". Kumulatiivisesti N="&amp;G2&amp;" ja /7 arvioituna (*) avauskoodeja jaettu vähintään "&amp;TEXT(H2,"0")&amp;", https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks"</f>
-        <v>Uusien #koronavilkku päiväavaimien lukumäärä 31.10 on n=372 edelliset 7 päivää 2340 (muutos -21 %), 2975 (-29 %), 4170 (10 %), 3785. Kumulatiivisesti N=17798 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2543, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
+        <v>Uusien #koronavilkku päiväavaimien lukumäärä 2.11 on n=241 edelliset 7 päivää 2200 (muutos -17 %), 2640 (-30 %), 3769 (-14 %), 4395. Kumulatiivisesti N=18279 ja /7 arvioituna (*) avauskoodeja jaettu vähintään 2611, https://github.com/jussivirkkala/excel/tree/master/all-exposure-checks</v>
       </c>
       <c r="C77"/>
     </row>
@@ -4390,13 +6359,13 @@
       </c>
       <c r="F79" s="8" t="str">
         <f ca="1">TEXT(NOW(),"p.k.vvvv")&amp;" uusia #koronavilkku päiväavaimia "&amp;C81&amp;"."</f>
-        <v>31.10.2020 uusia #koronavilkku päiväavaimia 372.</v>
+        <v>2.11.2020 uusia #koronavilkku päiväavaimia 241.</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44136.589995138886</v>
+        <v>44138.413110416666</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -4408,15 +6377,15 @@
     <row r="81" spans="1:6">
       <c r="A81">
         <f ca="1">SUM(C81:C87)</f>
-        <v>2340</v>
+        <v>2200</v>
       </c>
       <c r="B81" s="3">
         <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B80)</f>
-        <v>44135</v>
+        <v>44137</v>
       </c>
       <c r="C81">
         <f t="shared" ref="C81:C114" ca="1" si="10">VLOOKUP(B81,data,2,FALSE)</f>
-        <v>372</v>
+        <v>241</v>
       </c>
       <c r="D81">
         <f t="shared" ref="D81:D93" ca="1" si="11">VLOOKUP(B81,data,3,FALSE)</f>
@@ -4434,15 +6403,15 @@
     <row r="82" spans="1:6">
       <c r="A82" s="9" t="str">
         <f ca="1">TEXT(A81/A88-1,"0 %")</f>
-        <v>-21 %</v>
+        <v>-17 %</v>
       </c>
       <c r="B82" s="3">
         <f t="shared" ref="B82:B102" ca="1" si="12">_xlfn.MAXIFS(time,time,"&lt;"&amp;B81)</f>
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>367</v>
+        <v>240</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="11"/>
@@ -4456,11 +6425,11 @@
     <row r="83" spans="1:6">
       <c r="B83" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44133</v>
+        <v>44135</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="11"/>
@@ -4474,7 +6443,7 @@
     <row r="84" spans="1:6">
       <c r="B84" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44132</v>
+        <v>44134</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
@@ -4492,11 +6461,11 @@
     <row r="85" spans="1:6">
       <c r="B85" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>260</v>
+        <v>353</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="11"/>
@@ -4510,11 +6479,11 @@
     <row r="86" spans="1:6">
       <c r="B86" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44130</v>
+        <v>44132</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>309</v>
+        <v>367</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="11"/>
@@ -4528,15 +6497,15 @@
     <row r="87" spans="1:6">
       <c r="B87" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44129</v>
+        <v>44131</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="13"/>
@@ -4546,15 +6515,15 @@
     <row r="88" spans="1:6">
       <c r="A88">
         <f ca="1">SUM(C88:C94)</f>
-        <v>2975</v>
+        <v>2640</v>
       </c>
       <c r="B88" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44128</v>
+        <v>44130</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="11"/>
@@ -4568,19 +6537,19 @@
     <row r="89" spans="1:6">
       <c r="A89" s="9" t="str">
         <f ca="1">TEXT(A88/A95-1,"0 %")</f>
-        <v>-29 %</v>
+        <v>-30 %</v>
       </c>
       <c r="B89" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44127</v>
+        <v>44129</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>486</v>
+        <v>312</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="13"/>
@@ -4590,11 +6559,11 @@
     <row r="90" spans="1:6">
       <c r="B90" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44126</v>
+        <v>44128</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="11"/>
@@ -4608,11 +6577,11 @@
     <row r="91" spans="1:6">
       <c r="B91" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44125</v>
+        <v>44127</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="11"/>
@@ -4626,11 +6595,11 @@
     <row r="92" spans="1:6">
       <c r="B92" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44124</v>
+        <v>44126</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="11"/>
@@ -4644,11 +6613,11 @@
     <row r="93" spans="1:6">
       <c r="B93" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44123</v>
+        <v>44125</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="11"/>
@@ -4662,11 +6631,11 @@
     <row r="94" spans="1:6">
       <c r="B94" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44122</v>
+        <v>44124</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="10"/>
-        <v>535</v>
+        <v>386</v>
       </c>
       <c r="D94">
         <f ca="1">VLOOKUP(B94,data,3,FALSE)</f>
@@ -4680,15 +6649,15 @@
     <row r="95" spans="1:6">
       <c r="A95">
         <f ca="1">SUM(C95:C101)</f>
-        <v>4170</v>
+        <v>3769</v>
       </c>
       <c r="B95" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44121</v>
+        <v>44123</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="10"/>
-        <v>537</v>
+        <v>421</v>
       </c>
       <c r="D95">
         <f t="shared" ref="D95:D101" ca="1" si="14">VLOOKUP(B95,data,3,FALSE)</f>
@@ -4702,15 +6671,15 @@
     <row r="96" spans="1:6">
       <c r="A96" s="9" t="str">
         <f ca="1">TEXT(A95/A102-1,"0 %")</f>
-        <v>10 %</v>
+        <v>-14 %</v>
       </c>
       <c r="B96" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44120</v>
+        <v>44122</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="10"/>
-        <v>639</v>
+        <v>535</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="14"/>
@@ -4724,11 +6693,11 @@
     <row r="97" spans="1:5">
       <c r="B97" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44119</v>
+        <v>44121</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="10"/>
-        <v>429</v>
+        <v>537</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="14"/>
@@ -4742,11 +6711,11 @@
     <row r="98" spans="1:5">
       <c r="B98" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44118</v>
+        <v>44120</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="10"/>
-        <v>559</v>
+        <v>639</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="14"/>
@@ -4760,11 +6729,11 @@
     <row r="99" spans="1:5">
       <c r="B99" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44117</v>
+        <v>44119</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="10"/>
-        <v>649</v>
+        <v>429</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="14"/>
@@ -4778,11 +6747,11 @@
     <row r="100" spans="1:5">
       <c r="B100" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44116</v>
+        <v>44118</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="10"/>
-        <v>691</v>
+        <v>559</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="14"/>
@@ -4796,11 +6765,11 @@
     <row r="101" spans="1:5">
       <c r="B101" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44115</v>
+        <v>44117</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="10"/>
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="14"/>
@@ -4814,15 +6783,15 @@
     <row r="102" spans="1:5">
       <c r="A102">
         <f ca="1">SUM(C102:C108)</f>
-        <v>3785</v>
+        <v>4395</v>
       </c>
       <c r="B102" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44114</v>
+        <v>44116</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="D102">
         <f t="shared" ref="D102:D114" ca="1" si="15">VLOOKUP(B102,data,3,FALSE)</f>
@@ -4836,19 +6805,19 @@
     <row r="103" spans="1:5">
       <c r="A103" s="9" t="str">
         <f ca="1">TEXT(A102/A109-1,"0 %")</f>
-        <v>119 %</v>
+        <v>106 %</v>
       </c>
       <c r="B103" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B102),1.8202)</f>
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="10"/>
-        <v>640</v>
+        <v>666</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="13"/>
@@ -4858,11 +6827,11 @@
     <row r="104" spans="1:5">
       <c r="B104" s="3">
         <f t="shared" ref="B104:B146" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B103),44077)</f>
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="10"/>
-        <v>445</v>
+        <v>720</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="15"/>
@@ -4876,15 +6845,15 @@
     <row r="105" spans="1:5">
       <c r="B105" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44111</v>
+        <v>44113</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="10"/>
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="13"/>
@@ -4894,11 +6863,11 @@
     <row r="106" spans="1:5">
       <c r="B106" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44110</v>
+        <v>44112</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="10"/>
-        <v>655</v>
+        <v>445</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="15"/>
@@ -4913,11 +6882,11 @@
       <c r="A107" s="7"/>
       <c r="B107" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44109</v>
+        <v>44111</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="10"/>
-        <v>453</v>
+        <v>578</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="15"/>
@@ -4932,11 +6901,11 @@
       <c r="A108" s="3"/>
       <c r="B108" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44108</v>
+        <v>44110</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="10"/>
-        <v>294</v>
+        <v>655</v>
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="15"/>
@@ -4950,19 +6919,19 @@
     <row r="109" spans="1:5">
       <c r="A109">
         <f ca="1">SUM(C109:C115)</f>
-        <v>1731</v>
+        <v>2138</v>
       </c>
       <c r="B109" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44107</v>
+        <v>44109</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="10"/>
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="13"/>
@@ -4972,15 +6941,15 @@
     <row r="110" spans="1:5">
       <c r="A110" s="9" t="str">
         <f ca="1">TEXT(A109/A116-1,"0 %")</f>
-        <v>13 %</v>
+        <v>42 %</v>
       </c>
       <c r="B110" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44106</v>
+        <v>44108</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="15"/>
@@ -4994,15 +6963,15 @@
     <row r="111" spans="1:5">
       <c r="B111" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44105</v>
+        <v>44107</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="10"/>
-        <v>203</v>
+        <v>463</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="13"/>
@@ -5012,11 +6981,11 @@
     <row r="112" spans="1:5">
       <c r="B112" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44104</v>
+        <v>44106</v>
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="10"/>
-        <v>318</v>
+        <v>169</v>
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="15"/>
@@ -5030,11 +6999,11 @@
     <row r="113" spans="1:5">
       <c r="B113" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44103</v>
+        <v>44105</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="15"/>
@@ -5048,11 +7017,11 @@
     <row r="114" spans="1:5">
       <c r="B114" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44102</v>
+        <v>44104</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>318</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="15"/>
@@ -5066,11 +7035,11 @@
     <row r="115" spans="1:5">
       <c r="B115" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44101</v>
+        <v>44103</v>
       </c>
       <c r="C115">
         <f t="shared" ref="C115" ca="1" si="17">VLOOKUP(B115,data,2,FALSE)</f>
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="D115">
         <f t="shared" ref="D115" ca="1" si="18">VLOOKUP(B115,data,3,FALSE)</f>
@@ -5084,15 +7053,15 @@
     <row r="116" spans="1:5">
       <c r="A116">
         <f ca="1">SUM(C116:C122)</f>
-        <v>1529</v>
+        <v>1510</v>
       </c>
       <c r="B116" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44100</v>
+        <v>44102</v>
       </c>
       <c r="C116">
         <f t="shared" ref="C116:C118" ca="1" si="19">VLOOKUP(B116,data,2,FALSE)</f>
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="D116">
         <f t="shared" ref="D116:D118" ca="1" si="20">VLOOKUP(B116,data,3,FALSE)</f>
@@ -5106,19 +7075,19 @@
     <row r="117" spans="1:5">
       <c r="A117" s="9" t="str">
         <f ca="1">TEXT(A116/A123-1,"0 %")</f>
-        <v>86 %</v>
+        <v>47 %</v>
       </c>
       <c r="B117" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44099</v>
+        <v>44101</v>
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="19"/>
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="13"/>
@@ -5128,11 +7097,11 @@
     <row r="118" spans="1:5">
       <c r="B118" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44098</v>
+        <v>44100</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="19"/>
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="20"/>
@@ -5146,15 +7115,15 @@
     <row r="119" spans="1:5">
       <c r="B119" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44097</v>
+        <v>44099</v>
       </c>
       <c r="C119">
         <f t="shared" ref="C119:C123" ca="1" si="21">VLOOKUP(B119,data,2,FALSE)</f>
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="D119">
         <f t="shared" ref="D119:D127" ca="1" si="22">VLOOKUP(B119,data,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="13"/>
@@ -5164,11 +7133,11 @@
     <row r="120" spans="1:5">
       <c r="B120" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44096</v>
+        <v>44098</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="21"/>
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="22"/>
@@ -5182,11 +7151,11 @@
     <row r="121" spans="1:5">
       <c r="B121" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44095</v>
+        <v>44097</v>
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="21"/>
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="22"/>
@@ -5200,11 +7169,11 @@
     <row r="122" spans="1:5">
       <c r="B122" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44094</v>
+        <v>44096</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="21"/>
-        <v>202</v>
+        <v>311</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="22"/>
@@ -5218,15 +7187,15 @@
     <row r="123" spans="1:5">
       <c r="A123">
         <f ca="1">SUM(C123:C129)</f>
-        <v>824</v>
+        <v>1029</v>
       </c>
       <c r="B123" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="21"/>
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="22"/>
@@ -5240,11 +7209,11 @@
     <row r="124" spans="1:5">
       <c r="B124" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44092</v>
+        <v>44094</v>
       </c>
       <c r="C124">
         <f t="shared" ref="C124:C127" ca="1" si="23">IF(B124&lt;&gt;B123,VLOOKUP(B124,data,2,FALSE),"")</f>
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="22"/>
@@ -5258,11 +7227,11 @@
     <row r="125" spans="1:5">
       <c r="B125" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44091</v>
+        <v>44093</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="23"/>
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="22"/>
@@ -5276,11 +7245,11 @@
     <row r="126" spans="1:5">
       <c r="B126" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44090</v>
+        <v>44092</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="23"/>
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="22"/>
@@ -5294,11 +7263,11 @@
     <row r="127" spans="1:5">
       <c r="B127" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44089</v>
+        <v>44091</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="23"/>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="22"/>
@@ -5312,14 +7281,14 @@
     <row r="128" spans="1:5">
       <c r="B128" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="C128">
         <f t="shared" ref="C128:C136" ca="1" si="24">IF(B128&lt;&gt;B127,VLOOKUP(B128,data,2,FALSE),"")</f>
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="D128">
-        <f t="shared" ref="D128:D146" ca="1" si="25">VLOOKUP(B128,data,3,FALSE)</f>
+        <f t="shared" ref="D128:D136" ca="1" si="25">VLOOKUP(B128,data,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E128">
@@ -5330,11 +7299,11 @@
     <row r="129" spans="2:5">
       <c r="B129" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44087</v>
+        <v>44089</v>
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="24"/>
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="25"/>
@@ -5348,11 +7317,11 @@
     <row r="130" spans="2:5">
       <c r="B130" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="24"/>
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="25"/>
@@ -5366,11 +7335,11 @@
     <row r="131" spans="2:5">
       <c r="B131" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44085</v>
+        <v>44087</v>
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="24"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D131">
         <f t="shared" ca="1" si="25"/>
@@ -5384,11 +7353,11 @@
     <row r="132" spans="2:5">
       <c r="B132" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44084</v>
+        <v>44086</v>
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="24"/>
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D132">
         <f t="shared" ca="1" si="25"/>
@@ -5402,11 +7371,11 @@
     <row r="133" spans="2:5">
       <c r="B133" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="24"/>
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="D133">
         <f t="shared" ca="1" si="25"/>
@@ -5420,11 +7389,11 @@
     <row r="134" spans="2:5">
       <c r="B134" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44082</v>
+        <v>44084</v>
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="24"/>
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D134">
         <f t="shared" ca="1" si="25"/>
@@ -5438,11 +7407,11 @@
     <row r="135" spans="2:5">
       <c r="B135" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44081</v>
+        <v>44083</v>
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="24"/>
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D135">
         <f t="shared" ca="1" si="25"/>
@@ -5456,11 +7425,11 @@
     <row r="136" spans="2:5">
       <c r="B136" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44080</v>
+        <v>44082</v>
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="24"/>
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D136">
         <f t="shared" ca="1" si="25"/>
@@ -5474,11 +7443,11 @@
     <row r="137" spans="2:5">
       <c r="B137" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44079</v>
+        <v>44081</v>
       </c>
       <c r="C137">
         <f t="shared" ref="C137:C146" ca="1" si="27">IF(B137&lt;&gt;B136,VLOOKUP(B137,data,2,FALSE),"")</f>
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D137">
         <f t="shared" ref="D137:D146" ca="1" si="28">VLOOKUP(B137,data,3,FALSE)</f>
@@ -5492,11 +7461,11 @@
     <row r="138" spans="2:5">
       <c r="B138" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44078</v>
+        <v>44080</v>
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="27"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D138">
         <f t="shared" ca="1" si="28"/>
@@ -5510,11 +7479,11 @@
     <row r="139" spans="2:5">
       <c r="B139" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44077</v>
+        <v>44079</v>
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="27"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D139">
         <f t="shared" ca="1" si="28"/>
@@ -5528,11 +7497,11 @@
     <row r="140" spans="2:5">
       <c r="B140" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44077</v>
-      </c>
-      <c r="C140" t="str">
+        <v>44078</v>
+      </c>
+      <c r="C140">
         <f t="shared" ca="1" si="27"/>
-        <v/>
+        <v>19</v>
       </c>
       <c r="D140">
         <f t="shared" ca="1" si="28"/>
@@ -5548,9 +7517,9 @@
         <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
-      <c r="C141" t="str">
+      <c r="C141">
         <f t="shared" ca="1" si="27"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="D141">
         <f t="shared" ca="1" si="28"/>
@@ -5672,4 +7641,843 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
   <drawing r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B5B3C6-AB8C-4AE0-99A6-DAA8CF7B3349}">
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6"/>
+  <cols>
+    <col min="1" max="1" width="9.921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.84375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="11">
+        <v>44135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="11">
+        <v>44134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="11">
+        <v>44133</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="11">
+        <v>44132</v>
+      </c>
+      <c r="B5">
+        <v>367</v>
+      </c>
+      <c r="C5">
+        <v>222</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="11">
+        <v>44131</v>
+      </c>
+      <c r="B6">
+        <v>260</v>
+      </c>
+      <c r="C6">
+        <v>226</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11">
+        <v>44130</v>
+      </c>
+      <c r="B7">
+        <v>309</v>
+      </c>
+      <c r="C7">
+        <v>254</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11">
+        <v>44129</v>
+      </c>
+      <c r="B8">
+        <v>312</v>
+      </c>
+      <c r="C8">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="11">
+        <v>44128</v>
+      </c>
+      <c r="B9">
+        <v>329</v>
+      </c>
+      <c r="C9">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11">
+        <v>44127</v>
+      </c>
+      <c r="B10">
+        <v>486</v>
+      </c>
+      <c r="C10">
+        <v>192</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="11">
+        <v>44126</v>
+      </c>
+      <c r="B11">
+        <v>372</v>
+      </c>
+      <c r="C11">
+        <v>212</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="11">
+        <v>44125</v>
+      </c>
+      <c r="B12">
+        <v>446</v>
+      </c>
+      <c r="C12">
+        <v>189</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11">
+        <v>44124</v>
+      </c>
+      <c r="B13">
+        <v>386</v>
+      </c>
+      <c r="C13">
+        <v>162</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="11">
+        <v>44123</v>
+      </c>
+      <c r="B14">
+        <v>421</v>
+      </c>
+      <c r="C14">
+        <v>244</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="11">
+        <v>44122</v>
+      </c>
+      <c r="B15">
+        <v>535</v>
+      </c>
+      <c r="C15">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="11">
+        <v>44121</v>
+      </c>
+      <c r="B16">
+        <v>537</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="11">
+        <v>44120</v>
+      </c>
+      <c r="B17">
+        <v>639</v>
+      </c>
+      <c r="C17">
+        <v>192</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="11">
+        <v>44119</v>
+      </c>
+      <c r="B18">
+        <v>429</v>
+      </c>
+      <c r="C18">
+        <v>190</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="11">
+        <v>44118</v>
+      </c>
+      <c r="B19">
+        <v>559</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="11">
+        <v>44117</v>
+      </c>
+      <c r="B20">
+        <v>649</v>
+      </c>
+      <c r="C20">
+        <v>197</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="11">
+        <v>44116</v>
+      </c>
+      <c r="B21">
+        <v>691</v>
+      </c>
+      <c r="C21">
+        <v>254</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="11">
+        <v>44115</v>
+      </c>
+      <c r="B22">
+        <v>666</v>
+      </c>
+      <c r="C22">
+        <v>130</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="11">
+        <v>44114</v>
+      </c>
+      <c r="B23">
+        <v>720</v>
+      </c>
+      <c r="C23">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="11">
+        <v>44113</v>
+      </c>
+      <c r="B24">
+        <v>640</v>
+      </c>
+      <c r="C24">
+        <v>226</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="11">
+        <v>44112</v>
+      </c>
+      <c r="B25">
+        <v>445</v>
+      </c>
+      <c r="C25">
+        <v>260</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="11">
+        <v>44111</v>
+      </c>
+      <c r="B26">
+        <v>578</v>
+      </c>
+      <c r="C26">
+        <v>306</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="11">
+        <v>44110</v>
+      </c>
+      <c r="B27">
+        <v>655</v>
+      </c>
+      <c r="C27">
+        <v>301</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="11">
+        <v>44109</v>
+      </c>
+      <c r="B28">
+        <v>453</v>
+      </c>
+      <c r="C28">
+        <v>290</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="11">
+        <v>44108</v>
+      </c>
+      <c r="B29">
+        <v>294</v>
+      </c>
+      <c r="C29">
+        <v>147</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="11">
+        <v>44107</v>
+      </c>
+      <c r="B30">
+        <v>463</v>
+      </c>
+      <c r="C30">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="11">
+        <v>44106</v>
+      </c>
+      <c r="B31">
+        <v>169</v>
+      </c>
+      <c r="C31">
+        <v>189</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="11">
+        <v>44105</v>
+      </c>
+      <c r="B32">
+        <v>203</v>
+      </c>
+      <c r="C32">
+        <v>188</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="11">
+        <v>44104</v>
+      </c>
+      <c r="B33">
+        <v>318</v>
+      </c>
+      <c r="C33">
+        <v>165</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="11">
+        <v>44103</v>
+      </c>
+      <c r="B34">
+        <v>238</v>
+      </c>
+      <c r="C34">
+        <v>135</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="11">
+        <v>44102</v>
+      </c>
+      <c r="B35">
+        <v>199</v>
+      </c>
+      <c r="C35">
+        <v>122</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="11">
+        <v>44101</v>
+      </c>
+      <c r="B36">
+        <v>141</v>
+      </c>
+      <c r="C36">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="11">
+        <v>44100</v>
+      </c>
+      <c r="B37">
+        <v>242</v>
+      </c>
+      <c r="C37">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="11">
+        <v>44099</v>
+      </c>
+      <c r="B38">
+        <v>217</v>
+      </c>
+      <c r="C38">
+        <v>127</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="11">
+        <v>44098</v>
+      </c>
+      <c r="B39">
+        <v>211</v>
+      </c>
+      <c r="C39">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="11">
+        <v>44097</v>
+      </c>
+      <c r="B40">
+        <v>189</v>
+      </c>
+      <c r="C40">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="11">
+        <v>44096</v>
+      </c>
+      <c r="B41">
+        <v>311</v>
+      </c>
+      <c r="C41">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="11">
+        <v>44095</v>
+      </c>
+      <c r="B42">
+        <v>157</v>
+      </c>
+      <c r="C42">
+        <v>120</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="11">
+        <v>44094</v>
+      </c>
+      <c r="B43">
+        <v>202</v>
+      </c>
+      <c r="C43">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="11">
+        <v>44093</v>
+      </c>
+      <c r="B44">
+        <v>190</v>
+      </c>
+      <c r="C44">
+        <v>61</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="11">
+        <v>44092</v>
+      </c>
+      <c r="B45">
+        <v>82</v>
+      </c>
+      <c r="C45">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="11">
+        <v>44091</v>
+      </c>
+      <c r="B46">
+        <v>137</v>
+      </c>
+      <c r="C46">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="11">
+        <v>44090</v>
+      </c>
+      <c r="B47">
+        <v>125</v>
+      </c>
+      <c r="C47">
+        <v>57</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="11">
+        <v>44089</v>
+      </c>
+      <c r="B48">
+        <v>136</v>
+      </c>
+      <c r="C48">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="11">
+        <v>44088</v>
+      </c>
+      <c r="B49">
+        <v>67</v>
+      </c>
+      <c r="C49">
+        <v>59</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="11">
+        <v>44087</v>
+      </c>
+      <c r="B50">
+        <v>87</v>
+      </c>
+      <c r="C50">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="11">
+        <v>44086</v>
+      </c>
+      <c r="B51">
+        <v>46</v>
+      </c>
+      <c r="C51">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="11">
+        <v>44085</v>
+      </c>
+      <c r="B52">
+        <v>70</v>
+      </c>
+      <c r="C52">
+        <v>57</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="11">
+        <v>44084</v>
+      </c>
+      <c r="B53">
+        <v>75</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="11">
+        <v>44083</v>
+      </c>
+      <c r="B54">
+        <v>101</v>
+      </c>
+      <c r="C54">
+        <v>55</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="11">
+        <v>44082</v>
+      </c>
+      <c r="B55">
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="11">
+        <v>44081</v>
+      </c>
+      <c r="B56">
+        <v>46</v>
+      </c>
+      <c r="C56">
+        <v>45</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="11">
+        <v>44080</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="11">
+        <v>44079</v>
+      </c>
+      <c r="B58">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>22</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="11">
+        <v>44078</v>
+      </c>
+      <c r="B59">
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>42</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="11">
+        <v>44077</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>35</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D60">
+    <sortCondition descending="1" ref="D2:D60"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/all-exposure-checks/all-exposure-checks.xlsx
+++ b/all-exposure-checks/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\Covid-2019\excel-github\all-exposure-checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DA04B7-7209-4B6F-A04D-2C4331962F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D792EF6-2304-40EA-9968-425492BC140D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -274,7 +274,7 @@
     <t>COVID-19  tapauksia</t>
   </si>
   <si>
-    <t>[{"timestamp":"2. marraskuuta 2020 klo 9.00","keyCount":241,"matchesCount":0,"appName":"Koronavilkku","hash":"bDKcgFmXE\/dKf9gDsKDbRfkZ4ARh6mIzF6Zwgxnu0UE="},{"timestamp":"1. marraskuuta 2020 klo 8.58","keyCount":240,"matchesCount":0,"appName":"Koronavilkku","hash":"YXGW9r8u8QC7E4C\/ha3e4syXeMN6h24mTXBxoU\/xktg="},{"timestamp":"31. lokakuuta 2020 klo 6.26","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"+auwlRUBjwMUj9Zt18cSKN\/nJXa4QH4tjtEpsOsHvGQ="},{"timestamp":"30. lokakuuta 2020 klo 6.22","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"bBcjOzvbto3qcWqUykDf0FaMOIgCbg+sVYGquz6nLTA="},{"timestamp":"29. lokakuuta 2020 klo 6.09","keyCount":353,"matchesCount":0,"appName":"Koronavilkku","hash":"mJ7sSINsdoPvS2a9pLCQKtvOBsGbAUOMMCA5cIcpRSk="},{"timestamp":"28. lokakuuta 2020 klo 8.21","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"8dBdeK0Gwzy7W2jo5u6W5wnWCNeHuRzLfObXxwYDWYc="},{"timestamp":"27. lokakuuta 2020 klo 8.10","keyCount":260,"matchesCount":0,"appName":"Koronavilkku","hash":"+ohL5VuTmBUV6\/Z\/P+bkoV6gMjJkLLXIu9i2wnPtW7A="},{"timestamp":"26. lokakuuta 2020 klo 8.06","keyCount":309,"matchesCount":0,"appName":"Koronavilkku","hash":"o1jUaoLy7sjjnI6r87C9qbQfT0Pej3LoGAXxaVZqg+s="},{"timestamp":"25. lokakuuta 2020 klo 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24. lokakuuta 2020 klo 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23. lokakuuta 2020 klo 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22. lokakuuta 2020 klo 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21. lokakuuta 2020 klo 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20. lokakuuta 2020 klo 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19. lokakuuta 2020 klo 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="},{"timestamp":"18. lokakuuta 2020 klo 9.31","keyCount":535,"matchesCount":0,"appName":"Koronavilkku","hash":"EIpuRV\/e9fpKzd23tPt3\/o3Tr9kQO7MOf9C5cY\/EHzM="}]</t>
+    <t>[{"timestamp":"3. marraskuuta 2020 klo 9.24","keyCount":252,"matchesCount":0,"appName":"Koronavilkku","hash":"gtEOxlpGIvP2mhdQBeTTe7pCUEkjtVwJT2xH1puTtoM="},{"timestamp":"2. marraskuuta 2020 klo 9.00","keyCount":241,"matchesCount":0,"appName":"Koronavilkku","hash":"bDKcgFmXE\/dKf9gDsKDbRfkZ4ARh6mIzF6Zwgxnu0UE="},{"timestamp":"1. marraskuuta 2020 klo 8.58","keyCount":240,"matchesCount":0,"appName":"Koronavilkku","hash":"YXGW9r8u8QC7E4C\/ha3e4syXeMN6h24mTXBxoU\/xktg="},{"timestamp":"31. lokakuuta 2020 klo 6.26","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"+auwlRUBjwMUj9Zt18cSKN\/nJXa4QH4tjtEpsOsHvGQ="},{"timestamp":"30. lokakuuta 2020 klo 6.22","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"bBcjOzvbto3qcWqUykDf0FaMOIgCbg+sVYGquz6nLTA="},{"timestamp":"29. lokakuuta 2020 klo 6.09","keyCount":353,"matchesCount":0,"appName":"Koronavilkku","hash":"mJ7sSINsdoPvS2a9pLCQKtvOBsGbAUOMMCA5cIcpRSk="},{"timestamp":"28. lokakuuta 2020 klo 8.21","keyCount":367,"matchesCount":0,"appName":"Koronavilkku","hash":"8dBdeK0Gwzy7W2jo5u6W5wnWCNeHuRzLfObXxwYDWYc="},{"timestamp":"27. lokakuuta 2020 klo 8.10","keyCount":260,"matchesCount":0,"appName":"Koronavilkku","hash":"+ohL5VuTmBUV6\/Z\/P+bkoV6gMjJkLLXIu9i2wnPtW7A="},{"timestamp":"26. lokakuuta 2020 klo 8.06","keyCount":309,"matchesCount":0,"appName":"Koronavilkku","hash":"o1jUaoLy7sjjnI6r87C9qbQfT0Pej3LoGAXxaVZqg+s="},{"timestamp":"25. lokakuuta 2020 klo 7.49","keyCount":312,"matchesCount":1,"appName":"Koronavilkku","hash":"GUUoDaUnvZO6IxVI0IuSmtpSE3+EwuYNqEXaO3UenoI="},{"timestamp":"24. lokakuuta 2020 klo 8.43","keyCount":329,"matchesCount":0,"appName":"Koronavilkku","hash":"4uzgIxW5cNm\/JcDaONtRs\/mz7LrN+ZfLG9GorTyWnCo="},{"timestamp":"23. lokakuuta 2020 klo 8.39","keyCount":486,"matchesCount":0,"appName":"Koronavilkku","hash":"FG6whfiUykRhyZcw\/b7oWQ892JakonInzmJ6IqXjtrI="},{"timestamp":"22. lokakuuta 2020 klo 8.35","keyCount":372,"matchesCount":0,"appName":"Koronavilkku","hash":"2GDDsye3s1WgxcGhmfTzdq\/45ZCWZR6yL39j72uzYyY="},{"timestamp":"21. lokakuuta 2020 klo 8.20","keyCount":446,"matchesCount":0,"appName":"Koronavilkku","hash":"q1zpJVTVB439LY2vZRRGKtgNS52GqM5LLPAyPyaIXzg="},{"timestamp":"20. lokakuuta 2020 klo 8.05","keyCount":386,"matchesCount":0,"appName":"Koronavilkku","hash":"PFSjFacJU4O8C2ZDn8\/7W3eowqohyoy6AE6jRXGi86k="},{"timestamp":"19. lokakuuta 2020 klo 9.37","keyCount":421,"matchesCount":0,"appName":"Koronavilkku","hash":"jslX\/qrkUHp0DgI3UBBg99Jopckq\/CjkShI5hGk7K5s="}]</t>
   </si>
 </sst>
 </file>
@@ -561,46 +561,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>3. marraskuuta</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2. marraskuuta</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1. marraskuuta</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>31. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>30. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>29. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>28. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>27. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>26. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>25. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>24. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>23. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>22. lokakuuta</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>21. lokakuuta</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20. lokakuuta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -612,46 +612,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>241</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>240</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>353</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>446</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -854,7 +854,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>2.11.2020 uusia #koronavilkku päiväavaimia 241.</c:v>
+              <c:v>3.11.2020 uusia #koronavilkku päiväavaimia 252.</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -941,7 +941,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -1340,187 +1340,187 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44137</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44136</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44135</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44134</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44133</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44132</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44131</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44130</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44129</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44128</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44127</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44126</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44125</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44124</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44123</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44122</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44121</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44120</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44119</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44118</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44117</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44116</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44115</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44113</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44112</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44111</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44110</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>44108</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44106</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>44104</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>44077</c:v>
@@ -1547,190 +1547,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>241</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>240</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>353</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>537</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>559</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>655</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0</c:v>
@@ -5083,8 +5083,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -5110,11 +5110,11 @@
       </c>
       <c r="G2">
         <f ca="1">SUM(AllKeys)</f>
-        <v>18279</v>
+        <v>18531</v>
       </c>
       <c r="H2" s="10">
         <f ca="1">G2/7</f>
-        <v>2611.2857142857142</v>
+        <v>2647.2857142857142</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -5153,15 +5153,15 @@
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>2. marraskuuta</v>
+        <v>3. marraskuuta</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -5195,15 +5195,15 @@
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1. marraskuuta</v>
+        <v>2. marraskuuta</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -5211,41 +5211,41 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>31. lokakuuta</v>
+        <v>1. marraskuuta</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44135</v>
+        <v>44136</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>372</v>
+        <v>240</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -5253,41 +5253,41 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>30. lokakuuta</v>
+        <v>31. lokakuuta</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44134</v>
+        <v>44135</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -5321,15 +5321,15 @@
     <row r="13" spans="1:12">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>29. lokakuuta</v>
+        <v>30. lokakuuta</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -5337,41 +5337,41 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>28. lokakuuta</v>
+        <v>29. lokakuuta</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -5379,41 +5379,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>27. lokakuuta</v>
+        <v>28. lokakuuta</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -5421,41 +5421,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26. lokakuuta</v>
+        <v>27. lokakuuta</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -5463,125 +5463,125 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25. lokakuuta</v>
+        <v>26. lokakuuta</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24. lokak